--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D30D96-6CAF-994E-81D2-4471F4B1CDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709953F0-285C-0945-B9F8-74807E27210B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <definedName name="Action_Values" localSheetId="21">'LB Rule Set Dropdown'!$A$2:$A$12</definedName>
     <definedName name="Allowed_Methods" localSheetId="21">'LB Rule Set Dropdown'!$B$2:$B$41</definedName>
     <definedName name="Attribute_Names" localSheetId="21">'LB Rule Set Dropdown'!$D$2:$D$5</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="25">[1]Database_Dropdown!#REF!</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="25">#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="29">Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="10">[2]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="6">[3]Database_Dropdown!$F$2:$F$3</definedName>
@@ -72,7 +72,7 @@
     <definedName name="bm_shapes_drop" localSheetId="24">[6]Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="23">[6]Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop">#REF!</definedName>
-    <definedName name="char_set" localSheetId="25">[1]Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="25">#REF!</definedName>
     <definedName name="char_set" localSheetId="29">Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set" localSheetId="10">[2]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="6">[3]Database_Dropdown!$I$2:$I$108</definedName>
@@ -82,7 +82,7 @@
     <definedName name="char_set" localSheetId="23">[6]Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set">#REF!</definedName>
     <definedName name="D3D1000">'DBSystems-VM-BM'!$D$3</definedName>
-    <definedName name="db_sersion_drop" localSheetId="25">[1]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="25">#REF!</definedName>
     <definedName name="db_sersion_drop" localSheetId="29">Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="10">[2]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="6">[3]Database_Dropdown!$C$2:$C$14</definedName>
@@ -108,7 +108,7 @@
     <definedName name="Header_Size" localSheetId="24">'[6]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="23">'[6]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="license_type_drop" localSheetId="25">[1]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="license_type_drop" localSheetId="25">#REF!</definedName>
     <definedName name="license_type_drop" localSheetId="29">Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="license_type_drop" localSheetId="10">[2]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="6">[3]Database_Dropdown!$G$2:$G$3</definedName>
@@ -119,7 +119,7 @@
     <definedName name="license_type_drop">#REF!</definedName>
     <definedName name="Match_Style" localSheetId="22">'LB Rule Set Dropdown'!$C$2:$C$6</definedName>
     <definedName name="Match_Style" localSheetId="21">'LB Rule Set Dropdown'!$C$2:$C$6</definedName>
-    <definedName name="nchar_set" localSheetId="25">[1]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="25">#REF!</definedName>
     <definedName name="nchar_set" localSheetId="29">Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set" localSheetId="10">[2]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="6">[3]Database_Dropdown!$H$2:$H$3</definedName>
@@ -148,7 +148,7 @@
     <definedName name="Shape_Option" localSheetId="23">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
     <definedName name="Shape_Option_DB">[7]Database!$B$10:$J$10</definedName>
-    <definedName name="software_drop" localSheetId="25">[1]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="25">#REF!</definedName>
     <definedName name="software_drop" localSheetId="29">Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="10">[2]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="6">[3]Database_Dropdown!$B$2:$B$5</definedName>
@@ -161,7 +161,7 @@
     <definedName name="VM_Shapes" localSheetId="10">#REF!</definedName>
     <definedName name="VM_Shapes" localSheetId="6">#REF!</definedName>
     <definedName name="VM_Shapes">'DBSystems-VM-BM'!$AB$394:$AB$404</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="25">[1]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="25">#REF!</definedName>
     <definedName name="VM_shapes_drop" localSheetId="29">Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="10">[2]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="6">[3]Database_Dropdown!$A$2:$A$7</definedName>
@@ -170,7 +170,7 @@
     <definedName name="VM_shapes_drop" localSheetId="24">[6]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="23">[6]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop">#REF!</definedName>
-    <definedName name="workload_drop" localSheetId="25">[1]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="25">#REF!</definedName>
     <definedName name="workload_drop" localSheetId="29">Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="10">[2]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="6">[3]Database_Dropdown!$D$2:$D$3</definedName>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1123">
   <si>
     <t>Region</t>
   </si>
@@ -4695,211 +4695,6 @@
     <t>/fss4</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Tool Kit does not support Export or Creation of Instances with multiple VNICs currently.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Pub Address" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Represents whether public address needs to be assigned to the instance or not(TRUE|FALSE).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"SSH Key Var Name" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NSGs" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DedicatedVMHost" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave this field empty if the instance does not need to be launched on dedicated vm host.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Source Details" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Specify if the instance is to be launched from Image or Boot Volume.
-                                    Format - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>image::&lt;variable containing image ocid&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (or)  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bootVolume::&lt;variable  containing boot volume ocid&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>DRG Name</t>
   </si>
   <si>
@@ -7876,14 +7671,273 @@
   <si>
     <t>adb123db</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Tool Kit does not support Export or Creation of Instances with multiple VNICs currently. CD3 Automation toolkit will not export instances launched by OKE.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Pub Address" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Represents whether public address needs to be assigned to the instance or not(TRUE|FALSE).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"SSH Key Var Name" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NSGs" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DedicatedVMHost" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave this field empty if the instance does not need to be launched on dedicated vm host.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Source Details" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Specify if the instance is to be launched from Image or Boot Volume.
+                                    Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image::&lt;variable containing image ocid&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (or) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>image::&lt;variable containing the market place image name</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (or)  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bootVolume::&lt;variable  containing boot volume ocid&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>PaloAlto</t>
+  </si>
+  <si>
+    <t>PHXTCC-VCN_fwl-subnet</t>
+  </si>
+  <si>
+    <t>image::PaloAlto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -8116,6 +8170,11 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -8420,9 +8479,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8434,58 +8493,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8501,12 +8560,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8515,11 +8574,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8531,33 +8590,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8567,84 +8626,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8652,14 +8711,14 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -8675,24 +8734,24 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8701,7 +8760,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8710,25 +8769,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8737,7 +8796,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8746,6 +8805,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -8797,7 +8857,6 @@
       <sheetName val="DBSystems-VM-BM"/>
       <sheetName val="EXA-Infra"/>
       <sheetName val="EXA-VMClusters"/>
-      <sheetName val="Database_Dropdown"/>
       <sheetName val="drop_down_rule_set"/>
       <sheetName val="LB Rule Set Dropdown"/>
       <sheetName val="drop_down_rule_comp"/>
@@ -8832,632 +8891,8 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
-      <sheetData sheetId="29">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v xml:space="preserve">11.2.0.4 </v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>OLTP</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>LICENSE_INCLUDED</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>AL16UTF16</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>AL32UTF8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VM.Standard1.1</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>STANDARD_EDITION</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>12.1.0.2</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>DSS</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>BRING_YOUR_OWN_LICENSE</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>UTF8</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>AR8ADOS710</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>VM.Standard1.2</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ENTERPRISE_EDITION</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>12.2.0.1</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>AR8ADOS720</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>ENTERPRISE_EDITION_HIGH_PERFORMANCE</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>18.0.0.0</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>AR8APTEC715</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v xml:space="preserve">18.12.0.0 </v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>AR8ARABICMACS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>VM.Standard1.4</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>18.13.0.0</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>AR8ASMO8X</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>18.14.0.0</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>AR8ISO8859P6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>19.0.0.0</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>AR8MSWIN1256</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>19.10.0.0</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>AR8MUSSAD768</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v xml:space="preserve">19.11.0.0 </v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>AR8NAFITHA711</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>19.12.0.0</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>AR8NAFITHA721</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>21.0.0.0</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>AR8SAKHR706</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>21.3.0.0</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v>AR8SAKHR707</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15" t="str">
-            <v>AZ8ISO8859P9E</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16" t="str">
-            <v>BG8MSWIN</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17" t="str">
-            <v>BG8PC437S</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18" t="str">
-            <v>BLT8CP921</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="H19" t="str">
-            <v>BLT8ISO8859P13</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="H20" t="str">
-            <v>BLT8MSWIN1257</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21" t="str">
-            <v>BLT8PC775</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22" t="str">
-            <v>BN8BSCII</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23" t="str">
-            <v>CDN8PC863</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24" t="str">
-            <v>CEL8ISO8859P14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25" t="str">
-            <v>CL8ISO8859P5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="H26" t="str">
-            <v>CL8ISOIR111</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="H27" t="str">
-            <v>CL8KOI8R</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="H28" t="str">
-            <v>CL8KOI8U</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="H29" t="str">
-            <v>CL8MACCYRILLICS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="H30" t="str">
-            <v>CL8MSWIN1251</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="H31" t="str">
-            <v>EE8ISO8859P2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="H32" t="str">
-            <v>EE8MACCES</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="H33" t="str">
-            <v>EE8MACCROATIANS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="H34" t="str">
-            <v>EE8MSWIN1250</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="H35" t="str">
-            <v>EE8PC852</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36" t="str">
-            <v>EL8DEC</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37" t="str">
-            <v>EL8ISO8859P7</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38" t="str">
-            <v>EL8MACGREEKS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39" t="str">
-            <v>EL8MSWIN1253</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40" t="str">
-            <v>EL8PC437S</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="H41" t="str">
-            <v>EL8PC851</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="H42" t="str">
-            <v>EL8PC869</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="H43" t="str">
-            <v>ET8MSWIN923</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="H44" t="str">
-            <v>HU8ABMOD</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="H45" t="str">
-            <v>HU8CWI2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="H46" t="str">
-            <v>IN8ISCII</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="H47" t="str">
-            <v>IS8PC861</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="H48" t="str">
-            <v>IW8ISO8859P8</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="H49" t="str">
-            <v>IW8MACHEBREWS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="H50" t="str">
-            <v>IW8MSWIN1255</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="H51" t="str">
-            <v>IW8PC1507</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="H52" t="str">
-            <v>JA16EUC</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="H53" t="str">
-            <v>JA16EUCTILDE</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="H54" t="str">
-            <v>JA16SJIS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="H55" t="str">
-            <v>JA16SJISTILDE</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="H56" t="str">
-            <v>JA16VMS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="H57" t="str">
-            <v>KO16KSC5601</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="H58" t="str">
-            <v>KO16KSCCS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="H59" t="str">
-            <v>KO16MSWIN949</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="H60" t="str">
-            <v>LA8ISO6937</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="H61" t="str">
-            <v>LA8PASSPORT</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="H62" t="str">
-            <v>LT8MSWIN921</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="H63" t="str">
-            <v>LT8PC772</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="H64" t="str">
-            <v>LT8PC774</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="H65" t="str">
-            <v>LV8PC1117</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="H66" t="str">
-            <v>LV8PC8LR</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="H67" t="str">
-            <v>LV8RST104090</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="H68" t="str">
-            <v>N8PC865</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="H69" t="str">
-            <v>NE8ISO8859P10</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="H70" t="str">
-            <v>NEE8ISO8859P4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="H71" t="str">
-            <v>RU8BESTA</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="H72" t="str">
-            <v>RU8PC855</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="H73" t="str">
-            <v>RU8PC866</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="H74" t="str">
-            <v>SE8ISO8859P3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="H75" t="str">
-            <v>TH8MACTHAIS</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="H76" t="str">
-            <v>TH8TISASCII</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="H77" t="str">
-            <v>TR8DEC</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="H78" t="str">
-            <v>TR8MACTURKISHS</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="H79" t="str">
-            <v>TR8MSWIN1254</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="H80" t="str">
-            <v>TR8PC857</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="H81" t="str">
-            <v>US7ASCII</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="H82" t="str">
-            <v>US8PC437</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="H83" t="str">
-            <v>UTF8</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="H84" t="str">
-            <v>VN8MSWIN1258</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="H85" t="str">
-            <v>VN8VN3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="H86" t="str">
-            <v>WE8DEC</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="H87" t="str">
-            <v>WE8DG</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="H88" t="str">
-            <v>WE8ISO8859P1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="H89" t="str">
-            <v>WE8ISO8859P15</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="H90" t="str">
-            <v>WE8ISO8859P9</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="H91" t="str">
-            <v>WE8MACROMAN8S</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="H92" t="str">
-            <v>WE8MSWIN1252</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="H93" t="str">
-            <v>WE8NCR4970</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="H94" t="str">
-            <v>WE8NEXTSTEP</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="H95" t="str">
-            <v>WE8PC850</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="H96" t="str">
-            <v>WE8PC858</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="H97" t="str">
-            <v>WE8PC860</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="H98" t="str">
-            <v>WE8ROMAN8</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="H99" t="str">
-            <v>ZHS16CGB231280</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="H100" t="str">
-            <v>ZHS16GBK</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="H101" t="str">
-            <v>ZHT16BIG5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="H102" t="str">
-            <v>ZHT16CCDC</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="H103" t="str">
-            <v>ZHT16DBT</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="H104" t="str">
-            <v>ZHT16HKSCS</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="H105" t="str">
-            <v>ZHT16MSWIN950</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="H106" t="str">
-            <v>ZHT32EUC</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="H107" t="str">
-            <v>ZHT32SOPS</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="H108" t="str">
-            <v>ZHT32TRIS</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31">
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
         <row r="2">
           <cell r="E2">
             <v>301</v>
@@ -9496,7 +8931,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="32"/>
+      <sheetData sheetId="31"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13767,7 +13202,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
@@ -13894,10 +13329,10 @@
         <v>356</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>50</v>
@@ -13942,10 +13377,10 @@
         <v>356</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>626</v>
@@ -13990,13 +13425,13 @@
         <v>356</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>51</v>
@@ -14385,7 +13820,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -14405,25 +13840,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>672</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>673</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>431</v>
@@ -15874,7 +15309,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15903,7 +15338,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="126" t="s">
-        <v>669</v>
+        <v>1119</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -15913,7 +15348,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="128"/>
       <c r="I1" s="118" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J1" s="119"/>
       <c r="K1" s="119"/>
@@ -15959,16 +15394,16 @@
         <v>85</v>
       </c>
       <c r="K2" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>846</v>
       </c>
-      <c r="L2" s="29" t="s">
-        <v>847</v>
-      </c>
       <c r="M2" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>851</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>852</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>95</v>
@@ -16000,19 +15435,19 @@
         <v>56</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>355</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G3" s="37" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I3" s="37" t="s">
         <v>451</v>
@@ -16168,7 +15603,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>56</v>
@@ -16189,13 +15624,13 @@
       <c r="I7" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="J7" s="102" t="s">
+      <c r="J7" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
       <c r="O7" s="64" t="s">
         <v>103</v>
       </c>
@@ -16208,6 +15643,52 @@
       </c>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
+    </row>
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G8" s="64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J8" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="P10" s="79"/>
@@ -16226,49 +15707,49 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F500</xm:sqref>
+          <xm:sqref>F3:F6 F9:F500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0F00-000003000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q500 B3:B500</xm:sqref>
+          <xm:sqref>B9:B500 B3:B6 Q3:Q6 Q9:Q500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-000006000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S500</xm:sqref>
+          <xm:sqref>S3:S6 S9:S500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000C000000}">
           <x14:formula1>
             <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P500</xm:sqref>
+          <xm:sqref>P3:P6 P9:P500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option" xr:uid="{00000000-0002-0000-0F00-00000D000000}">
           <x14:formula1>
             <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G500</xm:sqref>
+          <xm:sqref>G3:G6 G9:G500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid Option" xr:uid="{00000000-0002-0000-0F00-00000E000000}">
           <x14:formula1>
             <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E3:E500</xm:sqref>
+          <xm:sqref>E3:E6 E9:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid option selected" xr:uid="{00000000-0002-0000-0F00-00000F000000}">
           <x14:formula1>
             <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C500</xm:sqref>
+          <xm:sqref>C3:C6 C9:C500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region" xr:uid="{00000000-0002-0000-0F00-000010000000}">
           <x14:formula1>
             <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A500</xm:sqref>
+          <xm:sqref>A3:A6 A9:A500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16339,10 +15820,10 @@
         <v>109</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>96</v>
@@ -16393,7 +15874,7 @@
         <v>110</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I4" s="103" t="b">
         <v>1</v>
@@ -16705,7 +16186,7 @@
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="35" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -17054,13 +16535,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>694</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>695</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>139</v>
@@ -17072,7 +16553,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>141</v>
@@ -17570,7 +17051,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -17605,16 +17086,16 @@
         <v>138</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>157</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>158</v>
@@ -17918,7 +17399,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -17960,10 +17441,10 @@
         <v>244</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>245</v>
@@ -19032,7 +18513,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -19054,19 +18535,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>245</v>
@@ -19075,7 +18556,7 @@
         <v>157</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K2" s="30" t="s">
         <v>246</v>
@@ -19102,16 +18583,16 @@
     </row>
     <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="65" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B4" s="65" t="s">
         <v>356</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E4" s="65" t="b">
         <v>0</v>
@@ -19119,13 +18600,13 @@
       <c r="F4" s="65"/>
       <c r="G4" s="65"/>
       <c r="H4" s="65" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K4" s="65">
         <v>7003</v>
@@ -19134,34 +18615,34 @@
     </row>
     <row r="5" spans="1:12" s="100" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B5" s="65" t="s">
         <v>356</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E5" s="65" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="K5" s="65">
         <v>53</v>
@@ -19177,13 +18658,13 @@
       <c r="F6" s="65"/>
       <c r="G6" s="65"/>
       <c r="H6" s="65" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K6" s="65">
         <v>22</v>
@@ -19503,7 +18984,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -19524,19 +19005,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>157</v>
       </c>
       <c r="E2" s="30" t="s">
+        <v>887</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>888</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>889</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>890</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>160</v>
@@ -19548,7 +19029,7 @@
         <v>466</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -19568,19 +19049,19 @@
     </row>
     <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="65" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B4" s="65" t="s">
         <v>356</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F4" s="65" t="b">
         <v>0</v>
@@ -19592,36 +19073,36 @@
         <v>7003</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J4" s="65">
         <v>10000</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B5" s="65" t="s">
         <v>356</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F5" s="65" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H5" s="65">
         <v>53</v>
@@ -19631,7 +19112,7 @@
         <v>10000</v>
       </c>
       <c r="K5" s="65" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19639,16 +19120,16 @@
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F6" s="65" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H6" s="65">
         <v>22</v>
@@ -19658,7 +19139,7 @@
         <v>20000</v>
       </c>
       <c r="K6" s="65" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -19697,7 +19178,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -19723,34 +19204,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>315</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H2" s="115" t="s">
         <v>316</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>1116</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>1117</v>
-      </c>
       <c r="L2" s="61" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M2" s="60" t="s">
         <v>321</v>
@@ -19793,14 +19274,14 @@
         <v>582</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="64" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G4" s="64"/>
       <c r="H4" s="109" t="s">
@@ -19926,31 +19407,31 @@
         <v>39</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="60" t="s">
+        <v>760</v>
+      </c>
+      <c r="H2" s="60" t="s">
         <v>761</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="I2" s="60" t="s">
         <v>762</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="J2" s="60" t="s">
         <v>763</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="K2" s="80" t="s">
         <v>764</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="L2" s="60" t="s">
         <v>765</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="M2" s="61" t="s">
         <v>766</v>
-      </c>
-      <c r="M2" s="61" t="s">
-        <v>767</v>
       </c>
       <c r="N2" s="60" t="s">
         <v>412</v>
@@ -19968,10 +19449,10 @@
         <v>415</v>
       </c>
       <c r="S2" s="60" t="s">
+        <v>767</v>
+      </c>
+      <c r="T2" s="60" t="s">
         <v>768</v>
-      </c>
-      <c r="T2" s="60" t="s">
-        <v>769</v>
       </c>
       <c r="U2" s="60" t="s">
         <v>95</v>
@@ -19983,7 +19464,7 @@
         <v>322</v>
       </c>
       <c r="X2" s="60" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Y2" s="60" t="s">
         <v>576</v>
@@ -20037,10 +19518,10 @@
         <v>56</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>800</v>
+      </c>
+      <c r="E4" s="108" t="s">
         <v>801</v>
-      </c>
-      <c r="E4" s="108" t="s">
-        <v>802</v>
       </c>
       <c r="F4" s="109" t="s">
         <v>339</v>
@@ -20063,7 +19544,7 @@
         <v>328</v>
       </c>
       <c r="N4" s="109" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O4" s="109" t="s">
         <v>329</v>
@@ -20112,10 +19593,10 @@
         <v>90</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E5" s="108" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F5" s="109" t="s">
         <v>342</v>
@@ -20140,7 +19621,7 @@
         <v>328</v>
       </c>
       <c r="N5" s="109" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O5" s="109" t="s">
         <v>344</v>
@@ -26232,7 +25713,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -26250,7 +25731,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>84</v>
@@ -26259,10 +25740,10 @@
         <v>85</v>
       </c>
       <c r="F2" s="80" t="s">
+        <v>780</v>
+      </c>
+      <c r="G2" s="80" t="s">
         <v>781</v>
-      </c>
-      <c r="G2" s="80" t="s">
-        <v>782</v>
       </c>
       <c r="H2" s="83" t="s">
         <v>431</v>
@@ -26294,7 +25775,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="109" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F4" s="65">
         <v>2</v>
@@ -32378,34 +31859,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D2" s="61" t="s">
+        <v>783</v>
+      </c>
+      <c r="E2" s="80" t="s">
         <v>784</v>
-      </c>
-      <c r="E2" s="80" t="s">
-        <v>785</v>
       </c>
       <c r="F2" s="80" t="s">
         <v>346</v>
       </c>
       <c r="G2" s="80" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I2" s="80" t="s">
         <v>412</v>
       </c>
       <c r="J2" s="80" t="s">
+        <v>785</v>
+      </c>
+      <c r="K2" s="80" t="s">
         <v>786</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="L2" s="80" t="s">
         <v>787</v>
-      </c>
-      <c r="L2" s="80" t="s">
-        <v>788</v>
       </c>
       <c r="M2" s="80" t="s">
         <v>95</v>
@@ -32417,7 +31898,7 @@
         <v>97</v>
       </c>
       <c r="P2" s="94" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="Q2" s="87" t="s">
         <v>431</v>
@@ -32461,13 +31942,13 @@
         <v>419</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G4" s="112">
         <v>4</v>
@@ -32476,7 +31957,7 @@
         <v>328</v>
       </c>
       <c r="I4" s="113" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J4" s="113" t="s">
         <v>424</v>
@@ -39369,10 +38850,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>899</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>900</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>901</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -39460,10 +38941,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>677</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>678</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -39473,10 +38954,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="35" t="s">
+        <v>797</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>798</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>799</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -39493,13 +38974,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="35" t="s">
+        <v>901</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>902</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="D14" s="35" t="s">
         <v>903</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>904</v>
       </c>
       <c r="E14" s="35"/>
     </row>
@@ -39508,13 +38989,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="35" t="s">
+        <v>904</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>905</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="D15" s="35" t="s">
         <v>906</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>907</v>
       </c>
       <c r="E15" s="35"/>
     </row>
@@ -39523,13 +39004,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>907</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>908</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="35" t="s">
         <v>909</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>910</v>
       </c>
       <c r="E16" s="35"/>
     </row>
@@ -39538,13 +39019,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="35" t="s">
+        <v>910</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>911</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="D17" s="35" t="s">
         <v>912</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>913</v>
       </c>
       <c r="E17" s="35"/>
     </row>
@@ -39605,22 +39086,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C1" s="54" t="s">
         <v>420</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E1" s="48" t="s">
         <v>348</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G1" s="55" t="s">
         <v>322</v>
@@ -39629,16 +39110,16 @@
         <v>321</v>
       </c>
       <c r="I1" s="82" t="s">
+        <v>764</v>
+      </c>
+      <c r="J1" s="82" t="s">
         <v>765</v>
       </c>
-      <c r="J1" s="82" t="s">
-        <v>766</v>
-      </c>
       <c r="K1" s="55" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L1" s="54" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -39670,7 +39151,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K2" s="37">
         <v>1</v>
@@ -39681,7 +39162,7 @@
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="81" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>422</v>
@@ -39708,7 +39189,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K3" s="37">
         <v>2</v>
@@ -39719,7 +39200,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="81" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>343</v>
@@ -39736,7 +39217,7 @@
         <v>468</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -39744,7 +39225,7 @@
         <v>339</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>423</v>
@@ -39758,7 +39239,7 @@
         <v>469</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -39767,7 +39248,7 @@
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
@@ -39780,11 +39261,11 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="81" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="s">
@@ -39797,11 +39278,11 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="81" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
@@ -39835,7 +39316,7 @@
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
@@ -39848,11 +39329,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="81" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
@@ -39869,11 +39350,11 @@
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F12" s="37"/>
       <c r="H12" s="37" t="s">
@@ -39886,7 +39367,7 @@
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -39901,7 +39382,7 @@
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="37" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -40435,91 +39916,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="70" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
+        <v>696</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>697</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="C1" s="78" t="s">
         <v>698</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="D1" s="78" t="s">
         <v>699</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="E1" s="78" t="s">
         <v>700</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="F1" s="78" t="s">
         <v>701</v>
-      </c>
-      <c r="F1" s="78" t="s">
-        <v>702</v>
       </c>
       <c r="G1" s="78" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="78" t="s">
+        <v>702</v>
+      </c>
+      <c r="I1" s="78" t="s">
         <v>703</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="J1" s="78" t="s">
         <v>704</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="K1" s="78" t="s">
         <v>705</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="L1" s="78" t="s">
         <v>706</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="M1" s="78" t="s">
+        <v>754</v>
+      </c>
+      <c r="N1" s="78" t="s">
         <v>707</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="O1" s="78" t="s">
+        <v>708</v>
+      </c>
+      <c r="P1" s="78" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q1" s="78" t="s">
+        <v>710</v>
+      </c>
+      <c r="R1" s="78" t="s">
+        <v>711</v>
+      </c>
+      <c r="S1" s="78" t="s">
+        <v>712</v>
+      </c>
+      <c r="T1" s="78" t="s">
+        <v>756</v>
+      </c>
+      <c r="U1" s="78" t="s">
+        <v>713</v>
+      </c>
+      <c r="V1" s="69" t="s">
+        <v>714</v>
+      </c>
+      <c r="W1" s="69" t="s">
+        <v>715</v>
+      </c>
+      <c r="X1" s="69" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y1" s="78" t="s">
         <v>755</v>
-      </c>
-      <c r="N1" s="78" t="s">
-        <v>708</v>
-      </c>
-      <c r="O1" s="78" t="s">
-        <v>709</v>
-      </c>
-      <c r="P1" s="78" t="s">
-        <v>710</v>
-      </c>
-      <c r="Q1" s="78" t="s">
-        <v>711</v>
-      </c>
-      <c r="R1" s="78" t="s">
-        <v>712</v>
-      </c>
-      <c r="S1" s="78" t="s">
-        <v>713</v>
-      </c>
-      <c r="T1" s="78" t="s">
-        <v>757</v>
-      </c>
-      <c r="U1" s="78" t="s">
-        <v>714</v>
-      </c>
-      <c r="V1" s="69" t="s">
-        <v>715</v>
-      </c>
-      <c r="W1" s="69" t="s">
-        <v>716</v>
-      </c>
-      <c r="X1" s="69" t="s">
-        <v>717</v>
-      </c>
-      <c r="Y1" s="78" t="s">
-        <v>756</v>
       </c>
       <c r="Z1" s="69" t="s">
         <v>85</v>
       </c>
       <c r="AA1" s="69" t="s">
+        <v>717</v>
+      </c>
+      <c r="AB1" s="69" t="s">
         <v>718</v>
       </c>
-      <c r="AB1" s="69" t="s">
+      <c r="AC1" s="69" t="s">
         <v>719</v>
-      </c>
-      <c r="AC1" s="69" t="s">
-        <v>720</v>
       </c>
       <c r="AD1" s="69" t="s">
         <v>252</v>
@@ -40540,7 +40021,7 @@
         <v>257</v>
       </c>
       <c r="AJ1" s="69" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AK1" s="69" t="s">
         <v>317</v>
@@ -40572,7 +40053,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2" s="72" t="s">
         <v>38</v>
@@ -40601,7 +40082,7 @@
         <v>78</v>
       </c>
       <c r="P2" s="73" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q2" s="72" t="s">
         <v>355</v>
@@ -40621,13 +40102,13 @@
         <v>Bastion</v>
       </c>
       <c r="V2" s="72" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="W2" s="72" t="s">
         <v>129</v>
       </c>
       <c r="X2" s="72" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="Y2" s="72" t="b">
         <v>1</v>
@@ -40636,7 +40117,7 @@
         <v>147</v>
       </c>
       <c r="AA2" s="72" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AB2" s="72" t="s">
         <v>170</v>
@@ -40731,7 +40212,7 @@
         <v>90</v>
       </c>
       <c r="S3" s="72" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="T3" s="72" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -40748,7 +40229,7 @@
         <v>127</v>
       </c>
       <c r="X3" s="72" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Y3" s="72" t="b">
         <v>0</v>
@@ -40760,7 +40241,7 @@
         <v>169</v>
       </c>
       <c r="AB3" s="72" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AC3" s="72" t="s">
         <v>172</v>
@@ -40784,7 +40265,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="72" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AK3" s="71" t="s">
         <v>320</v>
@@ -40812,7 +40293,7 @@
       </c>
       <c r="F4" s="72"/>
       <c r="G4" s="72" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H4" s="72"/>
       <c r="I4" s="72" t="s">
@@ -40842,7 +40323,7 @@
         <v>99</v>
       </c>
       <c r="S4" s="72" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="T4" s="72" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -40855,14 +40336,14 @@
       <c r="V4" s="72"/>
       <c r="W4" s="72"/>
       <c r="X4" s="72" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Y4" s="72"/>
       <c r="Z4" s="72" t="s">
+        <v>732</v>
+      </c>
+      <c r="AA4" s="72" t="s">
         <v>733</v>
-      </c>
-      <c r="AA4" s="72" t="s">
-        <v>734</v>
       </c>
       <c r="AB4" s="72"/>
       <c r="AC4" s="72" t="s">
@@ -40909,7 +40390,7 @@
       </c>
       <c r="F5" s="72"/>
       <c r="G5" s="72" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H5" s="72"/>
       <c r="I5" s="72" t="s">
@@ -40927,7 +40408,7 @@
       </c>
       <c r="N5" s="72"/>
       <c r="O5" s="72" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="P5" s="73"/>
       <c r="Q5" s="72"/>
@@ -40944,7 +40425,7 @@
       <c r="X5" s="72"/>
       <c r="Y5" s="72"/>
       <c r="Z5" s="72" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AA5" s="72"/>
       <c r="AB5" s="72"/>
@@ -40988,7 +40469,7 @@
       </c>
       <c r="F6" s="72"/>
       <c r="G6" s="72" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H6" s="72"/>
       <c r="I6" s="72"/>
@@ -41059,7 +40540,7 @@
       </c>
       <c r="F7" s="72"/>
       <c r="G7" s="72" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H7" s="72"/>
       <c r="I7" s="72"/>
@@ -41128,7 +40609,7 @@
       </c>
       <c r="F8" s="72"/>
       <c r="G8" s="72" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H8" s="72"/>
       <c r="I8" s="72"/>
@@ -41197,7 +40678,7 @@
       </c>
       <c r="F9" s="72"/>
       <c r="G9" s="72" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H9" s="72"/>
       <c r="I9" s="72"/>
@@ -41266,7 +40747,7 @@
       </c>
       <c r="F10" s="72"/>
       <c r="G10" s="72" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
@@ -41335,7 +40816,7 @@
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="72" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
@@ -41404,7 +40885,7 @@
       </c>
       <c r="F12" s="72"/>
       <c r="G12" s="72" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H12" s="72"/>
       <c r="I12" s="72"/>
@@ -41471,7 +40952,7 @@
       </c>
       <c r="F13" s="72"/>
       <c r="G13" s="72" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H13" s="72"/>
       <c r="I13" s="72"/>
@@ -41538,7 +41019,7 @@
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="72" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
@@ -41672,7 +41153,7 @@
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="72" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H16" s="72"/>
       <c r="I16" s="72"/>
@@ -41739,7 +41220,7 @@
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="72" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
@@ -41806,7 +41287,7 @@
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="72" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
@@ -41873,7 +41354,7 @@
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="72" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
@@ -41940,7 +41421,7 @@
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="72" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
@@ -42007,7 +41488,7 @@
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
@@ -42074,7 +41555,7 @@
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="72" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H22" s="72"/>
       <c r="I22" s="72"/>
@@ -42141,7 +41622,7 @@
       </c>
       <c r="F23" s="72"/>
       <c r="G23" s="72" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H23" s="72"/>
       <c r="I23" s="72"/>
@@ -42208,7 +41689,7 @@
       </c>
       <c r="F24" s="72"/>
       <c r="G24" s="72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H24" s="72"/>
       <c r="I24" s="72"/>
@@ -43981,10 +43462,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -44518,7 +43999,7 @@
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
@@ -44538,7 +44019,7 @@
         <v>600</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
@@ -44550,7 +44031,7 @@
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -44562,7 +44043,7 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
@@ -44574,7 +44055,7 @@
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
@@ -44586,7 +44067,7 @@
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
@@ -44598,7 +44079,7 @@
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
@@ -44610,7 +44091,7 @@
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
@@ -44622,7 +44103,7 @@
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
@@ -44634,7 +44115,7 @@
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -44646,7 +44127,7 @@
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
@@ -44658,7 +44139,7 @@
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
@@ -44670,7 +44151,7 @@
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
@@ -44682,7 +44163,7 @@
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
@@ -44694,7 +44175,7 @@
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
@@ -44706,7 +44187,7 @@
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -44718,7 +44199,7 @@
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
@@ -44730,7 +44211,7 @@
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -44742,7 +44223,7 @@
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
@@ -44754,7 +44235,7 @@
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
@@ -44766,7 +44247,7 @@
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
@@ -44778,7 +44259,7 @@
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
@@ -44790,7 +44271,7 @@
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
@@ -44802,7 +44283,7 @@
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
@@ -44814,7 +44295,7 @@
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -44826,7 +44307,7 @@
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -44838,7 +44319,7 @@
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -44850,7 +44331,7 @@
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -44862,7 +44343,7 @@
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -44874,7 +44355,7 @@
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -44886,7 +44367,7 @@
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -44898,7 +44379,7 @@
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
@@ -44910,7 +44391,7 @@
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -44922,7 +44403,7 @@
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
@@ -44934,7 +44415,7 @@
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
@@ -44946,7 +44427,7 @@
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
@@ -44958,7 +44439,7 @@
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
@@ -44970,7 +44451,7 @@
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
@@ -44982,7 +44463,7 @@
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
@@ -44994,7 +44475,7 @@
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
@@ -45006,7 +44487,7 @@
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -45018,7 +44499,7 @@
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
@@ -45182,7 +44663,7 @@
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
@@ -45194,7 +44675,7 @@
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
@@ -45206,7 +44687,7 @@
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
@@ -45218,7 +44699,7 @@
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
@@ -45230,7 +44711,7 @@
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
@@ -45241,16 +44722,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>407</v>
       </c>
       <c r="D63" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="E63" s="35" t="s">
         <v>684</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>685</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
@@ -45262,7 +44743,7 @@
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
@@ -45274,7 +44755,7 @@
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
@@ -45286,7 +44767,7 @@
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
@@ -45297,16 +44778,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>407</v>
       </c>
       <c r="D67" s="35" t="s">
+        <v>953</v>
+      </c>
+      <c r="E67" s="35" t="s">
         <v>954</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>955</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
@@ -45318,7 +44799,7 @@
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
@@ -45347,10 +44828,10 @@
         <v>407</v>
       </c>
       <c r="D70" s="35" t="s">
+        <v>956</v>
+      </c>
+      <c r="E70" s="35" t="s">
         <v>957</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>958</v>
       </c>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
@@ -45362,7 +44843,7 @@
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
@@ -45374,7 +44855,7 @@
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
@@ -45386,7 +44867,7 @@
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
@@ -45398,7 +44879,7 @@
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
@@ -45410,7 +44891,7 @@
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
@@ -45422,7 +44903,7 @@
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
@@ -45434,7 +44915,7 @@
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
@@ -45446,7 +44927,7 @@
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
@@ -45458,7 +44939,7 @@
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
@@ -45470,7 +44951,7 @@
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
@@ -45482,7 +44963,7 @@
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
@@ -45494,7 +44975,7 @@
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
@@ -45506,7 +44987,7 @@
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
       <c r="E83" s="35" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
@@ -45518,7 +44999,7 @@
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
@@ -45530,7 +45011,7 @@
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
@@ -45542,7 +45023,7 @@
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
@@ -45554,7 +45035,7 @@
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
@@ -45566,7 +45047,7 @@
       <c r="C88" s="35"/>
       <c r="D88" s="35"/>
       <c r="E88" s="35" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
@@ -45578,7 +45059,7 @@
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
@@ -45590,7 +45071,7 @@
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
@@ -45602,7 +45083,7 @@
       <c r="C91" s="35"/>
       <c r="D91" s="35"/>
       <c r="E91" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
@@ -45614,7 +45095,7 @@
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
       <c r="E92" s="35" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
@@ -45626,7 +45107,7 @@
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
       <c r="E93" s="35" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
@@ -45638,7 +45119,7 @@
       <c r="C94" s="35"/>
       <c r="D94" s="35"/>
       <c r="E94" s="35" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
@@ -45650,7 +45131,7 @@
       <c r="C95" s="35"/>
       <c r="D95" s="35"/>
       <c r="E95" s="35" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
@@ -45662,7 +45143,7 @@
       <c r="C96" s="35"/>
       <c r="D96" s="35"/>
       <c r="E96" s="35" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
@@ -45674,7 +45155,7 @@
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
       <c r="E97" s="35" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
@@ -45686,7 +45167,7 @@
       <c r="C98" s="35"/>
       <c r="D98" s="35"/>
       <c r="E98" s="35" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
@@ -45698,7 +45179,7 @@
       <c r="C99" s="35"/>
       <c r="D99" s="35"/>
       <c r="E99" s="35" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
@@ -45710,7 +45191,7 @@
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
@@ -45722,7 +45203,7 @@
       <c r="C101" s="35"/>
       <c r="D101" s="35"/>
       <c r="E101" s="35" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
@@ -45742,7 +45223,7 @@
         <v>616</v>
       </c>
       <c r="E102" s="91" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
@@ -45766,7 +45247,7 @@
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
       <c r="E104" s="35" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
@@ -45778,7 +45259,7 @@
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
       <c r="E105" s="35" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
@@ -45790,7 +45271,7 @@
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
       <c r="E106" s="35" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -45802,7 +45283,7 @@
       <c r="C107" s="35"/>
       <c r="D107" s="35"/>
       <c r="E107" s="35" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F107" s="35"/>
       <c r="G107" s="35"/>
@@ -45814,7 +45295,7 @@
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
       <c r="E108" s="35" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F108" s="35"/>
       <c r="G108" s="35"/>
@@ -45826,7 +45307,7 @@
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
       <c r="E109" s="35" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F109" s="35"/>
       <c r="G109" s="35"/>
@@ -45838,7 +45319,7 @@
       <c r="C110" s="35"/>
       <c r="D110" s="35"/>
       <c r="E110" s="35" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
@@ -45850,7 +45331,7 @@
       <c r="C111" s="35"/>
       <c r="D111" s="35"/>
       <c r="E111" s="35" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F111" s="35"/>
       <c r="G111" s="35"/>
@@ -45862,7 +45343,7 @@
       <c r="C112" s="35"/>
       <c r="D112" s="35"/>
       <c r="E112" s="35" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F112" s="35"/>
       <c r="G112" s="35"/>
@@ -45874,7 +45355,7 @@
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
       <c r="E113" s="35" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
@@ -45886,7 +45367,7 @@
       <c r="C114" s="35"/>
       <c r="D114" s="35"/>
       <c r="E114" s="35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
@@ -45898,7 +45379,7 @@
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
       <c r="E115" s="35" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
@@ -45910,7 +45391,7 @@
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
       <c r="E116" s="35" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F116" s="35"/>
       <c r="G116" s="35"/>
@@ -45922,7 +45403,7 @@
       <c r="C117" s="35"/>
       <c r="D117" s="35"/>
       <c r="E117" s="35" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
@@ -45934,7 +45415,7 @@
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
       <c r="E118" s="35" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
@@ -45946,7 +45427,7 @@
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
       <c r="E119" s="35" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
@@ -45958,7 +45439,7 @@
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
       <c r="E120" s="35" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
@@ -45978,7 +45459,7 @@
         <v>619</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F121" s="35"/>
       <c r="G121" s="35"/>
@@ -45990,7 +45471,7 @@
       <c r="C122" s="35"/>
       <c r="D122" s="35"/>
       <c r="E122" s="35" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F122" s="35"/>
       <c r="G122" s="35"/>
@@ -46002,7 +45483,7 @@
       <c r="C123" s="35"/>
       <c r="D123" s="35"/>
       <c r="E123" s="35" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F123" s="35"/>
       <c r="G123" s="35"/>
@@ -46014,7 +45495,7 @@
       <c r="C124" s="35"/>
       <c r="D124" s="35"/>
       <c r="E124" s="35" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F124" s="35"/>
       <c r="G124" s="35"/>
@@ -46026,7 +45507,7 @@
       <c r="C125" s="35"/>
       <c r="D125" s="35"/>
       <c r="E125" s="35" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F125" s="35"/>
       <c r="G125" s="35"/>
@@ -46038,7 +45519,7 @@
       <c r="C126" s="35"/>
       <c r="D126" s="35"/>
       <c r="E126" s="35" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F126" s="35"/>
       <c r="G126" s="35"/>
@@ -46050,7 +45531,7 @@
       <c r="C127" s="35"/>
       <c r="D127" s="35"/>
       <c r="E127" s="35" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F127" s="35"/>
       <c r="G127" s="35"/>
@@ -46062,7 +45543,7 @@
       <c r="C128" s="35"/>
       <c r="D128" s="35"/>
       <c r="E128" s="35" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F128" s="35"/>
       <c r="G128" s="35"/>
@@ -46074,7 +45555,7 @@
       <c r="C129" s="35"/>
       <c r="D129" s="35"/>
       <c r="E129" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F129" s="35"/>
       <c r="G129" s="35"/>
@@ -46086,7 +45567,7 @@
       <c r="C130" s="35"/>
       <c r="D130" s="35"/>
       <c r="E130" s="35" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F130" s="35"/>
       <c r="G130" s="35"/>
@@ -46098,7 +45579,7 @@
       <c r="C131" s="35"/>
       <c r="D131" s="35"/>
       <c r="E131" s="35" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F131" s="35"/>
       <c r="G131" s="35"/>
@@ -46110,7 +45591,7 @@
       <c r="C132" s="35"/>
       <c r="D132" s="35"/>
       <c r="E132" s="35" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F132" s="35"/>
       <c r="G132" s="35"/>
@@ -46122,7 +45603,7 @@
       <c r="C133" s="35"/>
       <c r="D133" s="35"/>
       <c r="E133" s="35" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F133" s="35"/>
       <c r="G133" s="35"/>
@@ -46134,7 +45615,7 @@
       <c r="C134" s="35"/>
       <c r="D134" s="35"/>
       <c r="E134" s="35" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F134" s="35"/>
       <c r="G134" s="35"/>
@@ -46146,7 +45627,7 @@
       <c r="C135" s="35"/>
       <c r="D135" s="35"/>
       <c r="E135" s="35" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F135" s="35"/>
       <c r="G135" s="35"/>
@@ -46158,7 +45639,7 @@
       <c r="C136" s="35"/>
       <c r="D136" s="35"/>
       <c r="E136" s="35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F136" s="35"/>
       <c r="G136" s="35"/>
@@ -46170,7 +45651,7 @@
       <c r="C137" s="35"/>
       <c r="D137" s="35"/>
       <c r="E137" s="35" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F137" s="35"/>
       <c r="G137" s="35"/>
@@ -46182,7 +45663,7 @@
       <c r="C138" s="35"/>
       <c r="D138" s="35"/>
       <c r="E138" s="35" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F138" s="35"/>
       <c r="G138" s="35"/>
@@ -46194,7 +45675,7 @@
       <c r="C139" s="35"/>
       <c r="D139" s="35"/>
       <c r="E139" s="35" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F139" s="35"/>
       <c r="G139" s="35"/>
@@ -46206,7 +45687,7 @@
       <c r="C140" s="35"/>
       <c r="D140" s="35"/>
       <c r="E140" s="35" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F140" s="35"/>
       <c r="G140" s="35"/>
@@ -46218,7 +45699,7 @@
       <c r="C141" s="35"/>
       <c r="D141" s="35"/>
       <c r="E141" s="35" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F141" s="35"/>
       <c r="G141" s="35"/>
@@ -46230,7 +45711,7 @@
       <c r="C142" s="35"/>
       <c r="D142" s="35"/>
       <c r="E142" s="35" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F142" s="35"/>
       <c r="G142" s="35"/>
@@ -46242,7 +45723,7 @@
       <c r="C143" s="35"/>
       <c r="D143" s="35"/>
       <c r="E143" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F143" s="35"/>
       <c r="G143" s="35"/>
@@ -46254,7 +45735,7 @@
       <c r="C144" s="35"/>
       <c r="D144" s="35"/>
       <c r="E144" s="35" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F144" s="35"/>
       <c r="G144" s="35"/>
@@ -46266,7 +45747,7 @@
       <c r="C145" s="35"/>
       <c r="D145" s="35"/>
       <c r="E145" s="35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F145" s="35"/>
       <c r="G145" s="35"/>
@@ -46278,7 +45759,7 @@
       <c r="C146" s="35"/>
       <c r="D146" s="35"/>
       <c r="E146" s="35" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F146" s="35"/>
       <c r="G146" s="35"/>
@@ -46290,7 +45771,7 @@
       <c r="C147" s="35"/>
       <c r="D147" s="35"/>
       <c r="E147" s="35" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F147" s="35"/>
       <c r="G147" s="35"/>
@@ -46321,16 +45802,16 @@
         <v>5</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C149" s="35" t="s">
         <v>407</v>
       </c>
       <c r="D149" s="35" t="s">
+        <v>794</v>
+      </c>
+      <c r="E149" s="35" t="s">
         <v>795</v>
-      </c>
-      <c r="E149" s="35" t="s">
-        <v>796</v>
       </c>
       <c r="F149" s="35"/>
       <c r="G149" s="35"/>
@@ -46342,7 +45823,7 @@
       <c r="C150" s="35"/>
       <c r="D150" s="35"/>
       <c r="E150" s="35" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F150" s="35"/>
       <c r="G150" s="35"/>
@@ -46354,7 +45835,7 @@
       <c r="C151" s="35"/>
       <c r="D151" s="35"/>
       <c r="E151" s="35" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F151" s="35"/>
       <c r="G151" s="35"/>
@@ -46374,7 +45855,7 @@
         <v>621</v>
       </c>
       <c r="E152" s="35" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F152" s="35"/>
       <c r="G152" s="35"/>
@@ -46386,7 +45867,7 @@
       <c r="C153" s="35"/>
       <c r="D153" s="35"/>
       <c r="E153" s="35" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F153" s="35"/>
       <c r="G153" s="35"/>
@@ -46398,7 +45879,7 @@
       <c r="C154" s="35"/>
       <c r="D154" s="35"/>
       <c r="E154" s="35" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F154" s="35"/>
       <c r="G154" s="35"/>
@@ -46410,7 +45891,7 @@
       <c r="C155" s="35"/>
       <c r="D155" s="35"/>
       <c r="E155" s="35" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F155" s="35"/>
       <c r="G155" s="35"/>
@@ -46422,7 +45903,7 @@
       <c r="C156" s="35"/>
       <c r="D156" s="35"/>
       <c r="E156" s="35" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F156" s="35"/>
       <c r="G156" s="35"/>
@@ -46434,7 +45915,7 @@
       <c r="C157" s="35"/>
       <c r="D157" s="35"/>
       <c r="E157" s="35" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F157" s="35"/>
       <c r="G157" s="35"/>
@@ -46446,7 +45927,7 @@
       <c r="C158" s="35"/>
       <c r="D158" s="35"/>
       <c r="E158" s="35" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F158" s="35"/>
       <c r="G158" s="35"/>
@@ -46458,7 +45939,7 @@
       <c r="C159" s="35"/>
       <c r="D159" s="35"/>
       <c r="E159" s="35" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F159" s="35"/>
       <c r="G159" s="35"/>
@@ -46470,7 +45951,7 @@
       <c r="C160" s="35"/>
       <c r="D160" s="35"/>
       <c r="E160" s="35" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F160" s="35"/>
       <c r="G160" s="35"/>
@@ -46482,7 +45963,7 @@
       <c r="C161" s="35"/>
       <c r="D161" s="35"/>
       <c r="E161" s="35" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F161" s="35"/>
       <c r="G161" s="35"/>
@@ -46494,7 +45975,7 @@
       <c r="C162" s="35"/>
       <c r="D162" s="35"/>
       <c r="E162" s="35" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F162" s="35"/>
       <c r="G162" s="35"/>
@@ -46506,7 +45987,7 @@
       <c r="C163" s="35"/>
       <c r="D163" s="35"/>
       <c r="E163" s="35" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F163" s="35"/>
       <c r="G163" s="35"/>
@@ -46518,7 +45999,7 @@
       <c r="C164" s="35"/>
       <c r="D164" s="35"/>
       <c r="E164" s="35" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F164" s="35"/>
       <c r="G164" s="35"/>
@@ -46530,7 +46011,7 @@
       <c r="C165" s="35"/>
       <c r="D165" s="35"/>
       <c r="E165" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F165" s="35"/>
       <c r="G165" s="35"/>
@@ -46542,7 +46023,7 @@
       <c r="C166" s="35"/>
       <c r="D166" s="35"/>
       <c r="E166" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F166" s="35"/>
       <c r="G166" s="35"/>
@@ -46554,7 +46035,7 @@
       <c r="C167" s="35"/>
       <c r="D167" s="35"/>
       <c r="E167" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F167" s="35"/>
       <c r="G167" s="35"/>
@@ -46566,7 +46047,7 @@
       <c r="C168" s="35"/>
       <c r="D168" s="35"/>
       <c r="E168" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F168" s="35"/>
       <c r="G168" s="35"/>
@@ -46578,7 +46059,7 @@
       <c r="C169" s="35"/>
       <c r="D169" s="35"/>
       <c r="E169" s="35" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F169" s="35"/>
       <c r="G169" s="35"/>
@@ -46590,7 +46071,7 @@
       <c r="C170" s="35"/>
       <c r="D170" s="35"/>
       <c r="E170" s="35" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F170" s="35"/>
       <c r="G170" s="35"/>
@@ -46602,7 +46083,7 @@
       <c r="C171" s="35"/>
       <c r="D171" s="35"/>
       <c r="E171" s="35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F171" s="35"/>
       <c r="G171" s="35"/>
@@ -46614,7 +46095,7 @@
       <c r="C172" s="66"/>
       <c r="D172" s="66"/>
       <c r="E172" s="66" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F172" s="66"/>
       <c r="G172" s="66"/>
@@ -46626,7 +46107,7 @@
       <c r="C173" s="35"/>
       <c r="D173" s="35"/>
       <c r="E173" s="35" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F173" s="35"/>
       <c r="G173" s="35"/>
@@ -46638,7 +46119,7 @@
       <c r="C174" s="35"/>
       <c r="D174" s="35"/>
       <c r="E174" s="35" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F174" s="35"/>
       <c r="G174" s="35"/>
@@ -46650,7 +46131,7 @@
       <c r="C175" s="35"/>
       <c r="D175" s="35"/>
       <c r="E175" s="35" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F175" s="35"/>
       <c r="G175" s="35"/>
@@ -46662,7 +46143,7 @@
       <c r="C176" s="35"/>
       <c r="D176" s="35"/>
       <c r="E176" s="35" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F176" s="35"/>
       <c r="G176" s="35"/>
@@ -46674,7 +46155,7 @@
       <c r="C177" s="35"/>
       <c r="D177" s="35"/>
       <c r="E177" s="35" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F177" s="35"/>
       <c r="G177" s="35"/>
@@ -46686,7 +46167,7 @@
       <c r="C178" s="35"/>
       <c r="D178" s="35"/>
       <c r="E178" s="35" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F178" s="35"/>
       <c r="G178" s="35"/>
@@ -46698,7 +46179,7 @@
       <c r="C179" s="35"/>
       <c r="D179" s="35"/>
       <c r="E179" s="35" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
@@ -46710,7 +46191,7 @@
       <c r="C180" s="35"/>
       <c r="D180" s="35"/>
       <c r="E180" s="35" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
@@ -46722,7 +46203,7 @@
       <c r="C181" s="35"/>
       <c r="D181" s="35"/>
       <c r="E181" s="35" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
@@ -46734,7 +46215,7 @@
       <c r="C182" s="35"/>
       <c r="D182" s="35"/>
       <c r="E182" s="35" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -46746,7 +46227,7 @@
       <c r="C183" s="35"/>
       <c r="D183" s="35"/>
       <c r="E183" s="35" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -46758,7 +46239,7 @@
       <c r="C184" s="35"/>
       <c r="D184" s="35"/>
       <c r="E184" s="35" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -46770,7 +46251,7 @@
       <c r="C185" s="35"/>
       <c r="D185" s="35"/>
       <c r="E185" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -46782,7 +46263,7 @@
       <c r="C186" s="35"/>
       <c r="D186" s="35"/>
       <c r="E186" s="35" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -46794,7 +46275,7 @@
       <c r="C187" s="35"/>
       <c r="D187" s="35"/>
       <c r="E187" s="35" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
@@ -46806,7 +46287,7 @@
       <c r="C188" s="35"/>
       <c r="D188" s="35"/>
       <c r="E188" s="35" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F188" s="35"/>
       <c r="G188" s="35"/>
@@ -46818,7 +46299,7 @@
       <c r="C189" s="35"/>
       <c r="D189" s="35"/>
       <c r="E189" s="35" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F189" s="35"/>
       <c r="G189" s="35"/>
@@ -46830,7 +46311,7 @@
       <c r="C190" s="35"/>
       <c r="D190" s="35"/>
       <c r="E190" s="35" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="35"/>
@@ -46842,7 +46323,7 @@
       <c r="C191" s="35"/>
       <c r="D191" s="35"/>
       <c r="E191" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F191" s="35"/>
       <c r="G191" s="35"/>
@@ -46890,7 +46371,7 @@
       <c r="C195" s="35"/>
       <c r="D195" s="35"/>
       <c r="E195" s="35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F195" s="35"/>
       <c r="G195" s="35"/>
@@ -46902,7 +46383,7 @@
       <c r="C196" s="35"/>
       <c r="D196" s="35"/>
       <c r="E196" s="35" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F196" s="35"/>
       <c r="G196" s="35"/>
@@ -46914,7 +46395,7 @@
       <c r="C197" s="37"/>
       <c r="D197" s="37"/>
       <c r="E197" s="35" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F197" s="35"/>
       <c r="G197" s="35"/>
@@ -46925,16 +46406,16 @@
         <v>5</v>
       </c>
       <c r="B198" s="91" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C198" s="35" t="s">
         <v>407</v>
       </c>
       <c r="D198" s="35" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E198" s="35" t="s">
         <v>1067</v>
-      </c>
-      <c r="E198" s="35" t="s">
-        <v>1068</v>
       </c>
       <c r="I198" s="90"/>
     </row>
@@ -46944,7 +46425,7 @@
       <c r="C199" s="37"/>
       <c r="D199" s="37"/>
       <c r="E199" s="35" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F199" s="37"/>
       <c r="G199" s="37"/>
@@ -46956,7 +46437,7 @@
       <c r="C200" s="37"/>
       <c r="D200" s="37"/>
       <c r="E200" s="35" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F200" s="37"/>
       <c r="G200" s="37"/>
@@ -46968,7 +46449,7 @@
       <c r="C201" s="37"/>
       <c r="D201" s="37"/>
       <c r="E201" s="35" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F201" s="37"/>
       <c r="G201" s="37"/>
@@ -46980,7 +46461,7 @@
       <c r="C202" s="37"/>
       <c r="D202" s="37"/>
       <c r="E202" s="35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F202" s="37"/>
       <c r="G202" s="37"/>
@@ -46992,7 +46473,7 @@
       <c r="C203" s="37"/>
       <c r="D203" s="37"/>
       <c r="E203" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F203" s="37"/>
       <c r="G203" s="37"/>
@@ -47004,7 +46485,7 @@
       <c r="C204" s="37"/>
       <c r="D204" s="37"/>
       <c r="E204" s="35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F204" s="37"/>
       <c r="G204" s="37"/>
@@ -47016,7 +46497,7 @@
       <c r="C205" s="37"/>
       <c r="D205" s="37"/>
       <c r="E205" s="35" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F205" s="37"/>
       <c r="G205" s="37"/>
@@ -47028,7 +46509,7 @@
       <c r="C206" s="37"/>
       <c r="D206" s="37"/>
       <c r="E206" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F206" s="37"/>
       <c r="G206" s="37"/>
@@ -47040,7 +46521,7 @@
       <c r="C207" s="37"/>
       <c r="D207" s="37"/>
       <c r="E207" s="35" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F207" s="37"/>
       <c r="G207" s="37"/>
@@ -47052,7 +46533,7 @@
       <c r="C208" s="37"/>
       <c r="D208" s="37"/>
       <c r="E208" s="35" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F208" s="37"/>
       <c r="G208" s="37"/>
@@ -47064,7 +46545,7 @@
       <c r="C209" s="37"/>
       <c r="D209" s="37"/>
       <c r="E209" s="35" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F209" s="37"/>
       <c r="G209" s="37"/>
@@ -47076,7 +46557,7 @@
       <c r="C210" s="37"/>
       <c r="D210" s="37"/>
       <c r="E210" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F210" s="37"/>
       <c r="G210" s="37"/>
@@ -47088,7 +46569,7 @@
       <c r="C211" s="37"/>
       <c r="D211" s="37"/>
       <c r="E211" s="35" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F211" s="37"/>
       <c r="G211" s="37"/>
@@ -47100,7 +46581,7 @@
       <c r="C212" s="37"/>
       <c r="D212" s="37"/>
       <c r="E212" s="35" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F212" s="37"/>
       <c r="G212" s="37"/>
@@ -47112,7 +46593,7 @@
       <c r="C213" s="37"/>
       <c r="D213" s="37"/>
       <c r="E213" s="35" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F213" s="37"/>
       <c r="G213" s="37"/>
@@ -47124,7 +46605,7 @@
       <c r="C214" s="37"/>
       <c r="D214" s="37"/>
       <c r="E214" s="35" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F214" s="37"/>
       <c r="G214" s="37"/>
@@ -47136,7 +46617,7 @@
       <c r="C215" s="37"/>
       <c r="D215" s="37"/>
       <c r="E215" s="35" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F215" s="37"/>
       <c r="G215" s="37"/>
@@ -47148,7 +46629,7 @@
       <c r="C216" s="37"/>
       <c r="D216" s="37"/>
       <c r="E216" s="35" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F216" s="37"/>
       <c r="G216" s="37"/>
@@ -47160,7 +46641,7 @@
       <c r="C217" s="37"/>
       <c r="D217" s="37"/>
       <c r="E217" s="35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F217" s="37"/>
       <c r="G217" s="37"/>
@@ -47172,7 +46653,7 @@
       <c r="C218" s="37"/>
       <c r="D218" s="37"/>
       <c r="E218" s="35" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F218" s="37"/>
       <c r="G218" s="37"/>
@@ -47184,7 +46665,7 @@
       <c r="C219" s="37"/>
       <c r="D219" s="37"/>
       <c r="E219" s="35" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F219" s="37"/>
       <c r="G219" s="37"/>
@@ -47196,7 +46677,7 @@
       <c r="C220" s="37"/>
       <c r="D220" s="37"/>
       <c r="E220" s="35" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F220" s="37"/>
       <c r="G220" s="37"/>
@@ -47208,7 +46689,7 @@
       <c r="C221" s="37"/>
       <c r="D221" s="37"/>
       <c r="E221" s="35" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F221" s="37"/>
       <c r="G221" s="37"/>
@@ -47220,7 +46701,7 @@
       <c r="C222" s="37"/>
       <c r="D222" s="37"/>
       <c r="E222" s="35" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F222" s="37"/>
       <c r="G222" s="37"/>
@@ -47232,7 +46713,7 @@
       <c r="C223" s="37"/>
       <c r="D223" s="37"/>
       <c r="E223" s="35" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F223" s="37"/>
       <c r="G223" s="37"/>
@@ -47244,7 +46725,7 @@
       <c r="C224" s="37"/>
       <c r="D224" s="37"/>
       <c r="E224" s="35" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F224" s="37"/>
       <c r="G224" s="37"/>
@@ -47256,7 +46737,7 @@
       <c r="C225" s="37"/>
       <c r="D225" s="37"/>
       <c r="E225" s="35" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F225" s="37"/>
       <c r="G225" s="37"/>
@@ -47279,16 +46760,16 @@
         <v>5</v>
       </c>
       <c r="B227" s="35" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C227" s="35" t="s">
         <v>407</v>
       </c>
       <c r="D227" s="35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E227" s="35" t="s">
         <v>1097</v>
-      </c>
-      <c r="E227" s="35" t="s">
-        <v>1098</v>
       </c>
       <c r="F227" s="37"/>
       <c r="G227" s="37"/>
@@ -47300,7 +46781,7 @@
       <c r="C228" s="35"/>
       <c r="D228" s="35"/>
       <c r="E228" s="35" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F228" s="37"/>
       <c r="G228" s="37"/>
@@ -47312,7 +46793,7 @@
       <c r="C229" s="35"/>
       <c r="D229" s="35"/>
       <c r="E229" s="35" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F229" s="37"/>
       <c r="G229" s="37"/>
@@ -47323,16 +46804,16 @@
         <v>5</v>
       </c>
       <c r="B230" s="35" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C230" s="35" t="s">
         <v>407</v>
       </c>
       <c r="D230" s="35" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E230" s="35" t="s">
         <v>1102</v>
-      </c>
-      <c r="E230" s="35" t="s">
-        <v>1103</v>
       </c>
       <c r="F230" s="37"/>
       <c r="G230" s="37"/>
@@ -47344,7 +46825,7 @@
       <c r="C231" s="35"/>
       <c r="D231" s="35"/>
       <c r="E231" s="35" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F231" s="37"/>
       <c r="G231" s="37"/>
@@ -47413,7 +46894,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -47421,7 +46902,7 @@
       <c r="E1" s="119"/>
       <c r="F1" s="120"/>
       <c r="G1" s="121" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1" s="122"/>
       <c r="I1" s="122"/>
@@ -47452,7 +46933,7 @@
         <v>298</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47492,7 +46973,7 @@
         <v>302</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -47609,7 +47090,7 @@
       </c>
       <c r="H9" s="64"/>
       <c r="I9" s="64" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -47685,10 +47166,10 @@
         <v>407</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E13" s="64" t="s">
         <v>661</v>
@@ -47701,7 +47182,7 @@
       </c>
       <c r="H13" s="64"/>
       <c r="I13" s="64" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -47712,10 +47193,10 @@
         <v>407</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E14" s="64" t="s">
         <v>663</v>
@@ -47728,7 +47209,7 @@
       </c>
       <c r="H14" s="64"/>
       <c r="I14" s="64" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -47794,7 +47275,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="36" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -47821,7 +47302,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -47856,13 +47337,13 @@
         <v>356</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>21</v>
@@ -47877,7 +47358,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="31"/>
@@ -47912,7 +47393,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F5" s="64" t="s">
         <v>23</v>
@@ -47924,13 +47405,13 @@
         <v>21</v>
       </c>
       <c r="I5" s="64" t="s">
+        <v>827</v>
+      </c>
+      <c r="J5" s="64" t="s">
         <v>828</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="K5" s="64" t="s">
         <v>829</v>
-      </c>
-      <c r="K5" s="64" t="s">
-        <v>830</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>449</v>
@@ -47962,10 +47443,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="64" t="s">
+        <v>830</v>
+      </c>
+      <c r="J6" s="64" t="s">
         <v>831</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>832</v>
       </c>
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
@@ -47996,10 +47477,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K7" s="64"/>
       <c r="L7" s="64"/>
@@ -48071,14 +47552,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
       <c r="D1" s="117"/>
       <c r="E1" s="117"/>
       <c r="F1" s="123" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G1" s="123"/>
       <c r="H1" s="123"/>
@@ -48091,19 +47572,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>670</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="116" t="s">
         <v>672</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="G2" s="30" t="s">
         <v>673</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>674</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>431</v>
@@ -48117,19 +47598,19 @@
         <v>356</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>834</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>835</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>836</v>
-      </c>
       <c r="G3" s="35" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H3" s="37"/>
     </row>
@@ -48209,7 +47690,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B1" s="124"/>
     </row>
@@ -48321,7 +47802,7 @@
         <v>356</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>35</v>
@@ -48330,7 +47811,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD9CE1F-DE8F-CA4C-A3E2-26D5D0CD4F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22E956D-CB53-AF42-938A-2B23D510AEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9524,6 +9524,7 @@
       <sheetName val="VCN Info"/>
       <sheetName val="DHCP"/>
       <sheetName val="Subnets"/>
+      <sheetName val="drop_down_rule_set"/>
       <sheetName val="DRGRouteRulesinOCI"/>
       <sheetName val="RouteRulesinOCI"/>
       <sheetName val="SecRulesinOCI"/>
@@ -9545,42 +9546,42 @@
       <sheetName val="EXA-Infra"/>
       <sheetName val="EXA-VMClusters"/>
       <sheetName val="Database_Dropdown"/>
-      <sheetName val="drop_down_rule_set"/>
       <sheetName val="LB Rule Set Dropdown"/>
       <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31">
         <row r="2">
           <cell r="A2" t="str">
             <v>VM.Standard2.1</v>
@@ -10204,9 +10205,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14085,6 +14085,7 @@
       <sheetName val="RouteRulesinOCI"/>
       <sheetName val="SecRulesinOCI"/>
       <sheetName val="NSGs"/>
+      <sheetName val="drop_down_rule_set"/>
       <sheetName val="DedicatedVMHosts"/>
       <sheetName val="Instances"/>
       <sheetName val="BlockVolumes"/>
@@ -14101,7 +14102,7 @@
       <sheetName val="DBSystems-VM-BM"/>
       <sheetName val="EXA-Infra"/>
       <sheetName val="EXA-VMClusters"/>
-      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="Database_Dropdown"/>
       <sheetName val="LB Rule Set Dropdown"/>
       <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
@@ -14137,7 +14138,8 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31">
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32">
         <row r="2">
           <cell r="E2">
             <v>301</v>
@@ -14176,7 +14178,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14546,7 +14548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:R1"/>
     </sheetView>
   </sheetViews>
@@ -15155,7 +15157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -15347,7 +15349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -16652,8 +16654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="G1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17303,7 +17305,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I1" sqref="I1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="124" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17703,7 +17705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4485F156-F492-3349-A517-570D80810927}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="T1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:AD1"/>
     </sheetView>
   </sheetViews>
@@ -18163,7 +18165,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Y3:Y1048576 G3:H1048576 U3:U1048576</xm:sqref>
+          <xm:sqref>H3:H1048576 G3:G1048576 U3:U1048576 Y3:Y1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{31791D60-598A-DB4B-B46D-E182F840E751}">
           <x14:formula1>
@@ -18413,14 +18415,14 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:A2 B1:C1048576 E1:XFD1048576 D1:D2" xr:uid="{3021FE04-1BF9-DA44-85BB-08126C969B5E}"/>
+    <dataValidation allowBlank="1" sqref="D1:D2 E1:XFD1048576 C1:C1048576 A1:B2" xr:uid="{3021FE04-1BF9-DA44-85BB-08126C969B5E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{139DE3A9-221C-E748-AD2B-163232FC7727}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{139DE3A9-221C-E748-AD2B-163232FC7727}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
           </x14:formula1>
@@ -18430,7 +18432,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D1048576</xm:sqref>
+          <xm:sqref>B3:B1048576 D3:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18442,7 +18444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
@@ -18740,7 +18742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
@@ -19350,7 +19352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:S1"/>
     </sheetView>
   </sheetViews>
@@ -20231,7 +20233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AD61CA-1C6C-C844-9A38-EA78283E75FE}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
@@ -20730,7 +20732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8065867-8910-F546-8B7F-18EF81E1EBE6}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -20940,7 +20942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A318B394-EB14-B347-94FE-B94F0AFC4CFC}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
@@ -21157,7 +21159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScaleNormal="84" workbookViewId="0">
       <selection sqref="A1:AA1"/>
     </sheetView>
   </sheetViews>
@@ -39955,7 +39957,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40304,7 +40306,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C0BFF12-290E-7248-8440-A811B844399B}">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{0C0BFF12-290E-7248-8440-A811B844399B}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$42</xm:f>
           </x14:formula1>
@@ -40332,7 +40334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:L1"/>
     </sheetView>
   </sheetViews>
@@ -40599,7 +40601,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40733,7 +40735,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40797,7 +40799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A5ED14-AA0A-4553-8A3C-297E8A86884C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DC9640-02F9-4DD0-B4CB-E9215A147D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16550,7 +16550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:T1"/>
     </sheetView>
   </sheetViews>
@@ -16577,7 +16577,7 @@
     <col min="20" max="20" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="135" customHeight="1">
+    <row r="1" spans="1:20" ht="171.5" customHeight="1">
       <c r="A1" s="114" t="s">
         <v>1121</v>
       </c>
@@ -16997,7 +16997,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765B01C1-9A00-C74B-9AB2-AD2E505CBBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E9FF13-1B26-6449-9E92-A88C211885EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="29560" windowHeight="17680" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49017,19 +49017,13 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="D1:E2 A1:B2 C1:C1048576 F1:XFD1048576" xr:uid="{C2D8E697-CAD7-6E40-9FFE-A8E3E75259A5}"/>
+    <dataValidation allowBlank="1" sqref="D1:E2 A1:B2 C1:C1048576 F1:XFD1048576 E3:E1048576" xr:uid="{C2D8E697-CAD7-6E40-9FFE-A8E3E75259A5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{448A795E-4ADD-8F43-80A3-4A2F8EEE403A}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$B$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>E7:E1048576 E3:E4</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{60EB2E7B-4B1C-EB40-9CF4-20927C0564A0}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E9FF13-1B26-6449-9E92-A88C211885EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765B01C1-9A00-C74B-9AB2-AD2E505CBBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="29560" windowHeight="17680" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49017,13 +49017,19 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="D1:E2 A1:B2 C1:C1048576 F1:XFD1048576 E3:E1048576" xr:uid="{C2D8E697-CAD7-6E40-9FFE-A8E3E75259A5}"/>
+    <dataValidation allowBlank="1" sqref="D1:E2 A1:B2 C1:C1048576 F1:XFD1048576" xr:uid="{C2D8E697-CAD7-6E40-9FFE-A8E3E75259A5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{448A795E-4ADD-8F43-80A3-4A2F8EEE403A}">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$B$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>E7:E1048576 E3:E4</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{60EB2E7B-4B1C-EB40-9CF4-20927C0564A0}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765B01C1-9A00-C74B-9AB2-AD2E505CBBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA698A1F-8614-2841-A3B9-D6C7C550E4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="29560" windowHeight="17680" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49017,19 +49017,13 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="D1:E2 A1:B2 C1:C1048576 F1:XFD1048576" xr:uid="{C2D8E697-CAD7-6E40-9FFE-A8E3E75259A5}"/>
+    <dataValidation allowBlank="1" sqref="D1:E2 A1:B2 C1:C1048576 F1:XFD1048576 E3:E1048576" xr:uid="{C2D8E697-CAD7-6E40-9FFE-A8E3E75259A5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{448A795E-4ADD-8F43-80A3-4A2F8EEE403A}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$B$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>E7:E1048576 E3:E4</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{60EB2E7B-4B1C-EB40-9CF4-20927C0564A0}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA698A1F-8614-2841-A3B9-D6C7C550E4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B66B276-7242-F941-8FBA-096679F05B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="760" windowWidth="29560" windowHeight="17680" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\orahub_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25163E43-DF82-4887-9417-CF51B8C69F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE382B9-CDDA-4A57-8B87-E8F7D23F5920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="1355">
   <si>
     <t>Region</t>
   </si>
@@ -4575,12 +4575,6 @@
     <t>allow group AppDevAdmins to use load-balancers in compartment Network</t>
   </si>
   <si>
-    <t>allow group AppDevAdmins to read vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to inspect keys in compartment Security</t>
-  </si>
-  <si>
     <t>allow group AppDevAdmins to manage instance-images in compartment Security</t>
   </si>
   <si>
@@ -4680,18 +4674,12 @@
     <t>allow group DatabaseAdmins to read vss-family in compartment Security</t>
   </si>
   <si>
-    <t>allow group DatabaseAdmins to read vaults in compartment Security</t>
-  </si>
-  <si>
     <t>allow group DatabaseAdmins to use bastion in compartment Security</t>
   </si>
   <si>
     <t>allow group DatabaseAdmins to manage bastion-session in compartment Security</t>
   </si>
   <si>
-    <t>allow group DatabaseAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
     <t>allow group IAMAdmins to inspect users in tenancy</t>
   </si>
   <si>
@@ -5005,12 +4993,6 @@
   </si>
   <si>
     <t>Database-kms-dynamic-group group to use keys in compartment managed-security-cmp.</t>
-  </si>
-  <si>
-    <t>allow dynamic-group Database-kms-dynamic-group to read vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>allow dynamic-group Database-kms-dynamic-group to use keys in compartment Security</t>
   </si>
   <si>
     <r>
@@ -5339,15 +5321,6 @@
     <t>allow group AppDevAdmins to read repos in tenancy</t>
   </si>
   <si>
-    <t>allow group AppDevAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
     <t>allow group Auditors to inspect all-resources in tenancy</t>
   </si>
   <si>
@@ -5426,12 +5399,6 @@
     <t>allow service osms to read instances in tenancy</t>
   </si>
   <si>
-    <t>allow group DatabaseAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
     <t>allow group IAMAdmins to manage policies in tenancy</t>
   </si>
   <si>
@@ -5439,15 +5406,6 @@
   </si>
   <si>
     <t>allow group IAMAdmins to manage identity-providers in tenancy where any {request.operation = 'AddIdpgroupMapping', request.operation = 'DeleteIdpgroupMapping'}</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to read usage-reports in tenancy</t>
   </si>
   <si>
     <t>define tenancy usage-report as ocid1.tenancy.oc1..aaaaaaaaned4fkpkisbwjlr56u7cj63lf3wffbilvqknstgtvzub7vhqkggq</t>
@@ -8638,13 +8596,7 @@
     </r>
   </si>
   <si>
-    <t>allow group DatabaseAdmins to to use vnics in compartment Database</t>
-  </si>
-  <si>
     <t>allow group DatabaseAdmins to manage private-ips in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to read keys in compartment Security</t>
   </si>
   <si>
     <r>
@@ -10101,304 +10053,6 @@
     <t>dbServer-2, dbServer-3</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
-"Create_Is PV Encryption In Transit Enabled" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Use this attribute for setting the parameter while launching a new instance. Specify </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Defaults to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">false </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">when left empty.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Update_Is PV Encryption In Transit Enabled"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Use this attribute for setting the parameter for an existing instance. Leave it empty while launching a new instance.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                               </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Backup Policy" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
-                                   Values can be either of the following: Gold | Silver | Bronze
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Custom Policy Compartment Name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"NSGs"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"DedicatedVMHost"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Leave this field empty if the instance does not need to be launched on dedicated vm host.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Plugin Vulnerability Scanning" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Use this column to enable or disable the 'Vulnerability Scanning' plugin for this instance. Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enabled or Disabled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Enable/Disable 
-other plugins by adding new columns with name as - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Plugin &lt;Plugin_Name_As_It_Appears_In_Console&gt;" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg for 'Bastion', column name will be 'Plugin Bastion'</t>
-    </r>
-  </si>
-  <si>
     <t>Plugin Vulnerability Scanning</t>
   </si>
   <si>
@@ -10723,12 +10377,485 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>allow group AppDevAdmins to manage keys in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use key-delegate in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage secret-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage private-ips in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow service cloudguard to manage cloudevents-rules in tenancy where target.rule.type='managed'</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to manage instances in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read compartments in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read repos in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read vnics in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read vnic-attachments in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service blockstorage, oke, streaming, Fssoc1Prod to use keys in tenancy</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage cloud-exadata-infrastructures in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage cloud-vmclusters in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use vnics in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage keys in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use key-delegate in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage secret-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read cloud-exadata-infrastructures in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use cloud-vmclusters in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage db-nodes in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage db-homes in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage databases in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage db-backups in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage users in tenancy where all {request.operation != 'ListApiKeys',request.operation != 'ListAuthTokens',request.operation != 'ListCustomerSecretKeys',request.operation != 'UploadApiKey',request.operation != 'DeleteApiKey',request.operation != 'UpdateAuthToken',request.operation != 'CreateAuthToken',request.operation != 'DeleteAuthToken',request.operation != 'CreateSecretKey',request.operation != 'UpdateCustomerSecretKey',request.operation != 'DeleteCustomerSecretKey'}</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage keys in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to use key-delegate in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage secret-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to use key-delegate in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage private-ips in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read keys in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read keys in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read keys in compartment Database</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use keys in compartment Database</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use secret-family in compartment Database</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
+"Create_Is PV Encryption In Transit Enabled" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use this attribute for setting the parameter while launching a new instance. Specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Defaults to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">false </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">when left empty.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Update_Is PV Encryption In Transit Enabled"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Use this attribute for setting the parameter for an existing instance. Leave it empty while launching a new instance.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                               </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Backup Policy" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
+                                   Values can be either of the following: Gold | Silver | Bronze
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom Policy Compartment Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"NSGs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"DedicatedVMHost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Leave this field empty if the instance does not need to be launched on dedicated vm host.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Plugin Vulnerability Scanning" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use this column to enable or disable the 'Vulnerability Scanning' plugin for this instance. Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enabled or Disabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Enable/Disable 
+other plugins by adding new columns with name as - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Plugin &lt;Plugin_Name_As_It_Appears_In_Console&gt;" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eg for 'Bastion', column name will be 'Plugin Bastion'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please add column '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is Live Migration preferred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' and set the value to True to enable live migration for the instance. It will be enabled if it is compatible.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11055,6 +11182,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF161513"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -11361,7 +11505,7 @@
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11623,6 +11767,9 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -17548,7 +17695,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1">
       <c r="A2" s="84" t="s">
-        <v>1329</v>
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -17573,10 +17720,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="41" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B1" s="119"/>
+      <c r="A1" s="112" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1" s="120"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
@@ -17643,16 +17790,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:8" s="41" customFormat="1" ht="43.5" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -17839,10 +17986,10 @@
     <col min="7" max="7" width="18.1796875" customWidth="1"/>
     <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18.453125" customWidth="1"/>
-    <col min="11" max="12" width="11.26953125" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1"/>
+    <col min="11" max="12" width="11.36328125" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" customWidth="1"/>
     <col min="14" max="14" width="15.81640625" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" customWidth="1"/>
     <col min="16" max="16" width="11.81640625" customWidth="1"/>
     <col min="17" max="17" width="14.1796875" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
@@ -17850,30 +17997,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="203.25" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="121" t="s">
-        <v>1288</v>
-      </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
+      <c r="A1" s="115" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="122" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
     </row>
     <row r="2" spans="1:20" s="41" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -17889,7 +18036,7 @@
         <v>314</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>11</v>
@@ -18125,16 +18272,16 @@
         <v>356</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>1162</v>
+        <v>1148</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>51</v>
@@ -18144,11 +18291,11 @@
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="54" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="K7" s="54"/>
       <c r="L7" s="55" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="M7" s="54" t="s">
         <v>21</v>
@@ -18179,16 +18326,16 @@
         <v>356</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>1163</v>
+        <v>1149</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>51</v>
@@ -18198,7 +18345,7 @@
       </c>
       <c r="I8" s="54"/>
       <c r="J8" s="54" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="K8" s="54"/>
       <c r="L8" s="54"/>
@@ -18610,34 +18757,34 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="42.36328125" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -18719,21 +18866,21 @@
     <col min="6" max="6" width="31.81640625" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
@@ -18817,29 +18964,29 @@
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.1796875" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -18959,42 +19106,42 @@
   <cols>
     <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.81640625" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" customWidth="1"/>
     <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="139" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="48" t="s">
@@ -19965,22 +20112,22 @@
     <col min="5" max="5" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="22.81640625" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" customWidth="1"/>
     <col min="9" max="9" width="73.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="175" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
+      <c r="A1" s="112" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
@@ -19990,22 +20137,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>428</v>
@@ -20032,19 +20179,19 @@
         <v>356</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="H4" s="33">
         <v>3600</v>
@@ -20059,19 +20206,19 @@
         <v>356</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="H5" s="33">
         <v>300</v>
@@ -20086,19 +20233,19 @@
         <v>356</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="H6" s="33">
         <v>300</v>
@@ -20363,27 +20510,27 @@
     <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57.1796875" customWidth="1"/>
     <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1">
-      <c r="A1" s="123" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
+      <c r="A1" s="124" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="2" spans="1:11" ht="29">
       <c r="A2" s="27" t="s">
@@ -20399,22 +20546,22 @@
         <v>314</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>428</v>
@@ -20449,20 +20596,20 @@
         <v>756</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="30" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="K4" s="30"/>
     </row>
@@ -20480,16 +20627,16 @@
         <v>756</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
@@ -20551,19 +20698,19 @@
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="89.25" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:7" s="41" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -20716,20 +20863,20 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
     <col min="3" max="3" width="40.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.453125" customWidth="1"/>
     <col min="5" max="5" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="41" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="27" t="s">
@@ -20962,10 +21109,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -20974,54 +21121,53 @@
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.1796875" customWidth="1"/>
     <col min="11" max="11" width="14.1796875" customWidth="1"/>
     <col min="12" max="13" width="20.81640625" customWidth="1"/>
     <col min="14" max="15" width="21.81640625" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" customWidth="1"/>
+    <col min="16" max="16" width="15.6328125" customWidth="1"/>
+    <col min="17" max="17" width="15.36328125" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" customWidth="1"/>
+    <col min="19" max="19" width="8.36328125" customWidth="1"/>
     <col min="20" max="20" width="12.1796875" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="250" customHeight="1">
-      <c r="A1" s="125" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="114" t="s">
-        <v>1324</v>
-      </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="116"/>
-    </row>
-    <row r="2" spans="1:23" s="41" customFormat="1" ht="52.5" customHeight="1">
+    <row r="1" spans="1:22" ht="250" customHeight="1">
+      <c r="A1" s="126" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="115" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="117"/>
+    </row>
+    <row r="2" spans="1:22" s="41" customFormat="1" ht="52.5" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -21065,7 +21211,7 @@
         <v>780</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>1325</v>
+        <v>1308</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>95</v>
@@ -21083,13 +21229,13 @@
         <v>98</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="V2" s="27" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="34" customHeight="1">
+    <row r="3" spans="1:22" ht="34" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>5</v>
       </c>
@@ -21106,7 +21252,7 @@
         <v>355</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
       <c r="G3" s="34" t="b">
         <v>0</v>
@@ -21147,7 +21293,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="28.75" customHeight="1">
+    <row r="4" spans="1:22" ht="28.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -21173,7 +21319,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="34"/>
     </row>
-    <row r="5" spans="1:23" ht="29">
+    <row r="5" spans="1:22" ht="29">
       <c r="A5" s="54" t="s">
         <v>5</v>
       </c>
@@ -21209,7 +21355,7 @@
       </c>
       <c r="N5" s="54"/>
       <c r="O5" s="54" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="P5" s="54" t="s">
         <v>103</v>
@@ -21223,11 +21369,11 @@
         <v>91</v>
       </c>
       <c r="U5" s="55" t="s">
-        <v>1313</v>
+        <v>1297</v>
       </c>
       <c r="V5" s="54"/>
     </row>
-    <row r="6" spans="1:23" ht="15.5">
+    <row r="6" spans="1:22" ht="15.5">
       <c r="A6" s="54" t="s">
         <v>5</v>
       </c>
@@ -21273,11 +21419,11 @@
       </c>
       <c r="T6" s="54"/>
       <c r="U6" s="55" t="s">
-        <v>1314</v>
+        <v>1298</v>
       </c>
       <c r="V6" s="54"/>
     </row>
-    <row r="7" spans="1:23" ht="15.5">
+    <row r="7" spans="1:22" ht="15.5">
       <c r="A7" s="54" t="s">
         <v>5</v>
       </c>
@@ -21325,7 +21471,7 @@
       <c r="U7" s="54"/>
       <c r="V7" s="54"/>
     </row>
-    <row r="8" spans="1:23" ht="15.5">
+    <row r="8" spans="1:22" ht="15.5">
       <c r="A8" s="54" t="s">
         <v>5</v>
       </c>
@@ -21336,20 +21482,20 @@
         <v>56</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="E8" s="54" t="s">
         <v>355</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="G8" s="54" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="54"/>
       <c r="I8" s="54" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="J8" s="98" t="s">
         <v>105</v>
@@ -21376,10 +21522,10 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:W1"/>
+    <mergeCell ref="I1:V1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="Q2:R2 H2:P1048576 A1:C2 D1:D1048576 S2:W1048576 X1:XFD1048576 E1:G2 H1:W1" xr:uid="{7DC36600-7CE7-6C4F-AE73-F80659550882}"/>
+    <dataValidation allowBlank="1" sqref="Q1:R2 D1:D1048576 E1:G2 A1:C2 S1:XFD1048576 H1:P1048576" xr:uid="{7DC36600-7CE7-6C4F-AE73-F80659550882}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21453,31 +21599,31 @@
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
     <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="9" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="9" width="17.6328125" customWidth="1"/>
     <col min="10" max="10" width="17.1796875" customWidth="1"/>
     <col min="12" max="12" width="18.453125" customWidth="1"/>
     <col min="13" max="13" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="140.25" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="116"/>
+      <c r="A1" s="115" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="117"/>
     </row>
     <row r="2" spans="1:13" s="41" customFormat="1" ht="43.5">
       <c r="A2" s="27" t="s">
@@ -21490,7 +21636,7 @@
         <v>106</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1269</v>
+        <v>1255</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>107</v>
@@ -21671,44 +21817,44 @@
   <cols>
     <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26953125" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.1796875" customWidth="1"/>
     <col min="12" max="12" width="7.81640625" customWidth="1"/>
     <col min="13" max="13" width="8.453125" customWidth="1"/>
     <col min="14" max="14" width="17.1796875" customWidth="1"/>
-    <col min="15" max="15" width="15.7265625" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" customWidth="1"/>
     <col min="16" max="16" width="18.81640625" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="115" customHeight="1">
-      <c r="A1" s="128" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131" t="s">
+      <c r="A1" s="129" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132" t="s">
         <v>442</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="43.5">
       <c r="A2" s="28" t="s">
@@ -22068,75 +22214,75 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.26953125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
     <col min="4" max="4" width="15.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" customWidth="1"/>
     <col min="7" max="7" width="16.453125" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" customWidth="1"/>
     <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="22.1796875" customWidth="1"/>
     <col min="14" max="14" width="18.81640625" customWidth="1"/>
-    <col min="15" max="15" width="18.26953125" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" customWidth="1"/>
+    <col min="15" max="15" width="18.36328125" customWidth="1"/>
+    <col min="16" max="16" width="14.36328125" customWidth="1"/>
     <col min="17" max="17" width="14.1796875" customWidth="1"/>
     <col min="18" max="18" width="11.1796875" customWidth="1"/>
     <col min="19" max="19" width="13.81640625" customWidth="1"/>
     <col min="20" max="20" width="12.1796875" customWidth="1"/>
     <col min="21" max="21" width="16.1796875" customWidth="1"/>
-    <col min="22" max="22" width="10.7265625" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" customWidth="1"/>
     <col min="23" max="23" width="10.81640625" customWidth="1"/>
     <col min="24" max="24" width="9.1796875" customWidth="1"/>
     <col min="25" max="25" width="16.81640625" customWidth="1"/>
     <col min="26" max="26" width="9.453125" customWidth="1"/>
     <col min="27" max="27" width="10.1796875" customWidth="1"/>
-    <col min="28" max="28" width="10.7265625" customWidth="1"/>
+    <col min="28" max="28" width="10.6328125" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
     <col min="30" max="30" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="106" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>1271</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="125" t="s">
-        <v>1293</v>
-      </c>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="127"/>
+      <c r="A1" s="115" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="126" t="s">
+        <v>1277</v>
+      </c>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="128"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="31" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -22146,40 +22292,40 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>1025</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>1026</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>1027</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>1028</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>1029</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>1030</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>1031</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>1032</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>1034</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>1036</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>85</v>
@@ -22191,31 +22337,31 @@
         <v>438</v>
       </c>
       <c r="R2" s="28" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="S2" s="28" t="s">
         <v>777</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="V2" s="28" t="s">
         <v>84</v>
       </c>
       <c r="W2" s="28" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="Y2" s="28" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="Z2" s="28" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="AA2" s="28" t="s">
         <v>95</v>
@@ -22224,10 +22370,10 @@
         <v>428</v>
       </c>
       <c r="AC2" s="28" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="AD2" s="28" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1">
@@ -22272,49 +22418,49 @@
         <v>561</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="D4" s="99" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="F4" s="99" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="99" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="H4" s="99" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="I4" s="55" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="99" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="K4" s="99" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="L4" s="99" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="M4" s="99" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="N4" s="99" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O4" s="99" t="s">
         <v>1047</v>
-      </c>
-      <c r="O4" s="99" t="s">
-        <v>1053</v>
       </c>
       <c r="P4" s="99">
         <v>32</v>
       </c>
       <c r="Q4" s="99" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="R4" s="99">
         <v>1</v>
@@ -22323,10 +22469,10 @@
         <v>64</v>
       </c>
       <c r="T4" s="99" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="U4" s="99" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="V4" s="99" t="s">
         <v>99</v>
@@ -22335,7 +22481,7 @@
       <c r="X4" s="99"/>
       <c r="Y4" s="99"/>
       <c r="Z4" s="100" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="AA4" s="99" t="s">
         <v>103</v>
@@ -22360,19 +22506,19 @@
       <c r="K5" s="55"/>
       <c r="L5" s="55"/>
       <c r="M5" s="55" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="N5" s="55" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="O5" s="55" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="P5" s="55">
         <v>16</v>
       </c>
       <c r="Q5" s="55" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="R5" s="55">
         <v>2</v>
@@ -22382,7 +22528,7 @@
       </c>
       <c r="T5" s="55"/>
       <c r="U5" s="99" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="V5" s="55" t="s">
         <v>90</v>
@@ -22391,7 +22537,7 @@
       <c r="X5" s="55"/>
       <c r="Y5" s="55"/>
       <c r="Z5" s="54" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="AA5" s="55" t="s">
         <v>103</v>
@@ -22408,22 +22554,22 @@
         <v>561</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="F6" s="55" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="99" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="I6" s="55" t="b">
         <v>0</v>
@@ -22432,19 +22578,19 @@
       <c r="K6" s="55"/>
       <c r="L6" s="55"/>
       <c r="M6" s="55" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="N6" s="55" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="P6" s="55">
         <v>32</v>
       </c>
       <c r="Q6" s="55" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="R6" s="55">
         <v>1</v>
@@ -22453,10 +22599,10 @@
         <v>64</v>
       </c>
       <c r="T6" s="99" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="U6" s="99" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="V6" s="55" t="s">
         <v>99</v>
@@ -22466,7 +22612,7 @@
       </c>
       <c r="X6" s="55"/>
       <c r="Y6" s="99" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="Z6" s="101"/>
       <c r="AA6" s="55" t="s">
@@ -22548,42 +22694,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.453125" customWidth="1"/>
     <col min="5" max="6" width="19.1796875" customWidth="1"/>
     <col min="7" max="7" width="11.453125" customWidth="1"/>
     <col min="8" max="8" width="12.453125" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
     <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.453125" customWidth="1"/>
     <col min="16" max="16" width="28.1796875" customWidth="1"/>
-    <col min="17" max="17" width="13.7265625" customWidth="1"/>
+    <col min="17" max="17" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -22853,39 +22999,39 @@
     <col min="8" max="8" width="18.81640625" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" customWidth="1"/>
     <col min="10" max="10" width="11.81640625" customWidth="1"/>
-    <col min="11" max="12" width="14.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1"/>
-    <col min="15" max="15" width="23.7265625" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" customWidth="1"/>
+    <col min="11" max="12" width="14.6328125" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" customWidth="1"/>
+    <col min="15" max="15" width="23.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" customWidth="1"/>
     <col min="18" max="18" width="14.81640625" customWidth="1"/>
     <col min="22" max="22" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="119.25" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>786</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="116"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="117"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1">
       <c r="A2" s="35" t="s">
@@ -22997,7 +23143,7 @@
         <v>168</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="H4" s="54" t="s">
         <v>169</v>
@@ -23057,7 +23203,7 @@
         <v>174</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="H5" s="54" t="s">
         <v>169</v>
@@ -23105,7 +23251,7 @@
         <v>177</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>169</v>
@@ -23209,29 +23355,29 @@
     <col min="8" max="9" width="12.453125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>785</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -23459,10 +23605,10 @@
     <col min="2" max="2" width="8.81640625" customWidth="1"/>
     <col min="4" max="4" width="27.453125" customWidth="1"/>
     <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" customWidth="1"/>
     <col min="7" max="7" width="16.453125" customWidth="1"/>
     <col min="8" max="8" width="19.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" customWidth="1"/>
     <col min="10" max="10" width="12.453125" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="13" max="13" width="15.1796875" customWidth="1"/>
@@ -23472,29 +23618,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>435</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="117" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="118" t="s">
         <v>447</v>
       </c>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="134"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -24182,21 +24328,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
     <col min="3" max="3" width="26.1796875" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="6" max="6" width="28.7265625" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="41" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="136"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -24332,41 +24478,41 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
     <col min="3" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.453125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="10" width="8.7265625" customWidth="1"/>
+    <col min="9" max="10" width="8.6328125" customWidth="1"/>
     <col min="11" max="11" width="16.1796875" customWidth="1"/>
-    <col min="12" max="13" width="8.7265625" customWidth="1"/>
-    <col min="14" max="19" width="8.7265625" style="85"/>
+    <col min="12" max="13" width="8.6328125" customWidth="1"/>
+    <col min="14" max="19" width="8.6328125" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>813</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="116"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="117"/>
     </row>
     <row r="2" spans="1:13" ht="58" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -24873,18 +25019,18 @@
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
     <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="41" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="A1" s="112" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
@@ -25131,33 +25277,33 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="10" width="12.26953125" customWidth="1"/>
+    <col min="3" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="10" width="12.36328125" customWidth="1"/>
     <col min="11" max="11" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.7265625" customWidth="1"/>
+    <col min="12" max="15" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>813</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
     </row>
     <row r="2" spans="1:11" ht="72.75" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -25355,24 +25501,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
+      <c r="A1" s="115" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
     </row>
     <row r="2" spans="1:16" ht="43.5">
       <c r="A2" s="17" t="s">
@@ -25382,13 +25528,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>315</v>
@@ -25403,10 +25549,10 @@
         <v>707</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="L2" s="51" t="s">
         <v>712</v>
@@ -25452,14 +25598,14 @@
         <v>563</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D4" s="55" t="s">
         <v>739</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="89" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>419</v>
@@ -25570,7 +25716,7 @@
     <col min="9" max="9" width="27.453125" customWidth="1"/>
     <col min="10" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" customWidth="1"/>
     <col min="16" max="16" width="20.453125" style="3"/>
     <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.1796875" bestFit="1" customWidth="1"/>
@@ -25580,35 +25726,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="116"/>
+      <c r="A1" s="115" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="117"/>
     </row>
     <row r="2" spans="1:27" s="49" customFormat="1" ht="43.5">
       <c r="A2" s="50" t="s">
@@ -28962,27 +29108,27 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="A1" s="115" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="67" t="s">
@@ -31851,8 +31997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="J2" zoomScale="119" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -31861,7 +32007,7 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
@@ -31875,7 +32021,7 @@
     <col min="16" max="16" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
@@ -31889,29 +32035,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="125" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
+      <c r="A1" s="126" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
       <c r="V1" s="73"/>
       <c r="W1" s="73"/>
       <c r="X1" s="73"/>
@@ -31952,16 +32098,16 @@
         <v>731</v>
       </c>
       <c r="K2" s="67" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
       <c r="L2" s="67" t="s">
-        <v>1320</v>
+        <v>1304</v>
       </c>
       <c r="M2" s="67" t="s">
-        <v>1321</v>
+        <v>1305</v>
       </c>
       <c r="N2" s="67" t="s">
-        <v>1322</v>
+        <v>1306</v>
       </c>
       <c r="O2" s="67" t="s">
         <v>732</v>
@@ -32057,7 +32203,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="94" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="O4" s="94" t="b">
         <v>1</v>
@@ -36344,25 +36490,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="169.5" customHeight="1">
-      <c r="A1" s="137" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="139"/>
+      <c r="A1" s="138" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="140"/>
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" s="49" customFormat="1" ht="72.75" customHeight="1">
@@ -36373,43 +36519,43 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="D2" s="106" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="E2" s="106" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="G2" s="106" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="K2" s="108" t="s">
-        <v>1316</v>
+        <v>1300</v>
       </c>
       <c r="L2" s="109" t="s">
-        <v>1317</v>
+        <v>1301</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>1210</v>
+        <v>1196</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>1211</v>
+        <v>1197</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>1212</v>
+        <v>1198</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>95</v>
@@ -36479,71 +36625,71 @@
     <col min="2" max="2" width="10.453125" customWidth="1"/>
     <col min="3" max="3" width="19.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" customWidth="1"/>
     <col min="15" max="15" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1">
-      <c r="A1" s="125" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
+      <c r="A1" s="126" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
     </row>
     <row r="2" spans="1:15" s="41" customFormat="1" ht="43.5">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>1202</v>
       </c>
-      <c r="C2" s="106" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>1216</v>
-      </c>
       <c r="F2" s="28" t="s">
-        <v>1217</v>
+        <v>1203</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>1218</v>
+        <v>1204</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>1219</v>
+        <v>1205</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>1220</v>
+        <v>1206</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>1221</v>
+        <v>1207</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>1222</v>
+        <v>1208</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
       <c r="M2" s="28" t="s">
-        <v>1224</v>
+        <v>1210</v>
       </c>
       <c r="N2" s="28" t="s">
-        <v>1225</v>
+        <v>1211</v>
       </c>
       <c r="O2" s="49"/>
     </row>
@@ -36594,50 +36740,50 @@
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="34" customWidth="1"/>
     <col min="3" max="3" width="12.453125" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" style="34" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.81640625" style="34" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="38.26953125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="25.7265625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" style="34" customWidth="1"/>
-    <col min="12" max="12" width="23.7265625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="38.36328125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="25.6328125" style="34" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" style="34" customWidth="1"/>
+    <col min="12" max="12" width="23.6328125" style="34" customWidth="1"/>
     <col min="13" max="13" width="13" style="34" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" style="33" customWidth="1"/>
     <col min="15" max="15" width="15.453125" style="34" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" style="34" customWidth="1"/>
-    <col min="17" max="17" width="14.26953125" style="34" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" style="34" customWidth="1"/>
+    <col min="17" max="17" width="14.36328125" style="34" customWidth="1"/>
     <col min="18" max="18" width="12" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="34"/>
+    <col min="19" max="16384" width="8.6328125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="264" customHeight="1">
-      <c r="A1" s="140" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="142"/>
+      <c r="A1" s="141" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="142"/>
+      <c r="P1" s="142"/>
+      <c r="Q1" s="142"/>
+      <c r="R1" s="143"/>
     </row>
     <row r="2" spans="1:18" ht="43.5">
       <c r="A2" s="27" t="s">
@@ -36647,49 +36793,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>1222</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>1223</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>1224</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Q2" s="28" t="s">
         <v>1226</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>1231</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>1233</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>1234</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>1235</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>1236</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>1237</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>1238</v>
-      </c>
-      <c r="P2" s="28" t="s">
-        <v>1239</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>1240</v>
       </c>
       <c r="R2" s="27" t="s">
         <v>428</v>
@@ -36708,43 +36854,43 @@
         <v>561</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>1246</v>
+        <v>1232</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>1248</v>
+        <v>1234</v>
       </c>
       <c r="M4" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>1249</v>
+        <v>1235</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>1250</v>
+        <v>1236</v>
       </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
@@ -36757,40 +36903,40 @@
         <v>561</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>1308</v>
+        <v>1292</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>1278</v>
+        <v>1264</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>1251</v>
+        <v>1237</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
       <c r="M5" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>1253</v>
+        <v>1239</v>
       </c>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
@@ -36804,22 +36950,22 @@
         <v>561</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>1254</v>
+        <v>1240</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="29"/>
@@ -36839,38 +36985,38 @@
         <v>561</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>1304</v>
+        <v>1288</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>1305</v>
+        <v>1289</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="29" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>1306</v>
+        <v>1290</v>
       </c>
       <c r="M7" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>1307</v>
+        <v>1291</v>
       </c>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -36972,7 +37118,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
@@ -36982,7 +37128,7 @@
     <col min="8" max="8" width="15.81640625" customWidth="1"/>
     <col min="9" max="10" width="11.453125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37021,7 +37167,7 @@
         <v>706</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="M1" s="45"/>
     </row>
@@ -37120,7 +37266,7 @@
         <v>452</v>
       </c>
       <c r="L4" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -37142,7 +37288,7 @@
         <v>453</v>
       </c>
       <c r="L5" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -37257,7 +37403,7 @@
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34" t="s">
-        <v>1151</v>
+        <v>1137</v>
       </c>
       <c r="F12" s="34"/>
       <c r="H12" s="34" t="s">
@@ -37274,7 +37420,7 @@
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
       <c r="F13" s="34"/>
       <c r="H13" s="34" t="s">
@@ -37780,22 +37926,22 @@
       <selection activeCell="AU1" sqref="AU1:AV1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="28.36328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" style="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="65" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="20.1796875" style="65" customWidth="1"/>
-    <col min="5" max="6" width="28.26953125" style="65"/>
+    <col min="5" max="6" width="28.36328125" style="65"/>
     <col min="7" max="7" width="13" style="65" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" style="65" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" style="65" customWidth="1"/>
     <col min="9" max="9" width="41.453125" style="65" customWidth="1"/>
     <col min="10" max="10" width="38.1796875" style="65" customWidth="1"/>
     <col min="11" max="11" width="33.81640625" style="65" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" style="65" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.453125" style="65" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.453125" style="65" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="65" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" style="65" customWidth="1"/>
+    <col min="15" max="15" width="13.6328125" style="65" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" style="65" customWidth="1"/>
     <col min="17" max="17" width="29.81640625" style="65" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.81640625" style="65" customWidth="1"/>
     <col min="19" max="19" width="9.453125" style="65" bestFit="1" customWidth="1"/>
@@ -37803,26 +37949,26 @@
     <col min="21" max="21" width="11" style="65" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" style="65" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="18" style="65" customWidth="1"/>
-    <col min="26" max="26" width="21.26953125" style="65" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.36328125" style="65" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.81640625" style="65" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.453125" style="65" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.81640625" style="65" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18" style="65" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11.1796875" style="65" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.7265625" style="65" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.6328125" style="65" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="30.1796875" style="65" customWidth="1"/>
     <col min="34" max="34" width="15.453125" style="65" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="44.453125" style="65" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="22.1796875" style="65" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="30.26953125" style="65" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.36328125" style="65" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="28.1796875" style="65" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="16.1796875" style="65" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13.1796875" style="65" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="17.1796875" style="65" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.26953125" style="65" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="28.26953125" style="65"/>
-    <col min="47" max="47" width="33.26953125" style="65" customWidth="1"/>
-    <col min="48" max="16384" width="28.26953125" style="65"/>
+    <col min="42" max="42" width="12.36328125" style="65" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="28.36328125" style="65"/>
+    <col min="47" max="47" width="33.36328125" style="65" customWidth="1"/>
+    <col min="48" max="16384" width="28.36328125" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="58" customFormat="1" ht="148" customHeight="1">
@@ -37836,25 +37982,25 @@
         <v>646</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>1310</v>
+        <v>1294</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>1259</v>
+        <v>1245</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>1261</v>
+        <v>1247</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>1311</v>
+        <v>1295</v>
       </c>
       <c r="J1" s="66" t="s">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="K1" s="66" t="s">
         <v>648</v>
@@ -37953,22 +38099,22 @@
         <v>317</v>
       </c>
       <c r="AQ1" s="57" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="AR1" s="57" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="AS1" s="57" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="AT1" s="57" t="s">
-        <v>1312</v>
+        <v>1296</v>
       </c>
       <c r="AU1" s="57" t="s">
         <v>647</v>
       </c>
       <c r="AV1" s="57" t="s">
-        <v>1311</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="59" customFormat="1">
@@ -38014,7 +38160,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="M2" s="60" t="s">
         <v>38</v>
@@ -38033,7 +38179,7 @@
         <v>23</v>
       </c>
       <c r="R2" s="60" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>595</v>
@@ -38110,13 +38256,13 @@
         <v>319</v>
       </c>
       <c r="AQ2" s="59" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="AR2" s="59" t="b">
         <v>0</v>
       </c>
       <c r="AS2" s="59" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="AT2" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="AT2:AT3" ca="1">_xlfn.UNIQUE(INDIRECT("B2:B"&amp;$G$5),FALSE,FALSE)</f>
@@ -38268,13 +38414,13 @@
         <v>320</v>
       </c>
       <c r="AQ3" s="59" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="AR3" s="59" t="b">
         <v>1</v>
       </c>
       <c r="AS3" s="59" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="AT3" s="59" t="str">
         <f ca="1"/>
@@ -38398,7 +38544,7 @@
         <v>32</v>
       </c>
       <c r="AS4" s="59" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AU4" s="110" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -38440,7 +38586,7 @@
       <c r="J5" s="34"/>
       <c r="K5" s="60"/>
       <c r="L5" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="M5" s="60"/>
       <c r="N5" s="60" t="s">
@@ -38532,7 +38678,7 @@
       <c r="J6" s="34"/>
       <c r="K6" s="60"/>
       <c r="L6" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="M6" s="60"/>
       <c r="N6" s="60"/>
@@ -38850,7 +38996,7 @@
       <c r="J10" s="34"/>
       <c r="K10" s="60"/>
       <c r="L10" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
@@ -38929,7 +39075,7 @@
       <c r="J11" s="34"/>
       <c r="K11" s="60"/>
       <c r="L11" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="M11" s="60"/>
       <c r="N11" s="60"/>
@@ -39008,7 +39154,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="60"/>
       <c r="L12" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="M12" s="60"/>
       <c r="N12" s="60"/>
@@ -39085,7 +39231,7 @@
       <c r="J13" s="34"/>
       <c r="K13" s="60"/>
       <c r="L13" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
@@ -39162,7 +39308,7 @@
       <c r="J14" s="34"/>
       <c r="K14" s="60"/>
       <c r="L14" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
@@ -39393,7 +39539,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="60"/>
       <c r="L17" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="M17" s="60"/>
       <c r="N17" s="60"/>
@@ -39470,7 +39616,7 @@
       <c r="J18" s="34"/>
       <c r="K18" s="60"/>
       <c r="L18" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="M18" s="60"/>
       <c r="N18" s="60"/>
@@ -39547,7 +39693,7 @@
       <c r="J19" s="34"/>
       <c r="K19" s="60"/>
       <c r="L19" t="s">
-        <v>1263</v>
+        <v>1249</v>
       </c>
       <c r="M19" s="60"/>
       <c r="N19" s="60"/>
@@ -39624,7 +39770,7 @@
       <c r="J20" s="34"/>
       <c r="K20" s="60"/>
       <c r="L20" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="M20" s="60"/>
       <c r="N20" s="60"/>
@@ -39778,7 +39924,7 @@
       <c r="J22" s="34"/>
       <c r="K22" s="60"/>
       <c r="L22" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="M22" s="60"/>
       <c r="N22" s="60"/>
@@ -39855,7 +40001,7 @@
       <c r="J23" s="34"/>
       <c r="K23" s="60"/>
       <c r="L23" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="M23" s="60"/>
       <c r="N23" s="60"/>
@@ -39932,7 +40078,7 @@
       <c r="J24" s="34"/>
       <c r="K24" s="60"/>
       <c r="L24" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="M24" s="60"/>
       <c r="N24" s="60"/>
@@ -40086,7 +40232,7 @@
       <c r="J26" s="34"/>
       <c r="K26" s="60"/>
       <c r="L26" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="M26" s="60"/>
       <c r="N26" s="60"/>
@@ -40317,7 +40463,7 @@
       <c r="J29" s="34"/>
       <c r="K29" s="60"/>
       <c r="L29" t="s">
-        <v>1264</v>
+        <v>1250</v>
       </c>
       <c r="M29" s="60"/>
       <c r="N29" s="60"/>
@@ -40471,7 +40617,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="60"/>
       <c r="L31" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="M31" s="60"/>
       <c r="N31" s="60"/>
@@ -40625,7 +40771,7 @@
       <c r="J33" s="34"/>
       <c r="K33" s="60"/>
       <c r="L33" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="M33" s="60"/>
       <c r="N33" s="60"/>
@@ -40702,7 +40848,7 @@
       <c r="J34" s="34"/>
       <c r="K34" s="60"/>
       <c r="L34" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="M34" s="60"/>
       <c r="N34" s="60"/>
@@ -40856,7 +41002,7 @@
       <c r="J36" s="34"/>
       <c r="K36" s="60"/>
       <c r="L36" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="M36" s="60"/>
       <c r="N36" s="60"/>
@@ -41010,7 +41156,7 @@
       <c r="J38" s="34"/>
       <c r="K38" s="60"/>
       <c r="L38" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="M38" s="60"/>
       <c r="N38" s="60"/>
@@ -41087,7 +41233,7 @@
       <c r="J39" s="34"/>
       <c r="K39" s="60"/>
       <c r="L39" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="M39" s="60"/>
       <c r="N39" s="60"/>
@@ -44849,7 +44995,7 @@
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="156.75" customHeight="1"/>
@@ -44857,40 +45003,40 @@
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" customWidth="1"/>
-    <col min="5" max="6" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="6" width="23.6328125" customWidth="1"/>
     <col min="7" max="7" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="41" customFormat="1" ht="156.75" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
+    <row r="1" spans="1:7" s="41" customFormat="1" ht="167" customHeight="1">
+      <c r="A1" s="112" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:7" ht="14.5">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>428</v>
@@ -45829,7 +45975,7 @@
     <col min="2" max="2" width="35.1796875" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" customWidth="1"/>
     <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -46148,7 +46294,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.1796875" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="65" customWidth="1"/>
@@ -46163,10 +46309,10 @@
         <v>698</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>1309</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -46659,18 +46805,18 @@
     <col min="3" max="3" width="17.1796875" customWidth="1"/>
     <col min="4" max="4" width="22.81640625" customWidth="1"/>
     <col min="5" max="5" width="25.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="41" customFormat="1" ht="134.25" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="A1" s="112" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="27" t="s">
@@ -46683,10 +46829,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1160</v>
+        <v>1146</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>428</v>
@@ -46715,34 +46861,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
     <col min="4" max="4" width="19.81640625" customWidth="1"/>
-    <col min="5" max="5" width="49.26953125" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" customWidth="1"/>
     <col min="6" max="7" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="41" customFormat="1" ht="112" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+    <row r="1" spans="1:8" s="41" customFormat="1" ht="102.75" customHeight="1">
+      <c r="A1" s="112" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:8" s="41" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -46784,7 +46930,7 @@
         <v>621</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -46796,7 +46942,7 @@
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
@@ -47080,7 +47226,7 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33" t="s">
-        <v>861</v>
+        <v>1313</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -47092,7 +47238,7 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33" t="s">
-        <v>862</v>
+        <v>1314</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
@@ -47104,7 +47250,7 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33" t="s">
-        <v>863</v>
+        <v>1315</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -47116,7 +47262,7 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -47128,7 +47274,7 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -47140,7 +47286,7 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -47152,7 +47298,7 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -47164,7 +47310,7 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33" t="s">
-        <v>868</v>
+        <v>1316</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -47176,7 +47322,7 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -47188,7 +47334,7 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33" t="s">
-        <v>870</v>
+        <v>1317</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -47200,7 +47346,7 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -47212,7 +47358,7 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -47224,7 +47370,7 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -47236,7 +47382,7 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33" t="s">
-        <v>1094</v>
+        <v>869</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -47248,31 +47394,31 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
-        <v>1095</v>
+        <v>1318</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="29">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33" t="s">
-        <v>1096</v>
+        <v>870</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="29">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33" t="s">
-        <v>1097</v>
+        <v>871</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -47284,7 +47430,7 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -47296,39 +47442,39 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
     </row>
-    <row r="46" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A46" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="78" t="s">
-        <v>582</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>583</v>
-      </c>
+    <row r="46" spans="1:8">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="33" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+    <row r="47" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A47" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="78" t="s">
+        <v>582</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>583</v>
+      </c>
       <c r="E47" s="33" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -47340,7 +47486,7 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -47352,7 +47498,7 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="33" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -47364,7 +47510,7 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -47376,7 +47522,7 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="33" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -47388,19 +47534,19 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
     </row>
-    <row r="53" spans="1:8" ht="29.25" customHeight="1">
+    <row r="53" spans="1:8">
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -47412,7 +47558,7 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -47424,7 +47570,7 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -47436,19 +47582,19 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" ht="29.25" customHeight="1">
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -47460,7 +47606,7 @@
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -47472,7 +47618,7 @@
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -47484,7 +47630,7 @@
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -47496,7 +47642,7 @@
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -47508,127 +47654,119 @@
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
     </row>
-    <row r="63" spans="1:8" ht="29">
-      <c r="A63" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>639</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>1117</v>
-      </c>
+    <row r="63" spans="1:8">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
       <c r="E63" s="33" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
+    <row r="64" spans="1:8" ht="29">
+      <c r="A64" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>639</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>1108</v>
+      </c>
       <c r="E64" s="33" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
     </row>
-    <row r="65" spans="1:8" ht="203">
+    <row r="65" spans="1:8">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="203">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
     </row>
-    <row r="67" spans="1:8" ht="58">
-      <c r="A67" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>874</v>
-      </c>
+    <row r="67" spans="1:8">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
       <c r="E67" s="33" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
     </row>
-    <row r="68" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+    <row r="68" spans="1:8" ht="58">
+      <c r="A68" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>872</v>
+      </c>
       <c r="E68" s="33" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="29">
       <c r="A69" s="33"/>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33" t="s">
-        <v>1125</v>
+        <v>1319</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
     </row>
-    <row r="70" spans="1:8" ht="87" customHeight="1">
-      <c r="A70" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" s="78" t="s">
-        <v>584</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>875</v>
-      </c>
+    <row r="70" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
       <c r="E70" s="33" t="s">
-        <v>876</v>
+        <v>1115</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -47640,7 +47778,7 @@
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33" t="s">
-        <v>877</v>
+        <v>1320</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -47652,7 +47790,7 @@
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
       <c r="E72" s="33" t="s">
-        <v>878</v>
+        <v>1321</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -47664,7 +47802,7 @@
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33" t="s">
-        <v>879</v>
+        <v>1322</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -47676,67 +47814,75 @@
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
       <c r="E74" s="33" t="s">
-        <v>880</v>
+        <v>1323</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
       <c r="H74" s="33"/>
     </row>
-    <row r="75" spans="1:8" ht="29">
+    <row r="75" spans="1:8" ht="29.25" customHeight="1">
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33" t="s">
-        <v>881</v>
+        <v>1324</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
       <c r="H75" s="33"/>
     </row>
-    <row r="76" spans="1:8" ht="29.25" customHeight="1">
+    <row r="76" spans="1:8">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33" t="s">
-        <v>882</v>
+        <v>1116</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
       <c r="H76" s="33"/>
     </row>
-    <row r="77" spans="1:8" ht="29.25" customHeight="1">
+    <row r="77" spans="1:8" ht="29">
       <c r="A77" s="33"/>
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33" t="s">
-        <v>883</v>
-      </c>
-      <c r="F77" s="33"/>
+        <v>1325</v>
+      </c>
+      <c r="F77" s="111"/>
       <c r="G77" s="33"/>
       <c r="H77" s="33"/>
     </row>
-    <row r="78" spans="1:8" ht="72.5">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
+    <row r="78" spans="1:8" ht="87" customHeight="1">
+      <c r="A78" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="78" t="s">
+        <v>584</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>873</v>
+      </c>
       <c r="E78" s="33" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
     </row>
-    <row r="79" spans="1:8" ht="101.5">
+    <row r="79" spans="1:8" ht="29.25" customHeight="1">
       <c r="A79" s="33"/>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -47748,7 +47894,7 @@
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
@@ -47760,7 +47906,7 @@
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33" t="s">
-        <v>887</v>
+        <v>1326</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -47772,7 +47918,7 @@
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33" t="s">
-        <v>888</v>
+        <v>1327</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -47784,7 +47930,7 @@
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -47796,139 +47942,139 @@
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
       <c r="E84" s="33" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
       <c r="H84" s="33"/>
     </row>
-    <row r="85" spans="1:8" ht="29.25" customHeight="1">
+    <row r="85" spans="1:8" ht="29">
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
       <c r="E85" s="33" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
       <c r="H85" s="33"/>
     </row>
-    <row r="86" spans="1:8" ht="29">
+    <row r="86" spans="1:8" ht="29.25" customHeight="1">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
       <c r="E86" s="33" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
       <c r="H86" s="33"/>
     </row>
-    <row r="87" spans="1:8" ht="29">
+    <row r="87" spans="1:8" ht="29.25" customHeight="1">
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
       <c r="H87" s="33"/>
     </row>
-    <row r="88" spans="1:8" ht="29">
+    <row r="88" spans="1:8" ht="72.5">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
       <c r="E88" s="33" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
     </row>
-    <row r="89" spans="1:8" ht="29">
+    <row r="89" spans="1:8" ht="101.5">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
       <c r="E89" s="33" t="s">
-        <v>1282</v>
+        <v>883</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
       <c r="H89" s="33"/>
     </row>
-    <row r="90" spans="1:8" ht="29">
+    <row r="90" spans="1:8" ht="29.25" customHeight="1">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
       <c r="E90" s="33" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
       <c r="H90" s="33"/>
     </row>
-    <row r="91" spans="1:8" ht="29">
+    <row r="91" spans="1:8" ht="29.25" customHeight="1">
       <c r="A91" s="33"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
       <c r="E91" s="33" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
     </row>
-    <row r="92" spans="1:8" ht="29">
+    <row r="92" spans="1:8" ht="29.25" customHeight="1">
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
       <c r="E92" s="33" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
     </row>
-    <row r="93" spans="1:8" ht="29">
+    <row r="93" spans="1:8" ht="29.25" customHeight="1">
       <c r="A93" s="33"/>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
       <c r="E93" s="33" t="s">
-        <v>1283</v>
+        <v>887</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
       <c r="H93" s="33"/>
     </row>
-    <row r="94" spans="1:8" ht="29">
+    <row r="94" spans="1:8" ht="29.25" customHeight="1">
       <c r="A94" s="33"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
       <c r="E94" s="33" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
     </row>
-    <row r="95" spans="1:8" ht="29">
+    <row r="95" spans="1:8" ht="29.25" customHeight="1">
       <c r="A95" s="33"/>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
       <c r="E95" s="33" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -47940,7 +48086,7 @@
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
       <c r="E96" s="33" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -47952,7 +48098,7 @@
       <c r="C97" s="33"/>
       <c r="D97" s="33"/>
       <c r="E97" s="33" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -47964,7 +48110,7 @@
       <c r="C98" s="33"/>
       <c r="D98" s="33"/>
       <c r="E98" s="33" t="s">
-        <v>1284</v>
+        <v>892</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -47976,7 +48122,7 @@
       <c r="C99" s="33"/>
       <c r="D99" s="33"/>
       <c r="E99" s="33" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -47988,7 +48134,7 @@
       <c r="C100" s="33"/>
       <c r="D100" s="33"/>
       <c r="E100" s="33" t="s">
-        <v>903</v>
+        <v>1328</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -48000,7 +48146,7 @@
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
       <c r="E101" s="33" t="s">
-        <v>1126</v>
+        <v>1329</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -48012,7 +48158,7 @@
       <c r="C102" s="33"/>
       <c r="D102" s="33"/>
       <c r="E102" s="33" t="s">
-        <v>1127</v>
+        <v>1330</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -48024,27 +48170,19 @@
       <c r="C103" s="33"/>
       <c r="D103" s="33"/>
       <c r="E103" s="33" t="s">
-        <v>904</v>
+        <v>1331</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
     </row>
-    <row r="104" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A104" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" s="78" t="s">
-        <v>585</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="D104" s="33" t="s">
-        <v>586</v>
-      </c>
-      <c r="E104" s="78" t="s">
-        <v>1128</v>
+    <row r="104" spans="1:8" ht="29">
+      <c r="A104" s="33"/>
+      <c r="B104" s="33"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33" t="s">
+        <v>894</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -48055,56 +48193,56 @@
       <c r="B105" s="33"/>
       <c r="C105" s="33"/>
       <c r="D105" s="33"/>
-      <c r="E105" s="78" t="s">
-        <v>1129</v>
+      <c r="E105" s="33" t="s">
+        <v>895</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
     </row>
-    <row r="106" spans="1:8" ht="29.25" customHeight="1">
+    <row r="106" spans="1:8" ht="29">
       <c r="A106" s="33"/>
       <c r="B106" s="33"/>
       <c r="C106" s="33"/>
       <c r="D106" s="33"/>
       <c r="E106" s="33" t="s">
-        <v>905</v>
+        <v>1268</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" ht="29">
       <c r="A107" s="33"/>
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
       <c r="E107" s="33" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
       <c r="H107" s="33"/>
     </row>
-    <row r="108" spans="1:8" ht="29.25" customHeight="1">
+    <row r="108" spans="1:8" ht="29">
       <c r="A108" s="33"/>
       <c r="B108" s="33"/>
       <c r="C108" s="33"/>
       <c r="D108" s="33"/>
       <c r="E108" s="33" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
       <c r="H108" s="33"/>
     </row>
-    <row r="109" spans="1:8" ht="43.5">
+    <row r="109" spans="1:8" ht="29">
       <c r="A109" s="33"/>
       <c r="B109" s="33"/>
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
       <c r="E109" s="33" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -48116,43 +48254,43 @@
       <c r="C110" s="33"/>
       <c r="D110" s="33"/>
       <c r="E110" s="33" t="s">
-        <v>909</v>
+        <v>1332</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
       <c r="H110" s="33"/>
     </row>
-    <row r="111" spans="1:8" ht="58">
+    <row r="111" spans="1:8" ht="29">
       <c r="A111" s="33"/>
       <c r="B111" s="33"/>
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
       <c r="E111" s="33" t="s">
-        <v>1130</v>
+        <v>1333</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
       <c r="H111" s="33"/>
     </row>
-    <row r="112" spans="1:8" ht="29.25" customHeight="1">
+    <row r="112" spans="1:8" ht="29">
       <c r="A112" s="33"/>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
       <c r="E112" s="33" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
       <c r="H112" s="33"/>
     </row>
-    <row r="113" spans="1:8" ht="29.25" customHeight="1">
+    <row r="113" spans="1:8" ht="29">
       <c r="A113" s="33"/>
       <c r="B113" s="33"/>
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
       <c r="E113" s="33" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -48164,43 +48302,43 @@
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
       <c r="E114" s="33" t="s">
-        <v>912</v>
+        <v>1334</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
       <c r="H114" s="33"/>
     </row>
-    <row r="115" spans="1:8" ht="29.25" customHeight="1">
+    <row r="115" spans="1:8" ht="29">
       <c r="A115" s="33"/>
       <c r="B115" s="33"/>
       <c r="C115" s="33"/>
       <c r="D115" s="33"/>
       <c r="E115" s="33" t="s">
-        <v>913</v>
+        <v>1335</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
       <c r="H115" s="33"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" ht="29">
       <c r="A116" s="33"/>
       <c r="B116" s="33"/>
       <c r="C116" s="33"/>
       <c r="D116" s="33"/>
       <c r="E116" s="33" t="s">
-        <v>914</v>
+        <v>890</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
       <c r="H116" s="33"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" ht="29">
       <c r="A117" s="33"/>
       <c r="B117" s="33"/>
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33" t="s">
-        <v>915</v>
+        <v>1336</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -48212,7 +48350,7 @@
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33" t="s">
-        <v>916</v>
+        <v>1337</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -48224,7 +48362,7 @@
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33" t="s">
-        <v>917</v>
+        <v>1338</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -48236,51 +48374,51 @@
       <c r="C120" s="33"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33" t="s">
-        <v>918</v>
+        <v>1339</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
       <c r="H120" s="33"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" ht="29">
       <c r="A121" s="33"/>
       <c r="B121" s="33"/>
       <c r="C121" s="33"/>
       <c r="D121" s="33"/>
       <c r="E121" s="33" t="s">
-        <v>919</v>
+        <v>893</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
       <c r="H121" s="33"/>
     </row>
-    <row r="122" spans="1:8" ht="29">
-      <c r="A122" s="33"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33" t="s">
-        <v>920</v>
+    <row r="122" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A122" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="78" t="s">
+        <v>585</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>586</v>
+      </c>
+      <c r="E122" s="78" t="s">
+        <v>1117</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
       <c r="H122" s="33"/>
     </row>
-    <row r="123" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A123" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B123" s="78" t="s">
-        <v>587</v>
-      </c>
-      <c r="C123" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="D123" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="E123" s="33" t="s">
-        <v>921</v>
+    <row r="123" spans="1:8" ht="29">
+      <c r="A123" s="33"/>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="78" t="s">
+        <v>1118</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
@@ -48292,31 +48430,31 @@
       <c r="C124" s="33"/>
       <c r="D124" s="33"/>
       <c r="E124" s="33" t="s">
-        <v>922</v>
+        <v>901</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
       <c r="H124" s="33"/>
     </row>
-    <row r="125" spans="1:8" ht="29.25" customHeight="1">
+    <row r="125" spans="1:8" ht="188.5">
       <c r="A125" s="33"/>
       <c r="B125" s="33"/>
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33" t="s">
-        <v>923</v>
+        <v>1340</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
       <c r="H125" s="33"/>
     </row>
-    <row r="126" spans="1:8" ht="29.25" customHeight="1">
+    <row r="126" spans="1:8">
       <c r="A126" s="33"/>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
       <c r="D126" s="33"/>
       <c r="E126" s="33" t="s">
-        <v>924</v>
+        <v>902</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
@@ -48328,43 +48466,43 @@
       <c r="C127" s="33"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33" t="s">
-        <v>925</v>
+        <v>903</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
       <c r="H127" s="33"/>
     </row>
-    <row r="128" spans="1:8" ht="29.25" customHeight="1">
+    <row r="128" spans="1:8" ht="43.5">
       <c r="A128" s="33"/>
       <c r="B128" s="33"/>
       <c r="C128" s="33"/>
       <c r="D128" s="33"/>
       <c r="E128" s="33" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
       <c r="H128" s="33"/>
     </row>
-    <row r="129" spans="1:8" ht="29.25" customHeight="1">
+    <row r="129" spans="1:8" ht="29">
       <c r="A129" s="33"/>
       <c r="B129" s="33"/>
       <c r="C129" s="33"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
       <c r="H129" s="33"/>
     </row>
-    <row r="130" spans="1:8" ht="29.25" customHeight="1">
+    <row r="130" spans="1:8" ht="58">
       <c r="A130" s="33"/>
       <c r="B130" s="33"/>
       <c r="C130" s="33"/>
       <c r="D130" s="33"/>
       <c r="E130" s="33" t="s">
-        <v>928</v>
+        <v>1119</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -48376,19 +48514,19 @@
       <c r="C131" s="33"/>
       <c r="D131" s="33"/>
       <c r="E131" s="33" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
       <c r="H131" s="33"/>
     </row>
-    <row r="132" spans="1:8" ht="29">
+    <row r="132" spans="1:8" ht="29.25" customHeight="1">
       <c r="A132" s="33"/>
       <c r="B132" s="33"/>
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
       <c r="E132" s="33" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -48400,91 +48538,91 @@
       <c r="C133" s="33"/>
       <c r="D133" s="33"/>
       <c r="E133" s="33" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
       <c r="H133" s="33"/>
     </row>
-    <row r="134" spans="1:8" ht="29">
+    <row r="134" spans="1:8" ht="29.25" customHeight="1">
       <c r="A134" s="33"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
       <c r="D134" s="33"/>
       <c r="E134" s="33" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
       <c r="H134" s="33"/>
     </row>
-    <row r="135" spans="1:8" ht="29">
+    <row r="135" spans="1:8">
       <c r="A135" s="33"/>
       <c r="B135" s="33"/>
       <c r="C135" s="33"/>
       <c r="D135" s="33"/>
       <c r="E135" s="33" t="s">
-        <v>933</v>
+        <v>910</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
       <c r="H135" s="33"/>
     </row>
-    <row r="136" spans="1:8" ht="72.5">
+    <row r="136" spans="1:8">
       <c r="A136" s="33"/>
       <c r="B136" s="33"/>
       <c r="C136" s="33"/>
       <c r="D136" s="33"/>
       <c r="E136" s="33" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
       <c r="H136" s="33"/>
     </row>
-    <row r="137" spans="1:8" ht="58">
+    <row r="137" spans="1:8" ht="29">
       <c r="A137" s="33"/>
       <c r="B137" s="33"/>
       <c r="C137" s="33"/>
       <c r="D137" s="33"/>
       <c r="E137" s="33" t="s">
-        <v>935</v>
+        <v>912</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
       <c r="H137" s="33"/>
     </row>
-    <row r="138" spans="1:8" ht="105.75" customHeight="1">
+    <row r="138" spans="1:8" ht="29">
       <c r="A138" s="33"/>
       <c r="B138" s="33"/>
       <c r="C138" s="33"/>
       <c r="D138" s="33"/>
       <c r="E138" s="33" t="s">
-        <v>936</v>
+        <v>913</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
       <c r="H138" s="33"/>
     </row>
-    <row r="139" spans="1:8" ht="29">
+    <row r="139" spans="1:8">
       <c r="A139" s="33"/>
       <c r="B139" s="33"/>
       <c r="C139" s="33"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33" t="s">
-        <v>937</v>
+        <v>914</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
       <c r="H139" s="33"/>
     </row>
-    <row r="140" spans="1:8" ht="29">
+    <row r="140" spans="1:8">
       <c r="A140" s="33"/>
       <c r="B140" s="33"/>
       <c r="C140" s="33"/>
       <c r="D140" s="33"/>
       <c r="E140" s="33" t="s">
-        <v>938</v>
+        <v>915</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -48496,123 +48634,123 @@
       <c r="C141" s="33"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
       <c r="H141" s="33"/>
     </row>
-    <row r="142" spans="1:8" ht="29">
-      <c r="A142" s="33"/>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
+    <row r="142" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A142" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="78" t="s">
+        <v>587</v>
+      </c>
+      <c r="C142" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>588</v>
+      </c>
       <c r="E142" s="33" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
       <c r="H142" s="33"/>
     </row>
-    <row r="143" spans="1:8" ht="29">
+    <row r="143" spans="1:8" ht="29.25" customHeight="1">
       <c r="A143" s="33"/>
       <c r="B143" s="33"/>
       <c r="C143" s="33"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
       <c r="H143" s="33"/>
     </row>
-    <row r="144" spans="1:8" ht="29">
+    <row r="144" spans="1:8" ht="29.25" customHeight="1">
       <c r="A144" s="33"/>
       <c r="B144" s="33"/>
       <c r="C144" s="33"/>
       <c r="D144" s="33"/>
       <c r="E144" s="33" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
       <c r="H144" s="33"/>
     </row>
-    <row r="145" spans="1:8" ht="29">
+    <row r="145" spans="1:8" ht="29.25" customHeight="1">
       <c r="A145" s="33"/>
       <c r="B145" s="33"/>
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
       <c r="E145" s="33" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
       <c r="H145" s="33"/>
     </row>
-    <row r="146" spans="1:8" ht="29">
+    <row r="146" spans="1:8" ht="29.25" customHeight="1">
       <c r="A146" s="33"/>
       <c r="B146" s="33"/>
       <c r="C146" s="33"/>
       <c r="D146" s="33"/>
       <c r="E146" s="33" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
       <c r="H146" s="33"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" ht="29.25" customHeight="1">
       <c r="A147" s="33"/>
       <c r="B147" s="33"/>
       <c r="C147" s="33"/>
       <c r="D147" s="33"/>
       <c r="E147" s="33" t="s">
-        <v>1131</v>
+        <v>922</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
       <c r="H147" s="33"/>
     </row>
-    <row r="148" spans="1:8" ht="29">
+    <row r="148" spans="1:8" ht="29.25" customHeight="1">
       <c r="A148" s="33"/>
       <c r="B148" s="33"/>
       <c r="C148" s="33"/>
       <c r="D148" s="33"/>
       <c r="E148" s="33" t="s">
-        <v>1132</v>
+        <v>923</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
       <c r="H148" s="33"/>
     </row>
-    <row r="149" spans="1:8" ht="29">
+    <row r="149" spans="1:8" ht="29.25" customHeight="1">
       <c r="A149" s="33"/>
       <c r="B149" s="33"/>
       <c r="C149" s="33"/>
       <c r="D149" s="33"/>
       <c r="E149" s="33" t="s">
-        <v>1133</v>
+        <v>924</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
       <c r="H149" s="33"/>
     </row>
-    <row r="150" spans="1:8" ht="43.5">
-      <c r="A150" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B150" s="33" t="s">
-        <v>734</v>
-      </c>
-      <c r="C150" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="D150" s="33" t="s">
-        <v>735</v>
-      </c>
-      <c r="E150" s="102" t="s">
-        <v>1134</v>
+    <row r="150" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A150" s="33"/>
+      <c r="B150" s="33"/>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33" t="s">
+        <v>925</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -48624,7 +48762,7 @@
       <c r="C151" s="33"/>
       <c r="D151" s="33"/>
       <c r="E151" s="33" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="33"/>
@@ -48636,7 +48774,7 @@
       <c r="C152" s="33"/>
       <c r="D152" s="33"/>
       <c r="E152" s="33" t="s">
-        <v>1135</v>
+        <v>927</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
@@ -48648,303 +48786,311 @@
       <c r="C153" s="33"/>
       <c r="D153" s="33"/>
       <c r="E153" s="33" t="s">
-        <v>1136</v>
+        <v>928</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
       <c r="H153" s="33"/>
     </row>
-    <row r="154" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A154" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B154" s="78" t="s">
-        <v>589</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="D154" s="33" t="s">
-        <v>590</v>
-      </c>
+    <row r="154" spans="1:8" ht="29">
+      <c r="A154" s="33"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
       <c r="E154" s="33" t="s">
-        <v>1137</v>
+        <v>929</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
     </row>
-    <row r="155" spans="1:8" ht="29.25" customHeight="1">
+    <row r="155" spans="1:8" ht="72.5">
       <c r="A155" s="33"/>
       <c r="B155" s="33"/>
       <c r="C155" s="33"/>
       <c r="D155" s="33"/>
       <c r="E155" s="33" t="s">
-        <v>1138</v>
+        <v>930</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
       <c r="H155" s="33"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" ht="58">
       <c r="A156" s="33"/>
       <c r="B156" s="33"/>
       <c r="C156" s="33"/>
       <c r="D156" s="33"/>
       <c r="E156" s="33" t="s">
-        <v>1139</v>
+        <v>931</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
     </row>
-    <row r="157" spans="1:8" ht="29.25" customHeight="1">
+    <row r="157" spans="1:8" ht="105.75" customHeight="1">
       <c r="A157" s="33"/>
       <c r="B157" s="33"/>
       <c r="C157" s="33"/>
       <c r="D157" s="33"/>
       <c r="E157" s="33" t="s">
-        <v>1140</v>
+        <v>932</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
       <c r="H157" s="33"/>
     </row>
-    <row r="158" spans="1:8" ht="29.25" customHeight="1">
+    <row r="158" spans="1:8" ht="29">
       <c r="A158" s="33"/>
       <c r="B158" s="33"/>
       <c r="C158" s="33"/>
       <c r="D158" s="33"/>
       <c r="E158" s="33" t="s">
-        <v>1141</v>
+        <v>933</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
       <c r="H158" s="33"/>
     </row>
-    <row r="159" spans="1:8" ht="29.25" customHeight="1">
+    <row r="159" spans="1:8" ht="29">
       <c r="A159" s="33"/>
       <c r="B159" s="33"/>
       <c r="C159" s="33"/>
       <c r="D159" s="33"/>
       <c r="E159" s="33" t="s">
-        <v>1142</v>
+        <v>934</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
     </row>
-    <row r="160" spans="1:8" ht="29.25" customHeight="1">
+    <row r="160" spans="1:8" ht="29">
       <c r="A160" s="33"/>
       <c r="B160" s="33"/>
       <c r="C160" s="33"/>
       <c r="D160" s="33"/>
       <c r="E160" s="33" t="s">
-        <v>1143</v>
+        <v>921</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
       <c r="H160" s="33"/>
     </row>
-    <row r="161" spans="1:8" ht="29.25" customHeight="1">
+    <row r="161" spans="1:8" ht="29">
       <c r="A161" s="33"/>
       <c r="B161" s="33"/>
       <c r="C161" s="33"/>
       <c r="D161" s="33"/>
       <c r="E161" s="33" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="33"/>
       <c r="H161" s="33"/>
     </row>
-    <row r="162" spans="1:8" ht="29.25" customHeight="1">
+    <row r="162" spans="1:8" ht="29">
       <c r="A162" s="33"/>
       <c r="B162" s="33"/>
       <c r="C162" s="33"/>
       <c r="D162" s="33"/>
       <c r="E162" s="33" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="33"/>
       <c r="H162" s="33"/>
     </row>
-    <row r="163" spans="1:8" ht="72.5">
+    <row r="163" spans="1:8" ht="29">
       <c r="A163" s="33"/>
       <c r="B163" s="33"/>
       <c r="C163" s="33"/>
       <c r="D163" s="33"/>
       <c r="E163" s="33" t="s">
-        <v>946</v>
+        <v>1341</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
       <c r="H163" s="33"/>
     </row>
-    <row r="164" spans="1:8" ht="58">
+    <row r="164" spans="1:8" ht="29">
       <c r="A164" s="33"/>
       <c r="B164" s="33"/>
       <c r="C164" s="33"/>
       <c r="D164" s="33"/>
       <c r="E164" s="33" t="s">
-        <v>947</v>
+        <v>1342</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="33"/>
       <c r="H164" s="33"/>
     </row>
-    <row r="165" spans="1:8" ht="29.25" customHeight="1">
+    <row r="165" spans="1:8" ht="29">
       <c r="A165" s="33"/>
       <c r="B165" s="33"/>
       <c r="C165" s="33"/>
       <c r="D165" s="33"/>
       <c r="E165" s="33" t="s">
-        <v>948</v>
+        <v>1343</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
       <c r="H165" s="33"/>
     </row>
-    <row r="166" spans="1:8" ht="29.25" customHeight="1">
+    <row r="166" spans="1:8" ht="29">
       <c r="A166" s="33"/>
       <c r="B166" s="33"/>
       <c r="C166" s="33"/>
       <c r="D166" s="33"/>
       <c r="E166" s="33" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
       <c r="H166" s="33"/>
     </row>
-    <row r="167" spans="1:8" ht="29.25" customHeight="1">
+    <row r="167" spans="1:8" ht="29">
       <c r="A167" s="33"/>
       <c r="B167" s="33"/>
       <c r="C167" s="33"/>
       <c r="D167" s="33"/>
       <c r="E167" s="33" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
       <c r="H167" s="33"/>
     </row>
-    <row r="168" spans="1:8" ht="29.25" customHeight="1">
+    <row r="168" spans="1:8" ht="29">
       <c r="A168" s="33"/>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
       <c r="D168" s="33"/>
       <c r="E168" s="33" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
       <c r="H168" s="33"/>
     </row>
-    <row r="169" spans="1:8" ht="29.25" customHeight="1">
+    <row r="169" spans="1:8" ht="29">
       <c r="A169" s="33"/>
       <c r="B169" s="33"/>
       <c r="C169" s="33"/>
       <c r="D169" s="33"/>
       <c r="E169" s="33" t="s">
-        <v>952</v>
+        <v>1344</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
       <c r="H169" s="33"/>
     </row>
-    <row r="170" spans="1:8" ht="29.25" customHeight="1">
+    <row r="170" spans="1:8" ht="29">
       <c r="A170" s="33"/>
       <c r="B170" s="33"/>
       <c r="C170" s="33"/>
       <c r="D170" s="33"/>
       <c r="E170" s="33" t="s">
-        <v>953</v>
+        <v>1345</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
       <c r="H170" s="33"/>
     </row>
-    <row r="171" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A171" s="33"/>
-      <c r="B171" s="33"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33" t="s">
-        <v>954</v>
+    <row r="171" spans="1:8" ht="43.5">
+      <c r="A171" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D171" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="E171" s="102" t="s">
+        <v>1120</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
       <c r="H171" s="33"/>
     </row>
-    <row r="172" spans="1:8" ht="29.25" customHeight="1">
+    <row r="172" spans="1:8" ht="29">
       <c r="A172" s="33"/>
       <c r="B172" s="33"/>
       <c r="C172" s="33"/>
       <c r="D172" s="33"/>
       <c r="E172" s="33" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
       <c r="H172" s="33"/>
     </row>
-    <row r="173" spans="1:8" ht="29.25" customHeight="1">
+    <row r="173" spans="1:8" ht="29">
       <c r="A173" s="33"/>
       <c r="B173" s="33"/>
       <c r="C173" s="33"/>
       <c r="D173" s="33"/>
       <c r="E173" s="33" t="s">
-        <v>956</v>
+        <v>1121</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
       <c r="H173" s="33"/>
     </row>
-    <row r="174" spans="1:8" ht="29.25" customHeight="1">
+    <row r="174" spans="1:8" ht="29">
       <c r="A174" s="33"/>
       <c r="B174" s="33"/>
       <c r="C174" s="33"/>
       <c r="D174" s="33"/>
       <c r="E174" s="33" t="s">
-        <v>957</v>
+        <v>1122</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
       <c r="H174" s="33"/>
     </row>
-    <row r="175" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A175" s="33"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
+    <row r="175" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A175" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="78" t="s">
+        <v>589</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D175" s="33" t="s">
+        <v>590</v>
+      </c>
       <c r="E175" s="33" t="s">
-        <v>958</v>
+        <v>1123</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
       <c r="H175" s="33"/>
     </row>
-    <row r="176" spans="1:8" ht="29">
+    <row r="176" spans="1:8" ht="29.25" customHeight="1">
       <c r="A176" s="33"/>
       <c r="B176" s="33"/>
       <c r="C176" s="33"/>
       <c r="D176" s="33"/>
       <c r="E176" s="33" t="s">
-        <v>959</v>
+        <v>1124</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
       <c r="H176" s="33"/>
     </row>
-    <row r="177" spans="1:8" ht="29">
+    <row r="177" spans="1:8">
       <c r="A177" s="33"/>
       <c r="B177" s="33"/>
       <c r="C177" s="33"/>
       <c r="D177" s="33"/>
       <c r="E177" s="33" t="s">
-        <v>960</v>
+        <v>1125</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
@@ -48956,7 +49102,7 @@
       <c r="C178" s="33"/>
       <c r="D178" s="33"/>
       <c r="E178" s="33" t="s">
-        <v>961</v>
+        <v>1126</v>
       </c>
       <c r="F178" s="33"/>
       <c r="G178" s="33"/>
@@ -48968,7 +49114,7 @@
       <c r="C179" s="33"/>
       <c r="D179" s="33"/>
       <c r="E179" s="33" t="s">
-        <v>962</v>
+        <v>1127</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="33"/>
@@ -48980,127 +49126,127 @@
       <c r="C180" s="33"/>
       <c r="D180" s="33"/>
       <c r="E180" s="33" t="s">
-        <v>963</v>
+        <v>1128</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="33"/>
       <c r="H180" s="33"/>
     </row>
-    <row r="181" spans="1:8" ht="29">
+    <row r="181" spans="1:8" ht="29.25" customHeight="1">
       <c r="A181" s="33"/>
       <c r="B181" s="33"/>
       <c r="C181" s="33"/>
       <c r="D181" s="33"/>
       <c r="E181" s="33" t="s">
-        <v>964</v>
+        <v>1129</v>
       </c>
       <c r="F181" s="33"/>
       <c r="G181" s="33"/>
       <c r="H181" s="33"/>
     </row>
-    <row r="182" spans="1:8" ht="29">
+    <row r="182" spans="1:8" ht="29.25" customHeight="1">
       <c r="A182" s="33"/>
       <c r="B182" s="33"/>
       <c r="C182" s="33"/>
       <c r="D182" s="33"/>
       <c r="E182" s="33" t="s">
-        <v>965</v>
+        <v>940</v>
       </c>
       <c r="F182" s="33"/>
       <c r="G182" s="33"/>
       <c r="H182" s="33"/>
     </row>
-    <row r="183" spans="1:8" ht="29">
+    <row r="183" spans="1:8" ht="29.25" customHeight="1">
       <c r="A183" s="33"/>
       <c r="B183" s="33"/>
       <c r="C183" s="33"/>
       <c r="D183" s="33"/>
       <c r="E183" s="33" t="s">
-        <v>966</v>
+        <v>941</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="33"/>
       <c r="H183" s="33"/>
     </row>
-    <row r="184" spans="1:8" ht="29">
+    <row r="184" spans="1:8" ht="72.5">
       <c r="A184" s="33"/>
       <c r="B184" s="33"/>
       <c r="C184" s="33"/>
       <c r="D184" s="33"/>
       <c r="E184" s="33" t="s">
-        <v>967</v>
+        <v>942</v>
       </c>
       <c r="F184" s="33"/>
       <c r="G184" s="33"/>
       <c r="H184" s="33"/>
     </row>
-    <row r="185" spans="1:8" ht="29">
+    <row r="185" spans="1:8" ht="58">
       <c r="A185" s="33"/>
       <c r="B185" s="33"/>
       <c r="C185" s="33"/>
       <c r="D185" s="33"/>
       <c r="E185" s="33" t="s">
-        <v>968</v>
+        <v>943</v>
       </c>
       <c r="F185" s="33"/>
       <c r="G185" s="33"/>
       <c r="H185" s="33"/>
     </row>
-    <row r="186" spans="1:8" ht="29">
+    <row r="186" spans="1:8" ht="29.25" customHeight="1">
       <c r="A186" s="33"/>
       <c r="B186" s="33"/>
       <c r="C186" s="33"/>
       <c r="D186" s="33"/>
       <c r="E186" s="33" t="s">
-        <v>969</v>
+        <v>944</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="33"/>
       <c r="H186" s="33"/>
     </row>
-    <row r="187" spans="1:8" ht="29">
+    <row r="187" spans="1:8" ht="29.25" customHeight="1">
       <c r="A187" s="33"/>
       <c r="B187" s="33"/>
       <c r="C187" s="33"/>
       <c r="D187" s="33"/>
       <c r="E187" s="33" t="s">
-        <v>970</v>
+        <v>945</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33"/>
       <c r="H187" s="33"/>
     </row>
-    <row r="188" spans="1:8" ht="29">
+    <row r="188" spans="1:8" ht="29.25" customHeight="1">
       <c r="A188" s="33"/>
       <c r="B188" s="33"/>
       <c r="C188" s="33"/>
       <c r="D188" s="33"/>
       <c r="E188" s="33" t="s">
-        <v>971</v>
+        <v>946</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
       <c r="H188" s="33"/>
     </row>
-    <row r="189" spans="1:8" ht="29">
+    <row r="189" spans="1:8" ht="29.25" customHeight="1">
       <c r="A189" s="33"/>
       <c r="B189" s="33"/>
       <c r="C189" s="33"/>
       <c r="D189" s="33"/>
       <c r="E189" s="33" t="s">
-        <v>972</v>
+        <v>947</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
       <c r="H189" s="33"/>
     </row>
-    <row r="190" spans="1:8" ht="29">
+    <row r="190" spans="1:8" ht="29.25" customHeight="1">
       <c r="A190" s="33"/>
       <c r="B190" s="33"/>
       <c r="C190" s="33"/>
       <c r="D190" s="33"/>
       <c r="E190" s="33" t="s">
-        <v>1144</v>
+        <v>948</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
@@ -49112,7 +49258,7 @@
       <c r="C191" s="33"/>
       <c r="D191" s="33"/>
       <c r="E191" s="33" t="s">
-        <v>1145</v>
+        <v>949</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
@@ -49124,513 +49270,819 @@
       <c r="C192" s="33"/>
       <c r="D192" s="33"/>
       <c r="E192" s="33" t="s">
-        <v>1146</v>
+        <v>950</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
       <c r="H192" s="33"/>
     </row>
-    <row r="193" spans="1:9" ht="29.25" customHeight="1">
+    <row r="193" spans="1:8" ht="29.25" customHeight="1">
       <c r="A193" s="33"/>
       <c r="B193" s="33"/>
       <c r="C193" s="33"/>
       <c r="D193" s="33"/>
       <c r="E193" s="33" t="s">
-        <v>1147</v>
+        <v>951</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="33"/>
       <c r="H193" s="33"/>
     </row>
-    <row r="194" spans="1:9" ht="29.25" customHeight="1">
+    <row r="194" spans="1:8" ht="29.25" customHeight="1">
       <c r="A194" s="33"/>
       <c r="B194" s="33"/>
       <c r="C194" s="33"/>
       <c r="D194" s="33"/>
       <c r="E194" s="33" t="s">
-        <v>1148</v>
+        <v>952</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="33"/>
       <c r="H194" s="33"/>
     </row>
-    <row r="195" spans="1:9" ht="29">
+    <row r="195" spans="1:8" ht="29.25" customHeight="1">
       <c r="A195" s="33"/>
       <c r="B195" s="33"/>
       <c r="C195" s="33"/>
       <c r="D195" s="33"/>
       <c r="E195" s="33" t="s">
-        <v>1149</v>
+        <v>953</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="33"/>
       <c r="H195" s="33"/>
     </row>
-    <row r="196" spans="1:9" s="34" customFormat="1" ht="29">
+    <row r="196" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A196" s="33"/>
+      <c r="B196" s="33"/>
+      <c r="C196" s="33"/>
+      <c r="D196" s="33"/>
       <c r="E196" s="33" t="s">
-        <v>1150</v>
-      </c>
-      <c r="I196" s="77"/>
-    </row>
-    <row r="197" spans="1:9" ht="58">
-      <c r="A197" s="33" t="s">
+        <v>954</v>
+      </c>
+      <c r="F196" s="33"/>
+      <c r="G196" s="33"/>
+      <c r="H196" s="33"/>
+    </row>
+    <row r="197" spans="1:8" ht="29">
+      <c r="A197" s="33"/>
+      <c r="B197" s="33"/>
+      <c r="C197" s="33"/>
+      <c r="D197" s="33"/>
+      <c r="E197" s="33" t="s">
+        <v>955</v>
+      </c>
+      <c r="F197" s="33"/>
+      <c r="G197" s="33"/>
+      <c r="H197" s="33"/>
+    </row>
+    <row r="198" spans="1:8" ht="29">
+      <c r="A198" s="33"/>
+      <c r="B198" s="33"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="F198" s="33"/>
+      <c r="G198" s="33"/>
+      <c r="H198" s="33"/>
+    </row>
+    <row r="199" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A199" s="33"/>
+      <c r="B199" s="33"/>
+      <c r="C199" s="33"/>
+      <c r="D199" s="33"/>
+      <c r="E199" s="33" t="s">
+        <v>957</v>
+      </c>
+      <c r="F199" s="33"/>
+      <c r="G199" s="33"/>
+      <c r="H199" s="33"/>
+    </row>
+    <row r="200" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A200" s="33"/>
+      <c r="B200" s="33"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="33" t="s">
+        <v>958</v>
+      </c>
+      <c r="F200" s="33"/>
+      <c r="G200" s="33"/>
+      <c r="H200" s="33"/>
+    </row>
+    <row r="201" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A201" s="33"/>
+      <c r="B201" s="33"/>
+      <c r="C201" s="33"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="33" t="s">
+        <v>959</v>
+      </c>
+      <c r="F201" s="33"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="33"/>
+    </row>
+    <row r="202" spans="1:8" ht="29">
+      <c r="A202" s="33"/>
+      <c r="B202" s="33"/>
+      <c r="C202" s="33"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="33" t="s">
+        <v>960</v>
+      </c>
+      <c r="F202" s="33"/>
+      <c r="G202" s="33"/>
+      <c r="H202" s="33"/>
+    </row>
+    <row r="203" spans="1:8" ht="29">
+      <c r="A203" s="33"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33" t="s">
+        <v>961</v>
+      </c>
+      <c r="F203" s="33"/>
+      <c r="G203" s="33"/>
+      <c r="H203" s="33"/>
+    </row>
+    <row r="204" spans="1:8" ht="29">
+      <c r="A204" s="33"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33" t="s">
+        <v>962</v>
+      </c>
+      <c r="F204" s="33"/>
+      <c r="G204" s="33"/>
+      <c r="H204" s="33"/>
+    </row>
+    <row r="205" spans="1:8" ht="29">
+      <c r="A205" s="33"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="33" t="s">
+        <v>963</v>
+      </c>
+      <c r="F205" s="33"/>
+      <c r="G205" s="33"/>
+      <c r="H205" s="33"/>
+    </row>
+    <row r="206" spans="1:8" ht="29">
+      <c r="A206" s="33"/>
+      <c r="B206" s="33"/>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="33" t="s">
+        <v>964</v>
+      </c>
+      <c r="F206" s="33"/>
+      <c r="G206" s="33"/>
+      <c r="H206" s="33"/>
+    </row>
+    <row r="207" spans="1:8" ht="29">
+      <c r="A207" s="33"/>
+      <c r="B207" s="33"/>
+      <c r="C207" s="33"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="33" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F207" s="33"/>
+      <c r="G207" s="33"/>
+      <c r="H207" s="33"/>
+    </row>
+    <row r="208" spans="1:8" ht="29">
+      <c r="A208" s="33"/>
+      <c r="B208" s="33"/>
+      <c r="C208" s="33"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="33" t="s">
+        <v>965</v>
+      </c>
+      <c r="F208" s="33"/>
+      <c r="G208" s="33"/>
+      <c r="H208" s="33"/>
+    </row>
+    <row r="209" spans="1:9" ht="29">
+      <c r="A209" s="33"/>
+      <c r="B209" s="33"/>
+      <c r="C209" s="33"/>
+      <c r="D209" s="33"/>
+      <c r="E209" s="33" t="s">
+        <v>966</v>
+      </c>
+      <c r="F209" s="33"/>
+      <c r="G209" s="33"/>
+      <c r="H209" s="33"/>
+    </row>
+    <row r="210" spans="1:9" ht="29">
+      <c r="A210" s="33"/>
+      <c r="B210" s="33"/>
+      <c r="C210" s="33"/>
+      <c r="D210" s="33"/>
+      <c r="E210" s="33" t="s">
+        <v>967</v>
+      </c>
+      <c r="F210" s="33"/>
+      <c r="G210" s="33"/>
+      <c r="H210" s="33"/>
+    </row>
+    <row r="211" spans="1:9" ht="29">
+      <c r="A211" s="33"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="33"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="33" t="s">
+        <v>968</v>
+      </c>
+      <c r="F211" s="33"/>
+      <c r="G211" s="33"/>
+      <c r="H211" s="33"/>
+    </row>
+    <row r="212" spans="1:9" ht="29">
+      <c r="A212" s="33"/>
+      <c r="B212" s="33"/>
+      <c r="C212" s="33"/>
+      <c r="D212" s="33"/>
+      <c r="E212" s="33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F212" s="33"/>
+      <c r="G212" s="33"/>
+      <c r="H212" s="33"/>
+    </row>
+    <row r="213" spans="1:9" ht="29">
+      <c r="A213" s="33"/>
+      <c r="B213" s="33"/>
+      <c r="C213" s="33"/>
+      <c r="D213" s="33"/>
+      <c r="E213" s="33" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F213" s="33"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="33"/>
+    </row>
+    <row r="214" spans="1:9" ht="29">
+      <c r="A214" s="33"/>
+      <c r="B214" s="33"/>
+      <c r="C214" s="33"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="33" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F214" s="33"/>
+      <c r="G214" s="33"/>
+      <c r="H214" s="33"/>
+    </row>
+    <row r="215" spans="1:9" ht="29">
+      <c r="A215" s="33"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F215" s="33"/>
+      <c r="G215" s="33"/>
+      <c r="H215" s="33"/>
+    </row>
+    <row r="216" spans="1:9" ht="29">
+      <c r="A216" s="33"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="33"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="33" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F216" s="33"/>
+      <c r="G216" s="33"/>
+      <c r="H216" s="33"/>
+    </row>
+    <row r="217" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A217" s="33"/>
+      <c r="B217" s="33"/>
+      <c r="C217" s="33"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F217" s="33"/>
+      <c r="G217" s="33"/>
+      <c r="H217" s="33"/>
+    </row>
+    <row r="218" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A218" s="33"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F218" s="33"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="33"/>
+    </row>
+    <row r="219" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A219" s="33"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F219" s="33"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="33"/>
+    </row>
+    <row r="220" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A220" s="33"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F220" s="33"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="33"/>
+    </row>
+    <row r="221" spans="1:9" ht="29">
+      <c r="A221" s="33"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="33"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F221" s="33"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="33"/>
+    </row>
+    <row r="222" spans="1:9" s="34" customFormat="1" ht="29">
+      <c r="E222" s="33" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I222" s="77"/>
+    </row>
+    <row r="223" spans="1:9" ht="58">
+      <c r="A223" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B197" s="78" t="s">
-        <v>973</v>
-      </c>
-      <c r="C197" s="33" t="s">
+      <c r="B223" s="78" t="s">
+        <v>969</v>
+      </c>
+      <c r="C223" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="D197" s="33" t="s">
-        <v>974</v>
-      </c>
-      <c r="E197" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="F197" s="34"/>
-      <c r="G197" s="34"/>
-      <c r="H197" s="34"/>
-    </row>
-    <row r="198" spans="1:9" ht="29">
-      <c r="A198" s="34"/>
-      <c r="B198" s="34"/>
-      <c r="C198" s="34"/>
-      <c r="D198" s="34"/>
-      <c r="E198" s="33" t="s">
-        <v>976</v>
-      </c>
-      <c r="F198" s="34"/>
-      <c r="G198" s="34"/>
-      <c r="H198" s="34"/>
-    </row>
-    <row r="199" spans="1:9" ht="58">
-      <c r="A199" s="34"/>
-      <c r="B199" s="34"/>
-      <c r="C199" s="34"/>
-      <c r="D199" s="34"/>
-      <c r="E199" s="33" t="s">
-        <v>977</v>
-      </c>
-      <c r="F199" s="34"/>
-      <c r="G199" s="34"/>
-      <c r="H199" s="34"/>
-    </row>
-    <row r="200" spans="1:9" ht="29">
-      <c r="A200" s="34"/>
-      <c r="B200" s="34"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="34"/>
-      <c r="E200" s="33" t="s">
-        <v>978</v>
-      </c>
-      <c r="F200" s="34"/>
-      <c r="G200" s="34"/>
-      <c r="H200" s="34"/>
-    </row>
-    <row r="201" spans="1:9" ht="72.5">
-      <c r="A201" s="34"/>
-      <c r="B201" s="34"/>
-      <c r="C201" s="34"/>
-      <c r="D201" s="34"/>
-      <c r="E201" s="33" t="s">
-        <v>979</v>
-      </c>
-      <c r="F201" s="34"/>
-      <c r="G201" s="34"/>
-      <c r="H201" s="34"/>
-    </row>
-    <row r="202" spans="1:9" ht="29">
-      <c r="A202" s="34"/>
-      <c r="B202" s="34"/>
-      <c r="C202" s="34"/>
-      <c r="D202" s="34"/>
-      <c r="E202" s="33" t="s">
-        <v>980</v>
-      </c>
-      <c r="F202" s="34"/>
-      <c r="G202" s="34"/>
-      <c r="H202" s="34"/>
-    </row>
-    <row r="203" spans="1:9" ht="116">
-      <c r="A203" s="34"/>
-      <c r="B203" s="34"/>
-      <c r="C203" s="34"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="33" t="s">
-        <v>981</v>
-      </c>
-      <c r="F203" s="34"/>
-      <c r="G203" s="34"/>
-      <c r="H203" s="34"/>
-    </row>
-    <row r="204" spans="1:9" ht="29">
-      <c r="A204" s="34"/>
-      <c r="B204" s="34"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="34"/>
-      <c r="E204" s="33" t="s">
-        <v>982</v>
-      </c>
-      <c r="F204" s="34"/>
-      <c r="G204" s="34"/>
-      <c r="H204" s="34"/>
-    </row>
-    <row r="205" spans="1:9" ht="29">
-      <c r="A205" s="34"/>
-      <c r="B205" s="34"/>
-      <c r="C205" s="34"/>
-      <c r="D205" s="34"/>
-      <c r="E205" s="33" t="s">
-        <v>983</v>
-      </c>
-      <c r="F205" s="34"/>
-      <c r="G205" s="34"/>
-      <c r="H205" s="34"/>
-    </row>
-    <row r="206" spans="1:9" ht="58">
-      <c r="A206" s="34"/>
-      <c r="B206" s="34"/>
-      <c r="C206" s="34"/>
-      <c r="D206" s="34"/>
-      <c r="E206" s="33" t="s">
-        <v>984</v>
-      </c>
-      <c r="F206" s="34"/>
-      <c r="G206" s="34"/>
-      <c r="H206" s="34"/>
-    </row>
-    <row r="207" spans="1:9" ht="29">
-      <c r="A207" s="34"/>
-      <c r="B207" s="34"/>
-      <c r="C207" s="34"/>
-      <c r="D207" s="34"/>
-      <c r="E207" s="33" t="s">
-        <v>985</v>
-      </c>
-      <c r="F207" s="34"/>
-      <c r="G207" s="34"/>
-      <c r="H207" s="34"/>
-    </row>
-    <row r="208" spans="1:9" ht="72.5">
-      <c r="A208" s="34"/>
-      <c r="B208" s="34"/>
-      <c r="C208" s="34"/>
-      <c r="D208" s="34"/>
-      <c r="E208" s="33" t="s">
-        <v>986</v>
-      </c>
-      <c r="F208" s="34"/>
-      <c r="G208" s="34"/>
-      <c r="H208" s="34"/>
-    </row>
-    <row r="209" spans="1:8" ht="29">
-      <c r="A209" s="34"/>
-      <c r="B209" s="34"/>
-      <c r="C209" s="34"/>
-      <c r="D209" s="34"/>
-      <c r="E209" s="33" t="s">
-        <v>987</v>
-      </c>
-      <c r="F209" s="34"/>
-      <c r="G209" s="34"/>
-      <c r="H209" s="34"/>
-    </row>
-    <row r="210" spans="1:8" ht="116">
-      <c r="A210" s="34"/>
-      <c r="B210" s="34"/>
-      <c r="C210" s="34"/>
-      <c r="D210" s="34"/>
-      <c r="E210" s="33" t="s">
-        <v>988</v>
-      </c>
-      <c r="F210" s="34"/>
-      <c r="G210" s="34"/>
-      <c r="H210" s="34"/>
-    </row>
-    <row r="211" spans="1:8" ht="29">
-      <c r="A211" s="34"/>
-      <c r="B211" s="34"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="34"/>
-      <c r="E211" s="33" t="s">
-        <v>989</v>
-      </c>
-      <c r="F211" s="34"/>
-      <c r="G211" s="34"/>
-      <c r="H211" s="34"/>
-    </row>
-    <row r="212" spans="1:8" ht="29">
-      <c r="A212" s="34"/>
-      <c r="B212" s="34"/>
-      <c r="C212" s="34"/>
-      <c r="D212" s="34"/>
-      <c r="E212" s="33" t="s">
-        <v>990</v>
-      </c>
-      <c r="F212" s="34"/>
-      <c r="G212" s="34"/>
-      <c r="H212" s="34"/>
-    </row>
-    <row r="213" spans="1:8" ht="58">
-      <c r="A213" s="34"/>
-      <c r="B213" s="34"/>
-      <c r="C213" s="34"/>
-      <c r="D213" s="34"/>
-      <c r="E213" s="33" t="s">
-        <v>991</v>
-      </c>
-      <c r="F213" s="34"/>
-      <c r="G213" s="34"/>
-      <c r="H213" s="34"/>
-    </row>
-    <row r="214" spans="1:8" ht="29">
-      <c r="A214" s="34"/>
-      <c r="B214" s="34"/>
-      <c r="C214" s="34"/>
-      <c r="D214" s="34"/>
-      <c r="E214" s="33" t="s">
-        <v>992</v>
-      </c>
-      <c r="F214" s="34"/>
-      <c r="G214" s="34"/>
-      <c r="H214" s="34"/>
-    </row>
-    <row r="215" spans="1:8" ht="72.5">
-      <c r="A215" s="34"/>
-      <c r="B215" s="34"/>
-      <c r="C215" s="34"/>
-      <c r="D215" s="34"/>
-      <c r="E215" s="33" t="s">
-        <v>993</v>
-      </c>
-      <c r="F215" s="34"/>
-      <c r="G215" s="34"/>
-      <c r="H215" s="34"/>
-    </row>
-    <row r="216" spans="1:8" ht="29">
-      <c r="A216" s="34"/>
-      <c r="B216" s="34"/>
-      <c r="C216" s="34"/>
-      <c r="D216" s="34"/>
-      <c r="E216" s="33" t="s">
-        <v>994</v>
-      </c>
-      <c r="F216" s="34"/>
-      <c r="G216" s="34"/>
-      <c r="H216" s="34"/>
-    </row>
-    <row r="217" spans="1:8" ht="116">
-      <c r="A217" s="34"/>
-      <c r="B217" s="34"/>
-      <c r="C217" s="34"/>
-      <c r="D217" s="34"/>
-      <c r="E217" s="33" t="s">
-        <v>995</v>
-      </c>
-      <c r="F217" s="34"/>
-      <c r="G217" s="34"/>
-      <c r="H217" s="34"/>
-    </row>
-    <row r="218" spans="1:8" ht="29">
-      <c r="A218" s="34"/>
-      <c r="B218" s="34"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="34"/>
-      <c r="E218" s="33" t="s">
-        <v>996</v>
-      </c>
-      <c r="F218" s="34"/>
-      <c r="G218" s="34"/>
-      <c r="H218" s="34"/>
-    </row>
-    <row r="219" spans="1:8" ht="29">
-      <c r="A219" s="34"/>
-      <c r="B219" s="34"/>
-      <c r="C219" s="34"/>
-      <c r="D219" s="34"/>
-      <c r="E219" s="33" t="s">
-        <v>997</v>
-      </c>
-      <c r="F219" s="34"/>
-      <c r="G219" s="34"/>
-      <c r="H219" s="34"/>
-    </row>
-    <row r="220" spans="1:8" ht="58">
-      <c r="A220" s="34"/>
-      <c r="B220" s="34"/>
-      <c r="C220" s="34"/>
-      <c r="D220" s="34"/>
-      <c r="E220" s="33" t="s">
-        <v>998</v>
-      </c>
-      <c r="F220" s="34"/>
-      <c r="G220" s="34"/>
-      <c r="H220" s="34"/>
-    </row>
-    <row r="221" spans="1:8" ht="29">
-      <c r="A221" s="34"/>
-      <c r="B221" s="34"/>
-      <c r="C221" s="34"/>
-      <c r="D221" s="34"/>
-      <c r="E221" s="33" t="s">
-        <v>999</v>
-      </c>
-      <c r="F221" s="34"/>
-      <c r="G221" s="34"/>
-      <c r="H221" s="34"/>
-    </row>
-    <row r="222" spans="1:8" ht="72.5">
-      <c r="A222" s="34"/>
-      <c r="B222" s="34"/>
-      <c r="C222" s="34"/>
-      <c r="D222" s="34"/>
-      <c r="E222" s="33" t="s">
-        <v>1000</v>
-      </c>
-      <c r="F222" s="34"/>
-      <c r="G222" s="34"/>
-      <c r="H222" s="34"/>
-    </row>
-    <row r="223" spans="1:8" ht="29">
-      <c r="A223" s="34"/>
-      <c r="B223" s="34"/>
-      <c r="C223" s="34"/>
-      <c r="D223" s="34"/>
+      <c r="D223" s="33" t="s">
+        <v>970</v>
+      </c>
       <c r="E223" s="33" t="s">
-        <v>1001</v>
+        <v>971</v>
       </c>
       <c r="F223" s="34"/>
       <c r="G223" s="34"/>
       <c r="H223" s="34"/>
     </row>
-    <row r="224" spans="1:8" ht="188.5">
+    <row r="224" spans="1:9" ht="29">
       <c r="A224" s="34"/>
       <c r="B224" s="34"/>
       <c r="C224" s="34"/>
       <c r="D224" s="34"/>
       <c r="E224" s="33" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="F224" s="34"/>
       <c r="G224" s="34"/>
       <c r="H224" s="34"/>
     </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="34" t="s">
-        <v>4</v>
-      </c>
+    <row r="225" spans="1:8" ht="58">
+      <c r="A225" s="34"/>
       <c r="B225" s="34"/>
       <c r="C225" s="34"/>
       <c r="D225" s="34"/>
-      <c r="E225" s="34"/>
+      <c r="E225" s="33" t="s">
+        <v>973</v>
+      </c>
       <c r="F225" s="34"/>
       <c r="G225" s="34"/>
       <c r="H225" s="34"/>
     </row>
-    <row r="226" spans="1:8" ht="101.5" customHeight="1">
-      <c r="A226" s="33" t="s">
+    <row r="226" spans="1:8" ht="29">
+      <c r="A226" s="34"/>
+      <c r="B226" s="34"/>
+      <c r="C226" s="34"/>
+      <c r="D226" s="34"/>
+      <c r="E226" s="33" t="s">
+        <v>974</v>
+      </c>
+      <c r="F226" s="34"/>
+      <c r="G226" s="34"/>
+      <c r="H226" s="34"/>
+    </row>
+    <row r="227" spans="1:8" ht="72.5">
+      <c r="A227" s="34"/>
+      <c r="B227" s="34"/>
+      <c r="C227" s="34"/>
+      <c r="D227" s="34"/>
+      <c r="E227" s="33" t="s">
+        <v>975</v>
+      </c>
+      <c r="F227" s="34"/>
+      <c r="G227" s="34"/>
+      <c r="H227" s="34"/>
+    </row>
+    <row r="228" spans="1:8" ht="29">
+      <c r="A228" s="34"/>
+      <c r="B228" s="34"/>
+      <c r="C228" s="34"/>
+      <c r="D228" s="34"/>
+      <c r="E228" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="F228" s="34"/>
+      <c r="G228" s="34"/>
+      <c r="H228" s="34"/>
+    </row>
+    <row r="229" spans="1:8" ht="116">
+      <c r="A229" s="34"/>
+      <c r="B229" s="34"/>
+      <c r="C229" s="34"/>
+      <c r="D229" s="34"/>
+      <c r="E229" s="33" t="s">
+        <v>977</v>
+      </c>
+      <c r="F229" s="34"/>
+      <c r="G229" s="34"/>
+      <c r="H229" s="34"/>
+    </row>
+    <row r="230" spans="1:8" ht="29">
+      <c r="A230" s="34"/>
+      <c r="B230" s="34"/>
+      <c r="C230" s="34"/>
+      <c r="D230" s="34"/>
+      <c r="E230" s="33" t="s">
+        <v>978</v>
+      </c>
+      <c r="F230" s="34"/>
+      <c r="G230" s="34"/>
+      <c r="H230" s="34"/>
+    </row>
+    <row r="231" spans="1:8" ht="29">
+      <c r="A231" s="34"/>
+      <c r="B231" s="34"/>
+      <c r="C231" s="34"/>
+      <c r="D231" s="34"/>
+      <c r="E231" s="33" t="s">
+        <v>979</v>
+      </c>
+      <c r="F231" s="34"/>
+      <c r="G231" s="34"/>
+      <c r="H231" s="34"/>
+    </row>
+    <row r="232" spans="1:8" ht="58">
+      <c r="A232" s="34"/>
+      <c r="B232" s="34"/>
+      <c r="C232" s="34"/>
+      <c r="D232" s="34"/>
+      <c r="E232" s="33" t="s">
+        <v>980</v>
+      </c>
+      <c r="F232" s="34"/>
+      <c r="G232" s="34"/>
+      <c r="H232" s="34"/>
+    </row>
+    <row r="233" spans="1:8" ht="29">
+      <c r="A233" s="34"/>
+      <c r="B233" s="34"/>
+      <c r="C233" s="34"/>
+      <c r="D233" s="34"/>
+      <c r="E233" s="33" t="s">
+        <v>981</v>
+      </c>
+      <c r="F233" s="34"/>
+      <c r="G233" s="34"/>
+      <c r="H233" s="34"/>
+    </row>
+    <row r="234" spans="1:8" ht="72.5">
+      <c r="A234" s="34"/>
+      <c r="B234" s="34"/>
+      <c r="C234" s="34"/>
+      <c r="D234" s="34"/>
+      <c r="E234" s="33" t="s">
+        <v>982</v>
+      </c>
+      <c r="F234" s="34"/>
+      <c r="G234" s="34"/>
+      <c r="H234" s="34"/>
+    </row>
+    <row r="235" spans="1:8" ht="29">
+      <c r="A235" s="34"/>
+      <c r="B235" s="34"/>
+      <c r="C235" s="34"/>
+      <c r="D235" s="34"/>
+      <c r="E235" s="33" t="s">
+        <v>983</v>
+      </c>
+      <c r="F235" s="34"/>
+      <c r="G235" s="34"/>
+      <c r="H235" s="34"/>
+    </row>
+    <row r="236" spans="1:8" ht="116">
+      <c r="A236" s="34"/>
+      <c r="B236" s="34"/>
+      <c r="C236" s="34"/>
+      <c r="D236" s="34"/>
+      <c r="E236" s="33" t="s">
+        <v>984</v>
+      </c>
+      <c r="F236" s="34"/>
+      <c r="G236" s="34"/>
+      <c r="H236" s="34"/>
+    </row>
+    <row r="237" spans="1:8" ht="29">
+      <c r="A237" s="34"/>
+      <c r="B237" s="34"/>
+      <c r="C237" s="34"/>
+      <c r="D237" s="34"/>
+      <c r="E237" s="33" t="s">
+        <v>985</v>
+      </c>
+      <c r="F237" s="34"/>
+      <c r="G237" s="34"/>
+      <c r="H237" s="34"/>
+    </row>
+    <row r="238" spans="1:8" ht="29">
+      <c r="A238" s="34"/>
+      <c r="B238" s="34"/>
+      <c r="C238" s="34"/>
+      <c r="D238" s="34"/>
+      <c r="E238" s="33" t="s">
+        <v>986</v>
+      </c>
+      <c r="F238" s="34"/>
+      <c r="G238" s="34"/>
+      <c r="H238" s="34"/>
+    </row>
+    <row r="239" spans="1:8" ht="58">
+      <c r="A239" s="34"/>
+      <c r="B239" s="34"/>
+      <c r="C239" s="34"/>
+      <c r="D239" s="34"/>
+      <c r="E239" s="33" t="s">
+        <v>987</v>
+      </c>
+      <c r="F239" s="34"/>
+      <c r="G239" s="34"/>
+      <c r="H239" s="34"/>
+    </row>
+    <row r="240" spans="1:8" ht="29">
+      <c r="A240" s="34"/>
+      <c r="B240" s="34"/>
+      <c r="C240" s="34"/>
+      <c r="D240" s="34"/>
+      <c r="E240" s="33" t="s">
+        <v>988</v>
+      </c>
+      <c r="F240" s="34"/>
+      <c r="G240" s="34"/>
+      <c r="H240" s="34"/>
+    </row>
+    <row r="241" spans="1:8" ht="72.5">
+      <c r="A241" s="34"/>
+      <c r="B241" s="34"/>
+      <c r="C241" s="34"/>
+      <c r="D241" s="34"/>
+      <c r="E241" s="33" t="s">
+        <v>989</v>
+      </c>
+      <c r="F241" s="34"/>
+      <c r="G241" s="34"/>
+      <c r="H241" s="34"/>
+    </row>
+    <row r="242" spans="1:8" ht="29">
+      <c r="A242" s="34"/>
+      <c r="B242" s="34"/>
+      <c r="C242" s="34"/>
+      <c r="D242" s="34"/>
+      <c r="E242" s="33" t="s">
+        <v>990</v>
+      </c>
+      <c r="F242" s="34"/>
+      <c r="G242" s="34"/>
+      <c r="H242" s="34"/>
+    </row>
+    <row r="243" spans="1:8" ht="116">
+      <c r="A243" s="34"/>
+      <c r="B243" s="34"/>
+      <c r="C243" s="34"/>
+      <c r="D243" s="34"/>
+      <c r="E243" s="33" t="s">
+        <v>991</v>
+      </c>
+      <c r="F243" s="34"/>
+      <c r="G243" s="34"/>
+      <c r="H243" s="34"/>
+    </row>
+    <row r="244" spans="1:8" ht="29">
+      <c r="A244" s="34"/>
+      <c r="B244" s="34"/>
+      <c r="C244" s="34"/>
+      <c r="D244" s="34"/>
+      <c r="E244" s="33" t="s">
+        <v>992</v>
+      </c>
+      <c r="F244" s="34"/>
+      <c r="G244" s="34"/>
+      <c r="H244" s="34"/>
+    </row>
+    <row r="245" spans="1:8" ht="29">
+      <c r="A245" s="34"/>
+      <c r="B245" s="34"/>
+      <c r="C245" s="34"/>
+      <c r="D245" s="34"/>
+      <c r="E245" s="33" t="s">
+        <v>993</v>
+      </c>
+      <c r="F245" s="34"/>
+      <c r="G245" s="34"/>
+      <c r="H245" s="34"/>
+    </row>
+    <row r="246" spans="1:8" ht="58">
+      <c r="A246" s="34"/>
+      <c r="B246" s="34"/>
+      <c r="C246" s="34"/>
+      <c r="D246" s="34"/>
+      <c r="E246" s="33" t="s">
+        <v>994</v>
+      </c>
+      <c r="F246" s="34"/>
+      <c r="G246" s="34"/>
+      <c r="H246" s="34"/>
+    </row>
+    <row r="247" spans="1:8" ht="29">
+      <c r="A247" s="34"/>
+      <c r="B247" s="34"/>
+      <c r="C247" s="34"/>
+      <c r="D247" s="34"/>
+      <c r="E247" s="33" t="s">
+        <v>995</v>
+      </c>
+      <c r="F247" s="34"/>
+      <c r="G247" s="34"/>
+      <c r="H247" s="34"/>
+    </row>
+    <row r="248" spans="1:8" ht="72.5">
+      <c r="A248" s="34"/>
+      <c r="B248" s="34"/>
+      <c r="C248" s="34"/>
+      <c r="D248" s="34"/>
+      <c r="E248" s="33" t="s">
+        <v>996</v>
+      </c>
+      <c r="F248" s="34"/>
+      <c r="G248" s="34"/>
+      <c r="H248" s="34"/>
+    </row>
+    <row r="249" spans="1:8" ht="29">
+      <c r="A249" s="34"/>
+      <c r="B249" s="34"/>
+      <c r="C249" s="34"/>
+      <c r="D249" s="34"/>
+      <c r="E249" s="33" t="s">
+        <v>997</v>
+      </c>
+      <c r="F249" s="34"/>
+      <c r="G249" s="34"/>
+      <c r="H249" s="34"/>
+    </row>
+    <row r="250" spans="1:8" ht="188.5">
+      <c r="A250" s="34"/>
+      <c r="B250" s="34"/>
+      <c r="C250" s="34"/>
+      <c r="D250" s="34"/>
+      <c r="E250" s="33" t="s">
+        <v>998</v>
+      </c>
+      <c r="F250" s="34"/>
+      <c r="G250" s="34"/>
+      <c r="H250" s="34"/>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B251" s="34"/>
+      <c r="C251" s="34"/>
+      <c r="D251" s="34"/>
+      <c r="E251" s="34"/>
+      <c r="F251" s="34"/>
+      <c r="G251" s="34"/>
+      <c r="H251" s="34"/>
+    </row>
+    <row r="252" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A252" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="33" t="s">
+      <c r="B252" s="33" t="s">
+        <v>999</v>
+      </c>
+      <c r="C252" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D252" s="33" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E252" s="33" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F252" s="33"/>
+      <c r="G252" s="33"/>
+      <c r="H252" s="33"/>
+    </row>
+    <row r="253" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A253" s="33"/>
+      <c r="B253" s="33"/>
+      <c r="C253" s="33"/>
+      <c r="D253" s="33"/>
+      <c r="E253" s="33" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F253" s="33"/>
+      <c r="G253" s="33"/>
+      <c r="H253" s="33"/>
+    </row>
+    <row r="254" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A254" s="33"/>
+      <c r="B254" s="33"/>
+      <c r="C254" s="33"/>
+      <c r="D254" s="33"/>
+      <c r="E254" s="33" t="s">
         <v>1003</v>
       </c>
-      <c r="C226" s="33" t="s">
+      <c r="F254" s="33"/>
+      <c r="G254" s="33"/>
+      <c r="H254" s="33"/>
+    </row>
+    <row r="255" spans="1:8" ht="116.25" customHeight="1">
+      <c r="A255" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" s="33" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C255" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="D226" s="33" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E226" s="33" t="s">
+      <c r="D255" s="33" t="s">
         <v>1005</v>
       </c>
-      <c r="F226" s="33"/>
-      <c r="G226" s="33"/>
-      <c r="H226" s="33"/>
-    </row>
-    <row r="227" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A227" s="33"/>
-      <c r="B227" s="33"/>
-      <c r="C227" s="33"/>
-      <c r="D227" s="33"/>
-      <c r="E227" s="33" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F227" s="33"/>
-      <c r="G227" s="33"/>
-      <c r="H227" s="33"/>
-    </row>
-    <row r="228" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A228" s="33"/>
-      <c r="B228" s="33"/>
-      <c r="C228" s="33"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="33" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F228" s="33"/>
-      <c r="G228" s="33"/>
-      <c r="H228" s="33"/>
-    </row>
-    <row r="229" spans="1:8" ht="116.25" customHeight="1">
-      <c r="A229" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B229" s="33" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C229" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="D229" s="33" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E229" s="33" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F229" s="33"/>
-      <c r="G229" s="33"/>
-      <c r="H229" s="33"/>
-    </row>
-    <row r="230" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A230" s="33"/>
-      <c r="B230" s="33"/>
-      <c r="C230" s="33"/>
-      <c r="D230" s="33"/>
-      <c r="E230" s="33" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F230" s="33"/>
-      <c r="G230" s="33"/>
-      <c r="H230" s="33"/>
+      <c r="E255" s="33" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F255" s="33"/>
+      <c r="G255" s="33"/>
+      <c r="H255" s="33"/>
+    </row>
+    <row r="256" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A256" s="33"/>
+      <c r="B256" s="33"/>
+      <c r="C256" s="33"/>
+      <c r="D256" s="33"/>
+      <c r="E256" s="33" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F256" s="33"/>
+      <c r="G256" s="33"/>
+      <c r="H256" s="33"/>
+    </row>
+    <row r="257" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A257" s="33"/>
+      <c r="B257" s="33"/>
+      <c r="C257" s="33"/>
+      <c r="D257" s="33"/>
+      <c r="E257" s="33" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F257" s="33"/>
+      <c r="G257" s="33"/>
+      <c r="H257" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:A2 B1:B1048576 D1:XFD1048576 C1:C2" xr:uid="{6017BF1E-1160-B842-B833-E70A0A6F085F}"/>
+    <dataValidation allowBlank="1" sqref="A1:A2 C1:C2 E78:F1048576 E1:E68 E70:E76 F1:F76 D1:D1048576 G1:XFD1048576 B1:B1048576" xr:uid="{C572523C-03EC-A545-8AEE-BA8DD1878D89}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{B232589B-FF57-2A40-93EC-C624D5E8CB87}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{B65A276D-0D12-FD4F-AC6D-CC16225A0296}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$45</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -49647,28 +50099,28 @@
     <col min="1" max="1" width="8.81640625" style="4"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
     <col min="6" max="6" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="50.7265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="50.6328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="174" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="115" t="s">
         <v>699</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117" t="s">
-        <v>1256</v>
-      </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H1" s="119"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="38" t="s">
@@ -50031,9 +50483,9 @@
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
     <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
     <col min="8" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="22.453125" customWidth="1"/>
@@ -50042,22 +50494,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="210" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>1257</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="114" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
+      <c r="A1" s="115" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="115" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="117"/>
     </row>
     <row r="2" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -50292,34 +50744,34 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" customWidth="1"/>
     <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.1796875" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="120" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
+      <c r="A1" s="112" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="121" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="27" t="s">
@@ -50335,7 +50787,7 @@
         <v>631</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>632</v>
@@ -50361,7 +50813,7 @@
         <v>757</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
@@ -50399,13 +50851,13 @@
         <v>757</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1295</v>
+        <v>1279</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>1296</v>
+        <v>1280</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>1297</v>
+        <v>1281</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -50419,16 +50871,16 @@
         <v>356</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>1298</v>
+        <v>1282</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1303</v>
+        <v>1287</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>1299</v>
+        <v>1283</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>1300</v>
+        <v>1284</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\orahub_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE382B9-CDDA-4A57-8B87-E8F7D23F5920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC22F7B-65A0-479C-B619-B6DD8C018F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="1354">
   <si>
     <t>Region</t>
   </si>
@@ -5594,9 +5594,6 @@
   </si>
   <si>
     <t>forwarder_endpoint</t>
-  </si>
-  <si>
-    <t>prod-app</t>
   </si>
   <si>
     <t>Forwarding:10.111.3.90</t>
@@ -17695,7 +17692,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1">
       <c r="A2" s="84" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
   </sheetData>
@@ -17721,7 +17718,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="41" customFormat="1" ht="92.25" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B1" s="120"/>
     </row>
@@ -17791,7 +17788,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -17971,8 +17968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -17998,7 +17995,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="203.25" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -18009,7 +18006,7 @@
       <c r="H1" s="116"/>
       <c r="I1" s="117"/>
       <c r="J1" s="122" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="K1" s="122"/>
       <c r="L1" s="122"/>
@@ -18774,7 +18771,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -18871,7 +18868,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -18969,7 +18966,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -19121,7 +19118,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="139" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -20118,7 +20115,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="175" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -20498,8 +20495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3090A3DA-7F53-AD4E-BA97-594CFBE4ECCA}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -20519,7 +20516,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1">
       <c r="A1" s="124" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -20602,14 +20599,14 @@
         <v>1181</v>
       </c>
       <c r="G4" s="34" t="s">
+        <v>770</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>1182</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>1183</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="30" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="K4" s="30"/>
     </row>
@@ -20630,13 +20627,13 @@
         <v>1180</v>
       </c>
       <c r="F5" s="30" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>770</v>
+      </c>
+      <c r="H5" s="30" t="s">
         <v>1185</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>1186</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
@@ -20703,7 +20700,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="89.25" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -20871,7 +20868,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="41" customFormat="1" ht="108" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -21141,7 +21138,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="250" customHeight="1">
       <c r="A1" s="126" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -21151,7 +21148,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="128"/>
       <c r="I1" s="115" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="J1" s="116"/>
       <c r="K1" s="116"/>
@@ -21211,7 +21208,7 @@
         <v>780</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>95</v>
@@ -21229,7 +21226,7 @@
         <v>98</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="V2" s="27" t="s">
         <v>428</v>
@@ -21252,7 +21249,7 @@
         <v>355</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G3" s="34" t="b">
         <v>0</v>
@@ -21355,7 +21352,7 @@
       </c>
       <c r="N5" s="54"/>
       <c r="O5" s="54" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="P5" s="54" t="s">
         <v>103</v>
@@ -21369,7 +21366,7 @@
         <v>91</v>
       </c>
       <c r="U5" s="55" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="V5" s="54"/>
     </row>
@@ -21419,7 +21416,7 @@
       </c>
       <c r="T6" s="54"/>
       <c r="U6" s="55" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="V6" s="54"/>
     </row>
@@ -21610,7 +21607,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="140.25" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -21636,7 +21633,7 @@
         <v>106</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>107</v>
@@ -21835,7 +21832,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="115" customHeight="1">
       <c r="A1" s="129" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B1" s="130"/>
       <c r="C1" s="130"/>
@@ -22250,7 +22247,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="106" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -22266,7 +22263,7 @@
       <c r="M1" s="116"/>
       <c r="N1" s="117"/>
       <c r="O1" s="126" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="P1" s="127"/>
       <c r="Q1" s="127"/>
@@ -22710,7 +22707,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -25025,7 +25022,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="41" customFormat="1" ht="105.75" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -25502,7 +25499,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -25727,7 +25724,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -29120,7 +29117,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -32036,7 +32033,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1">
       <c r="A1" s="126" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -32098,16 +32095,16 @@
         <v>731</v>
       </c>
       <c r="K2" s="67" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L2" s="67" t="s">
         <v>1303</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="M2" s="67" t="s">
         <v>1304</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="N2" s="67" t="s">
         <v>1305</v>
-      </c>
-      <c r="N2" s="67" t="s">
-        <v>1306</v>
       </c>
       <c r="O2" s="67" t="s">
         <v>732</v>
@@ -32203,7 +32200,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="94" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="O4" s="94" t="b">
         <v>1</v>
@@ -36491,7 +36488,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="169.5" customHeight="1">
       <c r="A1" s="138" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -36519,43 +36516,43 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D2" s="106" t="s">
         <v>1188</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="E2" s="106" t="s">
         <v>1189</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="F2" s="28" t="s">
         <v>1190</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="106" t="s">
         <v>1191</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="H2" s="28" t="s">
         <v>1192</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>1193</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>1194</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="108" t="s">
+        <v>1299</v>
+      </c>
+      <c r="L2" s="109" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M2" s="28" t="s">
         <v>1195</v>
       </c>
-      <c r="K2" s="108" t="s">
-        <v>1300</v>
-      </c>
-      <c r="L2" s="109" t="s">
-        <v>1301</v>
-      </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>1196</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>1197</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>1198</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>95</v>
@@ -36632,7 +36629,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1">
       <c r="A1" s="126" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -36653,43 +36650,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C2" s="106" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>1200</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>1201</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>1202</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>1203</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>1204</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>1205</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>1206</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>1207</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>1208</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>1209</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>1210</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>1211</v>
       </c>
       <c r="O2" s="49"/>
     </row>
@@ -36765,7 +36762,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="264" customHeight="1">
       <c r="A1" s="141" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1" s="142"/>
       <c r="C1" s="142"/>
@@ -36793,49 +36790,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>1212</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>1213</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>1214</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>1215</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>1216</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>1217</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>1218</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="28" t="s">
         <v>1219</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>1220</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="28" t="s">
         <v>1221</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>1222</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>1223</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>1224</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>1225</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>1226</v>
       </c>
       <c r="R2" s="27" t="s">
         <v>428</v>
@@ -36854,43 +36851,43 @@
         <v>561</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>1228</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>1229</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G4" s="34" t="s">
+      <c r="H4" s="34" t="s">
         <v>1230</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="30" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J4" s="29" t="s">
         <v>1231</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>1292</v>
-      </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="29" t="s">
         <v>1232</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="L4" s="29" t="s">
         <v>1233</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>1234</v>
       </c>
       <c r="M4" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="30" t="s">
+        <v>1234</v>
+      </c>
+      <c r="O4" s="29" t="s">
         <v>1235</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>1236</v>
       </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
@@ -36903,40 +36900,40 @@
         <v>561</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="E5" s="34" t="s">
         <v>1228</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="F5" s="34" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G5" s="34" t="s">
         <v>1229</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="H5" s="34" t="s">
         <v>1230</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>1231</v>
-      </c>
       <c r="I5" s="30" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="K5" s="29" t="s">
+        <v>1236</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>1237</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>1238</v>
       </c>
       <c r="M5" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
@@ -36950,22 +36947,22 @@
         <v>561</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D6" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>1228</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="34" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>1229</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G6" s="34" t="s">
+      <c r="H6" s="34" t="s">
         <v>1230</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>1231</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="29"/>
@@ -36985,38 +36982,38 @@
         <v>561</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>1288</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>1230</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>1231</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>1289</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="29" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="M7" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -37982,25 +37979,25 @@
         <v>646</v>
       </c>
       <c r="D1" s="66" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I1" s="66" t="s">
         <v>1294</v>
       </c>
-      <c r="E1" s="66" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>1245</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H1" s="66" t="s">
+      <c r="J1" s="66" t="s">
         <v>1247</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>1295</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>1248</v>
       </c>
       <c r="K1" s="66" t="s">
         <v>648</v>
@@ -38108,13 +38105,13 @@
         <v>1063</v>
       </c>
       <c r="AT1" s="57" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="AU1" s="57" t="s">
         <v>647</v>
       </c>
       <c r="AV1" s="57" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="59" customFormat="1">
@@ -38277,7 +38274,7 @@
         <v>vcn01-dmz</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="59" customFormat="1" ht="26">
+    <row r="3" spans="1:48" s="59" customFormat="1">
       <c r="A3" s="59">
         <v>4</v>
       </c>
@@ -39693,7 +39690,7 @@
       <c r="J19" s="34"/>
       <c r="K19" s="60"/>
       <c r="L19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M19" s="60"/>
       <c r="N19" s="60"/>
@@ -40463,7 +40460,7 @@
       <c r="J29" s="34"/>
       <c r="K29" s="60"/>
       <c r="L29" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="M29" s="60"/>
       <c r="N29" s="60"/>
@@ -45010,7 +45007,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="41" customFormat="1" ht="167" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -45027,7 +45024,7 @@
         <v>1141</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>1142</v>
@@ -46301,7 +46298,7 @@
     <col min="3" max="4" width="20.1796875" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="42">
+    <row r="1" spans="1:4" ht="28">
       <c r="A1" s="57" t="s">
         <v>644</v>
       </c>
@@ -46309,10 +46306,10 @@
         <v>698</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -46810,7 +46807,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="41" customFormat="1" ht="134.25" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -46880,7 +46877,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="41" customFormat="1" ht="102.75" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -47226,7 +47223,7 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -47238,7 +47235,7 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
@@ -47250,7 +47247,7 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -47310,7 +47307,7 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -47334,7 +47331,7 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -47394,7 +47391,7 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -47754,7 +47751,7 @@
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -47778,7 +47775,7 @@
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -47790,7 +47787,7 @@
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
       <c r="E72" s="33" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -47802,7 +47799,7 @@
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -47814,7 +47811,7 @@
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
       <c r="E74" s="33" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -47826,7 +47823,7 @@
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -47850,7 +47847,7 @@
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F77" s="111"/>
       <c r="G77" s="33"/>
@@ -47906,7 +47903,7 @@
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -47918,7 +47915,7 @@
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -48134,7 +48131,7 @@
       <c r="C100" s="33"/>
       <c r="D100" s="33"/>
       <c r="E100" s="33" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -48146,7 +48143,7 @@
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
       <c r="E101" s="33" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -48158,7 +48155,7 @@
       <c r="C102" s="33"/>
       <c r="D102" s="33"/>
       <c r="E102" s="33" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -48170,7 +48167,7 @@
       <c r="C103" s="33"/>
       <c r="D103" s="33"/>
       <c r="E103" s="33" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -48206,7 +48203,7 @@
       <c r="C106" s="33"/>
       <c r="D106" s="33"/>
       <c r="E106" s="33" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -48254,7 +48251,7 @@
       <c r="C110" s="33"/>
       <c r="D110" s="33"/>
       <c r="E110" s="33" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -48266,7 +48263,7 @@
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
       <c r="E111" s="33" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -48302,7 +48299,7 @@
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
       <c r="E114" s="33" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -48314,7 +48311,7 @@
       <c r="C115" s="33"/>
       <c r="D115" s="33"/>
       <c r="E115" s="33" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -48338,7 +48335,7 @@
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -48350,7 +48347,7 @@
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -48362,7 +48359,7 @@
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -48374,7 +48371,7 @@
       <c r="C120" s="33"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -48442,7 +48439,7 @@
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -48906,7 +48903,7 @@
       <c r="C163" s="33"/>
       <c r="D163" s="33"/>
       <c r="E163" s="33" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
@@ -48918,7 +48915,7 @@
       <c r="C164" s="33"/>
       <c r="D164" s="33"/>
       <c r="E164" s="33" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="33"/>
@@ -48930,7 +48927,7 @@
       <c r="C165" s="33"/>
       <c r="D165" s="33"/>
       <c r="E165" s="33" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
@@ -48978,7 +48975,7 @@
       <c r="C169" s="33"/>
       <c r="D169" s="33"/>
       <c r="E169" s="33" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -48990,7 +48987,7 @@
       <c r="C170" s="33"/>
       <c r="D170" s="33"/>
       <c r="E170" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -49450,7 +49447,7 @@
       <c r="C207" s="33"/>
       <c r="D207" s="33"/>
       <c r="E207" s="33" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="33"/>
@@ -49510,7 +49507,7 @@
       <c r="C212" s="33"/>
       <c r="D212" s="33"/>
       <c r="E212" s="33" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
@@ -49522,7 +49519,7 @@
       <c r="C213" s="33"/>
       <c r="D213" s="33"/>
       <c r="E213" s="33" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
@@ -49534,7 +49531,7 @@
       <c r="C214" s="33"/>
       <c r="D214" s="33"/>
       <c r="E214" s="33" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
@@ -49546,7 +49543,7 @@
       <c r="C215" s="33"/>
       <c r="D215" s="33"/>
       <c r="E215" s="33" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
@@ -50044,7 +50041,7 @@
         <v>1005</v>
       </c>
       <c r="E255" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F255" s="33"/>
       <c r="G255" s="33"/>
@@ -50056,7 +50053,7 @@
       <c r="C256" s="33"/>
       <c r="D256" s="33"/>
       <c r="E256" s="33" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="33"/>
@@ -50068,7 +50065,7 @@
       <c r="C257" s="33"/>
       <c r="D257" s="33"/>
       <c r="E257" s="33" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F257" s="33"/>
       <c r="G257" s="33"/>
@@ -50117,7 +50114,7 @@
       <c r="E1" s="116"/>
       <c r="F1" s="117"/>
       <c r="G1" s="118" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H1" s="119"/>
       <c r="I1" s="120"/>
@@ -50495,7 +50492,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="210" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -50503,7 +50500,7 @@
       <c r="E1" s="116"/>
       <c r="F1" s="117"/>
       <c r="G1" s="115" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="H1" s="116"/>
       <c r="I1" s="116"/>
@@ -50768,7 +50765,7 @@
       <c r="E1" s="112"/>
       <c r="F1" s="112"/>
       <c r="G1" s="121" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1" s="121"/>
       <c r="I1" s="121"/>
@@ -50787,7 +50784,7 @@
         <v>631</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>632</v>
@@ -50851,13 +50848,13 @@
         <v>757</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>1279</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>1280</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>1281</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -50871,16 +50868,16 @@
         <v>356</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>1282</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>1283</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>1284</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E085BEE-2AF5-3145-8206-1A01B7EBD94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B8532E-2D48-A343-8044-F25B97CFAAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B8532E-2D48-A343-8044-F25B97CFAAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A422B997-04EA-EA4B-8020-D484EBBD039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="760" windowWidth="30240" windowHeight="17600" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="1363">
   <si>
     <t>Region</t>
   </si>
@@ -10333,48 +10333,6 @@
     <t>User Description</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Release - v12
-Introduced new service - Network Sources, 
-Enhancements - Added support for multiple Exa VM Clusters, OCVS Standard Shapes, 
-NLB fix, Instance Terraform
-</t>
-    </r>
-  </si>
-  <si>
     <t>allow group AppDevAdmins to manage keys in compartment AppDev</t>
   </si>
   <si>
@@ -10393,9 +10351,6 @@
     <t>allow group AppDevAdmins to read logging-family in compartment Security</t>
   </si>
   <si>
-    <t>allow service cloudguard to manage cloudevents-rules in tenancy where target.rule.type='managed'</t>
-  </si>
-  <si>
     <t>Allow service vulnerability-scanning-service to manage instances in tenancy</t>
   </si>
   <si>
@@ -10436,12 +10391,6 @@
   </si>
   <si>
     <t>allow group DatabaseAdmins to read logging-family in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to read cloud-exadata-infrastructures in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to use cloud-vmclusters in compartment Database</t>
   </si>
   <si>
     <t>allow group DatabaseAdmins to manage db-nodes in compartment Database</t>
@@ -10846,6 +10795,80 @@
       </rPr>
       <t>' and set the value to True to enable live migration for the instance. It will be enabled if it is compatible.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3-OCI Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2024.1.0</t>
+    </r>
+  </si>
+  <si>
+    <t>Basic-Access-Policy</t>
+  </si>
+  <si>
+    <t>Policy to allow basic access</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
+  </si>
+  <si>
+    <t>OKE-Clusters-Policy</t>
+  </si>
+  <si>
+    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
+  </si>
+  <si>
+    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
   </si>
 </sst>
 </file>
@@ -17658,7 +17681,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>1311</v>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -21114,7 +21137,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="128"/>
       <c r="I1" s="115" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="J1" s="116"/>
       <c r="K1" s="116"/>
@@ -46824,7 +46847,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I257"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -46841,7 +46864,7 @@
     <col min="8" max="8" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="41" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="41" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
         <v>1240</v>
       </c>
@@ -47189,7 +47212,7 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -47201,7 +47224,7 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
@@ -47213,7 +47236,7 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -47273,7 +47296,7 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -47297,7 +47320,7 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -47357,7 +47380,7 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -47635,125 +47658,133 @@
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
     </row>
-    <row r="64" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>639</v>
+        <v>1351</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>1108</v>
+        <v>1352</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>1109</v>
+        <v>1353</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
     </row>
-    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
-        <v>1110</v>
+        <v>1354</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
     </row>
-    <row r="66" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33" t="s">
-        <v>1111</v>
+        <v>1355</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
     </row>
-    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="33"/>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33" t="s">
-        <v>1112</v>
+        <v>1356</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
     </row>
-    <row r="68" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>1113</v>
+        <v>639</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>872</v>
+        <v>1108</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
       <c r="H68" s="33"/>
     </row>
-    <row r="69" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="33"/>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33" t="s">
-        <v>1318</v>
+        <v>1110</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
     </row>
-    <row r="70" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="208" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="33" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
       <c r="H70" s="33"/>
     </row>
-    <row r="71" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33" t="s">
-        <v>1319</v>
+        <v>1112</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
       <c r="H71" s="33"/>
     </row>
-    <row r="72" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="33"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
+    <row r="72" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A72" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>872</v>
+      </c>
       <c r="E72" s="33" t="s">
-        <v>1320</v>
+        <v>1114</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -47765,7 +47796,7 @@
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33" t="s">
-        <v>1321</v>
+        <v>1115</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -47777,7 +47808,7 @@
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
       <c r="E74" s="33" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -47789,87 +47820,87 @@
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
       <c r="H75" s="33"/>
     </row>
-    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33" t="s">
-        <v>1116</v>
+        <v>1319</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
       <c r="H76" s="33"/>
     </row>
-    <row r="77" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33"/>
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33" t="s">
-        <v>1324</v>
-      </c>
-      <c r="F77" s="111"/>
+        <v>1320</v>
+      </c>
+      <c r="F77" s="33"/>
       <c r="G77" s="33"/>
       <c r="H77" s="33"/>
     </row>
-    <row r="78" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="78" t="s">
-        <v>584</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>873</v>
-      </c>
+    <row r="78" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
       <c r="E78" s="33" t="s">
-        <v>874</v>
+        <v>1321</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
     </row>
-    <row r="79" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="33"/>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33" t="s">
-        <v>875</v>
+        <v>1116</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
       <c r="H79" s="33"/>
     </row>
-    <row r="80" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33" t="s">
-        <v>876</v>
-      </c>
-      <c r="F80" s="33"/>
+        <v>1322</v>
+      </c>
+      <c r="F80" s="111"/>
       <c r="G80" s="33"/>
       <c r="H80" s="33"/>
     </row>
-    <row r="81" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="33"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
+    <row r="81" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="78" t="s">
+        <v>584</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>873</v>
+      </c>
       <c r="E81" s="33" t="s">
-        <v>1325</v>
+        <v>874</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -47881,7 +47912,7 @@
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33" t="s">
-        <v>1326</v>
+        <v>875</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -47893,7 +47924,7 @@
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -47904,20 +47935,20 @@
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
-      <c r="E84" s="33" t="s">
-        <v>878</v>
+      <c r="E84" s="30" t="s">
+        <v>1323</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
       <c r="H84" s="33"/>
     </row>
-    <row r="85" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
-      <c r="E85" s="33" t="s">
-        <v>879</v>
+      <c r="E85" s="30" t="s">
+        <v>1324</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -47928,8 +47959,8 @@
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
-      <c r="E86" s="33" t="s">
-        <v>880</v>
+      <c r="E86" s="30" t="s">
+        <v>877</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -47940,32 +47971,32 @@
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
-      <c r="E87" s="33" t="s">
-        <v>881</v>
+      <c r="E87" s="30" t="s">
+        <v>878</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
       <c r="H87" s="33"/>
     </row>
-    <row r="88" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
-      <c r="E88" s="33" t="s">
-        <v>882</v>
+      <c r="E88" s="30" t="s">
+        <v>879</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
       <c r="H88" s="33"/>
     </row>
-    <row r="89" spans="1:8" ht="112" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
-      <c r="E89" s="33" t="s">
-        <v>883</v>
+      <c r="E89" s="30" t="s">
+        <v>880</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -47976,32 +48007,32 @@
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
-      <c r="E90" s="33" t="s">
-        <v>884</v>
+      <c r="E90" s="30" t="s">
+        <v>881</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
       <c r="H90" s="33"/>
     </row>
-    <row r="91" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A91" s="33"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
-      <c r="E91" s="33" t="s">
-        <v>885</v>
+      <c r="E91" s="30" t="s">
+        <v>882</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
     </row>
-    <row r="92" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
-      <c r="E92" s="33" t="s">
-        <v>886</v>
+      <c r="E92" s="30" t="s">
+        <v>883</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -48012,8 +48043,8 @@
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
-      <c r="E93" s="33" t="s">
-        <v>887</v>
+      <c r="E93" s="30" t="s">
+        <v>884</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -48024,8 +48055,8 @@
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
-      <c r="E94" s="33" t="s">
-        <v>888</v>
+      <c r="E94" s="30" t="s">
+        <v>885</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -48036,44 +48067,44 @@
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
-      <c r="E95" s="33" t="s">
-        <v>889</v>
+      <c r="E95" s="30" t="s">
+        <v>886</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
       <c r="H95" s="33"/>
     </row>
-    <row r="96" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
-      <c r="E96" s="33" t="s">
-        <v>890</v>
+      <c r="E96" s="30" t="s">
+        <v>887</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
       <c r="H96" s="33"/>
     </row>
-    <row r="97" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="33"/>
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
       <c r="D97" s="33"/>
-      <c r="E97" s="33" t="s">
-        <v>891</v>
+      <c r="E97" s="30" t="s">
+        <v>888</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
     </row>
-    <row r="98" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
       <c r="D98" s="33"/>
-      <c r="E98" s="33" t="s">
-        <v>892</v>
+      <c r="E98" s="30" t="s">
+        <v>889</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -48084,8 +48115,8 @@
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
       <c r="D99" s="33"/>
-      <c r="E99" s="33" t="s">
-        <v>893</v>
+      <c r="E99" s="30" t="s">
+        <v>890</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -48096,8 +48127,8 @@
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
       <c r="D100" s="33"/>
-      <c r="E100" s="33" t="s">
-        <v>1327</v>
+      <c r="E100" s="30" t="s">
+        <v>891</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -48108,8 +48139,8 @@
       <c r="B101" s="33"/>
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
-      <c r="E101" s="33" t="s">
-        <v>1328</v>
+      <c r="E101" s="30" t="s">
+        <v>892</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -48120,8 +48151,8 @@
       <c r="B102" s="33"/>
       <c r="C102" s="33"/>
       <c r="D102" s="33"/>
-      <c r="E102" s="33" t="s">
-        <v>1329</v>
+      <c r="E102" s="30" t="s">
+        <v>893</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -48132,8 +48163,8 @@
       <c r="B103" s="33"/>
       <c r="C103" s="33"/>
       <c r="D103" s="33"/>
-      <c r="E103" s="33" t="s">
-        <v>1330</v>
+      <c r="E103" s="30" t="s">
+        <v>1325</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -48144,8 +48175,8 @@
       <c r="B104" s="33"/>
       <c r="C104" s="33"/>
       <c r="D104" s="33"/>
-      <c r="E104" s="33" t="s">
-        <v>894</v>
+      <c r="E104" s="30" t="s">
+        <v>1326</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -48156,8 +48187,8 @@
       <c r="B105" s="33"/>
       <c r="C105" s="33"/>
       <c r="D105" s="33"/>
-      <c r="E105" s="33" t="s">
-        <v>895</v>
+      <c r="E105" s="30" t="s">
+        <v>1327</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -48168,8 +48199,8 @@
       <c r="B106" s="33"/>
       <c r="C106" s="33"/>
       <c r="D106" s="33"/>
-      <c r="E106" s="33" t="s">
-        <v>1267</v>
+      <c r="E106" s="30" t="s">
+        <v>1328</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -48180,8 +48211,8 @@
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
-      <c r="E107" s="33" t="s">
-        <v>896</v>
+      <c r="E107" s="30" t="s">
+        <v>894</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -48192,8 +48223,8 @@
       <c r="B108" s="33"/>
       <c r="C108" s="33"/>
       <c r="D108" s="33"/>
-      <c r="E108" s="33" t="s">
-        <v>897</v>
+      <c r="E108" s="30" t="s">
+        <v>895</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -48204,8 +48235,8 @@
       <c r="B109" s="33"/>
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
-      <c r="E109" s="33" t="s">
-        <v>898</v>
+      <c r="E109" s="30" t="s">
+        <v>1267</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -48216,8 +48247,8 @@
       <c r="B110" s="33"/>
       <c r="C110" s="33"/>
       <c r="D110" s="33"/>
-      <c r="E110" s="33" t="s">
-        <v>1331</v>
+      <c r="E110" s="30" t="s">
+        <v>896</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -48228,8 +48259,8 @@
       <c r="B111" s="33"/>
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
-      <c r="E111" s="33" t="s">
-        <v>1332</v>
+      <c r="E111" s="30" t="s">
+        <v>897</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -48240,8 +48271,8 @@
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
-      <c r="E112" s="33" t="s">
-        <v>899</v>
+      <c r="E112" s="30" t="s">
+        <v>898</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -48252,8 +48283,8 @@
       <c r="B113" s="33"/>
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
-      <c r="E113" s="33" t="s">
-        <v>900</v>
+      <c r="E113" s="30" t="s">
+        <v>1329</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -48264,8 +48295,8 @@
       <c r="B114" s="33"/>
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
-      <c r="E114" s="33" t="s">
-        <v>1333</v>
+      <c r="E114" s="30" t="s">
+        <v>1330</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -48276,8 +48307,8 @@
       <c r="B115" s="33"/>
       <c r="C115" s="33"/>
       <c r="D115" s="33"/>
-      <c r="E115" s="33" t="s">
-        <v>1334</v>
+      <c r="E115" s="30" t="s">
+        <v>899</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -48288,8 +48319,8 @@
       <c r="B116" s="33"/>
       <c r="C116" s="33"/>
       <c r="D116" s="33"/>
-      <c r="E116" s="33" t="s">
-        <v>890</v>
+      <c r="E116" s="30" t="s">
+        <v>900</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
@@ -48301,7 +48332,7 @@
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -48313,7 +48344,7 @@
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -48325,7 +48356,7 @@
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -48337,7 +48368,7 @@
       <c r="C120" s="33"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -48348,7 +48379,7 @@
       <c r="B121" s="33"/>
       <c r="C121" s="33"/>
       <c r="D121" s="33"/>
-      <c r="E121" s="33" t="s">
+      <c r="E121" s="30" t="s">
         <v>893</v>
       </c>
       <c r="F121" s="33"/>
@@ -48405,7 +48436,7 @@
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -48555,7 +48586,7 @@
       <c r="G137" s="33"/>
       <c r="H137" s="33"/>
     </row>
-    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="33"/>
       <c r="B138" s="33"/>
       <c r="C138" s="33"/>
@@ -48869,7 +48900,7 @@
       <c r="C163" s="33"/>
       <c r="D163" s="33"/>
       <c r="E163" s="33" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
@@ -48881,7 +48912,7 @@
       <c r="C164" s="33"/>
       <c r="D164" s="33"/>
       <c r="E164" s="33" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="33"/>
@@ -48893,7 +48924,7 @@
       <c r="C165" s="33"/>
       <c r="D165" s="33"/>
       <c r="E165" s="33" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
@@ -48941,7 +48972,7 @@
       <c r="C169" s="33"/>
       <c r="D169" s="33"/>
       <c r="E169" s="33" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -48953,7 +48984,7 @@
       <c r="C170" s="33"/>
       <c r="D170" s="33"/>
       <c r="E170" s="33" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -49019,7 +49050,7 @@
       <c r="A175" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="78" t="s">
+      <c r="B175" s="33" t="s">
         <v>589</v>
       </c>
       <c r="C175" s="33" t="s">
@@ -49413,7 +49444,7 @@
       <c r="C207" s="33"/>
       <c r="D207" s="33"/>
       <c r="E207" s="33" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="33"/>
@@ -49473,7 +49504,7 @@
       <c r="C212" s="33"/>
       <c r="D212" s="33"/>
       <c r="E212" s="33" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
@@ -49485,7 +49516,7 @@
       <c r="C213" s="33"/>
       <c r="D213" s="33"/>
       <c r="E213" s="33" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
@@ -49497,7 +49528,7 @@
       <c r="C214" s="33"/>
       <c r="D214" s="33"/>
       <c r="E214" s="33" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
@@ -49509,7 +49540,7 @@
       <c r="C215" s="33"/>
       <c r="D215" s="33"/>
       <c r="E215" s="33" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
@@ -49937,89 +49968,89 @@
       <c r="G250" s="34"/>
       <c r="H250" s="34"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A251" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B251" s="34"/>
-      <c r="C251" s="34"/>
-      <c r="D251" s="34"/>
-      <c r="E251" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B251" s="34" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C251" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="D251" s="33" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E251" s="33" t="s">
+        <v>1359</v>
+      </c>
       <c r="F251" s="34"/>
       <c r="G251" s="34"/>
       <c r="H251" s="34"/>
     </row>
-    <row r="252" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B252" s="33" t="s">
-        <v>999</v>
-      </c>
-      <c r="C252" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="D252" s="33" t="s">
-        <v>1000</v>
-      </c>
+    <row r="252" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A252" s="34"/>
+      <c r="B252" s="34"/>
+      <c r="C252" s="34"/>
+      <c r="D252" s="33"/>
       <c r="E252" s="33" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F252" s="33"/>
-      <c r="G252" s="33"/>
-      <c r="H252" s="33"/>
-    </row>
-    <row r="253" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="33"/>
-      <c r="B253" s="33"/>
-      <c r="C253" s="33"/>
+        <v>1360</v>
+      </c>
+      <c r="F252" s="34"/>
+      <c r="G252" s="34"/>
+      <c r="H252" s="34"/>
+    </row>
+    <row r="253" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A253" s="34"/>
+      <c r="B253" s="34"/>
+      <c r="C253" s="34"/>
       <c r="D253" s="33"/>
       <c r="E253" s="33" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F253" s="33"/>
-      <c r="G253" s="33"/>
-      <c r="H253" s="33"/>
-    </row>
-    <row r="254" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="33"/>
-      <c r="B254" s="33"/>
-      <c r="C254" s="33"/>
+        <v>1361</v>
+      </c>
+      <c r="F253" s="34"/>
+      <c r="G253" s="34"/>
+      <c r="H253" s="34"/>
+    </row>
+    <row r="254" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A254" s="34"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="34"/>
       <c r="D254" s="33"/>
       <c r="E254" s="33" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F254" s="33"/>
-      <c r="G254" s="33"/>
-      <c r="H254" s="33"/>
-    </row>
-    <row r="255" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="33" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F254" s="34"/>
+      <c r="G254" s="34"/>
+      <c r="H254" s="34"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" s="34"/>
+      <c r="C255" s="34"/>
+      <c r="D255" s="34"/>
+      <c r="E255" s="34"/>
+      <c r="F255" s="34"/>
+      <c r="G255" s="34"/>
+      <c r="H255" s="34"/>
+    </row>
+    <row r="256" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B255" s="33" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C255" s="33" t="s">
+      <c r="B256" s="33" t="s">
+        <v>999</v>
+      </c>
+      <c r="C256" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="D255" s="33" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E255" s="33" t="s">
-        <v>1350</v>
-      </c>
-      <c r="F255" s="33"/>
-      <c r="G255" s="33"/>
-      <c r="H255" s="33"/>
-    </row>
-    <row r="256" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="33"/>
-      <c r="B256" s="33"/>
-      <c r="C256" s="33"/>
-      <c r="D256" s="33"/>
+      <c r="D256" s="33" t="s">
+        <v>1000</v>
+      </c>
       <c r="E256" s="33" t="s">
-        <v>1351</v>
+        <v>1001</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="33"/>
@@ -50031,18 +50062,165 @@
       <c r="C257" s="33"/>
       <c r="D257" s="33"/>
       <c r="E257" s="33" t="s">
-        <v>1352</v>
+        <v>1002</v>
       </c>
       <c r="F257" s="33"/>
       <c r="G257" s="33"/>
       <c r="H257" s="33"/>
+    </row>
+    <row r="258" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="33"/>
+      <c r="B258" s="33"/>
+      <c r="C258" s="33"/>
+      <c r="D258" s="33"/>
+      <c r="E258" s="33" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F258" s="33"/>
+      <c r="G258" s="33"/>
+      <c r="H258" s="33"/>
+    </row>
+    <row r="259" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="33" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C259" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="D259" s="33" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E259" s="33" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F259" s="33"/>
+      <c r="G259" s="33"/>
+      <c r="H259" s="33"/>
+    </row>
+    <row r="260" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="33"/>
+      <c r="B260" s="33"/>
+      <c r="C260" s="33"/>
+      <c r="D260" s="33"/>
+      <c r="E260" s="33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F260" s="33"/>
+      <c r="G260" s="33"/>
+      <c r="H260" s="33"/>
+    </row>
+    <row r="261" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="33"/>
+      <c r="B261" s="33"/>
+      <c r="C261" s="33"/>
+      <c r="D261" s="33"/>
+      <c r="E261" s="33" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F261" s="33"/>
+      <c r="G261" s="33"/>
+      <c r="H261" s="33"/>
+    </row>
+    <row r="263" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
+      <c r="F263" s="34"/>
+      <c r="G263" s="34"/>
+      <c r="H263" s="34"/>
+    </row>
+    <row r="264" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="34"/>
+      <c r="B264" s="34"/>
+      <c r="C264" s="34"/>
+      <c r="D264" s="33"/>
+      <c r="E264" s="33"/>
+      <c r="F264" s="34"/>
+      <c r="G264" s="34"/>
+      <c r="H264" s="34"/>
+    </row>
+    <row r="265" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="34"/>
+      <c r="B265" s="34"/>
+      <c r="C265" s="34"/>
+      <c r="D265" s="33"/>
+      <c r="E265" s="33"/>
+      <c r="F265" s="34"/>
+      <c r="G265" s="34"/>
+      <c r="H265" s="34"/>
+    </row>
+    <row r="266" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="34"/>
+      <c r="B266" s="34"/>
+      <c r="C266" s="34"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
+      <c r="F266" s="34"/>
+      <c r="G266" s="34"/>
+      <c r="H266" s="34"/>
+    </row>
+    <row r="267" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="34"/>
+      <c r="B267" s="34"/>
+      <c r="C267" s="34"/>
+      <c r="D267" s="33"/>
+      <c r="E267" s="33"/>
+      <c r="F267" s="34"/>
+      <c r="G267" s="34"/>
+      <c r="H267" s="34"/>
+    </row>
+    <row r="268" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="34"/>
+      <c r="B268" s="34"/>
+      <c r="C268" s="34"/>
+      <c r="D268" s="33"/>
+      <c r="E268" s="33"/>
+      <c r="F268" s="34"/>
+      <c r="G268" s="34"/>
+      <c r="H268" s="34"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="34"/>
+      <c r="B269" s="34"/>
+      <c r="C269" s="34"/>
+      <c r="D269" s="33"/>
+      <c r="E269" s="33"/>
+      <c r="F269" s="34"/>
+      <c r="G269" s="34"/>
+      <c r="H269" s="34"/>
+    </row>
+    <row r="270" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="34"/>
+      <c r="B270" s="34"/>
+      <c r="C270" s="34"/>
+      <c r="D270" s="33"/>
+      <c r="E270" s="33"/>
+      <c r="F270" s="34"/>
+      <c r="G270" s="34"/>
+      <c r="H270" s="34"/>
+    </row>
+    <row r="271" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="34"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="34"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="33"/>
+      <c r="F271" s="34"/>
+      <c r="G271" s="34"/>
+      <c r="H271" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:A2 C1:C2 E78:F1048576 E1:E68 E70:E76 F1:F76 D1:D1048576 G1:XFD1048576 B1:B1048576" xr:uid="{C572523C-03EC-A545-8AEE-BA8DD1878D89}"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" sqref="A1:A2 C1:C2 D263:XFD1048576 E1:E63 E68:E79 F1:F79 D1:D262 B1:B1048576 G1:XFD262 F81:F262 E81:E250 E255:E262" xr:uid="{1C826DF4-AC96-F140-8C2C-CC096A9ECB70}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E64:E67 E251:E254" xr:uid="{EC1B7667-3B66-A344-A945-A1091464BD03}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A422B997-04EA-EA4B-8020-D484EBBD039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DED6E5-2025-6648-8AA7-2ED948534802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="760" windowWidth="30240" windowHeight="17600" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-260" yWindow="820" windowWidth="30240" windowHeight="17580" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="1362">
   <si>
     <t>Region</t>
   </si>
@@ -3142,9 +3142,6 @@
   </si>
   <si>
     <t>Policy allowing SecurityAdmins group to manage security related services in compartment Security.</t>
-  </si>
-  <si>
-    <t>hub-vcn</t>
   </si>
   <si>
     <t>10.110.2.0/24</t>
@@ -17681,7 +17678,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
   </sheetData>
@@ -17707,7 +17704,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="41" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B1" s="120"/>
     </row>
@@ -17777,7 +17774,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -17821,7 +17818,7 @@
         <v>356</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>35</v>
@@ -17830,7 +17827,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
@@ -17957,7 +17954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -17984,7 +17981,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -17995,7 +17992,7 @@
       <c r="H1" s="116"/>
       <c r="I1" s="117"/>
       <c r="J1" s="122" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="K1" s="122"/>
       <c r="L1" s="122"/>
@@ -18022,7 +18019,7 @@
         <v>314</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>11</v>
@@ -18078,13 +18075,13 @@
         <v>356</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>50</v>
@@ -18093,7 +18090,7 @@
         <v>51</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I3" s="34" t="s">
         <v>35</v>
@@ -18130,16 +18127,16 @@
         <v>356</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>51</v>
@@ -18182,16 +18179,16 @@
         <v>356</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>51</v>
@@ -18258,16 +18255,16 @@
         <v>356</v>
       </c>
       <c r="C7" s="54" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>1150</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="E7" s="54" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F7" s="54" t="s">
         <v>1151</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>1148</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>1152</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>51</v>
@@ -18277,11 +18274,11 @@
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="54" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="K7" s="54"/>
       <c r="L7" s="55" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="M7" s="54" t="s">
         <v>21</v>
@@ -18312,16 +18309,16 @@
         <v>356</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D8" s="54" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F8" s="54" t="s">
         <v>1154</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>1155</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>51</v>
@@ -18331,7 +18328,7 @@
       </c>
       <c r="I8" s="54"/>
       <c r="J8" s="54" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="K8" s="54"/>
       <c r="L8" s="54"/>
@@ -18760,7 +18757,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -18780,25 +18777,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D2" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="E2" s="28" t="s">
         <v>632</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>633</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>428</v>
@@ -18857,7 +18854,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -18955,7 +18952,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -19107,7 +19104,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="139" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -19199,13 +19196,13 @@
         <v>356</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D3" s="33" t="s">
+        <v>593</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>594</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>595</v>
       </c>
       <c r="F3" s="33" t="s">
         <v>391</v>
@@ -19219,7 +19216,7 @@
         <v>392</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
@@ -19232,7 +19229,7 @@
       <c r="P3" s="33"/>
       <c r="Q3" s="33"/>
       <c r="R3" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S3" s="33"/>
       <c r="T3" s="33"/>
@@ -19245,13 +19242,13 @@
         <v>356</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>391</v>
@@ -19260,7 +19257,7 @@
         <v>79</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>29</v>
@@ -19278,7 +19275,7 @@
       <c r="P4" s="33"/>
       <c r="Q4" s="33"/>
       <c r="R4" s="33" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="S4" s="33"/>
       <c r="T4" s="33"/>
@@ -19291,13 +19288,13 @@
         <v>356</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F5" s="33" t="s">
         <v>391</v>
@@ -19306,10 +19303,10 @@
         <v>79</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
@@ -19324,7 +19321,7 @@
       <c r="P5" s="33"/>
       <c r="Q5" s="33"/>
       <c r="R5" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="S5" s="33"/>
       <c r="T5" s="33"/>
@@ -19337,13 +19334,13 @@
         <v>356</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>391</v>
@@ -19357,7 +19354,7 @@
         <v>392</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L6" s="33"/>
       <c r="M6" s="33"/>
@@ -19370,7 +19367,7 @@
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
       <c r="R6" s="33" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="S6" s="33"/>
       <c r="T6" s="33"/>
@@ -19383,13 +19380,13 @@
         <v>356</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F7" s="33" t="s">
         <v>391</v>
@@ -19398,10 +19395,10 @@
         <v>79</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -19416,7 +19413,7 @@
       <c r="P7" s="33"/>
       <c r="Q7" s="33"/>
       <c r="R7" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
@@ -19429,13 +19426,13 @@
         <v>356</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>391</v>
@@ -19444,10 +19441,10 @@
         <v>79</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -19462,7 +19459,7 @@
       <c r="P8" s="33"/>
       <c r="Q8" s="33"/>
       <c r="R8" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="S8" s="33"/>
       <c r="T8" s="33"/>
@@ -19475,13 +19472,13 @@
         <v>356</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>391</v>
@@ -19495,7 +19492,7 @@
         <v>392</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L9" s="33"/>
       <c r="M9" s="33"/>
@@ -19508,7 +19505,7 @@
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="33" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="S9" s="33"/>
       <c r="T9" s="33"/>
@@ -19521,13 +19518,13 @@
         <v>356</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F10" s="33" t="s">
         <v>391</v>
@@ -19538,10 +19535,10 @@
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="K10" s="33" t="s">
         <v>610</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>611</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
@@ -19554,7 +19551,7 @@
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S10" s="33"/>
       <c r="T10" s="33"/>
@@ -19567,13 +19564,13 @@
         <v>356</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F11" s="33" t="s">
         <v>391</v>
@@ -19582,10 +19579,10 @@
         <v>79</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
@@ -19600,7 +19597,7 @@
       <c r="P11" s="33"/>
       <c r="Q11" s="33"/>
       <c r="R11" s="33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -19613,13 +19610,13 @@
         <v>356</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>391</v>
@@ -19628,10 +19625,10 @@
         <v>79</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
@@ -19646,7 +19643,7 @@
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
       <c r="R12" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
@@ -19659,13 +19656,13 @@
         <v>356</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>391</v>
@@ -19679,7 +19676,7 @@
         <v>392</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
@@ -19692,7 +19689,7 @@
       <c r="P13" s="33"/>
       <c r="Q13" s="33"/>
       <c r="R13" s="33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S13" s="33"/>
       <c r="T13" s="33"/>
@@ -19705,13 +19702,13 @@
         <v>356</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>391</v>
@@ -19722,10 +19719,10 @@
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="K14" s="33" t="s">
         <v>610</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>611</v>
       </c>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
@@ -19738,7 +19735,7 @@
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
       <c r="R14" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
@@ -19751,13 +19748,13 @@
         <v>356</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>391</v>
@@ -19766,10 +19763,10 @@
         <v>79</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
@@ -19784,7 +19781,7 @@
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S15" s="33"/>
       <c r="T15" s="33"/>
@@ -19797,13 +19794,13 @@
         <v>356</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>591</v>
+        <v>755</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>391</v>
@@ -19812,10 +19809,10 @@
         <v>79</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
@@ -19830,7 +19827,7 @@
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
@@ -20104,7 +20101,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="175" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -20123,22 +20120,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>1156</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>1157</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>1158</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>1159</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>1160</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>1161</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>428</v>
@@ -20165,19 +20162,19 @@
         <v>356</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>1162</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>1163</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>1164</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="33" t="s">
         <v>1165</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>1166</v>
       </c>
       <c r="H4" s="33">
         <v>3600</v>
@@ -20192,19 +20189,19 @@
         <v>356</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>1162</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>1163</v>
-      </c>
       <c r="E5" s="33" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>1167</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>1168</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>1169</v>
       </c>
       <c r="H5" s="33">
         <v>300</v>
@@ -20219,19 +20216,19 @@
         <v>356</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>1170</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="E6" s="33" t="s">
         <v>1171</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="33" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>1172</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>1173</v>
       </c>
       <c r="H6" s="33">
         <v>300</v>
@@ -20505,7 +20502,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -20532,22 +20529,22 @@
         <v>314</v>
       </c>
       <c r="E2" s="27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>1174</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>1175</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>1176</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>1177</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>1178</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>1179</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>428</v>
@@ -20576,26 +20573,26 @@
         <v>356</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E4" s="33" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F4" s="30" t="s">
         <v>1180</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="G4" s="34" t="s">
+        <v>769</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>1181</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>770</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>1182</v>
       </c>
       <c r="I4" s="29"/>
       <c r="J4" s="30" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="K4" s="30"/>
     </row>
@@ -20607,22 +20604,22 @@
         <v>356</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F5" s="30" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>769</v>
+      </c>
+      <c r="H5" s="30" t="s">
         <v>1184</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>770</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>1185</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
@@ -20689,7 +20686,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -20857,7 +20854,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="41" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -21127,7 +21124,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="126" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -21137,7 +21134,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="128"/>
       <c r="I1" s="115" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="J1" s="116"/>
       <c r="K1" s="116"/>
@@ -21185,19 +21182,19 @@
         <v>85</v>
       </c>
       <c r="K2" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>776</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>777</v>
-      </c>
       <c r="M2" s="28" t="s">
+        <v>778</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="N2" s="28" t="s">
-        <v>780</v>
-      </c>
       <c r="O2" s="28" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>95</v>
@@ -21215,7 +21212,7 @@
         <v>98</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="V2" s="27" t="s">
         <v>428</v>
@@ -21232,19 +21229,19 @@
         <v>56</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>355</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G3" s="34" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I3" s="34" t="s">
         <v>439</v>
@@ -21341,7 +21338,7 @@
       </c>
       <c r="N5" s="54"/>
       <c r="O5" s="54" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="P5" s="54" t="s">
         <v>103</v>
@@ -21355,7 +21352,7 @@
         <v>91</v>
       </c>
       <c r="U5" s="55" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="V5" s="54"/>
     </row>
@@ -21405,7 +21402,7 @@
       </c>
       <c r="T6" s="54"/>
       <c r="U6" s="55" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="V6" s="54"/>
     </row>
@@ -21468,20 +21465,20 @@
         <v>56</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E8" s="54" t="s">
         <v>355</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G8" s="54" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="54"/>
       <c r="I8" s="54" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J8" s="98" t="s">
         <v>105</v>
@@ -21596,7 +21593,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -21622,7 +21619,7 @@
         <v>106</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>107</v>
@@ -21637,10 +21634,10 @@
         <v>109</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>96</v>
@@ -21695,7 +21692,7 @@
         <v>110</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J4" s="88" t="b">
         <v>1</v>
@@ -21821,7 +21818,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="129" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="B1" s="130"/>
       <c r="C1" s="130"/>
@@ -21903,7 +21900,7 @@
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="33" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -21942,7 +21939,7 @@
         <v>125</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J4" s="54"/>
       <c r="K4" s="54"/>
@@ -21967,7 +21964,7 @@
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
       <c r="I5" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J5" s="54" t="s">
         <v>126</v>
@@ -21992,7 +21989,7 @@
       <c r="G6" s="54"/>
       <c r="H6" s="54"/>
       <c r="I6" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J6" s="54" t="s">
         <v>128</v>
@@ -22029,7 +22026,7 @@
         <v>130</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J7" s="54"/>
       <c r="K7" s="54"/>
@@ -22062,7 +22059,7 @@
         <v>132</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J8" s="54" t="s">
         <v>133</v>
@@ -22101,7 +22098,7 @@
         <v>132</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J9" s="54" t="s">
         <v>135</v>
@@ -22138,7 +22135,7 @@
         <v>137</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J10" s="54"/>
       <c r="K10" s="54"/>
@@ -22236,7 +22233,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -22252,7 +22249,7 @@
       <c r="M1" s="116"/>
       <c r="N1" s="117"/>
       <c r="O1" s="126" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="P1" s="127"/>
       <c r="Q1" s="127"/>
@@ -22278,76 +22275,76 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>1019</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>1021</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>1022</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>1023</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>1024</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>1025</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>1026</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>1027</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>1028</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>1029</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>1030</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>85</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q2" s="28" t="s">
         <v>438</v>
       </c>
       <c r="R2" s="28" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>776</v>
+      </c>
+      <c r="T2" s="28" t="s">
         <v>1031</v>
       </c>
-      <c r="S2" s="28" t="s">
-        <v>777</v>
-      </c>
-      <c r="T2" s="28" t="s">
+      <c r="U2" s="28" t="s">
         <v>1032</v>
-      </c>
-      <c r="U2" s="28" t="s">
-        <v>1033</v>
       </c>
       <c r="V2" s="28" t="s">
         <v>84</v>
       </c>
       <c r="W2" s="28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="X2" s="28" t="s">
         <v>1034</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="Y2" s="28" t="s">
         <v>1035</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Z2" s="28" t="s">
         <v>1036</v>
-      </c>
-      <c r="Z2" s="28" t="s">
-        <v>1037</v>
       </c>
       <c r="AA2" s="28" t="s">
         <v>95</v>
@@ -22356,10 +22353,10 @@
         <v>428</v>
       </c>
       <c r="AC2" s="28" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AD2" s="28" t="s">
         <v>1038</v>
-      </c>
-      <c r="AD2" s="28" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22404,49 +22401,49 @@
         <v>561</v>
       </c>
       <c r="C4" s="99" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D4" s="99" t="s">
         <v>1040</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="E4" s="99" t="s">
         <v>1041</v>
-      </c>
-      <c r="E4" s="99" t="s">
-        <v>1042</v>
       </c>
       <c r="F4" s="99" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="99" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H4" s="99" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I4" s="55" t="b">
         <v>0</v>
       </c>
       <c r="J4" s="99" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K4" s="99" t="s">
         <v>1044</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="L4" s="99" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M4" s="99" t="s">
         <v>1045</v>
       </c>
-      <c r="L4" s="99" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M4" s="99" t="s">
+      <c r="N4" s="99" t="s">
+        <v>1040</v>
+      </c>
+      <c r="O4" s="99" t="s">
         <v>1046</v>
-      </c>
-      <c r="N4" s="99" t="s">
-        <v>1041</v>
-      </c>
-      <c r="O4" s="99" t="s">
-        <v>1047</v>
       </c>
       <c r="P4" s="99">
         <v>32</v>
       </c>
       <c r="Q4" s="99" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="R4" s="99">
         <v>1</v>
@@ -22455,10 +22452,10 @@
         <v>64</v>
       </c>
       <c r="T4" s="99" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="U4" s="99" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V4" s="99" t="s">
         <v>99</v>
@@ -22467,7 +22464,7 @@
       <c r="X4" s="99"/>
       <c r="Y4" s="99"/>
       <c r="Z4" s="100" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA4" s="99" t="s">
         <v>103</v>
@@ -22492,19 +22489,19 @@
       <c r="K5" s="55"/>
       <c r="L5" s="55"/>
       <c r="M5" s="55" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="N5" s="55" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="O5" s="55" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="P5" s="55">
         <v>16</v>
       </c>
       <c r="Q5" s="55" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="R5" s="55">
         <v>2</v>
@@ -22514,7 +22511,7 @@
       </c>
       <c r="T5" s="55"/>
       <c r="U5" s="99" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V5" s="55" t="s">
         <v>90</v>
@@ -22523,7 +22520,7 @@
       <c r="X5" s="55"/>
       <c r="Y5" s="55"/>
       <c r="Z5" s="54" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AA5" s="55" t="s">
         <v>103</v>
@@ -22540,22 +22537,22 @@
         <v>561</v>
       </c>
       <c r="C6" s="55" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E6" s="55" t="s">
         <v>1054</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>1055</v>
       </c>
       <c r="F6" s="55" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="99" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="I6" s="55" t="b">
         <v>0</v>
@@ -22564,19 +22561,19 @@
       <c r="K6" s="55"/>
       <c r="L6" s="55"/>
       <c r="M6" s="55" t="s">
+        <v>1045</v>
+      </c>
+      <c r="N6" s="55" t="s">
+        <v>1050</v>
+      </c>
+      <c r="O6" s="55" t="s">
         <v>1046</v>
-      </c>
-      <c r="N6" s="55" t="s">
-        <v>1051</v>
-      </c>
-      <c r="O6" s="55" t="s">
-        <v>1047</v>
       </c>
       <c r="P6" s="55">
         <v>32</v>
       </c>
       <c r="Q6" s="55" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="R6" s="55">
         <v>1</v>
@@ -22585,10 +22582,10 @@
         <v>64</v>
       </c>
       <c r="T6" s="99" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="U6" s="99" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V6" s="55" t="s">
         <v>99</v>
@@ -22598,7 +22595,7 @@
       </c>
       <c r="X6" s="55"/>
       <c r="Y6" s="99" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="Z6" s="101"/>
       <c r="AA6" s="55" t="s">
@@ -22696,7 +22693,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -22728,13 +22725,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>641</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>642</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>139</v>
@@ -22746,7 +22743,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>141</v>
@@ -22995,7 +22992,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -23030,16 +23027,16 @@
         <v>138</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>157</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H2" s="35" t="s">
         <v>158</v>
@@ -23129,7 +23126,7 @@
         <v>168</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H4" s="54" t="s">
         <v>169</v>
@@ -23189,7 +23186,7 @@
         <v>174</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H5" s="54" t="s">
         <v>169</v>
@@ -23237,7 +23234,7 @@
         <v>177</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H6" s="54" t="s">
         <v>169</v>
@@ -23346,7 +23343,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -23388,10 +23385,10 @@
         <v>244</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>245</v>
@@ -24485,7 +24482,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -24508,13 +24505,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>97</v>
@@ -24523,7 +24520,7 @@
         <v>140</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>245</v>
@@ -24532,7 +24529,7 @@
         <v>157</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L2" s="28" t="s">
         <v>246</v>
@@ -24560,16 +24557,16 @@
     </row>
     <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>356</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E4" s="55" t="b">
         <v>0</v>
@@ -24580,13 +24577,13 @@
       </c>
       <c r="H4" s="55"/>
       <c r="I4" s="55" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K4" s="55" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L4" s="55">
         <v>7003</v>
@@ -24595,37 +24592,37 @@
     </row>
     <row r="5" spans="1:13" s="85" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>356</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E5" s="55" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G5" s="55" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I5" s="55" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K5" s="55" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L5" s="55">
         <v>53</v>
@@ -24642,13 +24639,13 @@
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
       <c r="I6" s="55" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L6" s="55">
         <v>22</v>
@@ -25011,7 +25008,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="41" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -25053,10 +25050,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>824</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>825</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>826</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="33"/>
@@ -25131,10 +25128,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>618</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>619</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -25144,10 +25141,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>637</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>638</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -25157,10 +25154,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="33" t="s">
+        <v>735</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>736</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>737</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -25176,13 +25173,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="33" t="s">
+        <v>826</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>827</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="D14" s="33" t="s">
         <v>828</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>829</v>
       </c>
       <c r="E14" s="33"/>
     </row>
@@ -25191,13 +25188,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>830</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="D15" s="33" t="s">
         <v>831</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>832</v>
       </c>
       <c r="E15" s="33"/>
     </row>
@@ -25206,13 +25203,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>832</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>833</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="D16" s="33" t="s">
         <v>834</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>835</v>
       </c>
       <c r="E16" s="33"/>
     </row>
@@ -25221,13 +25218,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="33" t="s">
+        <v>835</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>836</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="D17" s="33" t="s">
         <v>837</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>838</v>
       </c>
       <c r="E17" s="33"/>
     </row>
@@ -25278,7 +25275,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -25299,19 +25296,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>157</v>
       </c>
       <c r="E2" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>814</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>815</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>816</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>160</v>
@@ -25323,7 +25320,7 @@
         <v>450</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -25343,19 +25340,19 @@
     </row>
     <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>356</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F4" s="55" t="b">
         <v>0</v>
@@ -25367,36 +25364,36 @@
         <v>7003</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J4" s="55">
         <v>10000</v>
       </c>
       <c r="K4" s="55" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>356</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F5" s="55" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H5" s="55">
         <v>53</v>
@@ -25406,7 +25403,7 @@
         <v>10000</v>
       </c>
       <c r="K5" s="55" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -25414,16 +25411,16 @@
       <c r="B6" s="55"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F6" s="55" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H6" s="55">
         <v>22</v>
@@ -25433,7 +25430,7 @@
         <v>20000</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -25488,7 +25485,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -25514,34 +25511,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>315</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H2" s="96" t="s">
         <v>316</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>1012</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>1013</v>
-      </c>
       <c r="L2" s="51" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M2" s="50" t="s">
         <v>321</v>
@@ -25584,14 +25581,14 @@
         <v>563</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E4" s="90"/>
       <c r="F4" s="89" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>419</v>
@@ -25713,7 +25710,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -25756,31 +25753,31 @@
         <v>39</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F2" s="50" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="50" t="s">
+        <v>705</v>
+      </c>
+      <c r="H2" s="50" t="s">
         <v>706</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="I2" s="50" t="s">
         <v>707</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="J2" s="50" t="s">
         <v>708</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="K2" s="67" t="s">
         <v>709</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="L2" s="50" t="s">
         <v>710</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="M2" s="51" t="s">
         <v>711</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>712</v>
       </c>
       <c r="N2" s="50" t="s">
         <v>409</v>
@@ -25798,10 +25795,10 @@
         <v>412</v>
       </c>
       <c r="S2" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="T2" s="50" t="s">
         <v>713</v>
-      </c>
-      <c r="T2" s="50" t="s">
-        <v>714</v>
       </c>
       <c r="U2" s="50" t="s">
         <v>95</v>
@@ -25813,7 +25810,7 @@
         <v>322</v>
       </c>
       <c r="X2" s="50" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="Y2" s="50" t="s">
         <v>559</v>
@@ -25867,10 +25864,10 @@
         <v>56</v>
       </c>
       <c r="D4" s="55" t="s">
+        <v>738</v>
+      </c>
+      <c r="E4" s="93" t="s">
         <v>739</v>
-      </c>
-      <c r="E4" s="93" t="s">
-        <v>740</v>
       </c>
       <c r="F4" s="94" t="s">
         <v>339</v>
@@ -25893,7 +25890,7 @@
         <v>328</v>
       </c>
       <c r="N4" s="94" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="O4" s="94" t="s">
         <v>329</v>
@@ -25942,10 +25939,10 @@
         <v>90</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E5" s="93" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F5" s="94" t="s">
         <v>342</v>
@@ -25970,7 +25967,7 @@
         <v>328</v>
       </c>
       <c r="N5" s="94" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="O5" s="94" t="s">
         <v>344</v>
@@ -29106,7 +29103,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -29124,7 +29121,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>84</v>
@@ -29133,10 +29130,10 @@
         <v>85</v>
       </c>
       <c r="F2" s="67" t="s">
+        <v>725</v>
+      </c>
+      <c r="G2" s="67" t="s">
         <v>726</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>727</v>
       </c>
       <c r="H2" s="70" t="s">
         <v>428</v>
@@ -29168,7 +29165,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="94" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F4" s="55">
         <v>2</v>
@@ -32022,7 +32019,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="126" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -32060,46 +32057,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D2" s="51" t="s">
+        <v>728</v>
+      </c>
+      <c r="E2" s="67" t="s">
         <v>729</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>730</v>
       </c>
       <c r="F2" s="67" t="s">
         <v>346</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I2" s="67" t="s">
         <v>409</v>
       </c>
       <c r="J2" s="67" t="s">
+        <v>730</v>
+      </c>
+      <c r="K2" s="67" t="s">
+        <v>1301</v>
+      </c>
+      <c r="L2" s="67" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M2" s="67" t="s">
+        <v>1303</v>
+      </c>
+      <c r="N2" s="67" t="s">
+        <v>1304</v>
+      </c>
+      <c r="O2" s="67" t="s">
         <v>731</v>
       </c>
-      <c r="K2" s="67" t="s">
-        <v>1302</v>
-      </c>
-      <c r="L2" s="67" t="s">
-        <v>1303</v>
-      </c>
-      <c r="M2" s="67" t="s">
-        <v>1304</v>
-      </c>
-      <c r="N2" s="67" t="s">
-        <v>1305</v>
-      </c>
-      <c r="O2" s="67" t="s">
+      <c r="P2" s="67" t="s">
         <v>732</v>
-      </c>
-      <c r="P2" s="67" t="s">
-        <v>733</v>
       </c>
       <c r="Q2" s="67" t="s">
         <v>95</v>
@@ -32111,7 +32108,7 @@
         <v>97</v>
       </c>
       <c r="T2" s="79" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="U2" s="74" t="s">
         <v>428</v>
@@ -32159,13 +32156,13 @@
         <v>416</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G4" s="54">
         <v>4</v>
@@ -32174,7 +32171,7 @@
         <v>328</v>
       </c>
       <c r="I4" s="94" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J4" s="94" t="s">
         <v>421</v>
@@ -32189,7 +32186,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="94" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="O4" s="94" t="b">
         <v>1</v>
@@ -36477,7 +36474,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -36505,43 +36502,43 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D2" s="106" t="s">
         <v>1187</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="E2" s="106" t="s">
         <v>1188</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="F2" s="28" t="s">
         <v>1189</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="106" t="s">
         <v>1190</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="H2" s="28" t="s">
         <v>1191</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>1192</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>1193</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="108" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L2" s="109" t="s">
+        <v>1299</v>
+      </c>
+      <c r="M2" s="28" t="s">
         <v>1194</v>
       </c>
-      <c r="K2" s="108" t="s">
-        <v>1299</v>
-      </c>
-      <c r="L2" s="109" t="s">
-        <v>1300</v>
-      </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>1195</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>1196</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>1197</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>95</v>
@@ -36618,7 +36615,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="126" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -36639,43 +36636,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C2" s="106" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>1199</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>1200</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>1201</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>1202</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="H2" s="28" t="s">
         <v>1203</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>1204</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>1205</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>1206</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>1207</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>1208</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>1209</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>1210</v>
       </c>
       <c r="O2" s="49"/>
     </row>
@@ -36751,7 +36748,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="264" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="B1" s="142"/>
       <c r="C1" s="142"/>
@@ -36779,49 +36776,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>1211</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>1212</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>1213</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>1214</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>1215</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>1216</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>1217</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="28" t="s">
         <v>1218</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>1219</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="28" t="s">
         <v>1220</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>1221</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>1222</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>1223</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>1224</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>1225</v>
       </c>
       <c r="R2" s="27" t="s">
         <v>428</v>
@@ -36840,43 +36837,43 @@
         <v>561</v>
       </c>
       <c r="C4" s="34" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>1226</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>1228</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G4" s="34" t="s">
+      <c r="H4" s="34" t="s">
         <v>1229</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="30" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J4" s="29" t="s">
         <v>1230</v>
       </c>
-      <c r="I4" s="30" t="s">
-        <v>1291</v>
-      </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="29" t="s">
         <v>1231</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="L4" s="29" t="s">
         <v>1232</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>1233</v>
       </c>
       <c r="M4" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="30" t="s">
+        <v>1233</v>
+      </c>
+      <c r="O4" s="29" t="s">
         <v>1234</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>1235</v>
       </c>
       <c r="P4" s="29"/>
       <c r="Q4" s="29"/>
@@ -36889,40 +36886,40 @@
         <v>561</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>1226</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="E5" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="F5" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G5" s="34" t="s">
         <v>1228</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="H5" s="34" t="s">
         <v>1229</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>1230</v>
-      </c>
       <c r="I5" s="30" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="K5" s="29" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>1236</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>1237</v>
       </c>
       <c r="M5" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
@@ -36936,22 +36933,22 @@
         <v>561</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D6" s="34" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>1228</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G6" s="34" t="s">
+      <c r="H6" s="34" t="s">
         <v>1229</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>1230</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="29"/>
@@ -36971,38 +36968,38 @@
         <v>561</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>1287</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>1229</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>1288</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="29" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="M7" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -37120,22 +37117,22 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>417</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E1" s="43" t="s">
         <v>348</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G1" s="46" t="s">
         <v>322</v>
@@ -37144,16 +37141,16 @@
         <v>321</v>
       </c>
       <c r="I1" s="69" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1" s="69" t="s">
         <v>710</v>
       </c>
-      <c r="J1" s="69" t="s">
-        <v>711</v>
-      </c>
       <c r="K1" s="46" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M1" s="45"/>
     </row>
@@ -37186,7 +37183,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K2" s="34">
         <v>1</v>
@@ -37197,7 +37194,7 @@
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="68" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>419</v>
@@ -37224,7 +37221,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K3" s="34">
         <v>2</v>
@@ -37235,7 +37232,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="68" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>343</v>
@@ -37252,7 +37249,7 @@
         <v>452</v>
       </c>
       <c r="L4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -37260,7 +37257,7 @@
         <v>339</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C5" s="34" t="s">
         <v>420</v>
@@ -37274,7 +37271,7 @@
         <v>453</v>
       </c>
       <c r="L5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -37283,7 +37280,7 @@
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34" t="s">
@@ -37296,11 +37293,11 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="68" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
@@ -37313,11 +37310,11 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="68" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34" t="s">
@@ -37351,7 +37348,7 @@
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34" t="s">
@@ -37364,11 +37361,11 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="68" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34" t="s">
@@ -37385,11 +37382,11 @@
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F12" s="34"/>
       <c r="H12" s="34" t="s">
@@ -37402,11 +37399,11 @@
       </c>
       <c r="B13" s="34"/>
       <c r="C13" s="34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F13" s="34"/>
       <c r="H13" s="34" t="s">
@@ -37419,7 +37416,7 @@
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -37959,106 +37956,106 @@
   <sheetData>
     <row r="1" spans="1:48" s="58" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>644</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="C1" s="66" t="s">
         <v>645</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>646</v>
-      </c>
       <c r="D1" s="66" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I1" s="66" t="s">
         <v>1293</v>
       </c>
-      <c r="E1" s="66" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H1" s="66" t="s">
+      <c r="J1" s="66" t="s">
         <v>1246</v>
       </c>
-      <c r="I1" s="66" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>1247</v>
-      </c>
       <c r="K1" s="66" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="66" t="s">
+        <v>648</v>
+      </c>
+      <c r="N1" s="66" t="s">
         <v>649</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="O1" s="66" t="s">
         <v>650</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="P1" s="66" t="s">
         <v>651</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="Q1" s="66" t="s">
         <v>652</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="R1" s="66" t="s">
+        <v>699</v>
+      </c>
+      <c r="S1" s="66" t="s">
         <v>653</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="T1" s="66" t="s">
+        <v>654</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>655</v>
+      </c>
+      <c r="V1" s="66" t="s">
+        <v>656</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>657</v>
+      </c>
+      <c r="X1" s="66" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y1" s="66" t="s">
+        <v>701</v>
+      </c>
+      <c r="Z1" s="66" t="s">
+        <v>659</v>
+      </c>
+      <c r="AA1" s="57" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB1" s="57" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC1" s="57" t="s">
+        <v>662</v>
+      </c>
+      <c r="AD1" s="66" t="s">
         <v>700</v>
-      </c>
-      <c r="S1" s="66" t="s">
-        <v>654</v>
-      </c>
-      <c r="T1" s="66" t="s">
-        <v>655</v>
-      </c>
-      <c r="U1" s="66" t="s">
-        <v>656</v>
-      </c>
-      <c r="V1" s="66" t="s">
-        <v>657</v>
-      </c>
-      <c r="W1" s="66" t="s">
-        <v>658</v>
-      </c>
-      <c r="X1" s="66" t="s">
-        <v>659</v>
-      </c>
-      <c r="Y1" s="66" t="s">
-        <v>702</v>
-      </c>
-      <c r="Z1" s="66" t="s">
-        <v>660</v>
-      </c>
-      <c r="AA1" s="57" t="s">
-        <v>661</v>
-      </c>
-      <c r="AB1" s="57" t="s">
-        <v>662</v>
-      </c>
-      <c r="AC1" s="57" t="s">
-        <v>663</v>
-      </c>
-      <c r="AD1" s="66" t="s">
-        <v>701</v>
       </c>
       <c r="AE1" s="57" t="s">
         <v>85</v>
       </c>
       <c r="AF1" s="57" t="s">
+        <v>663</v>
+      </c>
+      <c r="AG1" s="57" t="s">
         <v>664</v>
       </c>
-      <c r="AG1" s="57" t="s">
+      <c r="AH1" s="57" t="s">
         <v>665</v>
-      </c>
-      <c r="AH1" s="57" t="s">
-        <v>666</v>
       </c>
       <c r="AI1" s="57" t="s">
         <v>252</v>
@@ -38079,28 +38076,28 @@
         <v>257</v>
       </c>
       <c r="AO1" s="57" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AP1" s="57" t="s">
         <v>317</v>
       </c>
       <c r="AQ1" s="57" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AR1" s="57" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AS1" s="57" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AT1" s="57" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AU1" s="57" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AV1" s="57" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -38146,7 +38143,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="M2" s="60" t="s">
         <v>38</v>
@@ -38165,16 +38162,16 @@
         <v>23</v>
       </c>
       <c r="R2" s="60" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="S2" s="60" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="T2" s="60" t="s">
         <v>78</v>
       </c>
       <c r="U2" s="61" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="V2" s="60" t="s">
         <v>355</v>
@@ -38194,13 +38191,13 @@
         <v>Bastion</v>
       </c>
       <c r="AA2" s="60" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AB2" s="60" t="s">
         <v>129</v>
       </c>
       <c r="AC2" s="60" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AD2" s="60" t="b">
         <v>1</v>
@@ -38209,7 +38206,7 @@
         <v>147</v>
       </c>
       <c r="AF2" s="60" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AG2" s="60" t="s">
         <v>170</v>
@@ -38242,13 +38239,13 @@
         <v>319</v>
       </c>
       <c r="AQ2" s="59" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AR2" s="59" t="b">
         <v>0</v>
       </c>
       <c r="AS2" s="59" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AT2" s="59" t="str" cm="1">
         <f t="array" aca="1" ref="AT2:AT3" ca="1">_xlfn.UNIQUE(INDIRECT("B2:B"&amp;$G$5),FALSE,FALSE)</f>
@@ -38303,7 +38300,7 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M3" s="60" t="s">
         <v>36</v>
@@ -38312,7 +38309,7 @@
         <v>56</v>
       </c>
       <c r="O3" s="60" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P3" s="60" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -38326,7 +38323,7 @@
         <v/>
       </c>
       <c r="S3" s="60" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="T3" s="60" t="s">
         <v>391</v>
@@ -38341,7 +38338,7 @@
         <v>90</v>
       </c>
       <c r="X3" s="60" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Y3" s="60" t="str" cm="1">
         <f t="array" aca="1" ref="Y3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -38358,7 +38355,7 @@
         <v>127</v>
       </c>
       <c r="AC3" s="60" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AD3" s="60" t="b">
         <v>0</v>
@@ -38370,7 +38367,7 @@
         <v>169</v>
       </c>
       <c r="AG3" s="60" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AH3" s="60" t="s">
         <v>172</v>
@@ -38394,19 +38391,19 @@
         <v>16</v>
       </c>
       <c r="AO3" s="60" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AP3" s="59" t="s">
         <v>320</v>
       </c>
       <c r="AQ3" s="59" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AR3" s="59" t="b">
         <v>1</v>
       </c>
       <c r="AS3" s="59" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AT3" s="59" t="str">
         <f ca="1"/>
@@ -38485,7 +38482,7 @@
         <v>99</v>
       </c>
       <c r="X4" s="60" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Y4" s="60" t="str" cm="1">
         <f t="array" aca="1" ref="Y4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -38498,14 +38495,14 @@
       <c r="AA4" s="60"/>
       <c r="AB4" s="60"/>
       <c r="AC4" s="60" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AD4" s="60"/>
       <c r="AE4" s="60" t="s">
+        <v>678</v>
+      </c>
+      <c r="AF4" s="60" t="s">
         <v>679</v>
-      </c>
-      <c r="AF4" s="60" t="s">
-        <v>680</v>
       </c>
       <c r="AG4" s="60"/>
       <c r="AH4" s="60" t="s">
@@ -38530,7 +38527,7 @@
         <v>32</v>
       </c>
       <c r="AS4" s="59" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="AU4" s="110" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -38572,7 +38569,7 @@
       <c r="J5" s="34"/>
       <c r="K5" s="60"/>
       <c r="L5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="M5" s="60"/>
       <c r="N5" s="60" t="s">
@@ -38590,7 +38587,7 @@
       </c>
       <c r="S5" s="60"/>
       <c r="T5" s="60" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="U5" s="61"/>
       <c r="V5" s="60"/>
@@ -38607,7 +38604,7 @@
       <c r="AC5" s="60"/>
       <c r="AD5" s="60"/>
       <c r="AE5" s="60" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AF5" s="60"/>
       <c r="AG5" s="60"/>
@@ -38664,7 +38661,7 @@
       <c r="J6" s="34"/>
       <c r="K6" s="60"/>
       <c r="L6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M6" s="60"/>
       <c r="N6" s="60"/>
@@ -38745,7 +38742,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="60"/>
       <c r="L7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M7" s="60"/>
       <c r="N7" s="60"/>
@@ -38824,7 +38821,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="60"/>
       <c r="L8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M8" s="60"/>
       <c r="N8" s="60"/>
@@ -38903,7 +38900,7 @@
       <c r="J9" s="34"/>
       <c r="K9" s="60"/>
       <c r="L9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M9" s="60"/>
       <c r="N9" s="60"/>
@@ -38982,7 +38979,7 @@
       <c r="J10" s="34"/>
       <c r="K10" s="60"/>
       <c r="L10" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
@@ -39061,7 +39058,7 @@
       <c r="J11" s="34"/>
       <c r="K11" s="60"/>
       <c r="L11" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="M11" s="60"/>
       <c r="N11" s="60"/>
@@ -39140,7 +39137,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="60"/>
       <c r="L12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="M12" s="60"/>
       <c r="N12" s="60"/>
@@ -39217,7 +39214,7 @@
       <c r="J13" s="34"/>
       <c r="K13" s="60"/>
       <c r="L13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="M13" s="60"/>
       <c r="N13" s="60"/>
@@ -39294,7 +39291,7 @@
       <c r="J14" s="34"/>
       <c r="K14" s="60"/>
       <c r="L14" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
@@ -39371,7 +39368,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="60"/>
       <c r="L15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M15" s="60"/>
       <c r="N15" s="60"/>
@@ -39448,7 +39445,7 @@
       <c r="J16" s="34"/>
       <c r="K16" s="60"/>
       <c r="L16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M16" s="60"/>
       <c r="N16" s="60"/>
@@ -39525,7 +39522,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="60"/>
       <c r="L17" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="M17" s="60"/>
       <c r="N17" s="60"/>
@@ -39602,7 +39599,7 @@
       <c r="J18" s="34"/>
       <c r="K18" s="60"/>
       <c r="L18" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="M18" s="60"/>
       <c r="N18" s="60"/>
@@ -39679,7 +39676,7 @@
       <c r="J19" s="34"/>
       <c r="K19" s="60"/>
       <c r="L19" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="M19" s="60"/>
       <c r="N19" s="60"/>
@@ -39756,7 +39753,7 @@
       <c r="J20" s="34"/>
       <c r="K20" s="60"/>
       <c r="L20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="M20" s="60"/>
       <c r="N20" s="60"/>
@@ -39833,7 +39830,7 @@
       <c r="J21" s="34"/>
       <c r="K21" s="60"/>
       <c r="L21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="M21" s="60"/>
       <c r="N21" s="60"/>
@@ -39910,7 +39907,7 @@
       <c r="J22" s="34"/>
       <c r="K22" s="60"/>
       <c r="L22" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="M22" s="60"/>
       <c r="N22" s="60"/>
@@ -39987,7 +39984,7 @@
       <c r="J23" s="34"/>
       <c r="K23" s="60"/>
       <c r="L23" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="M23" s="60"/>
       <c r="N23" s="60"/>
@@ -40064,7 +40061,7 @@
       <c r="J24" s="34"/>
       <c r="K24" s="60"/>
       <c r="L24" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="M24" s="60"/>
       <c r="N24" s="60"/>
@@ -40141,7 +40138,7 @@
       <c r="J25" s="34"/>
       <c r="K25" s="60"/>
       <c r="L25" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M25" s="60"/>
       <c r="N25" s="60"/>
@@ -40218,7 +40215,7 @@
       <c r="J26" s="34"/>
       <c r="K26" s="60"/>
       <c r="L26" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="M26" s="60"/>
       <c r="N26" s="60"/>
@@ -40295,7 +40292,7 @@
       <c r="J27" s="34"/>
       <c r="K27" s="60"/>
       <c r="L27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M27" s="60"/>
       <c r="N27" s="60"/>
@@ -40372,7 +40369,7 @@
       <c r="J28" s="34"/>
       <c r="K28" s="60"/>
       <c r="L28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M28" s="60"/>
       <c r="N28" s="60"/>
@@ -40449,7 +40446,7 @@
       <c r="J29" s="34"/>
       <c r="K29" s="60"/>
       <c r="L29" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M29" s="60"/>
       <c r="N29" s="60"/>
@@ -40526,7 +40523,7 @@
       <c r="J30" s="34"/>
       <c r="K30" s="60"/>
       <c r="L30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M30" s="60"/>
       <c r="N30" s="60"/>
@@ -40603,7 +40600,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="60"/>
       <c r="L31" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="M31" s="60"/>
       <c r="N31" s="60"/>
@@ -40757,7 +40754,7 @@
       <c r="J33" s="34"/>
       <c r="K33" s="60"/>
       <c r="L33" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="M33" s="60"/>
       <c r="N33" s="60"/>
@@ -40834,7 +40831,7 @@
       <c r="J34" s="34"/>
       <c r="K34" s="60"/>
       <c r="L34" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="M34" s="60"/>
       <c r="N34" s="60"/>
@@ -40911,7 +40908,7 @@
       <c r="J35" s="34"/>
       <c r="K35" s="60"/>
       <c r="L35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M35" s="60"/>
       <c r="N35" s="60"/>
@@ -40988,7 +40985,7 @@
       <c r="J36" s="34"/>
       <c r="K36" s="60"/>
       <c r="L36" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="M36" s="60"/>
       <c r="N36" s="60"/>
@@ -41065,7 +41062,7 @@
       <c r="J37" s="34"/>
       <c r="K37" s="60"/>
       <c r="L37" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M37" s="60"/>
       <c r="N37" s="60"/>
@@ -41142,7 +41139,7 @@
       <c r="J38" s="34"/>
       <c r="K38" s="60"/>
       <c r="L38" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="M38" s="60"/>
       <c r="N38" s="60"/>
@@ -41219,7 +41216,7 @@
       <c r="J39" s="34"/>
       <c r="K39" s="60"/>
       <c r="L39" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="M39" s="60"/>
       <c r="N39" s="60"/>
@@ -41296,7 +41293,7 @@
       <c r="J40" s="34"/>
       <c r="K40" s="60"/>
       <c r="L40" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M40" s="60"/>
       <c r="N40" s="60"/>
@@ -41371,7 +41368,7 @@
       <c r="I41" s="34"/>
       <c r="J41" s="34"/>
       <c r="L41" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="P41" s="60" t="str" cm="1">
         <f t="array" aca="1" ref="P41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"DHCP")))</f>
@@ -41422,7 +41419,7 @@
       <c r="I42" s="34"/>
       <c r="J42" s="34"/>
       <c r="L42" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="P42" s="60" t="str" cm="1">
         <f t="array" aca="1" ref="P42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"DHCP")))</f>
@@ -41472,7 +41469,7 @@
       <c r="I43" s="34"/>
       <c r="J43" s="34"/>
       <c r="L43" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="P43" s="60" t="str" cm="1">
         <f t="array" aca="1" ref="P43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"DHCP")))</f>
@@ -41522,7 +41519,7 @@
       <c r="I44" s="34"/>
       <c r="J44" s="34"/>
       <c r="L44" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="P44" s="60" t="str" cm="1">
         <f t="array" aca="1" ref="P44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"DHCP")))</f>
@@ -44996,7 +44993,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="41" customFormat="1" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -45010,19 +45007,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>1141</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>1143</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>1144</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>428</v>
@@ -46289,16 +46286,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="57" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -46796,7 +46793,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="41" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -46815,10 +46812,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="27" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>1145</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>1146</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>428</v>
@@ -46866,7 +46863,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="41" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -46907,16 +46904,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -46928,7 +46925,7 @@
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
       <c r="E4" s="33" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
@@ -46948,7 +46945,7 @@
         <v>581</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -46960,7 +46957,7 @@
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
@@ -46972,7 +46969,7 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
@@ -46984,7 +46981,7 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
@@ -46996,7 +46993,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
@@ -47008,7 +47005,7 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -47020,7 +47017,7 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -47032,7 +47029,7 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
@@ -47044,7 +47041,7 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -47056,7 +47053,7 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -47068,7 +47065,7 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -47080,7 +47077,7 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -47092,7 +47089,7 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -47104,7 +47101,7 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -47116,7 +47113,7 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -47128,7 +47125,7 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -47140,7 +47137,7 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -47152,7 +47149,7 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -47164,7 +47161,7 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -47176,7 +47173,7 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -47188,7 +47185,7 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -47200,7 +47197,7 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
@@ -47212,7 +47209,7 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -47224,7 +47221,7 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
@@ -47236,7 +47233,7 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -47248,7 +47245,7 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -47260,7 +47257,7 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -47272,7 +47269,7 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -47284,7 +47281,7 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -47296,7 +47293,7 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -47308,7 +47305,7 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -47320,7 +47317,7 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -47332,7 +47329,7 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -47344,7 +47341,7 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -47356,7 +47353,7 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -47368,7 +47365,7 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -47380,7 +47377,7 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -47392,7 +47389,7 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -47404,7 +47401,7 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -47416,7 +47413,7 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -47428,7 +47425,7 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -47440,7 +47437,7 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -47460,7 +47457,7 @@
         <v>583</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -47472,7 +47469,7 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -47484,7 +47481,7 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="33" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -47496,7 +47493,7 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -47508,7 +47505,7 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="33" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -47520,7 +47517,7 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -47532,7 +47529,7 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -47544,7 +47541,7 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -47556,7 +47553,7 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -47568,7 +47565,7 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -47580,7 +47577,7 @@
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -47592,7 +47589,7 @@
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -47604,7 +47601,7 @@
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -47616,7 +47613,7 @@
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -47628,7 +47625,7 @@
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -47640,7 +47637,7 @@
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -47652,7 +47649,7 @@
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
       <c r="E63" s="33" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -47663,16 +47660,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D64" s="33" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E64" s="33" t="s">
         <v>1352</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>1353</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -47684,7 +47681,7 @@
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -47696,7 +47693,7 @@
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -47708,7 +47705,7 @@
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -47719,16 +47716,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D68" s="33" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E68" s="33" t="s">
         <v>1108</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>1109</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -47740,7 +47737,7 @@
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -47752,7 +47749,7 @@
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="33" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -47764,7 +47761,7 @@
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -47775,16 +47772,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -47796,7 +47793,7 @@
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -47808,7 +47805,7 @@
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
       <c r="E74" s="33" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -47820,7 +47817,7 @@
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -47832,7 +47829,7 @@
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -47844,7 +47841,7 @@
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -47856,7 +47853,7 @@
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
       <c r="E78" s="33" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -47868,7 +47865,7 @@
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -47880,7 +47877,7 @@
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F80" s="111"/>
       <c r="G80" s="33"/>
@@ -47897,10 +47894,10 @@
         <v>404</v>
       </c>
       <c r="D81" s="33" t="s">
+        <v>872</v>
+      </c>
+      <c r="E81" s="33" t="s">
         <v>873</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>874</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -47912,7 +47909,7 @@
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -47924,7 +47921,7 @@
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -47936,7 +47933,7 @@
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
       <c r="E84" s="30" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -47948,7 +47945,7 @@
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
       <c r="E85" s="30" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -47960,7 +47957,7 @@
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
       <c r="E86" s="30" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -47972,7 +47969,7 @@
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="30" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
@@ -47984,7 +47981,7 @@
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
       <c r="E88" s="30" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -47996,7 +47993,7 @@
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
       <c r="E89" s="30" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -48008,7 +48005,7 @@
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
       <c r="E90" s="30" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -48020,7 +48017,7 @@
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
       <c r="E91" s="30" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
@@ -48032,7 +48029,7 @@
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
       <c r="E92" s="30" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -48044,7 +48041,7 @@
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
       <c r="E93" s="30" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -48056,7 +48053,7 @@
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
       <c r="E94" s="30" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -48068,7 +48065,7 @@
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
       <c r="E95" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -48080,7 +48077,7 @@
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
       <c r="E96" s="30" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -48092,7 +48089,7 @@
       <c r="C97" s="33"/>
       <c r="D97" s="33"/>
       <c r="E97" s="30" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -48104,7 +48101,7 @@
       <c r="C98" s="33"/>
       <c r="D98" s="33"/>
       <c r="E98" s="30" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -48116,7 +48113,7 @@
       <c r="C99" s="33"/>
       <c r="D99" s="33"/>
       <c r="E99" s="30" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -48128,7 +48125,7 @@
       <c r="C100" s="33"/>
       <c r="D100" s="33"/>
       <c r="E100" s="30" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -48140,7 +48137,7 @@
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
       <c r="E101" s="30" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -48152,7 +48149,7 @@
       <c r="C102" s="33"/>
       <c r="D102" s="33"/>
       <c r="E102" s="30" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -48164,7 +48161,7 @@
       <c r="C103" s="33"/>
       <c r="D103" s="33"/>
       <c r="E103" s="30" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -48176,7 +48173,7 @@
       <c r="C104" s="33"/>
       <c r="D104" s="33"/>
       <c r="E104" s="30" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -48188,7 +48185,7 @@
       <c r="C105" s="33"/>
       <c r="D105" s="33"/>
       <c r="E105" s="30" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -48200,7 +48197,7 @@
       <c r="C106" s="33"/>
       <c r="D106" s="33"/>
       <c r="E106" s="30" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -48212,7 +48209,7 @@
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
       <c r="E107" s="30" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -48224,7 +48221,7 @@
       <c r="C108" s="33"/>
       <c r="D108" s="33"/>
       <c r="E108" s="30" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -48236,7 +48233,7 @@
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
       <c r="E109" s="30" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -48248,7 +48245,7 @@
       <c r="C110" s="33"/>
       <c r="D110" s="33"/>
       <c r="E110" s="30" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -48260,7 +48257,7 @@
       <c r="C111" s="33"/>
       <c r="D111" s="33"/>
       <c r="E111" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -48272,7 +48269,7 @@
       <c r="C112" s="33"/>
       <c r="D112" s="33"/>
       <c r="E112" s="30" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -48284,7 +48281,7 @@
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
       <c r="E113" s="30" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -48296,7 +48293,7 @@
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
       <c r="E114" s="30" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -48308,7 +48305,7 @@
       <c r="C115" s="33"/>
       <c r="D115" s="33"/>
       <c r="E115" s="30" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -48320,7 +48317,7 @@
       <c r="C116" s="33"/>
       <c r="D116" s="33"/>
       <c r="E116" s="30" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
@@ -48332,7 +48329,7 @@
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -48344,7 +48341,7 @@
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -48356,7 +48353,7 @@
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -48368,7 +48365,7 @@
       <c r="C120" s="33"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -48380,7 +48377,7 @@
       <c r="C121" s="33"/>
       <c r="D121" s="33"/>
       <c r="E121" s="30" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
@@ -48400,7 +48397,7 @@
         <v>586</v>
       </c>
       <c r="E122" s="78" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
@@ -48412,7 +48409,7 @@
       <c r="C123" s="33"/>
       <c r="D123" s="33"/>
       <c r="E123" s="78" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
@@ -48424,7 +48421,7 @@
       <c r="C124" s="33"/>
       <c r="D124" s="33"/>
       <c r="E124" s="33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
@@ -48436,7 +48433,7 @@
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -48448,7 +48445,7 @@
       <c r="C126" s="33"/>
       <c r="D126" s="33"/>
       <c r="E126" s="33" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
@@ -48460,7 +48457,7 @@
       <c r="C127" s="33"/>
       <c r="D127" s="33"/>
       <c r="E127" s="33" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
@@ -48472,7 +48469,7 @@
       <c r="C128" s="33"/>
       <c r="D128" s="33"/>
       <c r="E128" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
@@ -48484,7 +48481,7 @@
       <c r="C129" s="33"/>
       <c r="D129" s="33"/>
       <c r="E129" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
@@ -48496,7 +48493,7 @@
       <c r="C130" s="33"/>
       <c r="D130" s="33"/>
       <c r="E130" s="33" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -48508,7 +48505,7 @@
       <c r="C131" s="33"/>
       <c r="D131" s="33"/>
       <c r="E131" s="33" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -48520,7 +48517,7 @@
       <c r="C132" s="33"/>
       <c r="D132" s="33"/>
       <c r="E132" s="33" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -48532,7 +48529,7 @@
       <c r="C133" s="33"/>
       <c r="D133" s="33"/>
       <c r="E133" s="33" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -48544,7 +48541,7 @@
       <c r="C134" s="33"/>
       <c r="D134" s="33"/>
       <c r="E134" s="33" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -48556,7 +48553,7 @@
       <c r="C135" s="33"/>
       <c r="D135" s="33"/>
       <c r="E135" s="33" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
@@ -48568,7 +48565,7 @@
       <c r="C136" s="33"/>
       <c r="D136" s="33"/>
       <c r="E136" s="33" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -48580,7 +48577,7 @@
       <c r="C137" s="33"/>
       <c r="D137" s="33"/>
       <c r="E137" s="33" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -48592,7 +48589,7 @@
       <c r="C138" s="33"/>
       <c r="D138" s="33"/>
       <c r="E138" s="33" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
@@ -48604,7 +48601,7 @@
       <c r="C139" s="33"/>
       <c r="D139" s="33"/>
       <c r="E139" s="33" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
@@ -48616,7 +48613,7 @@
       <c r="C140" s="33"/>
       <c r="D140" s="33"/>
       <c r="E140" s="33" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -48628,7 +48625,7 @@
       <c r="C141" s="33"/>
       <c r="D141" s="33"/>
       <c r="E141" s="33" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
@@ -48648,7 +48645,7 @@
         <v>588</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
@@ -48660,7 +48657,7 @@
       <c r="C143" s="33"/>
       <c r="D143" s="33"/>
       <c r="E143" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
@@ -48672,7 +48669,7 @@
       <c r="C144" s="33"/>
       <c r="D144" s="33"/>
       <c r="E144" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
@@ -48684,7 +48681,7 @@
       <c r="C145" s="33"/>
       <c r="D145" s="33"/>
       <c r="E145" s="33" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
@@ -48696,7 +48693,7 @@
       <c r="C146" s="33"/>
       <c r="D146" s="33"/>
       <c r="E146" s="33" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
@@ -48708,7 +48705,7 @@
       <c r="C147" s="33"/>
       <c r="D147" s="33"/>
       <c r="E147" s="33" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -48720,7 +48717,7 @@
       <c r="C148" s="33"/>
       <c r="D148" s="33"/>
       <c r="E148" s="33" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -48732,7 +48729,7 @@
       <c r="C149" s="33"/>
       <c r="D149" s="33"/>
       <c r="E149" s="33" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
@@ -48744,7 +48741,7 @@
       <c r="C150" s="33"/>
       <c r="D150" s="33"/>
       <c r="E150" s="33" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -48756,7 +48753,7 @@
       <c r="C151" s="33"/>
       <c r="D151" s="33"/>
       <c r="E151" s="33" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="33"/>
@@ -48768,7 +48765,7 @@
       <c r="C152" s="33"/>
       <c r="D152" s="33"/>
       <c r="E152" s="33" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
@@ -48780,7 +48777,7 @@
       <c r="C153" s="33"/>
       <c r="D153" s="33"/>
       <c r="E153" s="33" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
@@ -48792,7 +48789,7 @@
       <c r="C154" s="33"/>
       <c r="D154" s="33"/>
       <c r="E154" s="33" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
@@ -48804,7 +48801,7 @@
       <c r="C155" s="33"/>
       <c r="D155" s="33"/>
       <c r="E155" s="33" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
@@ -48816,7 +48813,7 @@
       <c r="C156" s="33"/>
       <c r="D156" s="33"/>
       <c r="E156" s="33" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
@@ -48828,7 +48825,7 @@
       <c r="C157" s="33"/>
       <c r="D157" s="33"/>
       <c r="E157" s="33" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
@@ -48840,7 +48837,7 @@
       <c r="C158" s="33"/>
       <c r="D158" s="33"/>
       <c r="E158" s="33" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
@@ -48852,7 +48849,7 @@
       <c r="C159" s="33"/>
       <c r="D159" s="33"/>
       <c r="E159" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
@@ -48864,7 +48861,7 @@
       <c r="C160" s="33"/>
       <c r="D160" s="33"/>
       <c r="E160" s="33" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
@@ -48876,7 +48873,7 @@
       <c r="C161" s="33"/>
       <c r="D161" s="33"/>
       <c r="E161" s="33" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="33"/>
@@ -48888,7 +48885,7 @@
       <c r="C162" s="33"/>
       <c r="D162" s="33"/>
       <c r="E162" s="33" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="33"/>
@@ -48900,7 +48897,7 @@
       <c r="C163" s="33"/>
       <c r="D163" s="33"/>
       <c r="E163" s="33" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
@@ -48912,7 +48909,7 @@
       <c r="C164" s="33"/>
       <c r="D164" s="33"/>
       <c r="E164" s="33" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="33"/>
@@ -48924,7 +48921,7 @@
       <c r="C165" s="33"/>
       <c r="D165" s="33"/>
       <c r="E165" s="33" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
@@ -48936,7 +48933,7 @@
       <c r="C166" s="33"/>
       <c r="D166" s="33"/>
       <c r="E166" s="33" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -48948,7 +48945,7 @@
       <c r="C167" s="33"/>
       <c r="D167" s="33"/>
       <c r="E167" s="33" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -48960,7 +48957,7 @@
       <c r="C168" s="33"/>
       <c r="D168" s="33"/>
       <c r="E168" s="33" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -48972,7 +48969,7 @@
       <c r="C169" s="33"/>
       <c r="D169" s="33"/>
       <c r="E169" s="33" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -48984,7 +48981,7 @@
       <c r="C170" s="33"/>
       <c r="D170" s="33"/>
       <c r="E170" s="33" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -48995,16 +48992,16 @@
         <v>5</v>
       </c>
       <c r="B171" s="33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C171" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D171" s="33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E171" s="102" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -49016,7 +49013,7 @@
       <c r="C172" s="33"/>
       <c r="D172" s="33"/>
       <c r="E172" s="33" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -49028,7 +49025,7 @@
       <c r="C173" s="33"/>
       <c r="D173" s="33"/>
       <c r="E173" s="33" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -49040,7 +49037,7 @@
       <c r="C174" s="33"/>
       <c r="D174" s="33"/>
       <c r="E174" s="33" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -49060,7 +49057,7 @@
         <v>590</v>
       </c>
       <c r="E175" s="33" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -49072,7 +49069,7 @@
       <c r="C176" s="33"/>
       <c r="D176" s="33"/>
       <c r="E176" s="33" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
@@ -49084,7 +49081,7 @@
       <c r="C177" s="33"/>
       <c r="D177" s="33"/>
       <c r="E177" s="33" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
@@ -49096,7 +49093,7 @@
       <c r="C178" s="33"/>
       <c r="D178" s="33"/>
       <c r="E178" s="33" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F178" s="33"/>
       <c r="G178" s="33"/>
@@ -49108,7 +49105,7 @@
       <c r="C179" s="33"/>
       <c r="D179" s="33"/>
       <c r="E179" s="33" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="33"/>
@@ -49120,7 +49117,7 @@
       <c r="C180" s="33"/>
       <c r="D180" s="33"/>
       <c r="E180" s="33" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="33"/>
@@ -49132,7 +49129,7 @@
       <c r="C181" s="33"/>
       <c r="D181" s="33"/>
       <c r="E181" s="33" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F181" s="33"/>
       <c r="G181" s="33"/>
@@ -49144,7 +49141,7 @@
       <c r="C182" s="33"/>
       <c r="D182" s="33"/>
       <c r="E182" s="33" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F182" s="33"/>
       <c r="G182" s="33"/>
@@ -49156,7 +49153,7 @@
       <c r="C183" s="33"/>
       <c r="D183" s="33"/>
       <c r="E183" s="33" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="33"/>
@@ -49168,7 +49165,7 @@
       <c r="C184" s="33"/>
       <c r="D184" s="33"/>
       <c r="E184" s="33" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F184" s="33"/>
       <c r="G184" s="33"/>
@@ -49180,7 +49177,7 @@
       <c r="C185" s="33"/>
       <c r="D185" s="33"/>
       <c r="E185" s="33" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F185" s="33"/>
       <c r="G185" s="33"/>
@@ -49192,7 +49189,7 @@
       <c r="C186" s="33"/>
       <c r="D186" s="33"/>
       <c r="E186" s="33" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F186" s="33"/>
       <c r="G186" s="33"/>
@@ -49204,7 +49201,7 @@
       <c r="C187" s="33"/>
       <c r="D187" s="33"/>
       <c r="E187" s="33" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="33"/>
@@ -49216,7 +49213,7 @@
       <c r="C188" s="33"/>
       <c r="D188" s="33"/>
       <c r="E188" s="33" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
@@ -49228,7 +49225,7 @@
       <c r="C189" s="33"/>
       <c r="D189" s="33"/>
       <c r="E189" s="33" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
@@ -49240,7 +49237,7 @@
       <c r="C190" s="33"/>
       <c r="D190" s="33"/>
       <c r="E190" s="33" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
@@ -49252,7 +49249,7 @@
       <c r="C191" s="33"/>
       <c r="D191" s="33"/>
       <c r="E191" s="33" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
@@ -49264,7 +49261,7 @@
       <c r="C192" s="33"/>
       <c r="D192" s="33"/>
       <c r="E192" s="33" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
@@ -49276,7 +49273,7 @@
       <c r="C193" s="33"/>
       <c r="D193" s="33"/>
       <c r="E193" s="33" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="33"/>
@@ -49288,7 +49285,7 @@
       <c r="C194" s="33"/>
       <c r="D194" s="33"/>
       <c r="E194" s="33" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="33"/>
@@ -49300,7 +49297,7 @@
       <c r="C195" s="33"/>
       <c r="D195" s="33"/>
       <c r="E195" s="33" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="33"/>
@@ -49312,7 +49309,7 @@
       <c r="C196" s="33"/>
       <c r="D196" s="33"/>
       <c r="E196" s="33" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F196" s="33"/>
       <c r="G196" s="33"/>
@@ -49324,7 +49321,7 @@
       <c r="C197" s="33"/>
       <c r="D197" s="33"/>
       <c r="E197" s="33" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="33"/>
@@ -49336,7 +49333,7 @@
       <c r="C198" s="33"/>
       <c r="D198" s="33"/>
       <c r="E198" s="33" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F198" s="33"/>
       <c r="G198" s="33"/>
@@ -49348,7 +49345,7 @@
       <c r="C199" s="33"/>
       <c r="D199" s="33"/>
       <c r="E199" s="33" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="33"/>
@@ -49360,7 +49357,7 @@
       <c r="C200" s="33"/>
       <c r="D200" s="33"/>
       <c r="E200" s="33" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F200" s="33"/>
       <c r="G200" s="33"/>
@@ -49372,7 +49369,7 @@
       <c r="C201" s="33"/>
       <c r="D201" s="33"/>
       <c r="E201" s="33" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F201" s="33"/>
       <c r="G201" s="33"/>
@@ -49384,7 +49381,7 @@
       <c r="C202" s="33"/>
       <c r="D202" s="33"/>
       <c r="E202" s="33" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="33"/>
@@ -49396,7 +49393,7 @@
       <c r="C203" s="33"/>
       <c r="D203" s="33"/>
       <c r="E203" s="33" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F203" s="33"/>
       <c r="G203" s="33"/>
@@ -49408,7 +49405,7 @@
       <c r="C204" s="33"/>
       <c r="D204" s="33"/>
       <c r="E204" s="33" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="33"/>
@@ -49420,7 +49417,7 @@
       <c r="C205" s="33"/>
       <c r="D205" s="33"/>
       <c r="E205" s="33" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" s="33"/>
@@ -49432,7 +49429,7 @@
       <c r="C206" s="33"/>
       <c r="D206" s="33"/>
       <c r="E206" s="33" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F206" s="33"/>
       <c r="G206" s="33"/>
@@ -49444,7 +49441,7 @@
       <c r="C207" s="33"/>
       <c r="D207" s="33"/>
       <c r="E207" s="33" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="33"/>
@@ -49456,7 +49453,7 @@
       <c r="C208" s="33"/>
       <c r="D208" s="33"/>
       <c r="E208" s="33" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F208" s="33"/>
       <c r="G208" s="33"/>
@@ -49468,7 +49465,7 @@
       <c r="C209" s="33"/>
       <c r="D209" s="33"/>
       <c r="E209" s="33" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="33"/>
@@ -49480,7 +49477,7 @@
       <c r="C210" s="33"/>
       <c r="D210" s="33"/>
       <c r="E210" s="33" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="33"/>
@@ -49492,7 +49489,7 @@
       <c r="C211" s="33"/>
       <c r="D211" s="33"/>
       <c r="E211" s="33" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="33"/>
@@ -49504,7 +49501,7 @@
       <c r="C212" s="33"/>
       <c r="D212" s="33"/>
       <c r="E212" s="33" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
@@ -49516,7 +49513,7 @@
       <c r="C213" s="33"/>
       <c r="D213" s="33"/>
       <c r="E213" s="33" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
@@ -49528,7 +49525,7 @@
       <c r="C214" s="33"/>
       <c r="D214" s="33"/>
       <c r="E214" s="33" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
@@ -49540,7 +49537,7 @@
       <c r="C215" s="33"/>
       <c r="D215" s="33"/>
       <c r="E215" s="33" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
@@ -49552,7 +49549,7 @@
       <c r="C216" s="33"/>
       <c r="D216" s="33"/>
       <c r="E216" s="33" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F216" s="33"/>
       <c r="G216" s="33"/>
@@ -49564,7 +49561,7 @@
       <c r="C217" s="33"/>
       <c r="D217" s="33"/>
       <c r="E217" s="33" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F217" s="33"/>
       <c r="G217" s="33"/>
@@ -49576,7 +49573,7 @@
       <c r="C218" s="33"/>
       <c r="D218" s="33"/>
       <c r="E218" s="33" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F218" s="33"/>
       <c r="G218" s="33"/>
@@ -49588,7 +49585,7 @@
       <c r="C219" s="33"/>
       <c r="D219" s="33"/>
       <c r="E219" s="33" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F219" s="33"/>
       <c r="G219" s="33"/>
@@ -49600,7 +49597,7 @@
       <c r="C220" s="33"/>
       <c r="D220" s="33"/>
       <c r="E220" s="33" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F220" s="33"/>
       <c r="G220" s="33"/>
@@ -49612,7 +49609,7 @@
       <c r="C221" s="33"/>
       <c r="D221" s="33"/>
       <c r="E221" s="33" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F221" s="33"/>
       <c r="G221" s="33"/>
@@ -49620,7 +49617,7 @@
     </row>
     <row r="222" spans="1:9" s="34" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E222" s="33" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="I222" s="77"/>
     </row>
@@ -49629,16 +49626,16 @@
         <v>5</v>
       </c>
       <c r="B223" s="78" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C223" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D223" s="33" t="s">
+        <v>969</v>
+      </c>
+      <c r="E223" s="33" t="s">
         <v>970</v>
-      </c>
-      <c r="E223" s="33" t="s">
-        <v>971</v>
       </c>
       <c r="F223" s="34"/>
       <c r="G223" s="34"/>
@@ -49650,7 +49647,7 @@
       <c r="C224" s="34"/>
       <c r="D224" s="34"/>
       <c r="E224" s="33" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F224" s="34"/>
       <c r="G224" s="34"/>
@@ -49662,7 +49659,7 @@
       <c r="C225" s="34"/>
       <c r="D225" s="34"/>
       <c r="E225" s="33" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F225" s="34"/>
       <c r="G225" s="34"/>
@@ -49674,7 +49671,7 @@
       <c r="C226" s="34"/>
       <c r="D226" s="34"/>
       <c r="E226" s="33" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F226" s="34"/>
       <c r="G226" s="34"/>
@@ -49686,7 +49683,7 @@
       <c r="C227" s="34"/>
       <c r="D227" s="34"/>
       <c r="E227" s="33" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F227" s="34"/>
       <c r="G227" s="34"/>
@@ -49698,7 +49695,7 @@
       <c r="C228" s="34"/>
       <c r="D228" s="34"/>
       <c r="E228" s="33" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F228" s="34"/>
       <c r="G228" s="34"/>
@@ -49710,7 +49707,7 @@
       <c r="C229" s="34"/>
       <c r="D229" s="34"/>
       <c r="E229" s="33" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F229" s="34"/>
       <c r="G229" s="34"/>
@@ -49722,7 +49719,7 @@
       <c r="C230" s="34"/>
       <c r="D230" s="34"/>
       <c r="E230" s="33" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F230" s="34"/>
       <c r="G230" s="34"/>
@@ -49734,7 +49731,7 @@
       <c r="C231" s="34"/>
       <c r="D231" s="34"/>
       <c r="E231" s="33" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F231" s="34"/>
       <c r="G231" s="34"/>
@@ -49746,7 +49743,7 @@
       <c r="C232" s="34"/>
       <c r="D232" s="34"/>
       <c r="E232" s="33" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F232" s="34"/>
       <c r="G232" s="34"/>
@@ -49758,7 +49755,7 @@
       <c r="C233" s="34"/>
       <c r="D233" s="34"/>
       <c r="E233" s="33" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F233" s="34"/>
       <c r="G233" s="34"/>
@@ -49770,7 +49767,7 @@
       <c r="C234" s="34"/>
       <c r="D234" s="34"/>
       <c r="E234" s="33" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F234" s="34"/>
       <c r="G234" s="34"/>
@@ -49782,7 +49779,7 @@
       <c r="C235" s="34"/>
       <c r="D235" s="34"/>
       <c r="E235" s="33" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F235" s="34"/>
       <c r="G235" s="34"/>
@@ -49794,7 +49791,7 @@
       <c r="C236" s="34"/>
       <c r="D236" s="34"/>
       <c r="E236" s="33" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F236" s="34"/>
       <c r="G236" s="34"/>
@@ -49806,7 +49803,7 @@
       <c r="C237" s="34"/>
       <c r="D237" s="34"/>
       <c r="E237" s="33" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F237" s="34"/>
       <c r="G237" s="34"/>
@@ -49818,7 +49815,7 @@
       <c r="C238" s="34"/>
       <c r="D238" s="34"/>
       <c r="E238" s="33" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F238" s="34"/>
       <c r="G238" s="34"/>
@@ -49830,7 +49827,7 @@
       <c r="C239" s="34"/>
       <c r="D239" s="34"/>
       <c r="E239" s="33" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F239" s="34"/>
       <c r="G239" s="34"/>
@@ -49842,7 +49839,7 @@
       <c r="C240" s="34"/>
       <c r="D240" s="34"/>
       <c r="E240" s="33" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F240" s="34"/>
       <c r="G240" s="34"/>
@@ -49854,7 +49851,7 @@
       <c r="C241" s="34"/>
       <c r="D241" s="34"/>
       <c r="E241" s="33" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F241" s="34"/>
       <c r="G241" s="34"/>
@@ -49866,7 +49863,7 @@
       <c r="C242" s="34"/>
       <c r="D242" s="34"/>
       <c r="E242" s="33" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F242" s="34"/>
       <c r="G242" s="34"/>
@@ -49878,7 +49875,7 @@
       <c r="C243" s="34"/>
       <c r="D243" s="34"/>
       <c r="E243" s="33" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F243" s="34"/>
       <c r="G243" s="34"/>
@@ -49890,7 +49887,7 @@
       <c r="C244" s="34"/>
       <c r="D244" s="34"/>
       <c r="E244" s="33" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F244" s="34"/>
       <c r="G244" s="34"/>
@@ -49902,7 +49899,7 @@
       <c r="C245" s="34"/>
       <c r="D245" s="34"/>
       <c r="E245" s="33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F245" s="34"/>
       <c r="G245" s="34"/>
@@ -49914,7 +49911,7 @@
       <c r="C246" s="34"/>
       <c r="D246" s="34"/>
       <c r="E246" s="33" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F246" s="34"/>
       <c r="G246" s="34"/>
@@ -49926,7 +49923,7 @@
       <c r="C247" s="34"/>
       <c r="D247" s="34"/>
       <c r="E247" s="33" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F247" s="34"/>
       <c r="G247" s="34"/>
@@ -49938,7 +49935,7 @@
       <c r="C248" s="34"/>
       <c r="D248" s="34"/>
       <c r="E248" s="33" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F248" s="34"/>
       <c r="G248" s="34"/>
@@ -49950,7 +49947,7 @@
       <c r="C249" s="34"/>
       <c r="D249" s="34"/>
       <c r="E249" s="33" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F249" s="34"/>
       <c r="G249" s="34"/>
@@ -49962,7 +49959,7 @@
       <c r="C250" s="34"/>
       <c r="D250" s="34"/>
       <c r="E250" s="33" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F250" s="34"/>
       <c r="G250" s="34"/>
@@ -49973,16 +49970,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C251" s="34" t="s">
         <v>404</v>
       </c>
       <c r="D251" s="33" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E251" s="33" t="s">
         <v>1358</v>
-      </c>
-      <c r="E251" s="33" t="s">
-        <v>1359</v>
       </c>
       <c r="F251" s="34"/>
       <c r="G251" s="34"/>
@@ -49994,7 +49991,7 @@
       <c r="C252" s="34"/>
       <c r="D252" s="33"/>
       <c r="E252" s="33" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F252" s="34"/>
       <c r="G252" s="34"/>
@@ -50006,7 +50003,7 @@
       <c r="C253" s="34"/>
       <c r="D253" s="33"/>
       <c r="E253" s="33" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F253" s="34"/>
       <c r="G253" s="34"/>
@@ -50018,7 +50015,7 @@
       <c r="C254" s="34"/>
       <c r="D254" s="33"/>
       <c r="E254" s="33" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F254" s="34"/>
       <c r="G254" s="34"/>
@@ -50041,16 +50038,16 @@
         <v>5</v>
       </c>
       <c r="B256" s="33" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C256" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D256" s="33" t="s">
+        <v>999</v>
+      </c>
+      <c r="E256" s="33" t="s">
         <v>1000</v>
-      </c>
-      <c r="E256" s="33" t="s">
-        <v>1001</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="33"/>
@@ -50062,7 +50059,7 @@
       <c r="C257" s="33"/>
       <c r="D257" s="33"/>
       <c r="E257" s="33" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F257" s="33"/>
       <c r="G257" s="33"/>
@@ -50074,7 +50071,7 @@
       <c r="C258" s="33"/>
       <c r="D258" s="33"/>
       <c r="E258" s="33" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F258" s="33"/>
       <c r="G258" s="33"/>
@@ -50085,16 +50082,16 @@
         <v>5</v>
       </c>
       <c r="B259" s="33" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C259" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D259" s="33" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E259" s="33" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F259" s="33"/>
       <c r="G259" s="33"/>
@@ -50106,7 +50103,7 @@
       <c r="C260" s="33"/>
       <c r="D260" s="33"/>
       <c r="E260" s="33" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F260" s="33"/>
       <c r="G260" s="33"/>
@@ -50118,7 +50115,7 @@
       <c r="C261" s="33"/>
       <c r="D261" s="33"/>
       <c r="E261" s="33" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F261" s="33"/>
       <c r="G261" s="33"/>
@@ -50250,7 +50247,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -50258,7 +50255,7 @@
       <c r="E1" s="116"/>
       <c r="F1" s="117"/>
       <c r="G1" s="118" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H1" s="119"/>
       <c r="I1" s="120"/>
@@ -50289,7 +50286,7 @@
         <v>298</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -50329,7 +50326,7 @@
         <v>302</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -50446,7 +50443,7 @@
       </c>
       <c r="H9" s="54"/>
       <c r="I9" s="54" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -50522,23 +50519,23 @@
         <v>404</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E13" s="54" t="s">
+        <v>621</v>
+      </c>
+      <c r="F13" s="54" t="s">
         <v>622</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>623</v>
       </c>
       <c r="G13" s="54" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="54"/>
       <c r="I13" s="54" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -50549,23 +50546,23 @@
         <v>404</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E14" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="F14" s="54" t="s">
         <v>624</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>625</v>
       </c>
       <c r="G14" s="54" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="54"/>
       <c r="I14" s="54" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
   </sheetData>
@@ -50636,7 +50633,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="210" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -50644,7 +50641,7 @@
       <c r="E1" s="116"/>
       <c r="F1" s="117"/>
       <c r="G1" s="115" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H1" s="116"/>
       <c r="I1" s="116"/>
@@ -50663,7 +50660,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -50698,13 +50695,13 @@
         <v>356</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>21</v>
@@ -50719,7 +50716,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K3" s="34"/>
       <c r="L3" s="29"/>
@@ -50754,7 +50751,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F5" s="54" t="s">
         <v>23</v>
@@ -50766,13 +50763,13 @@
         <v>21</v>
       </c>
       <c r="I5" s="54" t="s">
+        <v>759</v>
+      </c>
+      <c r="J5" s="54" t="s">
         <v>760</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="K5" s="54" t="s">
         <v>761</v>
-      </c>
-      <c r="K5" s="54" t="s">
-        <v>762</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>437</v>
@@ -50804,10 +50801,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="54" t="s">
+        <v>762</v>
+      </c>
+      <c r="J6" s="54" t="s">
         <v>763</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>764</v>
       </c>
       <c r="K6" s="54"/>
       <c r="L6" s="54"/>
@@ -50838,10 +50835,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K7" s="54"/>
       <c r="L7" s="54"/>
@@ -50901,7 +50898,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -50909,7 +50906,7 @@
       <c r="E1" s="112"/>
       <c r="F1" s="112"/>
       <c r="G1" s="121" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1" s="121"/>
       <c r="I1" s="121"/>
@@ -50922,22 +50919,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>630</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>631</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="97" t="s">
         <v>632</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="H2" s="28" t="s">
         <v>633</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>634</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>428</v>
@@ -50951,20 +50948,20 @@
         <v>356</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33" t="s">
+        <v>765</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>766</v>
       </c>
-      <c r="G3" s="33" t="s">
-        <v>767</v>
-      </c>
       <c r="H3" s="33" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I3" s="34"/>
     </row>
@@ -50989,16 +50986,16 @@
         <v>356</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>1278</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>1279</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>1280</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -51012,16 +51009,16 @@
         <v>356</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>1281</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>1282</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>1283</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DED6E5-2025-6648-8AA7-2ED948534802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0663B426-B803-9C49-A7C8-EC5CEFFB1226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="820" windowWidth="30240" windowHeight="17580" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17580" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -10794,6 +10794,42 @@
     </r>
   </si>
   <si>
+    <t>Basic-Access-Policy</t>
+  </si>
+  <si>
+    <t>Policy to allow basic access</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
+  </si>
+  <si>
+    <t>OKE-Clusters-Policy</t>
+  </si>
+  <si>
+    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
+  </si>
+  <si>
+    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
 </t>
@@ -10807,7 +10843,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CD3-OCI Automation Toolkit</t>
+      <t>CD3 Automation Toolkit</t>
     </r>
     <r>
       <rPr>
@@ -10828,44 +10864,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2024.1.0</t>
-    </r>
-  </si>
-  <si>
-    <t>Basic-Access-Policy</t>
-  </si>
-  <si>
-    <t>Policy to allow basic access</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
-  </si>
-  <si>
-    <t>OKE-Clusters-Policy</t>
-  </si>
-  <si>
-    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
-  </si>
-  <si>
-    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
+      <t>Release - v2024.2.0</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -17678,7 +17678,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
@@ -47660,16 +47660,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D64" s="33" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E64" s="33" t="s">
         <v>1351</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>1352</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -47681,7 +47681,7 @@
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -47693,7 +47693,7 @@
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -47705,7 +47705,7 @@
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -49970,16 +49970,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C251" s="34" t="s">
         <v>404</v>
       </c>
       <c r="D251" s="33" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E251" s="33" t="s">
         <v>1357</v>
-      </c>
-      <c r="E251" s="33" t="s">
-        <v>1358</v>
       </c>
       <c r="F251" s="34"/>
       <c r="G251" s="34"/>
@@ -49991,7 +49991,7 @@
       <c r="C252" s="34"/>
       <c r="D252" s="33"/>
       <c r="E252" s="33" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F252" s="34"/>
       <c r="G252" s="34"/>
@@ -50003,7 +50003,7 @@
       <c r="C253" s="34"/>
       <c r="D253" s="33"/>
       <c r="E253" s="33" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F253" s="34"/>
       <c r="G253" s="34"/>
@@ -50015,7 +50015,7 @@
       <c r="C254" s="34"/>
       <c r="D254" s="33"/>
       <c r="E254" s="33" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F254" s="34"/>
       <c r="G254" s="34"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0663B426-B803-9C49-A7C8-EC5CEFFB1226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED264B62-B18D-604C-A949-096B28C045A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="17580" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="16100" windowHeight="17660" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -17662,7 +17662,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="0"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -17689,10 +17689,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17754,6 +17757,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17952,10 +17958,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18734,10 +18743,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18833,10 +18845,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18932,10 +18947,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19079,10 +19097,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20080,10 +20101,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FED2EF-F471-7B45-836B-AE68E705C4EC}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20479,10 +20503,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3090A3DA-7F53-AD4E-BA97-594CFBE4ECCA}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20668,10 +20695,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20837,10 +20867,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21092,10 +21125,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21571,10 +21607,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21790,10 +21829,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22191,6 +22233,9 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4485F156-F492-3349-A517-570D80810927}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -22669,10 +22714,13 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22967,10 +23015,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23322,10 +23373,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23577,10 +23631,13 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24303,10 +24360,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24458,10 +24518,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AD61CA-1C6C-C844-9A38-EA78283E75FE}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24991,10 +25054,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25254,10 +25320,13 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8065867-8910-F546-8B7F-18EF81E1EBE6}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25464,10 +25533,13 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A318B394-EB14-B347-94FE-B94F0AFC4CFC}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25681,10 +25753,13 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AA997"/>
   <sheetViews>
     <sheetView zoomScaleNormal="84" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29085,10 +29160,13 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:H924"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31978,10 +32056,13 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView zoomScale="119" zoomScaleNormal="78" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36457,10 +36538,13 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89E56D4-0DC6-3548-8CE4-55D83546CA02}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36597,10 +36681,13 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB34C4E-4A8D-3A4F-BBC2-9E28B154F2B0}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36717,6 +36804,9 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9996A0-6442-464F-9088-39FC173E2653}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -44975,10 +45065,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E367E382-127E-9344-8649-A6B49AB55E2F}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="156.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -46775,6 +46868,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98696C8E-1321-F543-9134-F1067921CE0A}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -46844,10 +46940,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -50226,6 +50325,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50610,10 +50712,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -50876,10 +50981,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED264B62-B18D-604C-A949-096B28C045A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43539114-5B1E-E641-A643-C37206D86176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="16100" windowHeight="17660" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -7208,164 +7208,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Allowed values for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Network Type" - FLANNEL_OVERLAY </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OCI_VCN_IP_NATIVE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enter subnet name as :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;vcn-name&gt;_&lt;subnet-name&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">or the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ocid
-"API Endpoint Pub Address" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Represents whether public address needs to be assigned to the control plane or not(TRUE|FALSE).</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"SSH Key Var Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Columns with nsgs accept comma seperated list of NSG names or ocids that needs to be part of the particular component, leave it blank if it doesnot need to be part of any NSG. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 LBR Subnets:</t>
     </r>
@@ -9552,8 +9394,924 @@
     </r>
   </si>
   <si>
+    <t>RPC::Ashburn::ash-drg</t>
+  </si>
+  <si>
+    <t>TestBucket2</t>
+  </si>
+  <si>
+    <t>RT_Rule::1::Days</t>
+  </si>
+  <si>
+    <t>objects::Delete</t>
+  </si>
+  <si>
+    <t>2::DAYS</t>
+  </si>
+  <si>
+    <t>RT_Rule::1::Days
+RT_Rule1::2::Days::30-06-2023</t>
+  </si>
+  <si>
+    <t>Compartment Unique</t>
+  </si>
+  <si>
+    <t>VCN Unique</t>
+  </si>
+  <si>
+    <t>Subnet Unique</t>
+  </si>
+  <si>
+    <t>VCN for DRG Unique</t>
+  </si>
+  <si>
+    <t>129.20.20.1@default.sh</t>
+  </si>
+  <si>
+    <t>default.yaml</t>
+  </si>
+  <si>
+    <t>vcn01_vcn01-dmz</t>
+  </si>
+  <si>
+    <t>Management Block Volumes</t>
+  </si>
+  <si>
+    <t>Workload Block Volumes</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+"SDDC name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name of the SDDC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Management Block Volumes" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Existing Block Volume Name (minimum - 8 TB ~ 8192 GB). Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;block_compartment&gt;@&lt;block-volume_name&gt;. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skip block_compartment if it is same as SDDC comaprtment.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Workload Block Volumes" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Existing Block Volume Names separated by ','. Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;block_compartment&gt;@&lt;block-volume_name&gt;,  &lt;block_compartment&gt;@&lt;block-volume_name&gt;. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skip block_compartment if it is same as SDDC compartment.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                             Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+** Management and Workload block volumes are needed only if SDDC is of Standard Shape.
+** Standard shapes aren't compatible with Monthly billing interval commitment and advanced HCX license types.</t>
+    </r>
+  </si>
+  <si>
+    <t>DB Node Storage Size in GBS</t>
+  </si>
+  <si>
+    <t>Memory Size in GBS</t>
+  </si>
+  <si>
+    <t>Data Storage Size in TBS</t>
+  </si>
+  <si>
+    <t>DB Servers</t>
+  </si>
+  <si>
+    <t>dbServer-2, dbServer-3</t>
+  </si>
+  <si>
+    <t>Plugin Vulnerability Scanning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Name) is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Description" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Description) is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Public Networks" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It is an optional field. Specify comma separated list of public CIDRs to be included.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"OCI Networks" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It is an optional field. Format: Specify comma separated list of VCN CIDR to be included. For ex: 10.0.2.0/18,10.0.3.0/18
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"User Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"User Description" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"User email" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an optional field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Group Names" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comma Separated groups assigned to user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Disable Capabilities" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify comma seperated list of capabilities to be disabled for user. For ex: can_use_api_keys, can_use_console_password, can_use_auth_tokens, can_use_customer_secret_keys, can_use_db_credentials, can_use_oauth2client_credentials, can_use_smtp_credentials. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>By default all these capabilities are enabled for a user.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(can_use_db_credentials, can_use_oauth2client_credentials cannot be disabled through CD3. It is currently not supported by terraform)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <t>User Description</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage keys in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use key-delegate in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage secret-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage private-ips in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to manage instances in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read compartments in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read repos in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read vnics in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service vulnerability-scanning-service to read vnic-attachments in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service blockstorage, oke, streaming, Fssoc1Prod to use keys in tenancy</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage cloud-exadata-infrastructures in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage cloud-vmclusters in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use vnics in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage keys in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use key-delegate in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage secret-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage db-nodes in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage db-homes in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage databases in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage db-backups in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage users in tenancy where all {request.operation != 'ListApiKeys',request.operation != 'ListAuthTokens',request.operation != 'ListCustomerSecretKeys',request.operation != 'UploadApiKey',request.operation != 'DeleteApiKey',request.operation != 'UpdateAuthToken',request.operation != 'CreateAuthToken',request.operation != 'DeleteAuthToken',request.operation != 'CreateSecretKey',request.operation != 'UpdateCustomerSecretKey',request.operation != 'DeleteCustomerSecretKey'}</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage keys in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to use key-delegate in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage secret-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to use key-delegate in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage private-ips in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read keys in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read keys in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read keys in compartment Database</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use keys in compartment Database</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use secret-family in compartment Database</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
+"Create_Is PV Encryption In Transit Enabled" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use this attribute for setting the parameter while launching a new instance. Specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Defaults to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">false </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">when left empty.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Update_Is PV Encryption In Transit Enabled"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Use this attribute for setting the parameter for an existing instance. Leave it empty while launching a new instance.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                               </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Backup Policy" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
+                                   Values can be either of the following: Gold | Silver | Bronze
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom Policy Compartment Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"NSGs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"DedicatedVMHost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Leave this field empty if the instance does not need to be launched on dedicated vm host.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Plugin Vulnerability Scanning" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use this column to enable or disable the 'Vulnerability Scanning' plugin for this instance. Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enabled or Disabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Enable/Disable 
+other plugins by adding new columns with name as - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Plugin &lt;Plugin_Name_As_It_Appears_In_Console&gt;" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eg for 'Bastion', column name will be 'Plugin Bastion'
 </t>
     </r>
     <r>
@@ -9562,6 +10320,295 @@
         <i/>
         <u/>
         <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please add column '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is Live Migration preferred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' and set the value to True to enable live migration for the instance. It will be enabled if it is compatible.</t>
+    </r>
+  </si>
+  <si>
+    <t>Basic-Access-Policy</t>
+  </si>
+  <si>
+    <t>Policy to allow basic access</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
+  </si>
+  <si>
+    <t>OKE-Clusters-Policy</t>
+  </si>
+  <si>
+    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
+  </si>
+  <si>
+    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2024.2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Allowed values for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Network Type" - FLANNEL_OVERLAY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OCI_VCN_IP_NATIVE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enter subnet name as :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;vcn-name&gt;_&lt;subnet-name&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ocid
+"API Endpoint Pub Address" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Represents whether public address needs to be assigned to the control plane or not(TRUE|FALSE).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"SSH Key Var Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accepts SSH Key value or the name name of the key defined under variable  oke_ssh_keys in variables_&lt;region&gt;.tf filecontaining SSH key; Multiple keys should be separated by \n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Columns with nsgs accept comma seperated list of NSG names or ocids that needs to be part of the particular component, leave it blank if it doesnot need to be part of any NSG. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -9640,7 +10687,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
+      <t xml:space="preserve">Accepts SSH Key value or the name of the key defined under variable  instance_ssh_keys in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
 </t>
     </r>
     <r>
@@ -9818,1053 +10865,6 @@
       </rPr>
       <t xml:space="preserve">
 </t>
-    </r>
-  </si>
-  <si>
-    <t>RPC::Ashburn::ash-drg</t>
-  </si>
-  <si>
-    <t>TestBucket2</t>
-  </si>
-  <si>
-    <t>RT_Rule::1::Days</t>
-  </si>
-  <si>
-    <t>objects::Delete</t>
-  </si>
-  <si>
-    <t>2::DAYS</t>
-  </si>
-  <si>
-    <t>RT_Rule::1::Days
-RT_Rule1::2::Days::30-06-2023</t>
-  </si>
-  <si>
-    <t>Compartment Unique</t>
-  </si>
-  <si>
-    <t>VCN Unique</t>
-  </si>
-  <si>
-    <t>Subnet Unique</t>
-  </si>
-  <si>
-    <t>VCN for DRG Unique</t>
-  </si>
-  <si>
-    <t>129.20.20.1@default.sh</t>
-  </si>
-  <si>
-    <t>default.yaml</t>
-  </si>
-  <si>
-    <t>vcn01_vcn01-dmz</t>
-  </si>
-  <si>
-    <t>Management Block Volumes</t>
-  </si>
-  <si>
-    <t>Workload Block Volumes</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-"SDDC name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Name of the SDDC
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Management Block Volumes" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Existing Block Volume Name (minimum - 8 TB ~ 8192 GB). Format - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;block_compartment&gt;@&lt;block-volume_name&gt;. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Skip block_compartment if it is same as SDDC comaprtment.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Workload Block Volumes" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Existing Block Volume Names separated by ','. Format - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;block_compartment&gt;@&lt;block-volume_name&gt;,  &lt;block_compartment&gt;@&lt;block-volume_name&gt;. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Skip block_compartment if it is same as SDDC compartment.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                             Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-** Management and Workload block volumes are needed only if SDDC is of Standard Shape.
-** Standard shapes aren't compatible with Monthly billing interval commitment and advanced HCX license types.</t>
-    </r>
-  </si>
-  <si>
-    <t>DB Node Storage Size in GBS</t>
-  </si>
-  <si>
-    <t>Memory Size in GBS</t>
-  </si>
-  <si>
-    <t>Data Storage Size in TBS</t>
-  </si>
-  <si>
-    <t>DB Servers</t>
-  </si>
-  <si>
-    <t>dbServer-2, dbServer-3</t>
-  </si>
-  <si>
-    <t>Plugin Vulnerability Scanning</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Name) is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Description" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Description) is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Public Networks" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">It is an optional field. Specify comma separated list of public CIDRs to be included.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"OCI Networks" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">It is an optional field. Format: Specify comma separated list of VCN CIDR to be included. For ex: 10.0.2.0/18,10.0.3.0/18
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"User Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"User Description" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"User email" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is an optional field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Group Names" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comma Separated groups assigned to user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Disable Capabilities" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify comma seperated list of capabilities to be disabled for user. For ex: can_use_api_keys, can_use_console_password, can_use_auth_tokens, can_use_customer_secret_keys, can_use_db_credentials, can_use_oauth2client_credentials, can_use_smtp_credentials. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>By default all these capabilities are enabled for a user.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(can_use_db_credentials, can_use_oauth2client_credentials cannot be disabled through CD3. It is currently not supported by terraform)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <t>User Description</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to manage keys in compartment AppDev</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to use key-delegate in compartment AppDev</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to manage secret-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to manage private-ips in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to use vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group AppDevAdmins to read logging-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow service vulnerability-scanning-service to manage instances in tenancy</t>
-  </si>
-  <si>
-    <t>Allow service vulnerability-scanning-service to read compartments in tenancy</t>
-  </si>
-  <si>
-    <t>Allow service vulnerability-scanning-service to read repos in tenancy</t>
-  </si>
-  <si>
-    <t>Allow service vulnerability-scanning-service to read vnics in tenancy</t>
-  </si>
-  <si>
-    <t>Allow service vulnerability-scanning-service to read vnic-attachments in tenancy</t>
-  </si>
-  <si>
-    <t>Allow service blockstorage, oke, streaming, Fssoc1Prod to use keys in tenancy</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage cloud-exadata-infrastructures in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage cloud-vmclusters in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to use vnics in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage keys in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to use key-delegate in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage secret-family in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to use vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to read logging-family in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage db-nodes in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage db-homes in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage databases in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group DatabaseAdmins to manage db-backups in compartment Database</t>
-  </si>
-  <si>
-    <t>allow group IAMAdmins to manage users in tenancy where all {request.operation != 'ListApiKeys',request.operation != 'ListAuthTokens',request.operation != 'ListCustomerSecretKeys',request.operation != 'UploadApiKey',request.operation != 'DeleteApiKey',request.operation != 'UpdateAuthToken',request.operation != 'CreateAuthToken',request.operation != 'DeleteAuthToken',request.operation != 'CreateSecretKey',request.operation != 'UpdateCustomerSecretKey',request.operation != 'DeleteCustomerSecretKey'}</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to manage keys in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to use key-delegate in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to manage secret-family in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to use vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group NetworkAdmins to read logging-family in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to use key-delegate in compartment Security</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to manage private-ips in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read keys in compartment Network</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read keys in compartment AppDev</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins to read keys in compartment Database</t>
-  </si>
-  <si>
-    <t>allow dynamic-group Database-kms-dynamic-group to use vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>allow dynamic-group Database-kms-dynamic-group to use keys in compartment Database</t>
-  </si>
-  <si>
-    <t>allow dynamic-group Database-kms-dynamic-group to use secret-family in compartment Database</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
-"Create_Is PV Encryption In Transit Enabled" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Use this attribute for setting the parameter while launching a new instance. Specify </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Defaults to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">false </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">when left empty.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Update_Is PV Encryption In Transit Enabled"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Use this attribute for setting the parameter for an existing instance. Leave it empty while launching a new instance.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                               </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Backup Policy" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
-                                   Values can be either of the following: Gold | Silver | Bronze
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Custom Policy Compartment Name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"NSGs"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"DedicatedVMHost"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Leave this field empty if the instance does not need to be launched on dedicated vm host.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Plugin Vulnerability Scanning" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Use this column to enable or disable the 'Vulnerability Scanning' plugin for this instance. Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enabled or Disabled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Enable/Disable 
-other plugins by adding new columns with name as - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Plugin &lt;Plugin_Name_As_It_Appears_In_Console&gt;" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eg for 'Bastion', column name will be 'Plugin Bastion'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Note </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Please add column '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Is Live Migration preferred</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' and set the value to True to enable live migration for the instance. It will be enabled if it is compatible.</t>
-    </r>
-  </si>
-  <si>
-    <t>Basic-Access-Policy</t>
-  </si>
-  <si>
-    <t>Policy to allow basic access</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
-    <t>allow group SecurityAdmins,NetworkAdmins,AppDevAdmins,DatabaseAdmins,StorageAdmins to read objectstorage-namespaces in tenancy</t>
-  </si>
-  <si>
-    <t>OKE-Clusters-Policy</t>
-  </si>
-  <si>
-    <t>Policy for OKE clusters. It allows OKE clusters to use Native Pod Networking (NPN) and to use network resources in the Network compartment.</t>
-  </si>
-  <si>
-    <t>allow any-user to manage instances in compartment AppDev where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use private-ips in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use network-security-groups in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <t>allow any-user to use subnets in compartment Network where all { request.principal.type = 'cluster' }</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release - v2024.2.0</t>
     </r>
   </si>
 </sst>
@@ -17678,7 +17678,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
   </sheetData>
@@ -17707,7 +17707,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="41" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B1" s="120"/>
     </row>
@@ -17780,7 +17780,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -17990,7 +17990,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -18001,7 +18001,7 @@
       <c r="H1" s="116"/>
       <c r="I1" s="117"/>
       <c r="J1" s="122" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="K1" s="122"/>
       <c r="L1" s="122"/>
@@ -18769,7 +18769,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -18869,7 +18869,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -18970,7 +18970,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -20887,7 +20887,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="41" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -21131,7 +21131,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21160,7 +21160,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="126" t="s">
-        <v>1284</v>
+        <v>1361</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -21170,7 +21170,7 @@
       <c r="G1" s="127"/>
       <c r="H1" s="128"/>
       <c r="I1" s="115" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="J1" s="116"/>
       <c r="K1" s="116"/>
@@ -21230,7 +21230,7 @@
         <v>779</v>
       </c>
       <c r="O2" s="28" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>95</v>
@@ -21271,7 +21271,7 @@
         <v>355</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="G3" s="34" t="b">
         <v>0</v>
@@ -21388,7 +21388,7 @@
         <v>91</v>
       </c>
       <c r="U5" s="55" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="V5" s="54"/>
     </row>
@@ -21438,7 +21438,7 @@
       </c>
       <c r="T6" s="54"/>
       <c r="U6" s="55" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="V6" s="54"/>
     </row>
@@ -21860,7 +21860,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="129" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B1" s="130"/>
       <c r="C1" s="130"/>
@@ -22278,7 +22278,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1255</v>
+        <v>1360</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -22294,7 +22294,7 @@
       <c r="M1" s="116"/>
       <c r="N1" s="117"/>
       <c r="O1" s="126" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="P1" s="127"/>
       <c r="Q1" s="127"/>
@@ -22741,7 +22741,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -25074,7 +25074,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="41" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -25557,7 +25557,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -25785,7 +25785,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -29181,7 +29181,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -32100,7 +32100,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="126" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B1" s="127"/>
       <c r="C1" s="127"/>
@@ -32162,16 +32162,16 @@
         <v>730</v>
       </c>
       <c r="K2" s="67" t="s">
+        <v>1299</v>
+      </c>
+      <c r="L2" s="67" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M2" s="67" t="s">
         <v>1301</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="N2" s="67" t="s">
         <v>1302</v>
-      </c>
-      <c r="M2" s="67" t="s">
-        <v>1303</v>
-      </c>
-      <c r="N2" s="67" t="s">
-        <v>1304</v>
       </c>
       <c r="O2" s="67" t="s">
         <v>731</v>
@@ -32267,7 +32267,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="94" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="O4" s="94" t="b">
         <v>1</v>
@@ -36558,7 +36558,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -36610,10 +36610,10 @@
         <v>1193</v>
       </c>
       <c r="K2" s="108" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="L2" s="109" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="M2" s="28" t="s">
         <v>1194</v>
@@ -36838,7 +36838,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="264" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="141" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B1" s="142"/>
       <c r="C1" s="142"/>
@@ -36945,7 +36945,7 @@
         <v>1229</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="J4" s="29" t="s">
         <v>1230</v>
@@ -36994,10 +36994,10 @@
         <v>1229</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="K5" s="29" t="s">
         <v>1235</v>
@@ -37058,7 +37058,7 @@
         <v>561</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>1226</v>
@@ -37076,20 +37076,20 @@
         <v>1229</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="29" t="s">
         <v>1231</v>
       </c>
       <c r="L7" s="29" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="M7" s="29" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
@@ -38055,10 +38055,10 @@
         <v>645</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F1" s="66" t="s">
         <v>1243</v>
@@ -38070,7 +38070,7 @@
         <v>1245</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="J1" s="66" t="s">
         <v>1246</v>
@@ -38181,13 +38181,13 @@
         <v>1062</v>
       </c>
       <c r="AT1" s="57" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="AU1" s="57" t="s">
         <v>646</v>
       </c>
       <c r="AV1" s="57" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="59" customFormat="1" x14ac:dyDescent="0.2">
@@ -45086,7 +45086,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="41" customFormat="1" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -45103,7 +45103,7 @@
         <v>1140</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>1141</v>
@@ -46388,7 +46388,7 @@
         <v>1244</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -46889,7 +46889,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="41" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -47308,7 +47308,7 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -47320,7 +47320,7 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
@@ -47332,7 +47332,7 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -47392,7 +47392,7 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -47416,7 +47416,7 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -47476,7 +47476,7 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -47759,16 +47759,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>404</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -47780,7 +47780,7 @@
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -47792,7 +47792,7 @@
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -47804,7 +47804,7 @@
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -47904,7 +47904,7 @@
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
       <c r="E74" s="33" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -47916,7 +47916,7 @@
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -47928,7 +47928,7 @@
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -47940,7 +47940,7 @@
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -47952,7 +47952,7 @@
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
       <c r="E78" s="33" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -47976,7 +47976,7 @@
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="F80" s="111"/>
       <c r="G80" s="33"/>
@@ -48032,7 +48032,7 @@
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
       <c r="E84" s="30" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -48044,7 +48044,7 @@
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
       <c r="E85" s="30" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -48260,7 +48260,7 @@
       <c r="C103" s="33"/>
       <c r="D103" s="33"/>
       <c r="E103" s="30" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -48272,7 +48272,7 @@
       <c r="C104" s="33"/>
       <c r="D104" s="33"/>
       <c r="E104" s="30" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -48284,7 +48284,7 @@
       <c r="C105" s="33"/>
       <c r="D105" s="33"/>
       <c r="E105" s="30" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -48296,7 +48296,7 @@
       <c r="C106" s="33"/>
       <c r="D106" s="33"/>
       <c r="E106" s="30" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -48332,7 +48332,7 @@
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
       <c r="E109" s="30" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -48380,7 +48380,7 @@
       <c r="C113" s="33"/>
       <c r="D113" s="33"/>
       <c r="E113" s="30" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -48392,7 +48392,7 @@
       <c r="C114" s="33"/>
       <c r="D114" s="33"/>
       <c r="E114" s="30" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -48428,7 +48428,7 @@
       <c r="C117" s="33"/>
       <c r="D117" s="33"/>
       <c r="E117" s="33" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -48440,7 +48440,7 @@
       <c r="C118" s="33"/>
       <c r="D118" s="33"/>
       <c r="E118" s="33" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -48452,7 +48452,7 @@
       <c r="C119" s="33"/>
       <c r="D119" s="33"/>
       <c r="E119" s="33" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -48464,7 +48464,7 @@
       <c r="C120" s="33"/>
       <c r="D120" s="33"/>
       <c r="E120" s="33" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -48532,7 +48532,7 @@
       <c r="C125" s="33"/>
       <c r="D125" s="33"/>
       <c r="E125" s="33" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -48996,7 +48996,7 @@
       <c r="C163" s="33"/>
       <c r="D163" s="33"/>
       <c r="E163" s="33" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
@@ -49008,7 +49008,7 @@
       <c r="C164" s="33"/>
       <c r="D164" s="33"/>
       <c r="E164" s="33" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="33"/>
@@ -49020,7 +49020,7 @@
       <c r="C165" s="33"/>
       <c r="D165" s="33"/>
       <c r="E165" s="33" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
@@ -49068,7 +49068,7 @@
       <c r="C169" s="33"/>
       <c r="D169" s="33"/>
       <c r="E169" s="33" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -49080,7 +49080,7 @@
       <c r="C170" s="33"/>
       <c r="D170" s="33"/>
       <c r="E170" s="33" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -49540,7 +49540,7 @@
       <c r="C207" s="33"/>
       <c r="D207" s="33"/>
       <c r="E207" s="33" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="33"/>
@@ -49600,7 +49600,7 @@
       <c r="C212" s="33"/>
       <c r="D212" s="33"/>
       <c r="E212" s="33" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
@@ -49612,7 +49612,7 @@
       <c r="C213" s="33"/>
       <c r="D213" s="33"/>
       <c r="E213" s="33" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
@@ -49624,7 +49624,7 @@
       <c r="C214" s="33"/>
       <c r="D214" s="33"/>
       <c r="E214" s="33" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
@@ -49636,7 +49636,7 @@
       <c r="C215" s="33"/>
       <c r="D215" s="33"/>
       <c r="E215" s="33" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
@@ -50069,16 +50069,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C251" s="34" t="s">
         <v>404</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="E251" s="33" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F251" s="34"/>
       <c r="G251" s="34"/>
@@ -50090,7 +50090,7 @@
       <c r="C252" s="34"/>
       <c r="D252" s="33"/>
       <c r="E252" s="33" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="F252" s="34"/>
       <c r="G252" s="34"/>
@@ -50102,7 +50102,7 @@
       <c r="C253" s="34"/>
       <c r="D253" s="33"/>
       <c r="E253" s="33" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="F253" s="34"/>
       <c r="G253" s="34"/>
@@ -50114,7 +50114,7 @@
       <c r="C254" s="34"/>
       <c r="D254" s="33"/>
       <c r="E254" s="33" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="F254" s="34"/>
       <c r="G254" s="34"/>
@@ -50190,7 +50190,7 @@
         <v>1004</v>
       </c>
       <c r="E259" s="33" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F259" s="33"/>
       <c r="G259" s="33"/>
@@ -50202,7 +50202,7 @@
       <c r="C260" s="33"/>
       <c r="D260" s="33"/>
       <c r="E260" s="33" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="F260" s="33"/>
       <c r="G260" s="33"/>
@@ -50214,7 +50214,7 @@
       <c r="C261" s="33"/>
       <c r="D261" s="33"/>
       <c r="E261" s="33" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F261" s="33"/>
       <c r="G261" s="33"/>
@@ -51014,7 +51014,7 @@
       <c r="E1" s="112"/>
       <c r="F1" s="112"/>
       <c r="G1" s="121" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1" s="121"/>
       <c r="I1" s="121"/>
@@ -51033,7 +51033,7 @@
         <v>630</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>631</v>
@@ -51097,13 +51097,13 @@
         <v>756</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>1277</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>1278</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>1279</v>
       </c>
       <c r="G5" s="34"/>
       <c r="H5" s="34"/>
@@ -51117,16 +51117,16 @@
         <v>356</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E6" s="34" t="s">
         <v>1280</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>1281</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>1282</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA58C61-6AB2-A04B-A0FA-EFB450D13758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED6C9ED-EB5D-A643-95BF-2237FC5DEAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1280" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mansatory for Autotune Type - PERFORMANCE_BASED or BOTH</t>
+          <t>Mandatory for Autotune Type - PERFORMANCE_BASED or BOTH</t>
         </r>
       </text>
     </comment>
@@ -386,40 +386,6 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Suruchi</author>
-  </authors>
-  <commentList>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{4D05ED1D-9D75-B94C-8564-8547C5BB6DB9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter OCID of the snapshot policy to be attached to the FSS.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -668,7 +634,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Suruchi</author>
@@ -730,7 +696,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Suruchi</author>
@@ -12529,182 +12495,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
-Freeform and Defined Tags - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If specified, Applies to FSS object only and not to other components like Mount Target.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Enter subnet name as : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">vcn-name&gt;_&lt;subnet-name&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source Snapshot:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Accepts OCID of the source snapshot  or the name of the key defined under variable  fss_source_ocids in variables_&lt;region&gt;.tf file</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Replication Information: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Format - TargetFSS(OCID or Name)::ReplicationInterval::ReplicationName. Multiple replication values are seperated by newline in the same cell(\n is not supported). Ensure Target FSS for replication must not have exports created.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <u/>
@@ -12768,6 +12558,204 @@
   </si>
   <si>
     <t>onlyFSS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
+Freeform and Defined Tags - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If specified, Applies to FSS object only and not to other components like Mount Target.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Enter subnet name as : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vcn-name&gt;_&lt;subnet-name&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source Snapshot:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Accepts OCID of the source snapshot  or the name of the key defined under variable  fss_source_ocids in variables_&lt;region&gt;.tf file
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Snapshot Policy - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accepts OCID of the snapshot policy or the name in format: &lt;snaphot_policy_compartment_name&gt;@&lt;snaphost_policy_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Replication Information: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Format - TargetFSS(OCID or Name)::ReplicationInterval::ReplicationName. Multiple replication values are seperated by newline in the same cell(\n is not supported). Ensure Target FSS for replication must not have exports created.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -24280,7 +24268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
@@ -24312,9 +24300,9 @@
     <col min="22" max="22" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="164" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="190" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -24328,7 +24316,7 @@
       <c r="K1" s="135"/>
       <c r="L1" s="136"/>
       <c r="M1" s="148" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="N1" s="149"/>
       <c r="O1" s="149"/>
@@ -24340,7 +24328,7 @@
       <c r="U1" s="149"/>
       <c r="V1" s="150"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -24711,7 +24699,7 @@
         <v>90</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E11" s="55" t="s">
         <v>395</v>
@@ -24750,7 +24738,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
       <c r="I12" s="54" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="J12" s="54"/>
       <c r="K12" s="54"/>
@@ -24772,12 +24760,11 @@
     <mergeCell ref="M1:V1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" sqref="B2:C2 A1:A2 E2 D2:D1048576 F2:L1048576 M1:S1048576 U1:XFD1048576" xr:uid="{ECAF8C21-0469-6E46-97A7-0CA01BCF64B2}"/>
+    <dataValidation allowBlank="1" sqref="M1:S1048576 U1:XFD1048576 D3:D1048576 F3:L1048576 B2:L2 A1:A2" xr:uid="{ECAF8C21-0469-6E46-97A7-0CA01BCF64B2}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{3C93AF59-8CE9-5647-95AE-530DD7DB9390}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED6C9ED-EB5D-A643-95BF-2237FC5DEAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E132C99A-1DFE-8149-95A7-4BE2CADED25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -742,7 +742,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="1483">
   <si>
     <t>Region</t>
   </si>
@@ -10637,9 +10637,6 @@
   </si>
   <si>
     <t>Quota Policy</t>
-  </si>
-  <si>
-    <t>ashburn</t>
   </si>
   <si>
     <t>OracleAnalyticsQuota</t>
@@ -19641,7 +19638,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
   </sheetData>
@@ -19678,7 +19675,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -24061,7 +24058,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="202" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -24113,16 +24110,16 @@
         <v>438</v>
       </c>
       <c r="K2" s="28" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>1398</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>1399</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>1400</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>1401</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>779</v>
@@ -24188,19 +24185,19 @@
         <v>781</v>
       </c>
       <c r="J4" s="124" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K4" s="124" t="s">
         <v>1402</v>
-      </c>
-      <c r="K4" s="124" t="s">
-        <v>1403</v>
       </c>
       <c r="L4" s="124">
         <v>100</v>
       </c>
       <c r="M4" s="124" t="s">
+        <v>1403</v>
+      </c>
+      <c r="N4" s="124" t="s">
         <v>1404</v>
-      </c>
-      <c r="N4" s="124" t="s">
-        <v>1405</v>
       </c>
       <c r="O4" s="88" t="b">
         <v>1</v>
@@ -24302,7 +24299,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="190" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -24316,7 +24313,7 @@
       <c r="K1" s="135"/>
       <c r="L1" s="136"/>
       <c r="M1" s="148" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="N1" s="149"/>
       <c r="O1" s="149"/>
@@ -24357,13 +24354,13 @@
         <v>115</v>
       </c>
       <c r="J2" s="28" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>1406</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>1407</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>1408</v>
       </c>
       <c r="M2" s="28" t="s">
         <v>116</v>
@@ -24387,10 +24384,10 @@
         <v>122</v>
       </c>
       <c r="T2" s="28" t="s">
+        <v>1408</v>
+      </c>
+      <c r="U2" s="28" t="s">
         <v>1409</v>
-      </c>
-      <c r="U2" s="28" t="s">
-        <v>1410</v>
       </c>
       <c r="V2" s="28" t="s">
         <v>428</v>
@@ -24699,7 +24696,7 @@
         <v>90</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E11" s="55" t="s">
         <v>395</v>
@@ -24738,7 +24735,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
       <c r="I12" s="54" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="J12" s="54"/>
       <c r="K12" s="54"/>
@@ -27446,13 +27443,13 @@
         <v>804</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4" s="55" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G4" s="55" t="b">
         <v>1</v>
@@ -27927,10 +27924,10 @@
         <v>811</v>
       </c>
       <c r="G2" s="28" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>1413</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>1414</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>160</v>
@@ -27994,7 +27991,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -28028,7 +28025,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -28045,10 +28042,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="55" t="s">
+        <v>1416</v>
+      </c>
+      <c r="H6" s="55" t="s">
         <v>1417</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>1418</v>
       </c>
       <c r="I6" s="55">
         <v>53</v>
@@ -28058,7 +28055,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
   </sheetData>
@@ -39193,49 +39190,49 @@
         <v>560</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>1420</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="33" t="s">
         <v>1421</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>1422</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>1423</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="H3" s="33" t="s">
         <v>1424</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>1425</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="K3" s="33">
         <v>16</v>
       </c>
       <c r="L3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M3" t="s">
         <v>1427</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1428</v>
       </c>
       <c r="N3" s="33">
         <v>3</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="P3" s="33" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="R3" s="29"/>
     </row>
@@ -39247,18 +39244,18 @@
         <v>560</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>1431</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>1432</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>1424</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>1425</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>56</v>
@@ -39275,7 +39272,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="P4" s="33" t="b">
         <v>0</v>
@@ -39363,7 +39360,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="145" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="157"/>
@@ -39429,43 +39426,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>1435</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="33" t="s">
         <v>1436</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>1437</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>1438</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="H3" s="33" t="s">
         <v>1439</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="I3" s="33" t="s">
         <v>1440</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="J3" s="33" t="s">
         <v>1441</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="K3" s="33" t="s">
         <v>1442</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="L3" s="33" t="s">
         <v>1443</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="M3" s="33" t="s">
         <v>1444</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="N3" s="33" t="s">
         <v>1445</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>1446</v>
       </c>
       <c r="O3" s="125"/>
     </row>
@@ -39474,41 +39471,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>1435</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>1436</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>1438</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>1439</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="33" t="s">
         <v>1440</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="J4" s="33" t="s">
         <v>1441</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>1442</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="L4" s="33" t="s">
         <v>1443</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="M4" s="33" t="s">
         <v>1444</v>
       </c>
-      <c r="M4" s="33" t="s">
-        <v>1445</v>
-      </c>
       <c r="N4" s="33" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="O4" s="125"/>
     </row>
@@ -40943,7 +40940,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="131" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B1" s="131"/>
       <c r="C1" s="131"/>
@@ -40952,7 +40949,7 @@
       <c r="F1" s="131"/>
       <c r="G1" s="131"/>
       <c r="H1" s="141" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="I1" s="131"/>
       <c r="J1" s="131"/>
@@ -40967,46 +40964,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C2" s="127" t="s">
         <v>1450</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="D2" s="17" t="s">
         <v>1451</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>1452</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>1457</v>
+      </c>
+      <c r="J2" s="128" t="s">
+        <v>1458</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>1459</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M2" s="129" t="s">
+        <v>1461</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>1453</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H2" s="96" t="s">
-        <v>1457</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>1458</v>
-      </c>
-      <c r="J2" s="128" t="s">
-        <v>1459</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>1460</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>1461</v>
-      </c>
-      <c r="M2" s="129" t="s">
+      <c r="O2" s="17" t="s">
         <v>1462</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>1454</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -41036,23 +41033,23 @@
         <v>565</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>1464</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>1465</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
         <v>565</v>
       </c>
       <c r="G4" s="33" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>1466</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="33" t="s">
         <v>1467</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>1468</v>
       </c>
       <c r="J4" s="130">
         <v>256</v>
@@ -41073,19 +41070,19 @@
         <v>560</v>
       </c>
       <c r="G5" s="33" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>1469</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="I5" s="33" t="s">
         <v>1470</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>1471</v>
       </c>
       <c r="J5" s="130">
         <v>384</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="130"/>
@@ -41100,10 +41097,10 @@
         <v>565</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>1473</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>1474</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>5</v>
@@ -41112,13 +41109,13 @@
         <v>565</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="J6" s="130">
         <v>128</v>
@@ -41143,13 +41140,13 @@
         <v>560</v>
       </c>
       <c r="G7" s="33" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>1469</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>1470</v>
-      </c>
       <c r="I7" s="33" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="J7" s="130">
         <v>3072</v>
@@ -41170,19 +41167,19 @@
         <v>562</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="J8" s="130">
         <v>521</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="L8" s="33" t="b">
         <v>1</v>
@@ -54767,7 +54764,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -54806,16 +54803,16 @@
     </row>
     <row r="3" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>1365</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="C3" s="65" t="s">
         <v>1366</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="D3" s="33" t="s">
         <v>1367</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>1368</v>
       </c>
       <c r="E3" s="34"/>
     </row>
@@ -54859,7 +54856,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="41" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="131" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -54886,34 +54883,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="112" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E2" s="113" t="s">
         <v>1370</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="F2" s="113" t="s">
         <v>1371</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="G2" s="113" t="s">
         <v>1372</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="H2" s="114" t="s">
         <v>1373</v>
       </c>
-      <c r="H2" s="114" t="s">
+      <c r="I2" s="115" t="s">
         <v>1374</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="J2" s="115" t="s">
         <v>1375</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="K2" s="113" t="s">
         <v>1376</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="L2" s="113" t="s">
         <v>1377</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="M2" s="113" t="s">
         <v>1378</v>
-      </c>
-      <c r="M2" s="113" t="s">
-        <v>1379</v>
       </c>
       <c r="N2" s="116" t="s">
         <v>428</v>
@@ -54921,32 +54918,32 @@
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
-        <v>318</v>
+        <v>5</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>1380</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="33" t="s">
         <v>1381</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>1382</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>404</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G3" s="33">
         <v>10</v>
       </c>
       <c r="H3" s="117"/>
       <c r="I3" s="118" t="s">
+        <v>1383</v>
+      </c>
+      <c r="J3" s="118" t="s">
         <v>1384</v>
-      </c>
-      <c r="J3" s="118" t="s">
-        <v>1385</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -54955,22 +54952,22 @@
     </row>
     <row r="4" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>318</v>
+        <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>1386</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>1387</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>1388</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>1389</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>1390</v>
       </c>
       <c r="G4" s="33">
         <v>100</v>
@@ -54981,7 +54978,7 @@
       <c r="I4" s="118"/>
       <c r="J4" s="118"/>
       <c r="K4" s="33" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="L4" s="119"/>
       <c r="M4" s="33"/>
@@ -54999,13 +54996,13 @@
       <c r="I5" s="118"/>
       <c r="J5" s="118"/>
       <c r="K5" s="33" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L5" s="34" t="s">
         <v>1392</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="M5" s="33" t="s">
         <v>1393</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>1394</v>
       </c>
       <c r="N5" s="120"/>
     </row>
@@ -55021,10 +55018,10 @@
       <c r="I6" s="118"/>
       <c r="J6" s="118"/>
       <c r="K6" s="33" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L6" s="34" t="s">
         <v>1395</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>1396</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="120"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E132C99A-1DFE-8149-95A7-4BE2CADED25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD60A90-C57D-7C42-B23E-6A852C3E3675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10653,265 +10653,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Region" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Home Region only</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Scope" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compartment or Tag</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Target" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compartment Name or {tagNamespace}.{tagKey}.{tagValue}. Note- It should be a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cost Tracking Tag.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Schedule" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MONTH or  SINGLE_USE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Amount" - T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>he amount of the budget expressed as a whole number in the currency of the customer’s rate card</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Start Day" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The number of days offset from the first day of the month, at which the budget processing period starts. eg. 18. Mandatory for schedule type - MONTH</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Budget Start Date"/"Budget End Date" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg. 2024-05-20. Mandatory for schedule type - SINGLE_USE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Alert Rules" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;ACTUAL/FORECAST&gt;::&lt;Threshold value %/Threshold Amount&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Alert Recipients": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> comma seperated email addresses
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Scope</t>
   </si>
   <si>
@@ -12740,6 +12481,254 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Region" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Home Region only</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Scope" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compartment or Tag</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Target" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compartment Name or {tagNamespace}.{tagKey}.{tagValue}.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Schedule" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MONTH or  SINGLE_USE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Amount" - T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he amount of the budget expressed as a whole number in the currency of the customer’s rate card</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Start Day" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The number of days offset from the first day of the month, at which the budget processing period starts. eg. 18. Mandatory for schedule type - MONTH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Budget Start Date"/"Budget End Date" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg. 2024-05-20. Mandatory for schedule type - SINGLE_USE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Alert Rules" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;ACTUAL/FORECAST&gt;::&lt;Threshold value %/Threshold Amount&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Alert Recipients": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> comma seperated email addresses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -19638,7 +19627,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
   </sheetData>
@@ -19675,7 +19664,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -24058,7 +24047,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="202" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -24110,16 +24099,16 @@
         <v>438</v>
       </c>
       <c r="K2" s="28" t="s">
+        <v>1396</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>1397</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="M2" s="28" t="s">
         <v>1398</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="N2" s="28" t="s">
         <v>1399</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>1400</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>779</v>
@@ -24185,19 +24174,19 @@
         <v>781</v>
       </c>
       <c r="J4" s="124" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K4" s="124" t="s">
         <v>1401</v>
-      </c>
-      <c r="K4" s="124" t="s">
-        <v>1402</v>
       </c>
       <c r="L4" s="124">
         <v>100</v>
       </c>
       <c r="M4" s="124" t="s">
+        <v>1402</v>
+      </c>
+      <c r="N4" s="124" t="s">
         <v>1403</v>
-      </c>
-      <c r="N4" s="124" t="s">
-        <v>1404</v>
       </c>
       <c r="O4" s="88" t="b">
         <v>1</v>
@@ -24299,7 +24288,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="190" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B1" s="135"/>
       <c r="C1" s="135"/>
@@ -24313,7 +24302,7 @@
       <c r="K1" s="135"/>
       <c r="L1" s="136"/>
       <c r="M1" s="148" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="N1" s="149"/>
       <c r="O1" s="149"/>
@@ -24354,13 +24343,13 @@
         <v>115</v>
       </c>
       <c r="J2" s="28" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K2" s="28" t="s">
         <v>1405</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>1406</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>1407</v>
       </c>
       <c r="M2" s="28" t="s">
         <v>116</v>
@@ -24384,10 +24373,10 @@
         <v>122</v>
       </c>
       <c r="T2" s="28" t="s">
+        <v>1407</v>
+      </c>
+      <c r="U2" s="28" t="s">
         <v>1408</v>
-      </c>
-      <c r="U2" s="28" t="s">
-        <v>1409</v>
       </c>
       <c r="V2" s="28" t="s">
         <v>428</v>
@@ -24696,7 +24685,7 @@
         <v>90</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E11" s="55" t="s">
         <v>395</v>
@@ -24735,7 +24724,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
       <c r="I12" s="54" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="J12" s="54"/>
       <c r="K12" s="54"/>
@@ -27443,13 +27432,13 @@
         <v>804</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E4" s="55" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G4" s="55" t="b">
         <v>1</v>
@@ -27924,10 +27913,10 @@
         <v>811</v>
       </c>
       <c r="G2" s="28" t="s">
+        <v>1411</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>1412</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>1413</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>160</v>
@@ -27991,7 +27980,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -28025,7 +28014,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="55" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -28042,10 +28031,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="55" t="s">
+        <v>1415</v>
+      </c>
+      <c r="H6" s="55" t="s">
         <v>1416</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>1417</v>
       </c>
       <c r="I6" s="55">
         <v>53</v>
@@ -28055,7 +28044,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
   </sheetData>
@@ -39190,49 +39179,49 @@
         <v>560</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>1419</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="33" t="s">
         <v>1420</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>1421</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>1422</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="H3" s="33" t="s">
         <v>1423</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>1424</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>56</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="K3" s="33">
         <v>16</v>
       </c>
       <c r="L3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M3" t="s">
         <v>1426</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1427</v>
       </c>
       <c r="N3" s="33">
         <v>3</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="P3" s="33" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="R3" s="29"/>
     </row>
@@ -39244,18 +39233,18 @@
         <v>560</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>1430</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>1431</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33" t="s">
+        <v>1422</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>1423</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>1424</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>56</v>
@@ -39272,7 +39261,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="P4" s="33" t="b">
         <v>0</v>
@@ -39360,7 +39349,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="145" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="157"/>
@@ -39426,43 +39415,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>1434</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="33" t="s">
         <v>1435</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>1436</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="33" t="s">
         <v>1437</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="H3" s="33" t="s">
         <v>1438</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="I3" s="33" t="s">
         <v>1439</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="J3" s="33" t="s">
         <v>1440</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="K3" s="33" t="s">
         <v>1441</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="L3" s="33" t="s">
         <v>1442</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="M3" s="33" t="s">
         <v>1443</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="N3" s="33" t="s">
         <v>1444</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>1445</v>
       </c>
       <c r="O3" s="125"/>
     </row>
@@ -39471,41 +39460,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>1434</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>1435</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>1437</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>1438</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="33" t="s">
         <v>1439</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="J4" s="33" t="s">
         <v>1440</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>1441</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="L4" s="33" t="s">
         <v>1442</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="M4" s="33" t="s">
         <v>1443</v>
       </c>
-      <c r="M4" s="33" t="s">
-        <v>1444</v>
-      </c>
       <c r="N4" s="33" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="O4" s="125"/>
     </row>
@@ -40940,7 +40929,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="131" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B1" s="131"/>
       <c r="C1" s="131"/>
@@ -40949,7 +40938,7 @@
       <c r="F1" s="131"/>
       <c r="G1" s="131"/>
       <c r="H1" s="141" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="I1" s="131"/>
       <c r="J1" s="131"/>
@@ -40964,46 +40953,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C2" s="127" t="s">
         <v>1449</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="D2" s="17" t="s">
         <v>1450</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>1451</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>1456</v>
+      </c>
+      <c r="J2" s="128" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>1459</v>
+      </c>
+      <c r="M2" s="129" t="s">
+        <v>1460</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>1452</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>1454</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>1455</v>
-      </c>
-      <c r="H2" s="96" t="s">
-        <v>1456</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>1457</v>
-      </c>
-      <c r="J2" s="128" t="s">
-        <v>1458</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>1459</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>1460</v>
-      </c>
-      <c r="M2" s="129" t="s">
+      <c r="O2" s="17" t="s">
         <v>1461</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>1453</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -41033,23 +41022,23 @@
         <v>565</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>1463</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>1464</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="33" t="s">
         <v>565</v>
       </c>
       <c r="G4" s="33" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>1465</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="33" t="s">
         <v>1466</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>1467</v>
       </c>
       <c r="J4" s="130">
         <v>256</v>
@@ -41070,19 +41059,19 @@
         <v>560</v>
       </c>
       <c r="G5" s="33" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>1468</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="I5" s="33" t="s">
         <v>1469</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>1470</v>
       </c>
       <c r="J5" s="130">
         <v>384</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="L5" s="33"/>
       <c r="M5" s="130"/>
@@ -41097,10 +41086,10 @@
         <v>565</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>1472</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>1473</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>5</v>
@@ -41109,13 +41098,13 @@
         <v>565</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="J6" s="130">
         <v>128</v>
@@ -41140,13 +41129,13 @@
         <v>560</v>
       </c>
       <c r="G7" s="33" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>1468</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>1469</v>
-      </c>
       <c r="I7" s="33" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="J7" s="130">
         <v>3072</v>
@@ -41167,19 +41156,19 @@
         <v>562</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="J8" s="130">
         <v>521</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="L8" s="33" t="b">
         <v>1</v>
@@ -54856,7 +54845,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="41" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="131" t="s">
-        <v>1368</v>
+        <v>1482</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -54883,34 +54872,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="112" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E2" s="113" t="s">
         <v>1369</v>
       </c>
-      <c r="E2" s="113" t="s">
+      <c r="F2" s="113" t="s">
         <v>1370</v>
       </c>
-      <c r="F2" s="113" t="s">
+      <c r="G2" s="113" t="s">
         <v>1371</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="H2" s="114" t="s">
         <v>1372</v>
       </c>
-      <c r="H2" s="114" t="s">
+      <c r="I2" s="115" t="s">
         <v>1373</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="J2" s="115" t="s">
         <v>1374</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="K2" s="113" t="s">
         <v>1375</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="L2" s="113" t="s">
         <v>1376</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="M2" s="113" t="s">
         <v>1377</v>
-      </c>
-      <c r="M2" s="113" t="s">
-        <v>1378</v>
       </c>
       <c r="N2" s="116" t="s">
         <v>428</v>
@@ -54921,29 +54910,29 @@
         <v>5</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>1379</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="33" t="s">
         <v>1380</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>1381</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>404</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G3" s="33">
         <v>10</v>
       </c>
       <c r="H3" s="117"/>
       <c r="I3" s="118" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J3" s="118" t="s">
         <v>1383</v>
-      </c>
-      <c r="J3" s="118" t="s">
-        <v>1384</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="33"/>
@@ -54955,19 +54944,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>1385</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="33" t="s">
         <v>1386</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>1387</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
         <v>1388</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>1389</v>
       </c>
       <c r="G4" s="33">
         <v>100</v>
@@ -54978,7 +54967,7 @@
       <c r="I4" s="118"/>
       <c r="J4" s="118"/>
       <c r="K4" s="33" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="L4" s="119"/>
       <c r="M4" s="33"/>
@@ -54996,13 +54985,13 @@
       <c r="I5" s="118"/>
       <c r="J5" s="118"/>
       <c r="K5" s="33" t="s">
+        <v>1390</v>
+      </c>
+      <c r="L5" s="34" t="s">
         <v>1391</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="M5" s="33" t="s">
         <v>1392</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>1393</v>
       </c>
       <c r="N5" s="120"/>
     </row>
@@ -55018,10 +55007,10 @@
       <c r="I6" s="118"/>
       <c r="J6" s="118"/>
       <c r="K6" s="33" t="s">
+        <v>1393</v>
+      </c>
+      <c r="L6" s="34" t="s">
         <v>1394</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>1395</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="120"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED46D9F-6AB5-C94F-8398-3C906B3C5EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2355633A-AAAB-6D47-A078-965A51D3CE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="30240" windowHeight="17440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -3849,9 +3849,6 @@
     <t>Shape(10Mbps|100Mbps|400Mbps|8000Mbps|flexible)</t>
   </si>
   <si>
-    <t>Backend ServerComp&amp;ServerName:Port</t>
-  </si>
-  <si>
     <t>Memory In GBs</t>
   </si>
   <si>
@@ -4663,15 +4660,6 @@
   </si>
   <si>
     <t>OCI_VCN_IP_NATIVE</t>
-  </si>
-  <si>
-    <t>AppDev&amp;DNS-Server1-PhxHub:80,&amp;10.111.2.4:80</t>
-  </si>
-  <si>
-    <t>AppDev&amp;EBSInstance:80</t>
-  </si>
-  <si>
-    <t>AppDev&amp;TCCInstance:80</t>
   </si>
   <si>
     <t>Pod Security policy/API Endpoint Pub Address</t>
@@ -7779,9 +7767,6 @@
     <t>Cluster Type</t>
   </si>
   <si>
-    <t>CompartmentName&amp;Node Pool Name:Node Pool Type</t>
-  </si>
-  <si>
     <t>Fault Domains</t>
   </si>
   <si>
@@ -7797,22 +7782,13 @@
     <t>v1.28.2</t>
   </si>
   <si>
-    <t>AppDev&amp;nodepool1:Managed</t>
-  </si>
-  <si>
     <t>Fault-Domain-1</t>
   </si>
   <si>
-    <t>AppDev&amp;nodepool2:Managed</t>
-  </si>
-  <si>
     <t>Fault-Domain-1,Fault-Domain-2</t>
   </si>
   <si>
     <t>Enhanced_Cluster</t>
-  </si>
-  <si>
-    <t>AppDev&amp;nodepool1:Virtual</t>
   </si>
   <si>
     <t>Taints key,value,effect</t>
@@ -8364,19 +8340,10 @@
     <t>Domain Name</t>
   </si>
   <si>
-    <t>AppDev&amp;Instance1:10,&amp;10.2.2.2:9</t>
-  </si>
-  <si>
-    <t>AppDev&amp;Instance2:10,AppDev&amp;Instance3:10,&amp;10.0.0.144:10</t>
-  </si>
-  <si>
     <t>DNS</t>
   </si>
   <si>
     <t>example.com</t>
-  </si>
-  <si>
-    <t>AppDev&amp;jump-vm:20,AppDev&amp;jump-vm2:20</t>
   </si>
   <si>
     <t>SDDC-1::MANAGEMENT</t>
@@ -12609,6 +12576,39 @@
   </si>
   <si>
     <t>Enable Capabilities</t>
+  </si>
+  <si>
+    <t>Backend ServerComp@ServerName:Port</t>
+  </si>
+  <si>
+    <t>AppDev@DNS-Server1-PhxHub:80,&amp;10.111.2.4:80</t>
+  </si>
+  <si>
+    <t>AppDev@EBSInstance:80</t>
+  </si>
+  <si>
+    <t>AppDev@TCCInstance:80</t>
+  </si>
+  <si>
+    <t>AppDev@Instance1:10,&amp;10.2.2.2:9</t>
+  </si>
+  <si>
+    <t>AppDev@Instance2:10,AppDev&amp;Instance3:10,&amp;10.0.0.144:10</t>
+  </si>
+  <si>
+    <t>AppDev@jump-vm:20,AppDev&amp;jump-vm2:20</t>
+  </si>
+  <si>
+    <t>CompartmentName@Node Pool Name:Node Pool Type</t>
+  </si>
+  <si>
+    <t>AppDev@nodepool1:Managed</t>
+  </si>
+  <si>
+    <t>AppDev@nodepool2:Managed</t>
+  </si>
+  <si>
+    <t>AppDev@nodepool1:Virtual</t>
   </si>
 </sst>
 </file>
@@ -13559,17 +13559,18 @@
     <xf numFmtId="0" fontId="40" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -13631,7 +13632,6 @@
     <xf numFmtId="0" fontId="35" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -19435,7 +19435,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
     </row>
   </sheetData>
@@ -19471,22 +19471,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="129" t="s">
-        <v>1407</v>
-      </c>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="133"/>
+      <c r="A1" s="132" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="132" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134"/>
     </row>
     <row r="2" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -19739,19 +19739,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>951</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="137" t="s">
-        <v>1202</v>
-      </c>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
+      <c r="A1" s="129" t="s">
+        <v>950</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="138" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -19767,7 +19767,7 @@
         <v>607</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>608</v>
@@ -19793,7 +19793,7 @@
         <v>726</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32" t="s">
@@ -19831,13 +19831,13 @@
         <v>726</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -19851,16 +19851,16 @@
         <v>350</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>1199</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>1203</v>
-      </c>
       <c r="E6" s="33" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -19922,10 +19922,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="40" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B1" s="136"/>
+      <c r="A1" s="129" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1" s="137"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -19995,16 +19995,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
     </row>
     <row r="2" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -20205,30 +20205,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="138" t="s">
-        <v>1191</v>
-      </c>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
+      <c r="A1" s="132" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="139" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
     </row>
     <row r="2" spans="1:20" s="40" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -20244,7 +20244,7 @@
         <v>311</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>11</v>
@@ -20407,7 +20407,7 @@
         <v>725</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>621</v>
@@ -20480,16 +20480,16 @@
         <v>350</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="E7" s="53" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F7" s="53" t="s">
         <v>1080</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>1084</v>
       </c>
       <c r="G7" s="53" t="s">
         <v>50</v>
@@ -20499,11 +20499,11 @@
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="K7" s="53"/>
       <c r="L7" s="54" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="M7" s="53" t="s">
         <v>21</v>
@@ -20534,16 +20534,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="53" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>1082</v>
       </c>
-      <c r="D8" s="53" t="s">
-        <v>1086</v>
-      </c>
       <c r="E8" s="53" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="G8" s="53" t="s">
         <v>50</v>
@@ -20553,7 +20553,7 @@
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="53" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
@@ -20984,18 +20984,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -21084,17 +21084,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -21185,25 +21185,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -21340,28 +21340,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
@@ -22340,17 +22340,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="175" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
+      <c r="A1" s="129" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -22360,22 +22360,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>1088</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>1089</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>1092</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>1093</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>421</v>
@@ -22402,19 +22402,19 @@
         <v>350</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>1094</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>1098</v>
       </c>
       <c r="H4" s="32">
         <v>3600</v>
@@ -22429,19 +22429,19 @@
         <v>350</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D5" s="32" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>1095</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>1099</v>
-      </c>
       <c r="F5" s="32" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="H5" s="32">
         <v>300</v>
@@ -22456,19 +22456,19 @@
         <v>350</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="H6" s="32">
         <v>300</v>
@@ -22738,13 +22738,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -23002,19 +23002,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="200" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="140" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
+      <c r="A1" s="141" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -23030,22 +23030,22 @@
         <v>311</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>1105</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>1106</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>1107</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>1110</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>1111</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>421</v>
@@ -23080,20 +23080,20 @@
         <v>725</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>738</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="29" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="K4" s="29"/>
     </row>
@@ -23111,16 +23111,16 @@
         <v>725</v>
       </c>
       <c r="E5" s="32" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>1112</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>1116</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>738</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
@@ -23189,15 +23189,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
     </row>
     <row r="2" spans="1:7" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -23375,32 +23375,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="129" t="s">
-        <v>1409</v>
-      </c>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="133"/>
+      <c r="A1" s="143" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="132" t="s">
+        <v>1398</v>
+      </c>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="134"/>
     </row>
     <row r="2" spans="1:22" s="40" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -23419,7 +23419,7 @@
         <v>85</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>91</v>
@@ -23434,19 +23434,19 @@
         <v>84</v>
       </c>
       <c r="K2" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="L2" s="26" t="s">
         <v>744</v>
       </c>
-      <c r="L2" s="26" t="s">
-        <v>745</v>
-      </c>
       <c r="M2" s="27" t="s">
+        <v>746</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>747</v>
       </c>
-      <c r="N2" s="27" t="s">
-        <v>748</v>
-      </c>
       <c r="O2" s="27" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="P2" s="26" t="s">
         <v>94</v>
@@ -23464,7 +23464,7 @@
         <v>97</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="V2" s="26" t="s">
         <v>421</v>
@@ -23481,19 +23481,19 @@
         <v>55</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>349</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1411</v>
+        <v>1400</v>
       </c>
       <c r="G3" s="33" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I3" s="33" t="s">
         <v>431</v>
@@ -23571,7 +23571,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="G5" s="53" t="b">
         <v>0</v>
@@ -23590,7 +23590,7 @@
       </c>
       <c r="N5" s="53"/>
       <c r="O5" s="53" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="P5" s="53" t="s">
         <v>102</v>
@@ -23604,7 +23604,7 @@
         <v>90</v>
       </c>
       <c r="U5" s="54" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="V5" s="53"/>
     </row>
@@ -23625,7 +23625,7 @@
         <v>349</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>1413</v>
+        <v>1402</v>
       </c>
       <c r="G6" s="53" t="b">
         <v>0</v>
@@ -23654,7 +23654,7 @@
       </c>
       <c r="T6" s="53"/>
       <c r="U6" s="54" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="V6" s="53"/>
     </row>
@@ -23675,7 +23675,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>1414</v>
+        <v>1403</v>
       </c>
       <c r="G7" s="53" t="b">
         <v>0</v>
@@ -23717,20 +23717,20 @@
         <v>55</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E8" s="53" t="s">
         <v>349</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>1415</v>
+        <v>1404</v>
       </c>
       <c r="G8" s="53" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="53"/>
       <c r="I8" s="53" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J8" s="96" t="s">
         <v>104</v>
@@ -23854,26 +23854,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="202" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="133"/>
+      <c r="A1" s="132" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
     </row>
     <row r="2" spans="1:18" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -23886,7 +23886,7 @@
         <v>105</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>106</v>
@@ -23901,25 +23901,25 @@
         <v>108</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>430</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>95</v>
@@ -23979,22 +23979,22 @@
         <v>109</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J4" s="120" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="K4" s="120" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="L4" s="120">
         <v>100</v>
       </c>
       <c r="M4" s="120" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="N4" s="120" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="O4" s="86" t="b">
         <v>1</v>
@@ -24113,32 +24113,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="190" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="145" t="s">
-        <v>1402</v>
-      </c>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="147"/>
+      <c r="A1" s="132" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="146" t="s">
+        <v>1391</v>
+      </c>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="148"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -24154,7 +24154,7 @@
         <v>110</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>111</v>
@@ -24169,13 +24169,13 @@
         <v>113</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="M2" s="27" t="s">
         <v>114</v>
@@ -24199,10 +24199,10 @@
         <v>120</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="V2" s="27" t="s">
         <v>421</v>
@@ -24250,7 +24250,7 @@
         <v>121</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="53" t="s">
@@ -24354,7 +24354,7 @@
         <v>121</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -24392,7 +24392,7 @@
         <v>129</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -24434,7 +24434,7 @@
         <v>132</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -24476,7 +24476,7 @@
         <v>134</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -24511,10 +24511,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1403</v>
+        <v>1392</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -24550,7 +24550,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53" t="s">
-        <v>1404</v>
+        <v>1393</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
@@ -24654,45 +24654,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="142" t="s">
-        <v>1443</v>
-      </c>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="143"/>
-      <c r="AB1" s="143"/>
-      <c r="AC1" s="143"/>
-      <c r="AD1" s="143"/>
-      <c r="AE1" s="143"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
+      <c r="A1" s="132" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="143" t="s">
+        <v>1432</v>
+      </c>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="144"/>
+      <c r="W1" s="144"/>
+      <c r="X1" s="144"/>
+      <c r="Y1" s="144"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="144"/>
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="144"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="144"/>
+      <c r="AG1" s="144"/>
+      <c r="AH1" s="144"/>
+      <c r="AI1" s="144"/>
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -24702,82 +24702,82 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>962</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>963</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>964</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>965</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
+        <v>1407</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>1408</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>966</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>1418</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>1419</v>
-      </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>967</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>968</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>969</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
+        <v>1447</v>
+      </c>
+      <c r="O2" s="27" t="s">
         <v>970</v>
       </c>
-      <c r="N2" s="27" t="s">
-        <v>1275</v>
-      </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>971</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>972</v>
       </c>
       <c r="Q2" s="27" t="s">
         <v>84</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="S2" s="27" t="s">
         <v>430</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="W2" s="27" t="s">
         <v>83</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="Y2" s="27" t="s">
+        <v>973</v>
+      </c>
+      <c r="Z2" s="27" t="s">
         <v>974</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="AA2" s="27" t="s">
+        <v>1434</v>
+      </c>
+      <c r="AB2" s="27" t="s">
         <v>975</v>
-      </c>
-      <c r="AA2" s="27" t="s">
-        <v>1445</v>
-      </c>
-      <c r="AB2" s="27" t="s">
-        <v>976</v>
       </c>
       <c r="AC2" s="27" t="s">
         <v>94</v>
@@ -24786,19 +24786,19 @@
         <v>421</v>
       </c>
       <c r="AE2" s="27" t="s">
+        <v>976</v>
+      </c>
+      <c r="AF2" s="27" t="s">
         <v>977</v>
       </c>
-      <c r="AF2" s="27" t="s">
-        <v>978</v>
-      </c>
       <c r="AG2" s="27" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="AH2" s="27" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="AI2" s="27" t="s">
-        <v>1287</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -24848,76 +24848,76 @@
         <v>552</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D4" s="97" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="E4" s="97" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="F4" s="97" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G4" s="97" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="97" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="I4" s="97" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="J4" s="54" t="b">
         <v>0</v>
       </c>
       <c r="K4" s="97" t="s">
+        <v>981</v>
+      </c>
+      <c r="L4" s="97" t="s">
         <v>982</v>
       </c>
-      <c r="L4" s="97" t="s">
-        <v>983</v>
-      </c>
       <c r="M4" s="97" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="N4" s="97" t="s">
-        <v>1281</v>
+        <v>1448</v>
       </c>
       <c r="O4" s="97" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="P4" s="97">
         <v>1</v>
       </c>
       <c r="Q4" s="97" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="R4" s="97">
         <v>32</v>
       </c>
       <c r="S4" s="97" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="T4" s="97">
         <v>32</v>
       </c>
       <c r="U4" s="97" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="V4" s="97" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="W4" s="97" t="s">
         <v>98</v>
       </c>
       <c r="X4" s="97" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="Y4" s="97"/>
       <c r="Z4" s="97"/>
       <c r="AA4" s="97"/>
       <c r="AB4" s="98" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AC4" s="97" t="s">
         <v>102</v>
@@ -24946,41 +24946,41 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
       <c r="N5" s="54" t="s">
-        <v>1283</v>
+        <v>1449</v>
       </c>
       <c r="O5" s="97" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="P5" s="54">
         <v>2</v>
       </c>
       <c r="Q5" s="54" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="R5" s="54">
         <v>16</v>
       </c>
       <c r="S5" s="54" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="T5" s="54">
         <v>32</v>
       </c>
       <c r="U5" s="54"/>
       <c r="V5" s="97" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="W5" s="54" t="s">
         <v>89</v>
       </c>
       <c r="X5" s="97" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="Y5" s="54"/>
       <c r="Z5" s="54"/>
       <c r="AA5" s="54"/>
       <c r="AB5" s="53" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AC5" s="54" t="s">
         <v>102</v>
@@ -25000,25 +25000,25 @@
         <v>552</v>
       </c>
       <c r="C6" s="54" t="s">
+        <v>988</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F6" s="54" t="s">
         <v>989</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>1280</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>990</v>
       </c>
       <c r="G6" s="54" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="I6" s="97" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="J6" s="54" t="b">
         <v>0</v>
@@ -25027,44 +25027,44 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
       <c r="N6" s="54" t="s">
-        <v>1286</v>
+        <v>1450</v>
       </c>
       <c r="O6" s="97" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="P6" s="54">
         <v>1</v>
       </c>
       <c r="Q6" s="54" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="R6" s="54">
         <v>32</v>
       </c>
       <c r="S6" s="54" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="T6" s="54">
         <v>32</v>
       </c>
       <c r="U6" s="97" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="V6" s="97" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="W6" s="54" t="s">
         <v>98</v>
       </c>
       <c r="X6" s="97" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="Y6" s="54">
         <v>2</v>
       </c>
       <c r="Z6" s="54"/>
       <c r="AA6" s="97" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="AB6" s="99"/>
       <c r="AC6" s="54" t="s">
@@ -25076,7 +25076,7 @@
       <c r="AG6" s="53"/>
       <c r="AH6" s="53"/>
       <c r="AI6" s="54" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
     </row>
   </sheetData>
@@ -25146,27 +25146,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -25188,7 +25188,7 @@
         <v>616</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>137</v>
@@ -25197,7 +25197,7 @@
         <v>96</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>138</v>
@@ -25266,7 +25266,7 @@
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
       <c r="G4" s="54" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="H4" s="53" t="b">
         <v>1</v>
@@ -25340,7 +25340,7 @@
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="54" t="s">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="H6" s="53" t="b">
         <v>0</v>
@@ -25448,30 +25448,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="133"/>
+      <c r="A1" s="132" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="134"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
@@ -25484,16 +25484,16 @@
         <v>136</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>154</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>743</v>
+        <v>1440</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>155</v>
@@ -25583,7 +25583,7 @@
         <v>165</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>991</v>
+        <v>1441</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>166</v>
@@ -25643,7 +25643,7 @@
         <v>171</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>992</v>
+        <v>1442</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>166</v>
@@ -25691,7 +25691,7 @@
         <v>174</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>993</v>
+        <v>1443</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>166</v>
@@ -25802,25 +25802,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -25845,10 +25845,10 @@
         <v>241</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>242</v>
@@ -26064,29 +26064,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="167" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="132" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="134" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="135" t="s">
         <v>438</v>
       </c>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="150"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -26787,38 +26787,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="40" customFormat="1" ht="166" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="132"/>
+      <c r="A1" s="129" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1450</v>
-      </c>
-      <c r="G2" s="156" t="s">
-        <v>1339</v>
+        <v>1439</v>
+      </c>
+      <c r="G2" s="128" t="s">
+        <v>1331</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>421</v>
@@ -27751,14 +27751,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="40" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="129" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="136"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -27906,12 +27906,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132"/>
+      <c r="A1" s="139" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
     </row>
     <row r="2" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -27921,10 +27921,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1427</v>
+        <v>1416</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
@@ -27943,10 +27943,10 @@
         <v>395</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1429</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -27957,10 +27957,10 @@
         <v>395</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>1430</v>
+        <v>1419</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1431</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
@@ -28002,22 +28002,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>776</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="133"/>
+      <c r="A1" s="132" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="134"/>
     </row>
     <row r="2" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -28027,13 +28027,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>96</v>
@@ -28045,7 +28045,7 @@
         <v>92</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>242</v>
@@ -28054,7 +28054,7 @@
         <v>154</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M2" s="27" t="s">
         <v>243</v>
@@ -28089,16 +28089,16 @@
         <v>350</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1432</v>
+        <v>1421</v>
       </c>
       <c r="E4" s="54" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="G4" s="54" t="b">
         <v>1</v>
@@ -28106,13 +28106,13 @@
       <c r="H4" s="54"/>
       <c r="I4" s="54"/>
       <c r="J4" s="54" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K4" s="54" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M4" s="54">
         <v>7003</v>
@@ -28127,10 +28127,10 @@
         <v>350</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1433</v>
+        <v>1422</v>
       </c>
       <c r="E5" s="54" t="b">
         <v>1</v>
@@ -28141,16 +28141,16 @@
       </c>
       <c r="H5" s="54"/>
       <c r="I5" s="54" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M5" s="54">
         <v>53</v>
@@ -28168,10 +28168,10 @@
       <c r="H6" s="54"/>
       <c r="I6" s="54"/>
       <c r="J6" s="54" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L6" s="54" t="s">
         <v>649</v>
@@ -28546,7 +28546,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28562,20 +28562,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>776</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
+      <c r="A1" s="132" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
     </row>
     <row r="2" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -28585,22 +28585,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>154</v>
       </c>
       <c r="E2" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>777</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>778</v>
-      </c>
       <c r="G2" s="27" t="s">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>1339</v>
+        <v>1331</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>157</v>
@@ -28612,7 +28612,7 @@
         <v>441</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>743</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -28639,13 +28639,13 @@
         <v>350</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F4" s="54" t="b">
         <v>0</v>
@@ -28658,13 +28658,13 @@
         <v>7003</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K4" s="54">
         <v>10000</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>1340</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -28675,19 +28675,19 @@
         <v>350</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F5" s="54" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H5" s="54"/>
       <c r="I5" s="54">
@@ -28698,7 +28698,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>1341</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -28706,19 +28706,19 @@
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
       <c r="D6" s="54" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F6" s="54" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="I6" s="54">
         <v>53</v>
@@ -28728,7 +28728,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>1344</v>
+        <v>1446</v>
       </c>
     </row>
   </sheetData>
@@ -28786,24 +28786,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
+      <c r="A1" s="132" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -28813,13 +28813,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="50" t="s">
+        <v>954</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>955</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>956</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>312</v>
@@ -28834,10 +28834,10 @@
         <v>681</v>
       </c>
       <c r="J2" s="16" t="s">
+        <v>956</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>957</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>958</v>
       </c>
       <c r="L2" s="50" t="s">
         <v>686</v>
@@ -28883,14 +28883,14 @@
         <v>554</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="E4" s="88"/>
       <c r="F4" s="87" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G4" s="53" t="s">
         <v>412</v>
@@ -29014,35 +29014,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="133"/>
+      <c r="A1" s="132" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="134"/>
     </row>
     <row r="2" spans="1:27" s="48" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
@@ -29055,7 +29055,7 @@
         <v>83</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>679</v>
@@ -29169,7 +29169,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="E4" s="91" t="s">
         <v>710</v>
@@ -29244,7 +29244,7 @@
         <v>89</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1437</v>
+        <v>1426</v>
       </c>
       <c r="E5" s="91" t="s">
         <v>712</v>
@@ -32410,16 +32410,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
+      <c r="A1" s="132" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
@@ -35329,29 +35329,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="143"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
+      <c r="A1" s="143" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
+      <c r="T1" s="144"/>
+      <c r="U1" s="144"/>
       <c r="V1" s="71"/>
       <c r="W1" s="71"/>
       <c r="X1" s="71"/>
@@ -35374,10 +35374,10 @@
         <v>703</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>1439</v>
+        <v>1428</v>
       </c>
       <c r="F2" s="65" t="s">
-        <v>1440</v>
+        <v>1429</v>
       </c>
       <c r="G2" s="65" t="s">
         <v>681</v>
@@ -35392,16 +35392,16 @@
         <v>704</v>
       </c>
       <c r="K2" s="65" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="L2" s="65" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="M2" s="65" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="N2" s="65" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="O2" s="65" t="s">
         <v>705</v>
@@ -35470,10 +35470,10 @@
         <v>722</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>1435</v>
+        <v>1424</v>
       </c>
       <c r="G4" s="53">
         <v>4</v>
@@ -35497,7 +35497,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="92" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="O4" s="92" t="b">
         <v>1</v>
@@ -39796,26 +39796,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="150" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="152"/>
+      <c r="A1" s="151" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="153"/>
       <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:19" s="48" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -39826,46 +39826,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="34" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F2" s="106" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H2" s="106" t="s">
         <v>1119</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E2" s="106" t="s">
+      <c r="I2" s="34" t="s">
         <v>1120</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="J2" s="34" t="s">
         <v>1121</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>1122</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="L2" s="127" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M2" s="127" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N2" s="34" t="s">
         <v>1123</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>1124</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>1125</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>1126</v>
-      </c>
-      <c r="L2" s="127" t="s">
-        <v>1215</v>
-      </c>
-      <c r="M2" s="127" t="s">
-        <v>1216</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>1127</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>1128</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>1129</v>
       </c>
       <c r="Q2" s="34" t="s">
         <v>94</v>
@@ -39882,49 +39882,49 @@
         <v>552</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1345</v>
+        <v>1334</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>1346</v>
+        <v>1335</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1348</v>
+        <v>1337</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>1349</v>
+        <v>1338</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>1351</v>
+        <v>1340</v>
       </c>
       <c r="K3" s="32">
         <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="M3" t="s">
-        <v>1353</v>
+        <v>1342</v>
       </c>
       <c r="N3" s="32">
         <v>3</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>1354</v>
+        <v>1343</v>
       </c>
       <c r="P3" s="32" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>1355</v>
+        <v>1344</v>
       </c>
       <c r="R3" s="28"/>
     </row>
@@ -39936,18 +39936,18 @@
         <v>552</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1357</v>
+        <v>1346</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32" t="s">
-        <v>1349</v>
+        <v>1338</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>55</v>
@@ -39964,7 +39964,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="P4" s="32" t="b">
         <v>0</v>
@@ -40069,65 +40069,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="142" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
+      <c r="A1" s="143" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
     </row>
     <row r="2" spans="1:15" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="C2" s="106" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>1130</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="I2" s="34" t="s">
         <v>1131</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>1132</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>1133</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>1134</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>1135</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>1136</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>1137</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>1138</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>1139</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>1140</v>
       </c>
       <c r="O2" s="48"/>
     </row>
@@ -40136,43 +40136,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>1345</v>
+        <v>1334</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>1360</v>
+        <v>1349</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1361</v>
+        <v>1350</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
       <c r="L3" s="32" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="O3" s="121"/>
     </row>
@@ -40181,41 +40181,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>1356</v>
+        <v>1345</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1359</v>
+        <v>1348</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
-        <v>1361</v>
+        <v>1350</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>1362</v>
+        <v>1351</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>1364</v>
+        <v>1353</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
       <c r="O4" s="121"/>
     </row>
@@ -40307,38 +40307,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="40" customFormat="1" ht="166" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="132"/>
+      <c r="A1" s="129" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131"/>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>1449</v>
+        <v>1438</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>1450</v>
-      </c>
-      <c r="G2" s="156" t="s">
-        <v>1339</v>
+        <v>1439</v>
+      </c>
+      <c r="G2" s="128" t="s">
+        <v>1331</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>421</v>
@@ -41286,26 +41286,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="292" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="153" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="155"/>
+      <c r="A1" s="154" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="156"/>
     </row>
     <row r="2" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -41315,49 +41315,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>1141</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>1142</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>1143</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>1144</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="K2" s="27" t="s">
         <v>1145</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>1146</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="M2" s="27" t="s">
         <v>1147</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="N2" s="27" t="s">
         <v>1148</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>1149</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="P2" s="27" t="s">
         <v>1150</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>1151</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>1152</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>1153</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>1154</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>1155</v>
       </c>
       <c r="R2" s="26" t="s">
         <v>421</v>
@@ -41376,43 +41376,43 @@
         <v>552</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>1156</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="I4" s="29" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>1157</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="K4" s="28" t="s">
         <v>1158</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G4" s="33" t="s">
+      <c r="L4" s="28" t="s">
         <v>1159</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>1208</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>1161</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>1162</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>1163</v>
       </c>
       <c r="M4" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="O4" s="28" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
@@ -41425,40 +41425,40 @@
         <v>552</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>1156</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>1159</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>1160</v>
-      </c>
       <c r="I5" s="29" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="M5" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
@@ -41472,22 +41472,22 @@
         <v>552</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="28"/>
@@ -41507,38 +41507,38 @@
         <v>552</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="M7" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
@@ -41660,71 +41660,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="138" t="s">
-        <v>1372</v>
-      </c>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="139" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C2" s="123" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>1373</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="M2" s="125" t="s">
         <v>1374</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="N2" s="16" t="s">
+        <v>1366</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>1375</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>1379</v>
-      </c>
-      <c r="H2" s="94" t="s">
-        <v>1380</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>1381</v>
-      </c>
-      <c r="J2" s="124" t="s">
-        <v>1382</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>1384</v>
-      </c>
-      <c r="M2" s="125" t="s">
-        <v>1385</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -41754,23 +41754,23 @@
         <v>557</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1387</v>
+        <v>1376</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
         <v>557</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>1391</v>
+        <v>1380</v>
       </c>
       <c r="J4" s="126">
         <v>256</v>
@@ -41791,19 +41791,19 @@
         <v>552</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>1392</v>
+        <v>1381</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
       <c r="J5" s="126">
         <v>384</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>1395</v>
+        <v>1384</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="126"/>
@@ -41818,10 +41818,10 @@
         <v>557</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1396</v>
+        <v>1385</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>1397</v>
+        <v>1386</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>5</v>
@@ -41830,13 +41830,13 @@
         <v>557</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>1391</v>
+        <v>1380</v>
       </c>
       <c r="J6" s="126">
         <v>128</v>
@@ -41861,13 +41861,13 @@
         <v>552</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>1392</v>
+        <v>1381</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>1393</v>
+        <v>1382</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>1398</v>
+        <v>1387</v>
       </c>
       <c r="J7" s="126">
         <v>3072</v>
@@ -41888,19 +41888,19 @@
         <v>554</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>1399</v>
+        <v>1388</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>1390</v>
+        <v>1379</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
       <c r="J8" s="126">
         <v>521</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>1400</v>
+        <v>1389</v>
       </c>
       <c r="L8" s="32" t="b">
         <v>1</v>
@@ -42981,7 +42981,7 @@
         <v>680</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M1" s="44"/>
     </row>
@@ -43080,7 +43080,7 @@
         <v>443</v>
       </c>
       <c r="L4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -43102,7 +43102,7 @@
         <v>444</v>
       </c>
       <c r="L5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -43217,7 +43217,7 @@
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="F12" s="33"/>
       <c r="H12" s="33" t="s">
@@ -43234,7 +43234,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="F13" s="33"/>
       <c r="H13" s="33" t="s">
@@ -43797,25 +43797,25 @@
         <v>620</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="I1" s="64" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="J1" s="64" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="K1" s="64" t="s">
         <v>622</v>
@@ -43914,22 +43914,22 @@
         <v>314</v>
       </c>
       <c r="AQ1" s="55" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AR1" s="55" t="s">
+        <v>990</v>
+      </c>
+      <c r="AS1" s="55" t="s">
         <v>994</v>
       </c>
-      <c r="AS1" s="55" t="s">
-        <v>998</v>
-      </c>
       <c r="AT1" s="55" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="AU1" s="55" t="s">
         <v>621</v>
       </c>
       <c r="AV1" s="55" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.2">
@@ -43975,7 +43975,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M2" s="58" t="s">
         <v>38</v>
@@ -43994,7 +43994,7 @@
         <v>23</v>
       </c>
       <c r="R2" s="58" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="S2" s="58" t="s">
         <v>573</v>
@@ -44071,13 +44071,13 @@
         <v>316</v>
       </c>
       <c r="AQ2" s="57" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AR2" s="57" t="b">
         <v>0</v>
       </c>
       <c r="AS2" s="57" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AT2" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="AT2:AT3" ca="1">_xlfn.UNIQUE(INDIRECT("B2:B"&amp;$G$5),FALSE,FALSE)</f>
@@ -44229,13 +44229,13 @@
         <v>317</v>
       </c>
       <c r="AQ3" s="57" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AR3" s="57" t="b">
         <v>1</v>
       </c>
       <c r="AS3" s="57" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="AT3" s="57" t="str">
         <f ca="1"/>
@@ -44359,7 +44359,7 @@
         <v>32</v>
       </c>
       <c r="AS4" s="57" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AU4" s="104" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -44401,7 +44401,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="58"/>
       <c r="L5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="M5" s="58"/>
       <c r="N5" s="58" t="s">
@@ -44493,7 +44493,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="58"/>
       <c r="L6" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="M6" s="58"/>
       <c r="N6" s="58"/>
@@ -44811,7 +44811,7 @@
       <c r="J10" s="33"/>
       <c r="K10" s="58"/>
       <c r="L10" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="M10" s="58"/>
       <c r="N10" s="58"/>
@@ -44890,7 +44890,7 @@
       <c r="J11" s="33"/>
       <c r="K11" s="58"/>
       <c r="L11" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M11" s="58"/>
       <c r="N11" s="58"/>
@@ -44969,7 +44969,7 @@
       <c r="J12" s="33"/>
       <c r="K12" s="58"/>
       <c r="L12" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="M12" s="58"/>
       <c r="N12" s="58"/>
@@ -45046,7 +45046,7 @@
       <c r="J13" s="33"/>
       <c r="K13" s="58"/>
       <c r="L13" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="M13" s="58"/>
       <c r="N13" s="58"/>
@@ -45123,7 +45123,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="58"/>
       <c r="L14" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="M14" s="58"/>
       <c r="N14" s="58"/>
@@ -45354,7 +45354,7 @@
       <c r="J17" s="33"/>
       <c r="K17" s="58"/>
       <c r="L17" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="M17" s="58"/>
       <c r="N17" s="58"/>
@@ -45431,7 +45431,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="58"/>
       <c r="L18" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M18" s="58"/>
       <c r="N18" s="58"/>
@@ -45508,7 +45508,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="58"/>
       <c r="L19" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="M19" s="58"/>
       <c r="N19" s="58"/>
@@ -45581,7 +45581,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="58"/>
       <c r="L20" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
@@ -45727,7 +45727,7 @@
       <c r="J22" s="33"/>
       <c r="K22" s="58"/>
       <c r="L22" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="M22" s="58"/>
       <c r="N22" s="58"/>
@@ -45800,7 +45800,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="58"/>
       <c r="L23" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="M23" s="58"/>
       <c r="N23" s="58"/>
@@ -45873,7 +45873,7 @@
       <c r="J24" s="33"/>
       <c r="K24" s="58"/>
       <c r="L24" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="M24" s="58"/>
       <c r="N24" s="58"/>
@@ -46019,7 +46019,7 @@
       <c r="J26" s="33"/>
       <c r="K26" s="58"/>
       <c r="L26" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="M26" s="58"/>
       <c r="N26" s="58"/>
@@ -46238,7 +46238,7 @@
       <c r="J29" s="33"/>
       <c r="K29" s="58"/>
       <c r="L29" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="M29" s="58"/>
       <c r="N29" s="58"/>
@@ -46384,7 +46384,7 @@
       <c r="J31" s="33"/>
       <c r="K31" s="58"/>
       <c r="L31" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="M31" s="58"/>
       <c r="N31" s="58"/>
@@ -46530,7 +46530,7 @@
       <c r="J33" s="33"/>
       <c r="K33" s="58"/>
       <c r="L33" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="M33" s="58"/>
       <c r="N33" s="58"/>
@@ -46603,7 +46603,7 @@
       <c r="J34" s="33"/>
       <c r="K34" s="58"/>
       <c r="L34" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="M34" s="58"/>
       <c r="N34" s="58"/>
@@ -46749,7 +46749,7 @@
       <c r="J36" s="33"/>
       <c r="K36" s="58"/>
       <c r="L36" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="M36" s="58"/>
       <c r="N36" s="58"/>
@@ -46895,7 +46895,7 @@
       <c r="J38" s="33"/>
       <c r="K38" s="58"/>
       <c r="L38" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="M38" s="58"/>
       <c r="N38" s="58"/>
@@ -46968,7 +46968,7 @@
       <c r="J39" s="33"/>
       <c r="K39" s="58"/>
       <c r="L39" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="M39" s="58"/>
       <c r="N39" s="58"/>
@@ -50425,10 +50425,10 @@
         <v>672</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -50928,14 +50928,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="40" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="132"/>
+      <c r="A1" s="129" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="131"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -50948,10 +50948,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>421</v>
@@ -51001,16 +51001,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="40" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
     </row>
     <row r="2" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -51052,7 +51052,7 @@
         <v>597</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -51064,7 +51064,7 @@
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
@@ -51084,7 +51084,7 @@
         <v>560</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
@@ -51096,7 +51096,7 @@
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
@@ -51108,7 +51108,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
@@ -51120,7 +51120,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
@@ -51132,7 +51132,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
@@ -51144,7 +51144,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -51156,7 +51156,7 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -51168,7 +51168,7 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -51180,7 +51180,7 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -51192,7 +51192,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -51204,7 +51204,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -51216,7 +51216,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -51228,7 +51228,7 @@
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -51240,7 +51240,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
@@ -51252,7 +51252,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
@@ -51264,7 +51264,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -51276,7 +51276,7 @@
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
@@ -51288,7 +51288,7 @@
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
@@ -51300,7 +51300,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
@@ -51312,7 +51312,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
@@ -51324,7 +51324,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
@@ -51336,7 +51336,7 @@
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
@@ -51348,7 +51348,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
@@ -51360,7 +51360,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
@@ -51372,7 +51372,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
@@ -51384,7 +51384,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
@@ -51396,7 +51396,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
@@ -51408,7 +51408,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
@@ -51420,7 +51420,7 @@
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
@@ -51432,7 +51432,7 @@
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -51444,7 +51444,7 @@
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
@@ -51456,7 +51456,7 @@
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
@@ -51468,7 +51468,7 @@
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
@@ -51480,7 +51480,7 @@
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -51492,7 +51492,7 @@
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
@@ -51504,7 +51504,7 @@
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -51516,7 +51516,7 @@
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -51528,7 +51528,7 @@
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -51540,7 +51540,7 @@
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -51552,7 +51552,7 @@
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
@@ -51564,7 +51564,7 @@
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
@@ -51576,7 +51576,7 @@
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
@@ -51596,7 +51596,7 @@
         <v>562</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
@@ -51608,7 +51608,7 @@
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
@@ -51620,7 +51620,7 @@
       <c r="C49" s="32"/>
       <c r="D49" s="32"/>
       <c r="E49" s="32" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
@@ -51632,7 +51632,7 @@
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
@@ -51644,7 +51644,7 @@
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
@@ -51656,7 +51656,7 @@
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
@@ -51668,7 +51668,7 @@
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
@@ -51680,7 +51680,7 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
@@ -51692,7 +51692,7 @@
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
@@ -51704,7 +51704,7 @@
       <c r="C56" s="32"/>
       <c r="D56" s="32"/>
       <c r="E56" s="32" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
@@ -51716,7 +51716,7 @@
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
       <c r="E57" s="32" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
@@ -51728,7 +51728,7 @@
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
       <c r="E58" s="32" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
@@ -51740,7 +51740,7 @@
       <c r="C59" s="32"/>
       <c r="D59" s="32"/>
       <c r="E59" s="32" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
@@ -51752,7 +51752,7 @@
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
       <c r="E60" s="32" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
@@ -51764,7 +51764,7 @@
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
       <c r="E61" s="32" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
@@ -51776,7 +51776,7 @@
       <c r="C62" s="32"/>
       <c r="D62" s="32"/>
       <c r="E62" s="32" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
@@ -51788,7 +51788,7 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
@@ -51799,16 +51799,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C64" s="32" t="s">
         <v>397</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="F64" s="32"/>
       <c r="G64" s="32"/>
@@ -51820,7 +51820,7 @@
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
       <c r="E65" s="32" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
@@ -51832,7 +51832,7 @@
       <c r="C66" s="32"/>
       <c r="D66" s="32"/>
       <c r="E66" s="32" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
@@ -51844,7 +51844,7 @@
       <c r="C67" s="32"/>
       <c r="D67" s="32"/>
       <c r="E67" s="32" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
@@ -51861,10 +51861,10 @@
         <v>397</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
@@ -51876,7 +51876,7 @@
       <c r="C69" s="32"/>
       <c r="D69" s="32"/>
       <c r="E69" s="32" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
@@ -51888,7 +51888,7 @@
       <c r="C70" s="32"/>
       <c r="D70" s="32"/>
       <c r="E70" s="32" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
@@ -51900,7 +51900,7 @@
       <c r="C71" s="32"/>
       <c r="D71" s="32"/>
       <c r="E71" s="32" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
@@ -51911,16 +51911,16 @@
         <v>5</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C72" s="32" t="s">
         <v>397</v>
       </c>
       <c r="D72" s="32" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
@@ -51932,7 +51932,7 @@
       <c r="C73" s="32"/>
       <c r="D73" s="32"/>
       <c r="E73" s="32" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
@@ -51944,7 +51944,7 @@
       <c r="C74" s="32"/>
       <c r="D74" s="32"/>
       <c r="E74" s="32" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
@@ -51956,7 +51956,7 @@
       <c r="C75" s="32"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
@@ -51968,7 +51968,7 @@
       <c r="C76" s="32"/>
       <c r="D76" s="32"/>
       <c r="E76" s="32" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
@@ -51980,7 +51980,7 @@
       <c r="C77" s="32"/>
       <c r="D77" s="32"/>
       <c r="E77" s="32" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="F77" s="32"/>
       <c r="G77" s="32"/>
@@ -51992,7 +51992,7 @@
       <c r="C78" s="32"/>
       <c r="D78" s="32"/>
       <c r="E78" s="32" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
@@ -52004,7 +52004,7 @@
       <c r="C79" s="32"/>
       <c r="D79" s="32"/>
       <c r="E79" s="32" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="32"/>
@@ -52016,7 +52016,7 @@
       <c r="C80" s="32"/>
       <c r="D80" s="32"/>
       <c r="E80" s="32" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="F80" s="105"/>
       <c r="G80" s="32"/>
@@ -52033,10 +52033,10 @@
         <v>397</v>
       </c>
       <c r="D81" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="E81" s="32" t="s">
         <v>818</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>819</v>
       </c>
       <c r="F81" s="32"/>
       <c r="G81" s="32"/>
@@ -52048,7 +52048,7 @@
       <c r="C82" s="32"/>
       <c r="D82" s="32"/>
       <c r="E82" s="32" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F82" s="32"/>
       <c r="G82" s="32"/>
@@ -52060,7 +52060,7 @@
       <c r="C83" s="32"/>
       <c r="D83" s="32"/>
       <c r="E83" s="32" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="32"/>
@@ -52072,7 +52072,7 @@
       <c r="C84" s="32"/>
       <c r="D84" s="32"/>
       <c r="E84" s="29" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
@@ -52084,7 +52084,7 @@
       <c r="C85" s="32"/>
       <c r="D85" s="32"/>
       <c r="E85" s="29" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="32"/>
@@ -52096,7 +52096,7 @@
       <c r="C86" s="32"/>
       <c r="D86" s="32"/>
       <c r="E86" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
@@ -52108,7 +52108,7 @@
       <c r="C87" s="32"/>
       <c r="D87" s="32"/>
       <c r="E87" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F87" s="32"/>
       <c r="G87" s="32"/>
@@ -52120,7 +52120,7 @@
       <c r="C88" s="32"/>
       <c r="D88" s="32"/>
       <c r="E88" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F88" s="32"/>
       <c r="G88" s="32"/>
@@ -52132,7 +52132,7 @@
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
       <c r="E89" s="29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F89" s="32"/>
       <c r="G89" s="32"/>
@@ -52144,7 +52144,7 @@
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
       <c r="E90" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F90" s="32"/>
       <c r="G90" s="32"/>
@@ -52156,7 +52156,7 @@
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
       <c r="E91" s="29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F91" s="32"/>
       <c r="G91" s="32"/>
@@ -52168,7 +52168,7 @@
       <c r="C92" s="32"/>
       <c r="D92" s="32"/>
       <c r="E92" s="29" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F92" s="32"/>
       <c r="G92" s="32"/>
@@ -52180,7 +52180,7 @@
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
       <c r="E93" s="29" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F93" s="32"/>
       <c r="G93" s="32"/>
@@ -52192,7 +52192,7 @@
       <c r="C94" s="32"/>
       <c r="D94" s="32"/>
       <c r="E94" s="29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="32"/>
@@ -52204,7 +52204,7 @@
       <c r="C95" s="32"/>
       <c r="D95" s="32"/>
       <c r="E95" s="29" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F95" s="32"/>
       <c r="G95" s="32"/>
@@ -52216,7 +52216,7 @@
       <c r="C96" s="32"/>
       <c r="D96" s="32"/>
       <c r="E96" s="29" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F96" s="32"/>
       <c r="G96" s="32"/>
@@ -52228,7 +52228,7 @@
       <c r="C97" s="32"/>
       <c r="D97" s="32"/>
       <c r="E97" s="29" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F97" s="32"/>
       <c r="G97" s="32"/>
@@ -52240,7 +52240,7 @@
       <c r="C98" s="32"/>
       <c r="D98" s="32"/>
       <c r="E98" s="29" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
@@ -52252,7 +52252,7 @@
       <c r="C99" s="32"/>
       <c r="D99" s="32"/>
       <c r="E99" s="29" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F99" s="32"/>
       <c r="G99" s="32"/>
@@ -52264,7 +52264,7 @@
       <c r="C100" s="32"/>
       <c r="D100" s="32"/>
       <c r="E100" s="29" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="32"/>
@@ -52276,7 +52276,7 @@
       <c r="C101" s="32"/>
       <c r="D101" s="32"/>
       <c r="E101" s="29" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F101" s="32"/>
       <c r="G101" s="32"/>
@@ -52288,7 +52288,7 @@
       <c r="C102" s="32"/>
       <c r="D102" s="32"/>
       <c r="E102" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="32"/>
@@ -52300,7 +52300,7 @@
       <c r="C103" s="32"/>
       <c r="D103" s="32"/>
       <c r="E103" s="29" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="F103" s="32"/>
       <c r="G103" s="32"/>
@@ -52312,7 +52312,7 @@
       <c r="C104" s="32"/>
       <c r="D104" s="32"/>
       <c r="E104" s="29" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="32"/>
@@ -52324,7 +52324,7 @@
       <c r="C105" s="32"/>
       <c r="D105" s="32"/>
       <c r="E105" s="29" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="F105" s="32"/>
       <c r="G105" s="32"/>
@@ -52336,7 +52336,7 @@
       <c r="C106" s="32"/>
       <c r="D106" s="32"/>
       <c r="E106" s="29" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
@@ -52348,7 +52348,7 @@
       <c r="C107" s="32"/>
       <c r="D107" s="32"/>
       <c r="E107" s="29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
@@ -52360,7 +52360,7 @@
       <c r="C108" s="32"/>
       <c r="D108" s="32"/>
       <c r="E108" s="29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
@@ -52372,7 +52372,7 @@
       <c r="C109" s="32"/>
       <c r="D109" s="32"/>
       <c r="E109" s="29" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="32"/>
@@ -52384,7 +52384,7 @@
       <c r="C110" s="32"/>
       <c r="D110" s="32"/>
       <c r="E110" s="29" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F110" s="32"/>
       <c r="G110" s="32"/>
@@ -52396,7 +52396,7 @@
       <c r="C111" s="32"/>
       <c r="D111" s="32"/>
       <c r="E111" s="29" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F111" s="32"/>
       <c r="G111" s="32"/>
@@ -52408,7 +52408,7 @@
       <c r="C112" s="32"/>
       <c r="D112" s="32"/>
       <c r="E112" s="29" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="32"/>
@@ -52420,7 +52420,7 @@
       <c r="C113" s="32"/>
       <c r="D113" s="32"/>
       <c r="E113" s="29" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="F113" s="32"/>
       <c r="G113" s="32"/>
@@ -52432,7 +52432,7 @@
       <c r="C114" s="32"/>
       <c r="D114" s="32"/>
       <c r="E114" s="29" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="32"/>
@@ -52444,7 +52444,7 @@
       <c r="C115" s="32"/>
       <c r="D115" s="32"/>
       <c r="E115" s="29" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F115" s="32"/>
       <c r="G115" s="32"/>
@@ -52456,7 +52456,7 @@
       <c r="C116" s="32"/>
       <c r="D116" s="32"/>
       <c r="E116" s="29" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F116" s="32"/>
       <c r="G116" s="32"/>
@@ -52468,7 +52468,7 @@
       <c r="C117" s="32"/>
       <c r="D117" s="32"/>
       <c r="E117" s="32" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="F117" s="32"/>
       <c r="G117" s="32"/>
@@ -52480,7 +52480,7 @@
       <c r="C118" s="32"/>
       <c r="D118" s="32"/>
       <c r="E118" s="32" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="F118" s="32"/>
       <c r="G118" s="32"/>
@@ -52492,7 +52492,7 @@
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
       <c r="E119" s="32" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="F119" s="32"/>
       <c r="G119" s="32"/>
@@ -52504,7 +52504,7 @@
       <c r="C120" s="32"/>
       <c r="D120" s="32"/>
       <c r="E120" s="32" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="F120" s="32"/>
       <c r="G120" s="32"/>
@@ -52516,7 +52516,7 @@
       <c r="C121" s="32"/>
       <c r="D121" s="32"/>
       <c r="E121" s="29" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F121" s="32"/>
       <c r="G121" s="32"/>
@@ -52536,7 +52536,7 @@
         <v>565</v>
       </c>
       <c r="E122" s="76" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F122" s="32"/>
       <c r="G122" s="32"/>
@@ -52548,7 +52548,7 @@
       <c r="C123" s="32"/>
       <c r="D123" s="32"/>
       <c r="E123" s="76" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F123" s="32"/>
       <c r="G123" s="32"/>
@@ -52560,7 +52560,7 @@
       <c r="C124" s="32"/>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="32"/>
@@ -52572,7 +52572,7 @@
       <c r="C125" s="32"/>
       <c r="D125" s="32"/>
       <c r="E125" s="32" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="F125" s="32"/>
       <c r="G125" s="32"/>
@@ -52584,7 +52584,7 @@
       <c r="C126" s="32"/>
       <c r="D126" s="32"/>
       <c r="E126" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F126" s="32"/>
       <c r="G126" s="32"/>
@@ -52596,7 +52596,7 @@
       <c r="C127" s="32"/>
       <c r="D127" s="32"/>
       <c r="E127" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F127" s="32"/>
       <c r="G127" s="32"/>
@@ -52608,7 +52608,7 @@
       <c r="C128" s="32"/>
       <c r="D128" s="32"/>
       <c r="E128" s="32" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F128" s="32"/>
       <c r="G128" s="32"/>
@@ -52620,7 +52620,7 @@
       <c r="C129" s="32"/>
       <c r="D129" s="32"/>
       <c r="E129" s="32" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F129" s="32"/>
       <c r="G129" s="32"/>
@@ -52632,7 +52632,7 @@
       <c r="C130" s="32"/>
       <c r="D130" s="32"/>
       <c r="E130" s="32" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="F130" s="32"/>
       <c r="G130" s="32"/>
@@ -52644,7 +52644,7 @@
       <c r="C131" s="32"/>
       <c r="D131" s="32"/>
       <c r="E131" s="32" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F131" s="32"/>
       <c r="G131" s="32"/>
@@ -52656,7 +52656,7 @@
       <c r="C132" s="32"/>
       <c r="D132" s="32"/>
       <c r="E132" s="32" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F132" s="32"/>
       <c r="G132" s="32"/>
@@ -52668,7 +52668,7 @@
       <c r="C133" s="32"/>
       <c r="D133" s="32"/>
       <c r="E133" s="32" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F133" s="32"/>
       <c r="G133" s="32"/>
@@ -52680,7 +52680,7 @@
       <c r="C134" s="32"/>
       <c r="D134" s="32"/>
       <c r="E134" s="32" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="32"/>
@@ -52692,7 +52692,7 @@
       <c r="C135" s="32"/>
       <c r="D135" s="32"/>
       <c r="E135" s="32" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F135" s="32"/>
       <c r="G135" s="32"/>
@@ -52704,7 +52704,7 @@
       <c r="C136" s="32"/>
       <c r="D136" s="32"/>
       <c r="E136" s="32" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F136" s="32"/>
       <c r="G136" s="32"/>
@@ -52716,7 +52716,7 @@
       <c r="C137" s="32"/>
       <c r="D137" s="32"/>
       <c r="E137" s="32" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F137" s="32"/>
       <c r="G137" s="32"/>
@@ -52728,7 +52728,7 @@
       <c r="C138" s="32"/>
       <c r="D138" s="32"/>
       <c r="E138" s="32" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F138" s="32"/>
       <c r="G138" s="32"/>
@@ -52740,7 +52740,7 @@
       <c r="C139" s="32"/>
       <c r="D139" s="32"/>
       <c r="E139" s="32" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F139" s="32"/>
       <c r="G139" s="32"/>
@@ -52752,7 +52752,7 @@
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
       <c r="E140" s="32" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F140" s="32"/>
       <c r="G140" s="32"/>
@@ -52764,7 +52764,7 @@
       <c r="C141" s="32"/>
       <c r="D141" s="32"/>
       <c r="E141" s="32" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F141" s="32"/>
       <c r="G141" s="32"/>
@@ -52784,7 +52784,7 @@
         <v>567</v>
       </c>
       <c r="E142" s="32" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F142" s="32"/>
       <c r="G142" s="32"/>
@@ -52796,7 +52796,7 @@
       <c r="C143" s="32"/>
       <c r="D143" s="32"/>
       <c r="E143" s="32" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F143" s="32"/>
       <c r="G143" s="32"/>
@@ -52808,7 +52808,7 @@
       <c r="C144" s="32"/>
       <c r="D144" s="32"/>
       <c r="E144" s="32" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="32"/>
@@ -52820,7 +52820,7 @@
       <c r="C145" s="32"/>
       <c r="D145" s="32"/>
       <c r="E145" s="32" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F145" s="32"/>
       <c r="G145" s="32"/>
@@ -52832,7 +52832,7 @@
       <c r="C146" s="32"/>
       <c r="D146" s="32"/>
       <c r="E146" s="32" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F146" s="32"/>
       <c r="G146" s="32"/>
@@ -52844,7 +52844,7 @@
       <c r="C147" s="32"/>
       <c r="D147" s="32"/>
       <c r="E147" s="32" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F147" s="32"/>
       <c r="G147" s="32"/>
@@ -52856,7 +52856,7 @@
       <c r="C148" s="32"/>
       <c r="D148" s="32"/>
       <c r="E148" s="32" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F148" s="32"/>
       <c r="G148" s="32"/>
@@ -52868,7 +52868,7 @@
       <c r="C149" s="32"/>
       <c r="D149" s="32"/>
       <c r="E149" s="32" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F149" s="32"/>
       <c r="G149" s="32"/>
@@ -52880,7 +52880,7 @@
       <c r="C150" s="32"/>
       <c r="D150" s="32"/>
       <c r="E150" s="32" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F150" s="32"/>
       <c r="G150" s="32"/>
@@ -52892,7 +52892,7 @@
       <c r="C151" s="32"/>
       <c r="D151" s="32"/>
       <c r="E151" s="32" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F151" s="32"/>
       <c r="G151" s="32"/>
@@ -52904,7 +52904,7 @@
       <c r="C152" s="32"/>
       <c r="D152" s="32"/>
       <c r="E152" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F152" s="32"/>
       <c r="G152" s="32"/>
@@ -52916,7 +52916,7 @@
       <c r="C153" s="32"/>
       <c r="D153" s="32"/>
       <c r="E153" s="32" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F153" s="32"/>
       <c r="G153" s="32"/>
@@ -52928,7 +52928,7 @@
       <c r="C154" s="32"/>
       <c r="D154" s="32"/>
       <c r="E154" s="32" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="32"/>
@@ -52940,7 +52940,7 @@
       <c r="C155" s="32"/>
       <c r="D155" s="32"/>
       <c r="E155" s="32" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F155" s="32"/>
       <c r="G155" s="32"/>
@@ -52952,7 +52952,7 @@
       <c r="C156" s="32"/>
       <c r="D156" s="32"/>
       <c r="E156" s="32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F156" s="32"/>
       <c r="G156" s="32"/>
@@ -52964,7 +52964,7 @@
       <c r="C157" s="32"/>
       <c r="D157" s="32"/>
       <c r="E157" s="32" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F157" s="32"/>
       <c r="G157" s="32"/>
@@ -52976,7 +52976,7 @@
       <c r="C158" s="32"/>
       <c r="D158" s="32"/>
       <c r="E158" s="32" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F158" s="32"/>
       <c r="G158" s="32"/>
@@ -52988,7 +52988,7 @@
       <c r="C159" s="32"/>
       <c r="D159" s="32"/>
       <c r="E159" s="32" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F159" s="32"/>
       <c r="G159" s="32"/>
@@ -53000,7 +53000,7 @@
       <c r="C160" s="32"/>
       <c r="D160" s="32"/>
       <c r="E160" s="32" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F160" s="32"/>
       <c r="G160" s="32"/>
@@ -53012,7 +53012,7 @@
       <c r="C161" s="32"/>
       <c r="D161" s="32"/>
       <c r="E161" s="32" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F161" s="32"/>
       <c r="G161" s="32"/>
@@ -53024,7 +53024,7 @@
       <c r="C162" s="32"/>
       <c r="D162" s="32"/>
       <c r="E162" s="32" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F162" s="32"/>
       <c r="G162" s="32"/>
@@ -53036,7 +53036,7 @@
       <c r="C163" s="32"/>
       <c r="D163" s="32"/>
       <c r="E163" s="32" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="F163" s="32"/>
       <c r="G163" s="32"/>
@@ -53048,7 +53048,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
       <c r="E164" s="32" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="32"/>
@@ -53060,7 +53060,7 @@
       <c r="C165" s="32"/>
       <c r="D165" s="32"/>
       <c r="E165" s="32" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F165" s="32"/>
       <c r="G165" s="32"/>
@@ -53072,7 +53072,7 @@
       <c r="C166" s="32"/>
       <c r="D166" s="32"/>
       <c r="E166" s="32" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="32"/>
@@ -53084,7 +53084,7 @@
       <c r="C167" s="32"/>
       <c r="D167" s="32"/>
       <c r="E167" s="32" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F167" s="32"/>
       <c r="G167" s="32"/>
@@ -53096,7 +53096,7 @@
       <c r="C168" s="32"/>
       <c r="D168" s="32"/>
       <c r="E168" s="32" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F168" s="32"/>
       <c r="G168" s="32"/>
@@ -53108,7 +53108,7 @@
       <c r="C169" s="32"/>
       <c r="D169" s="32"/>
       <c r="E169" s="32" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="F169" s="32"/>
       <c r="G169" s="32"/>
@@ -53120,7 +53120,7 @@
       <c r="C170" s="32"/>
       <c r="D170" s="32"/>
       <c r="E170" s="32" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="F170" s="32"/>
       <c r="G170" s="32"/>
@@ -53140,7 +53140,7 @@
         <v>708</v>
       </c>
       <c r="E171" s="100" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F171" s="32"/>
       <c r="G171" s="32"/>
@@ -53152,7 +53152,7 @@
       <c r="C172" s="32"/>
       <c r="D172" s="32"/>
       <c r="E172" s="32" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F172" s="32"/>
       <c r="G172" s="32"/>
@@ -53164,7 +53164,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
       <c r="E173" s="32" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="F173" s="32"/>
       <c r="G173" s="32"/>
@@ -53176,7 +53176,7 @@
       <c r="C174" s="32"/>
       <c r="D174" s="32"/>
       <c r="E174" s="32" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="32"/>
@@ -53196,7 +53196,7 @@
         <v>569</v>
       </c>
       <c r="E175" s="32" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="F175" s="32"/>
       <c r="G175" s="32"/>
@@ -53208,7 +53208,7 @@
       <c r="C176" s="32"/>
       <c r="D176" s="32"/>
       <c r="E176" s="32" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="F176" s="32"/>
       <c r="G176" s="32"/>
@@ -53220,7 +53220,7 @@
       <c r="C177" s="32"/>
       <c r="D177" s="32"/>
       <c r="E177" s="32" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="F177" s="32"/>
       <c r="G177" s="32"/>
@@ -53232,7 +53232,7 @@
       <c r="C178" s="32"/>
       <c r="D178" s="32"/>
       <c r="E178" s="32" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F178" s="32"/>
       <c r="G178" s="32"/>
@@ -53244,7 +53244,7 @@
       <c r="C179" s="32"/>
       <c r="D179" s="32"/>
       <c r="E179" s="32" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="F179" s="32"/>
       <c r="G179" s="32"/>
@@ -53256,7 +53256,7 @@
       <c r="C180" s="32"/>
       <c r="D180" s="32"/>
       <c r="E180" s="32" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="F180" s="32"/>
       <c r="G180" s="32"/>
@@ -53268,7 +53268,7 @@
       <c r="C181" s="32"/>
       <c r="D181" s="32"/>
       <c r="E181" s="32" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="F181" s="32"/>
       <c r="G181" s="32"/>
@@ -53280,7 +53280,7 @@
       <c r="C182" s="32"/>
       <c r="D182" s="32"/>
       <c r="E182" s="32" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F182" s="32"/>
       <c r="G182" s="32"/>
@@ -53292,7 +53292,7 @@
       <c r="C183" s="32"/>
       <c r="D183" s="32"/>
       <c r="E183" s="32" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F183" s="32"/>
       <c r="G183" s="32"/>
@@ -53304,7 +53304,7 @@
       <c r="C184" s="32"/>
       <c r="D184" s="32"/>
       <c r="E184" s="32" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F184" s="32"/>
       <c r="G184" s="32"/>
@@ -53316,7 +53316,7 @@
       <c r="C185" s="32"/>
       <c r="D185" s="32"/>
       <c r="E185" s="32" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F185" s="32"/>
       <c r="G185" s="32"/>
@@ -53328,7 +53328,7 @@
       <c r="C186" s="32"/>
       <c r="D186" s="32"/>
       <c r="E186" s="32" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F186" s="32"/>
       <c r="G186" s="32"/>
@@ -53340,7 +53340,7 @@
       <c r="C187" s="32"/>
       <c r="D187" s="32"/>
       <c r="E187" s="32" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F187" s="32"/>
       <c r="G187" s="32"/>
@@ -53352,7 +53352,7 @@
       <c r="C188" s="32"/>
       <c r="D188" s="32"/>
       <c r="E188" s="32" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F188" s="32"/>
       <c r="G188" s="32"/>
@@ -53364,7 +53364,7 @@
       <c r="C189" s="32"/>
       <c r="D189" s="32"/>
       <c r="E189" s="32" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F189" s="32"/>
       <c r="G189" s="32"/>
@@ -53376,7 +53376,7 @@
       <c r="C190" s="32"/>
       <c r="D190" s="32"/>
       <c r="E190" s="32" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F190" s="32"/>
       <c r="G190" s="32"/>
@@ -53388,7 +53388,7 @@
       <c r="C191" s="32"/>
       <c r="D191" s="32"/>
       <c r="E191" s="32" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F191" s="32"/>
       <c r="G191" s="32"/>
@@ -53400,7 +53400,7 @@
       <c r="C192" s="32"/>
       <c r="D192" s="32"/>
       <c r="E192" s="32" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F192" s="32"/>
       <c r="G192" s="32"/>
@@ -53412,7 +53412,7 @@
       <c r="C193" s="32"/>
       <c r="D193" s="32"/>
       <c r="E193" s="32" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F193" s="32"/>
       <c r="G193" s="32"/>
@@ -53424,7 +53424,7 @@
       <c r="C194" s="32"/>
       <c r="D194" s="32"/>
       <c r="E194" s="32" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F194" s="32"/>
       <c r="G194" s="32"/>
@@ -53436,7 +53436,7 @@
       <c r="C195" s="32"/>
       <c r="D195" s="32"/>
       <c r="E195" s="32" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F195" s="32"/>
       <c r="G195" s="32"/>
@@ -53448,7 +53448,7 @@
       <c r="C196" s="32"/>
       <c r="D196" s="32"/>
       <c r="E196" s="32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F196" s="32"/>
       <c r="G196" s="32"/>
@@ -53460,7 +53460,7 @@
       <c r="C197" s="32"/>
       <c r="D197" s="32"/>
       <c r="E197" s="32" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F197" s="32"/>
       <c r="G197" s="32"/>
@@ -53472,7 +53472,7 @@
       <c r="C198" s="32"/>
       <c r="D198" s="32"/>
       <c r="E198" s="32" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F198" s="32"/>
       <c r="G198" s="32"/>
@@ -53484,7 +53484,7 @@
       <c r="C199" s="32"/>
       <c r="D199" s="32"/>
       <c r="E199" s="32" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F199" s="32"/>
       <c r="G199" s="32"/>
@@ -53496,7 +53496,7 @@
       <c r="C200" s="32"/>
       <c r="D200" s="32"/>
       <c r="E200" s="32" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F200" s="32"/>
       <c r="G200" s="32"/>
@@ -53508,7 +53508,7 @@
       <c r="C201" s="32"/>
       <c r="D201" s="32"/>
       <c r="E201" s="32" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="F201" s="32"/>
       <c r="G201" s="32"/>
@@ -53520,7 +53520,7 @@
       <c r="C202" s="32"/>
       <c r="D202" s="32"/>
       <c r="E202" s="32" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F202" s="32"/>
       <c r="G202" s="32"/>
@@ -53532,7 +53532,7 @@
       <c r="C203" s="32"/>
       <c r="D203" s="32"/>
       <c r="E203" s="32" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F203" s="32"/>
       <c r="G203" s="32"/>
@@ -53544,7 +53544,7 @@
       <c r="C204" s="32"/>
       <c r="D204" s="32"/>
       <c r="E204" s="32" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F204" s="32"/>
       <c r="G204" s="32"/>
@@ -53556,7 +53556,7 @@
       <c r="C205" s="32"/>
       <c r="D205" s="32"/>
       <c r="E205" s="32" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F205" s="32"/>
       <c r="G205" s="32"/>
@@ -53568,7 +53568,7 @@
       <c r="C206" s="32"/>
       <c r="D206" s="32"/>
       <c r="E206" s="32" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F206" s="32"/>
       <c r="G206" s="32"/>
@@ -53580,7 +53580,7 @@
       <c r="C207" s="32"/>
       <c r="D207" s="32"/>
       <c r="E207" s="32" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="F207" s="32"/>
       <c r="G207" s="32"/>
@@ -53592,7 +53592,7 @@
       <c r="C208" s="32"/>
       <c r="D208" s="32"/>
       <c r="E208" s="32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F208" s="32"/>
       <c r="G208" s="32"/>
@@ -53604,7 +53604,7 @@
       <c r="C209" s="32"/>
       <c r="D209" s="32"/>
       <c r="E209" s="32" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F209" s="32"/>
       <c r="G209" s="32"/>
@@ -53616,7 +53616,7 @@
       <c r="C210" s="32"/>
       <c r="D210" s="32"/>
       <c r="E210" s="32" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F210" s="32"/>
       <c r="G210" s="32"/>
@@ -53628,7 +53628,7 @@
       <c r="C211" s="32"/>
       <c r="D211" s="32"/>
       <c r="E211" s="32" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F211" s="32"/>
       <c r="G211" s="32"/>
@@ -53640,7 +53640,7 @@
       <c r="C212" s="32"/>
       <c r="D212" s="32"/>
       <c r="E212" s="32" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="F212" s="32"/>
       <c r="G212" s="32"/>
@@ -53652,7 +53652,7 @@
       <c r="C213" s="32"/>
       <c r="D213" s="32"/>
       <c r="E213" s="32" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="F213" s="32"/>
       <c r="G213" s="32"/>
@@ -53664,7 +53664,7 @@
       <c r="C214" s="32"/>
       <c r="D214" s="32"/>
       <c r="E214" s="32" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="F214" s="32"/>
       <c r="G214" s="32"/>
@@ -53676,7 +53676,7 @@
       <c r="C215" s="32"/>
       <c r="D215" s="32"/>
       <c r="E215" s="32" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="F215" s="32"/>
       <c r="G215" s="32"/>
@@ -53688,7 +53688,7 @@
       <c r="C216" s="32"/>
       <c r="D216" s="32"/>
       <c r="E216" s="32" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F216" s="32"/>
       <c r="G216" s="32"/>
@@ -53700,7 +53700,7 @@
       <c r="C217" s="32"/>
       <c r="D217" s="32"/>
       <c r="E217" s="32" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="F217" s="32"/>
       <c r="G217" s="32"/>
@@ -53712,7 +53712,7 @@
       <c r="C218" s="32"/>
       <c r="D218" s="32"/>
       <c r="E218" s="32" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="F218" s="32"/>
       <c r="G218" s="32"/>
@@ -53724,7 +53724,7 @@
       <c r="C219" s="32"/>
       <c r="D219" s="32"/>
       <c r="E219" s="32" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="F219" s="32"/>
       <c r="G219" s="32"/>
@@ -53736,7 +53736,7 @@
       <c r="C220" s="32"/>
       <c r="D220" s="32"/>
       <c r="E220" s="32" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="F220" s="32"/>
       <c r="G220" s="32"/>
@@ -53748,7 +53748,7 @@
       <c r="C221" s="32"/>
       <c r="D221" s="32"/>
       <c r="E221" s="32" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="F221" s="32"/>
       <c r="G221" s="32"/>
@@ -53756,7 +53756,7 @@
     </row>
     <row r="222" spans="1:9" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E222" s="32" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="I222" s="75"/>
     </row>
@@ -53765,16 +53765,16 @@
         <v>5</v>
       </c>
       <c r="B223" s="76" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C223" s="32" t="s">
         <v>397</v>
       </c>
       <c r="D223" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="E223" s="32" t="s">
         <v>915</v>
-      </c>
-      <c r="E223" s="32" t="s">
-        <v>916</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="33"/>
@@ -53786,7 +53786,7 @@
       <c r="C224" s="33"/>
       <c r="D224" s="33"/>
       <c r="E224" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="33"/>
@@ -53798,7 +53798,7 @@
       <c r="C225" s="33"/>
       <c r="D225" s="33"/>
       <c r="E225" s="32" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F225" s="33"/>
       <c r="G225" s="33"/>
@@ -53810,7 +53810,7 @@
       <c r="C226" s="33"/>
       <c r="D226" s="33"/>
       <c r="E226" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F226" s="33"/>
       <c r="G226" s="33"/>
@@ -53822,7 +53822,7 @@
       <c r="C227" s="33"/>
       <c r="D227" s="33"/>
       <c r="E227" s="32" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F227" s="33"/>
       <c r="G227" s="33"/>
@@ -53834,7 +53834,7 @@
       <c r="C228" s="33"/>
       <c r="D228" s="33"/>
       <c r="E228" s="32" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F228" s="33"/>
       <c r="G228" s="33"/>
@@ -53846,7 +53846,7 @@
       <c r="C229" s="33"/>
       <c r="D229" s="33"/>
       <c r="E229" s="32" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F229" s="33"/>
       <c r="G229" s="33"/>
@@ -53858,7 +53858,7 @@
       <c r="C230" s="33"/>
       <c r="D230" s="33"/>
       <c r="E230" s="32" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F230" s="33"/>
       <c r="G230" s="33"/>
@@ -53870,7 +53870,7 @@
       <c r="C231" s="33"/>
       <c r="D231" s="33"/>
       <c r="E231" s="32" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="33"/>
@@ -53882,7 +53882,7 @@
       <c r="C232" s="33"/>
       <c r="D232" s="33"/>
       <c r="E232" s="32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="33"/>
@@ -53894,7 +53894,7 @@
       <c r="C233" s="33"/>
       <c r="D233" s="33"/>
       <c r="E233" s="32" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="33"/>
@@ -53906,7 +53906,7 @@
       <c r="C234" s="33"/>
       <c r="D234" s="33"/>
       <c r="E234" s="32" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F234" s="33"/>
       <c r="G234" s="33"/>
@@ -53918,7 +53918,7 @@
       <c r="C235" s="33"/>
       <c r="D235" s="33"/>
       <c r="E235" s="32" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="33"/>
@@ -53930,7 +53930,7 @@
       <c r="C236" s="33"/>
       <c r="D236" s="33"/>
       <c r="E236" s="32" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F236" s="33"/>
       <c r="G236" s="33"/>
@@ -53942,7 +53942,7 @@
       <c r="C237" s="33"/>
       <c r="D237" s="33"/>
       <c r="E237" s="32" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F237" s="33"/>
       <c r="G237" s="33"/>
@@ -53954,7 +53954,7 @@
       <c r="C238" s="33"/>
       <c r="D238" s="33"/>
       <c r="E238" s="32" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F238" s="33"/>
       <c r="G238" s="33"/>
@@ -53966,7 +53966,7 @@
       <c r="C239" s="33"/>
       <c r="D239" s="33"/>
       <c r="E239" s="32" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F239" s="33"/>
       <c r="G239" s="33"/>
@@ -53978,7 +53978,7 @@
       <c r="C240" s="33"/>
       <c r="D240" s="33"/>
       <c r="E240" s="32" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F240" s="33"/>
       <c r="G240" s="33"/>
@@ -53990,7 +53990,7 @@
       <c r="C241" s="33"/>
       <c r="D241" s="33"/>
       <c r="E241" s="32" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="33"/>
@@ -54002,7 +54002,7 @@
       <c r="C242" s="33"/>
       <c r="D242" s="33"/>
       <c r="E242" s="32" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="33"/>
@@ -54014,7 +54014,7 @@
       <c r="C243" s="33"/>
       <c r="D243" s="33"/>
       <c r="E243" s="32" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F243" s="33"/>
       <c r="G243" s="33"/>
@@ -54026,7 +54026,7 @@
       <c r="C244" s="33"/>
       <c r="D244" s="33"/>
       <c r="E244" s="32" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F244" s="33"/>
       <c r="G244" s="33"/>
@@ -54038,7 +54038,7 @@
       <c r="C245" s="33"/>
       <c r="D245" s="33"/>
       <c r="E245" s="32" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F245" s="33"/>
       <c r="G245" s="33"/>
@@ -54050,7 +54050,7 @@
       <c r="C246" s="33"/>
       <c r="D246" s="33"/>
       <c r="E246" s="32" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F246" s="33"/>
       <c r="G246" s="33"/>
@@ -54062,7 +54062,7 @@
       <c r="C247" s="33"/>
       <c r="D247" s="33"/>
       <c r="E247" s="32" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F247" s="33"/>
       <c r="G247" s="33"/>
@@ -54074,7 +54074,7 @@
       <c r="C248" s="33"/>
       <c r="D248" s="33"/>
       <c r="E248" s="32" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F248" s="33"/>
       <c r="G248" s="33"/>
@@ -54086,7 +54086,7 @@
       <c r="C249" s="33"/>
       <c r="D249" s="33"/>
       <c r="E249" s="32" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="33"/>
@@ -54098,7 +54098,7 @@
       <c r="C250" s="33"/>
       <c r="D250" s="33"/>
       <c r="E250" s="32" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="33"/>
@@ -54109,16 +54109,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="33" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C251" s="33" t="s">
         <v>397</v>
       </c>
       <c r="D251" s="32" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="E251" s="32" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="F251" s="33"/>
       <c r="G251" s="33"/>
@@ -54130,7 +54130,7 @@
       <c r="C252" s="33"/>
       <c r="D252" s="32"/>
       <c r="E252" s="32" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="F252" s="33"/>
       <c r="G252" s="33"/>
@@ -54142,7 +54142,7 @@
       <c r="C253" s="33"/>
       <c r="D253" s="32"/>
       <c r="E253" s="32" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="F253" s="33"/>
       <c r="G253" s="33"/>
@@ -54154,7 +54154,7 @@
       <c r="C254" s="33"/>
       <c r="D254" s="32"/>
       <c r="E254" s="32" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="F254" s="33"/>
       <c r="G254" s="33"/>
@@ -54177,16 +54177,16 @@
         <v>5</v>
       </c>
       <c r="B256" s="32" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C256" s="32" t="s">
         <v>397</v>
       </c>
       <c r="D256" s="32" t="s">
+        <v>944</v>
+      </c>
+      <c r="E256" s="32" t="s">
         <v>945</v>
-      </c>
-      <c r="E256" s="32" t="s">
-        <v>946</v>
       </c>
       <c r="F256" s="32"/>
       <c r="G256" s="32"/>
@@ -54198,7 +54198,7 @@
       <c r="C257" s="32"/>
       <c r="D257" s="32"/>
       <c r="E257" s="32" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F257" s="32"/>
       <c r="G257" s="32"/>
@@ -54210,7 +54210,7 @@
       <c r="C258" s="32"/>
       <c r="D258" s="32"/>
       <c r="E258" s="32" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F258" s="32"/>
       <c r="G258" s="32"/>
@@ -54221,16 +54221,16 @@
         <v>5</v>
       </c>
       <c r="B259" s="32" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C259" s="32" t="s">
         <v>397</v>
       </c>
       <c r="D259" s="32" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E259" s="32" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="F259" s="32"/>
       <c r="G259" s="32"/>
@@ -54242,7 +54242,7 @@
       <c r="C260" s="32"/>
       <c r="D260" s="32"/>
       <c r="E260" s="32" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="F260" s="32"/>
       <c r="G260" s="32"/>
@@ -54254,7 +54254,7 @@
       <c r="C261" s="32"/>
       <c r="D261" s="32"/>
       <c r="E261" s="32" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="F261" s="32"/>
       <c r="G261" s="32"/>
@@ -54400,19 +54400,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="132" t="s">
         <v>673</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="136"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="135" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H1" s="136"/>
+      <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -54440,7 +54440,7 @@
         <v>295</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -54480,7 +54480,7 @@
         <v>299</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -54597,7 +54597,7 @@
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="53" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -54673,7 +54673,7 @@
         <v>397</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D13" s="53" t="s">
         <v>709</v>
@@ -54689,7 +54689,7 @@
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="53" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -54700,7 +54700,7 @@
         <v>397</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>709</v>
@@ -54716,7 +54716,7 @@
       </c>
       <c r="H14" s="53"/>
       <c r="I14" s="53" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -54782,13 +54782,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
+      <c r="A1" s="129" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="107" t="s">
@@ -54801,7 +54801,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="108" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="E2" s="109" t="s">
         <v>421</v>
@@ -54812,13 +54812,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="E3" s="33"/>
     </row>
@@ -54873,22 +54873,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="40" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="A1" s="129" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="107" t="s">
@@ -54901,34 +54901,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="108" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H2" s="110" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I2" s="111" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J2" s="111" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K2" s="109" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L2" s="109" t="s">
         <v>1296</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="M2" s="109" t="s">
         <v>1297</v>
-      </c>
-      <c r="F2" s="109" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G2" s="109" t="s">
-        <v>1299</v>
-      </c>
-      <c r="H2" s="110" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I2" s="111" t="s">
-        <v>1301</v>
-      </c>
-      <c r="J2" s="111" t="s">
-        <v>1302</v>
-      </c>
-      <c r="K2" s="109" t="s">
-        <v>1303</v>
-      </c>
-      <c r="L2" s="109" t="s">
-        <v>1304</v>
-      </c>
-      <c r="M2" s="109" t="s">
-        <v>1305</v>
       </c>
       <c r="N2" s="112" t="s">
         <v>421</v>
@@ -54939,29 +54939,29 @@
         <v>5</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>397</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="G3" s="32">
         <v>10</v>
       </c>
       <c r="H3" s="113"/>
       <c r="I3" s="114" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="J3" s="114" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -54973,19 +54973,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="G4" s="32">
         <v>100</v>
@@ -54996,7 +54996,7 @@
       <c r="I4" s="114"/>
       <c r="J4" s="114"/>
       <c r="K4" s="32" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="L4" s="115"/>
       <c r="M4" s="32"/>
@@ -55014,13 +55014,13 @@
       <c r="I5" s="114"/>
       <c r="J5" s="114"/>
       <c r="K5" s="32" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="N5" s="116"/>
     </row>
@@ -55036,10 +55036,10 @@
       <c r="I6" s="114"/>
       <c r="J6" s="114"/>
       <c r="K6" s="32" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="L6" s="33" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="116"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4891C0-B21D-D34E-A0AC-22A9B008C60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126680EE-7C80-7547-BC8B-13238A9C7FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="760" windowWidth="23140" windowHeight="17540" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="760" windowWidth="23140" windowHeight="17360" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -753,7 +753,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="1472">
   <si>
     <t>Region</t>
   </si>
@@ -12843,6 +12843,36 @@
       <t xml:space="preserve">
  Updated Region column drop down for all sheets, Modified description for Users, Instances, Policies</t>
     </r>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Namespace for Operations</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>Namespace for Env</t>
+  </si>
+  <si>
+    <t>QA Env</t>
+  </si>
+  <si>
+    <t>Prod Env</t>
+  </si>
+  <si>
+    <t>DR Env</t>
   </si>
 </sst>
 </file>
@@ -53959,12 +53989,12 @@
     <col min="1" max="1" width="8.83203125" style="4"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="50.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="59.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.2">
@@ -54040,7 +54070,9 @@
       <c r="E4" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>1462</v>
+      </c>
       <c r="G4" s="53" t="b">
         <v>0</v>
       </c>
@@ -54051,7 +54083,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
         <v>5</v>
       </c>
@@ -54067,11 +54099,13 @@
       <c r="E5" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="53" t="s">
+        <v>1463</v>
+      </c>
       <c r="G5" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="54" t="s">
         <v>424</v>
       </c>
       <c r="I5" s="53"/>
@@ -54086,11 +54120,15 @@
       <c r="C6" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="53" t="s">
+        <v>1464</v>
+      </c>
       <c r="E6" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="53" t="s">
+        <v>1465</v>
+      </c>
       <c r="G6" s="53" t="b">
         <v>0</v>
       </c>
@@ -54113,7 +54151,9 @@
       <c r="E7" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="53" t="s">
+        <v>1466</v>
+      </c>
       <c r="G7" s="53" t="b">
         <v>0</v>
       </c>
@@ -54136,7 +54176,9 @@
       <c r="E8" s="53" t="s">
         <v>304</v>
       </c>
-      <c r="F8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>1467</v>
+      </c>
       <c r="G8" s="53" t="b">
         <v>0</v>
       </c>
@@ -54153,7 +54195,9 @@
       <c r="C9" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="D9" s="53"/>
+      <c r="D9" s="53" t="s">
+        <v>1468</v>
+      </c>
       <c r="E9" s="53" t="s">
         <v>306</v>
       </c>
@@ -54178,11 +54222,15 @@
       <c r="C10" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="D10" s="53"/>
+      <c r="D10" s="53" t="s">
+        <v>1468</v>
+      </c>
       <c r="E10" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="53" t="s">
+        <v>1469</v>
+      </c>
       <c r="G10" s="53" t="b">
         <v>0</v>
       </c>
@@ -54199,11 +54247,15 @@
       <c r="C11" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="53"/>
+      <c r="D11" s="53" t="s">
+        <v>1468</v>
+      </c>
       <c r="E11" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="53" t="s">
+        <v>1470</v>
+      </c>
       <c r="G11" s="53" t="b">
         <v>0</v>
       </c>
@@ -54220,11 +54272,15 @@
       <c r="C12" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="D12" s="53"/>
+      <c r="D12" s="53" t="s">
+        <v>1468</v>
+      </c>
       <c r="E12" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="53" t="s">
+        <v>1471</v>
+      </c>
       <c r="G12" s="53" t="b">
         <v>0</v>
       </c>
@@ -54293,40 +54349,10 @@
     <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="H1:H1048576 I1:I2 A1:B2 C1:F1048576 J1:XFD1048576 G1:G2" xr:uid="{6B8471D5-8136-6349-9CEB-7371C78D8CB2}"/>
+    <dataValidation allowBlank="1" sqref="A1:B2 H1:H1048576 G1:G2 I1:I2 J1:XFD1048576 C1:F1048576" xr:uid="{159A49D2-66E0-AE48-889D-4E8A70544D5F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{20FB3A46-C200-B741-A3D0-D75F5C6C39C1}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_comp!$B$2:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>I3:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{9723BCB6-CF1B-5440-B950-89278A4F996B}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$AD$2:$AD$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{77CCA82E-EE23-8A40-95A6-495A2A16267A}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$D$2:$D$"&amp;drop_down_rule_comp!$C$3+1)</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{B9DFAB72-A37B-464F-869F-EACB51C15D5E}">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E45C2E-9191-6A4F-9210-1C91BB64A82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE200D3A-C129-BA4E-9218-A3D448DEEA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="1140" windowWidth="23140" windowHeight="17300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1700" yWindow="3800" windowWidth="23140" windowHeight="17300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <definedName name="workload_drop" localSheetId="3">[2]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -7425,493 +7425,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Vault Display Name(mandatory)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Vault Type(mandatory)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Valid values are</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "default</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"virtual_private</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Replica Region(optional)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid only for vault type: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"virtual_private"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Can't be same as the primary vault region.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Key details can be left empty if no keys have to be created in the specified vault.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-If a key/keys have to be created, enter below </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mandatory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fields:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Key Compartment Name" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-  can be same as the Vault compartment or a different compartment.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Key Display Name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Protection Mode" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"HSM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"SOFTWARE".</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Algorithm" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"AES", "RSA", "ECDSA". </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Length in bits" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid values for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"AES"  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      -  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>128, 192, 256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"RSA" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2048, 3072, 4096</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                          "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ECDSA"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   -  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>256, 384, 521</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Below are the </t>
     </r>
     <r>
@@ -12608,51 +12121,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release - v2024.4.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Modified description for VCNs, DRGs, BlockVolumes, SDDCs Tabs. Added a note in Exa-VMClusters Tab.</t>
     </r>
   </si>
   <si>
@@ -12933,6 +12401,559 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Vault Display Name(mandatory)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Vault Type(mandatory)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Valid values are</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"virtual_private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Replica Region(optional)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid for both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"virtual_private"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"default"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vault types. Can't be same as the primary vault region.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key details can be left empty if no keys have to be created in the specified vault.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If a key/keys have to be created, enter below </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fields:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Key Compartment Name" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-  can be same as the Vault compartment or a different compartment.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Key Display Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Protection Mode" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"HSM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"SOFTWARE".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Algorithm" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AES", "RSA", "ECDSA". </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Length in bits" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AES"  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128, 192, 256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"RSA" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2048, 3072, 4096</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                          "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECDSA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>256, 384, 521</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2024.4.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Modified description in KMS sheet, Modified delimiters in ServiceConectors sheet</t>
     </r>
   </si>
 </sst>
@@ -19801,7 +19822,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
     </row>
   </sheetData>
@@ -19846,7 +19867,7 @@
       <c r="E1" s="137"/>
       <c r="F1" s="138"/>
       <c r="G1" s="136" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="H1" s="137"/>
       <c r="I1" s="137"/>
@@ -20106,7 +20127,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -20773,7 +20794,7 @@
         <v>721</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>617</v>
@@ -23137,7 +23158,7 @@
         <v>552</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>397</v>
@@ -23152,7 +23173,7 @@
         <v>553</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>397</v>
@@ -23167,7 +23188,7 @@
         <v>350</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>397</v>
@@ -23182,7 +23203,7 @@
         <v>554</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>397</v>
@@ -23742,7 +23763,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="147" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
@@ -23752,7 +23773,7 @@
       <c r="G1" s="148"/>
       <c r="H1" s="149"/>
       <c r="I1" s="136" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J1" s="137"/>
       <c r="K1" s="137"/>
@@ -23785,7 +23806,7 @@
         <v>85</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>91</v>
@@ -23853,7 +23874,7 @@
         <v>349</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G3" s="33" t="b">
         <v>0</v>
@@ -23937,7 +23958,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G5" s="53" t="b">
         <v>0</v>
@@ -23991,7 +24012,7 @@
         <v>349</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G6" s="53" t="b">
         <v>0</v>
@@ -24041,7 +24062,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G7" s="53" t="b">
         <v>0</v>
@@ -24089,7 +24110,7 @@
         <v>349</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G8" s="53" t="b">
         <v>0</v>
@@ -24221,7 +24242,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="202" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -24480,7 +24501,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="190" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -24494,7 +24515,7 @@
       <c r="K1" s="137"/>
       <c r="L1" s="138"/>
       <c r="M1" s="150" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="N1" s="151"/>
       <c r="O1" s="151"/>
@@ -24520,7 +24541,7 @@
         <v>110</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>111</v>
@@ -24616,7 +24637,7 @@
         <v>121</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="53" t="s">
@@ -24720,7 +24741,7 @@
         <v>121</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -24758,7 +24779,7 @@
         <v>129</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -24800,7 +24821,7 @@
         <v>132</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -24842,7 +24863,7 @@
         <v>134</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -24877,10 +24898,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -24916,7 +24937,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
@@ -25021,7 +25042,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -25038,7 +25059,7 @@
       <c r="N1" s="137"/>
       <c r="O1" s="138"/>
       <c r="P1" s="147" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Q1" s="148"/>
       <c r="R1" s="148"/>
@@ -25083,10 +25104,10 @@
         <v>802</v>
       </c>
       <c r="H2" s="27" t="s">
+        <v>1148</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>1149</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>1150</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>803</v>
@@ -25101,7 +25122,7 @@
         <v>806</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>807</v>
@@ -25125,7 +25146,7 @@
         <v>809</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="W2" s="27" t="s">
         <v>83</v>
@@ -25140,7 +25161,7 @@
         <v>811</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="AB2" s="27" t="s">
         <v>812</v>
@@ -25229,10 +25250,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="97" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I4" s="97" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J4" s="54" t="b">
         <v>0</v>
@@ -25247,7 +25268,7 @@
         <v>828</v>
       </c>
       <c r="N4" s="97" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="O4" s="97" t="s">
         <v>1022</v>
@@ -25271,7 +25292,7 @@
         <v>830</v>
       </c>
       <c r="V4" s="97" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="W4" s="97" t="s">
         <v>98</v>
@@ -25312,7 +25333,7 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
       <c r="N5" s="54" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="O5" s="97" t="s">
         <v>1022</v>
@@ -25334,7 +25355,7 @@
       </c>
       <c r="U5" s="54"/>
       <c r="V5" s="97" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="W5" s="54" t="s">
         <v>89</v>
@@ -25381,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="I6" s="97" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J6" s="54" t="b">
         <v>0</v>
@@ -25393,7 +25414,7 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
       <c r="N6" s="54" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="O6" s="97" t="s">
         <v>1022</v>
@@ -25417,7 +25438,7 @@
         <v>830</v>
       </c>
       <c r="V6" s="97" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="W6" s="54" t="s">
         <v>98</v>
@@ -25430,7 +25451,7 @@
       </c>
       <c r="Z6" s="54"/>
       <c r="AA6" s="97" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AB6" s="99"/>
       <c r="AC6" s="54" t="s">
@@ -25513,7 +25534,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -25554,7 +25575,7 @@
         <v>612</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>137</v>
@@ -25632,7 +25653,7 @@
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
       <c r="G4" s="54" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H4" s="53" t="b">
         <v>1</v>
@@ -25706,7 +25727,7 @@
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="54" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H6" s="53" t="b">
         <v>0</v>
@@ -25815,7 +25836,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -25859,7 +25880,7 @@
         <v>154</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>155</v>
@@ -25949,7 +25970,7 @@
         <v>165</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>166</v>
@@ -26009,7 +26030,7 @@
         <v>171</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>166</v>
@@ -26057,7 +26078,7 @@
         <v>174</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>166</v>
@@ -26169,7 +26190,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -27154,7 +27175,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="40" customFormat="1" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -27177,10 +27198,10 @@
         <v>1077</v>
       </c>
       <c r="E2" s="109" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F2" s="130" t="s">
         <v>1205</v>
-      </c>
-      <c r="F2" s="130" t="s">
-        <v>1206</v>
       </c>
       <c r="G2" s="109" t="s">
         <v>421</v>
@@ -27523,7 +27544,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="143" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -27537,7 +27558,7 @@
         <v>136</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>896</v>
@@ -27559,10 +27580,10 @@
         <v>395</v>
       </c>
       <c r="C4" s="54" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>1159</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -27573,10 +27594,10 @@
         <v>395</v>
       </c>
       <c r="C5" s="54" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>1161</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>1162</v>
       </c>
     </row>
   </sheetData>
@@ -27658,7 +27679,7 @@
         <v>770</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>769</v>
@@ -27720,7 +27741,7 @@
         <v>766</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E4" s="54" t="b">
         <v>0</v>
@@ -27758,7 +27779,7 @@
         <v>762</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E5" s="54" t="b">
         <v>1</v>
@@ -28240,7 +28261,7 @@
         <v>441</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -28292,7 +28313,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -28326,7 +28347,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -28356,7 +28377,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
@@ -28415,7 +28436,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -28444,7 +28465,7 @@
         <v>791</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>792</v>
@@ -28514,7 +28535,7 @@
         <v>795</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E4" s="88"/>
       <c r="F4" s="87" t="s">
@@ -28643,7 +28664,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -28683,7 +28704,7 @@
         <v>83</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>675</v>
@@ -28797,7 +28818,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E4" s="91" t="s">
         <v>706</v>
@@ -28872,7 +28893,7 @@
         <v>89</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E5" s="91" t="s">
         <v>708</v>
@@ -34958,7 +34979,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="147" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
@@ -35002,10 +35023,10 @@
         <v>699</v>
       </c>
       <c r="E2" s="65" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F2" s="65" t="s">
         <v>1170</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>1171</v>
       </c>
       <c r="G2" s="65" t="s">
         <v>677</v>
@@ -35098,10 +35119,10 @@
         <v>718</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G4" s="53">
         <v>4</v>
@@ -39427,7 +39448,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="155" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
@@ -39700,7 +39721,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="147" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
@@ -39724,7 +39745,7 @@
         <v>904</v>
       </c>
       <c r="C2" s="106" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>915</v>
@@ -39769,7 +39790,7 @@
         <v>1080</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>1094</v>
@@ -39814,7 +39835,7 @@
         <v>1091</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>1094</v>
@@ -39938,7 +39959,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="40" customFormat="1" ht="166" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -39956,16 +39977,16 @@
         <v>861</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>1179</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>1180</v>
       </c>
       <c r="G2" s="128" t="s">
         <v>1077</v>
@@ -41303,7 +41324,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1106</v>
+        <v>1470</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -41312,7 +41333,7 @@
       <c r="F1" s="132"/>
       <c r="G1" s="132"/>
       <c r="H1" s="143" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="I1" s="132"/>
       <c r="J1" s="132"/>
@@ -41327,46 +41348,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C2" s="123" t="s">
         <v>1108</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="D2" s="16" t="s">
         <v>1109</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>1110</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M2" s="125" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>1111</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>1113</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H2" s="94" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>1116</v>
-      </c>
-      <c r="J2" s="124" t="s">
-        <v>1117</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>1118</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M2" s="125" t="s">
+      <c r="O2" s="16" t="s">
         <v>1120</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>1112</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -41396,23 +41417,23 @@
         <v>554</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>1122</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>1123</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
         <v>554</v>
       </c>
       <c r="G4" s="32" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>1124</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>1125</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>1126</v>
       </c>
       <c r="J4" s="126">
         <v>256</v>
@@ -41433,19 +41454,19 @@
         <v>552</v>
       </c>
       <c r="G5" s="32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>1127</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="I5" s="32" t="s">
         <v>1128</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>1129</v>
       </c>
       <c r="J5" s="126">
         <v>384</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="126"/>
@@ -41460,10 +41481,10 @@
         <v>554</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>1131</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>1132</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>5</v>
@@ -41472,13 +41493,13 @@
         <v>554</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J6" s="126">
         <v>128</v>
@@ -41503,13 +41524,13 @@
         <v>552</v>
       </c>
       <c r="G7" s="32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>1127</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>1128</v>
-      </c>
       <c r="I7" s="32" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J7" s="126">
         <v>3072</v>
@@ -41530,19 +41551,19 @@
         <v>553</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J8" s="126">
         <v>521</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L8" s="32" t="b">
         <v>1</v>
@@ -43442,7 +43463,7 @@
         <v>993</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F1" s="64" t="s">
         <v>956</v>
@@ -43617,7 +43638,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="129" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="M2" s="58" t="s">
         <v>38</v>
@@ -44135,7 +44156,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="58"/>
       <c r="L6" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="M6" s="58"/>
       <c r="N6" s="58"/>
@@ -45442,7 +45463,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="58"/>
       <c r="L23" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="M23" s="58"/>
       <c r="N23" s="58"/>
@@ -45953,7 +45974,7 @@
       <c r="J30" s="33"/>
       <c r="K30" s="58"/>
       <c r="L30" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="M30" s="58"/>
       <c r="N30" s="58"/>
@@ -46683,7 +46704,7 @@
       <c r="J40" s="33"/>
       <c r="K40" s="58"/>
       <c r="L40" s="63" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="M40" s="58"/>
       <c r="N40" s="58"/>
@@ -46893,7 +46914,7 @@
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
       <c r="L44" s="57" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P44" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="P44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"DHCP")))</f>
@@ -47031,7 +47052,7 @@
       <c r="I47" s="33"/>
       <c r="J47" s="33"/>
       <c r="L47" s="40" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="P47" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="P47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"DHCP")))</f>
@@ -47178,7 +47199,7 @@
       <c r="I51" s="33"/>
       <c r="J51" s="33"/>
       <c r="L51" s="40" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AU51" s="104" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -50671,7 +50692,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="40" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -50721,7 +50742,7 @@
         <v>593</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -50733,7 +50754,7 @@
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
@@ -50753,7 +50774,7 @@
         <v>556</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
@@ -50765,7 +50786,7 @@
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
@@ -50777,7 +50798,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
@@ -50789,7 +50810,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
@@ -50801,7 +50822,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
@@ -50813,7 +50834,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -50825,7 +50846,7 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -50837,7 +50858,7 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -50849,7 +50870,7 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -50861,7 +50882,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -50873,7 +50894,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -50885,7 +50906,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -50897,7 +50918,7 @@
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -50909,7 +50930,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
@@ -50921,7 +50942,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
@@ -50933,7 +50954,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -50945,7 +50966,7 @@
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
@@ -50957,7 +50978,7 @@
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
@@ -50969,7 +50990,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
@@ -50981,7 +51002,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
@@ -50993,7 +51014,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
@@ -51005,7 +51026,7 @@
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
@@ -51017,7 +51038,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
@@ -51029,7 +51050,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
@@ -51041,7 +51062,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
@@ -51053,7 +51074,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
@@ -51065,7 +51086,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
@@ -51077,7 +51098,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
@@ -51089,7 +51110,7 @@
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
@@ -51101,7 +51122,7 @@
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -51113,7 +51134,7 @@
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
@@ -51125,7 +51146,7 @@
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
@@ -51137,7 +51158,7 @@
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
@@ -51149,7 +51170,7 @@
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -51161,7 +51182,7 @@
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
@@ -51173,7 +51194,7 @@
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -51185,7 +51206,7 @@
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -51197,7 +51218,7 @@
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -51209,7 +51230,7 @@
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -51221,7 +51242,7 @@
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
@@ -51233,7 +51254,7 @@
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
@@ -51245,7 +51266,7 @@
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
@@ -51265,7 +51286,7 @@
         <v>558</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
@@ -51277,7 +51298,7 @@
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
@@ -51289,7 +51310,7 @@
       <c r="C49" s="32"/>
       <c r="D49" s="32"/>
       <c r="E49" s="32" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
@@ -51301,7 +51322,7 @@
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
@@ -51313,7 +51334,7 @@
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
@@ -51325,7 +51346,7 @@
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
@@ -51337,7 +51358,7 @@
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
@@ -51349,7 +51370,7 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
@@ -51361,7 +51382,7 @@
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
@@ -51373,7 +51394,7 @@
       <c r="C56" s="32"/>
       <c r="D56" s="32"/>
       <c r="E56" s="32" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
@@ -51385,7 +51406,7 @@
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
       <c r="E57" s="32" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
@@ -51397,7 +51418,7 @@
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
       <c r="E58" s="32" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
@@ -51409,7 +51430,7 @@
       <c r="C59" s="32"/>
       <c r="D59" s="32"/>
       <c r="E59" s="32" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
@@ -51421,7 +51442,7 @@
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
       <c r="E60" s="32" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
@@ -51433,7 +51454,7 @@
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
       <c r="E61" s="32" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
@@ -51445,7 +51466,7 @@
       <c r="C62" s="32"/>
       <c r="D62" s="32"/>
       <c r="E62" s="32" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
@@ -51457,7 +51478,7 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
@@ -51477,7 +51498,7 @@
         <v>1014</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F64" s="32"/>
       <c r="G64" s="32"/>
@@ -51489,7 +51510,7 @@
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
       <c r="E65" s="32" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
@@ -51501,7 +51522,7 @@
       <c r="C66" s="32"/>
       <c r="D66" s="32"/>
       <c r="E66" s="32" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
@@ -51513,7 +51534,7 @@
       <c r="C67" s="32"/>
       <c r="D67" s="32"/>
       <c r="E67" s="32" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
@@ -51533,7 +51554,7 @@
         <v>854</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
@@ -51545,7 +51566,7 @@
       <c r="C69" s="32"/>
       <c r="D69" s="32"/>
       <c r="E69" s="32" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
@@ -51557,7 +51578,7 @@
       <c r="C70" s="32"/>
       <c r="D70" s="32"/>
       <c r="E70" s="32" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
@@ -51569,7 +51590,7 @@
       <c r="C71" s="32"/>
       <c r="D71" s="32"/>
       <c r="E71" s="32" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
@@ -51589,7 +51610,7 @@
         <v>779</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
@@ -51601,7 +51622,7 @@
       <c r="C73" s="32"/>
       <c r="D73" s="32"/>
       <c r="E73" s="32" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
@@ -51673,7 +51694,7 @@
       <c r="C79" s="32"/>
       <c r="D79" s="32"/>
       <c r="E79" s="32" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="32"/>
@@ -51705,7 +51726,7 @@
         <v>780</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F81" s="32"/>
       <c r="G81" s="32"/>
@@ -51717,7 +51738,7 @@
       <c r="C82" s="32"/>
       <c r="D82" s="32"/>
       <c r="E82" s="32" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F82" s="32"/>
       <c r="G82" s="32"/>
@@ -51729,7 +51750,7 @@
       <c r="C83" s="32"/>
       <c r="D83" s="32"/>
       <c r="E83" s="32" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="32"/>
@@ -51741,7 +51762,7 @@
       <c r="C84" s="32"/>
       <c r="D84" s="32"/>
       <c r="E84" s="29" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
@@ -51753,7 +51774,7 @@
       <c r="C85" s="32"/>
       <c r="D85" s="32"/>
       <c r="E85" s="29" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="32"/>
@@ -51765,7 +51786,7 @@
       <c r="C86" s="32"/>
       <c r="D86" s="32"/>
       <c r="E86" s="29" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
@@ -51777,7 +51798,7 @@
       <c r="C87" s="32"/>
       <c r="D87" s="32"/>
       <c r="E87" s="29" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F87" s="32"/>
       <c r="G87" s="32"/>
@@ -51789,7 +51810,7 @@
       <c r="C88" s="32"/>
       <c r="D88" s="32"/>
       <c r="E88" s="29" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F88" s="32"/>
       <c r="G88" s="32"/>
@@ -51801,7 +51822,7 @@
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
       <c r="E89" s="29" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F89" s="32"/>
       <c r="G89" s="32"/>
@@ -51813,7 +51834,7 @@
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
       <c r="E90" s="29" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F90" s="32"/>
       <c r="G90" s="32"/>
@@ -51825,7 +51846,7 @@
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
       <c r="E91" s="29" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F91" s="32"/>
       <c r="G91" s="32"/>
@@ -51837,7 +51858,7 @@
       <c r="C92" s="32"/>
       <c r="D92" s="32"/>
       <c r="E92" s="29" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F92" s="32"/>
       <c r="G92" s="32"/>
@@ -51849,7 +51870,7 @@
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
       <c r="E93" s="29" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F93" s="32"/>
       <c r="G93" s="32"/>
@@ -51861,7 +51882,7 @@
       <c r="C94" s="32"/>
       <c r="D94" s="32"/>
       <c r="E94" s="29" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="32"/>
@@ -51873,7 +51894,7 @@
       <c r="C95" s="32"/>
       <c r="D95" s="32"/>
       <c r="E95" s="29" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F95" s="32"/>
       <c r="G95" s="32"/>
@@ -51885,7 +51906,7 @@
       <c r="C96" s="32"/>
       <c r="D96" s="32"/>
       <c r="E96" s="29" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F96" s="32"/>
       <c r="G96" s="32"/>
@@ -51897,7 +51918,7 @@
       <c r="C97" s="32"/>
       <c r="D97" s="32"/>
       <c r="E97" s="29" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F97" s="32"/>
       <c r="G97" s="32"/>
@@ -51909,7 +51930,7 @@
       <c r="C98" s="32"/>
       <c r="D98" s="32"/>
       <c r="E98" s="29" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
@@ -51921,7 +51942,7 @@
       <c r="C99" s="32"/>
       <c r="D99" s="32"/>
       <c r="E99" s="29" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F99" s="32"/>
       <c r="G99" s="32"/>
@@ -51933,7 +51954,7 @@
       <c r="C100" s="32"/>
       <c r="D100" s="32"/>
       <c r="E100" s="29" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="32"/>
@@ -51945,7 +51966,7 @@
       <c r="C101" s="32"/>
       <c r="D101" s="32"/>
       <c r="E101" s="29" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F101" s="32"/>
       <c r="G101" s="32"/>
@@ -51957,7 +51978,7 @@
       <c r="C102" s="32"/>
       <c r="D102" s="32"/>
       <c r="E102" s="29" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="32"/>
@@ -51969,7 +51990,7 @@
       <c r="C103" s="32"/>
       <c r="D103" s="32"/>
       <c r="E103" s="29" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F103" s="32"/>
       <c r="G103" s="32"/>
@@ -51981,7 +52002,7 @@
       <c r="C104" s="32"/>
       <c r="D104" s="32"/>
       <c r="E104" s="29" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="32"/>
@@ -51993,7 +52014,7 @@
       <c r="C105" s="32"/>
       <c r="D105" s="32"/>
       <c r="E105" s="29" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F105" s="32"/>
       <c r="G105" s="32"/>
@@ -52005,7 +52026,7 @@
       <c r="C106" s="32"/>
       <c r="D106" s="32"/>
       <c r="E106" s="29" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
@@ -52017,7 +52038,7 @@
       <c r="C107" s="32"/>
       <c r="D107" s="32"/>
       <c r="E107" s="29" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
@@ -52029,7 +52050,7 @@
       <c r="C108" s="32"/>
       <c r="D108" s="32"/>
       <c r="E108" s="29" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
@@ -52041,7 +52062,7 @@
       <c r="C109" s="32"/>
       <c r="D109" s="32"/>
       <c r="E109" s="29" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="32"/>
@@ -52053,7 +52074,7 @@
       <c r="C110" s="32"/>
       <c r="D110" s="32"/>
       <c r="E110" s="29" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F110" s="32"/>
       <c r="G110" s="32"/>
@@ -52065,7 +52086,7 @@
       <c r="C111" s="32"/>
       <c r="D111" s="32"/>
       <c r="E111" s="29" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F111" s="32"/>
       <c r="G111" s="32"/>
@@ -52077,7 +52098,7 @@
       <c r="C112" s="32"/>
       <c r="D112" s="32"/>
       <c r="E112" s="29" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="32"/>
@@ -52089,7 +52110,7 @@
       <c r="C113" s="32"/>
       <c r="D113" s="32"/>
       <c r="E113" s="29" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F113" s="32"/>
       <c r="G113" s="32"/>
@@ -52101,7 +52122,7 @@
       <c r="C114" s="32"/>
       <c r="D114" s="32"/>
       <c r="E114" s="29" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="32"/>
@@ -52113,7 +52134,7 @@
       <c r="C115" s="32"/>
       <c r="D115" s="32"/>
       <c r="E115" s="29" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F115" s="32"/>
       <c r="G115" s="32"/>
@@ -52125,7 +52146,7 @@
       <c r="C116" s="32"/>
       <c r="D116" s="32"/>
       <c r="E116" s="29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F116" s="32"/>
       <c r="G116" s="32"/>
@@ -52137,7 +52158,7 @@
       <c r="C117" s="32"/>
       <c r="D117" s="32"/>
       <c r="E117" s="32" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F117" s="32"/>
       <c r="G117" s="32"/>
@@ -52149,7 +52170,7 @@
       <c r="C118" s="32"/>
       <c r="D118" s="32"/>
       <c r="E118" s="32" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F118" s="32"/>
       <c r="G118" s="32"/>
@@ -52161,7 +52182,7 @@
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
       <c r="E119" s="32" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F119" s="32"/>
       <c r="G119" s="32"/>
@@ -52173,7 +52194,7 @@
       <c r="C120" s="32"/>
       <c r="D120" s="32"/>
       <c r="E120" s="32" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F120" s="32"/>
       <c r="G120" s="32"/>
@@ -52185,7 +52206,7 @@
       <c r="C121" s="32"/>
       <c r="D121" s="32"/>
       <c r="E121" s="29" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F121" s="32"/>
       <c r="G121" s="32"/>
@@ -52205,7 +52226,7 @@
         <v>561</v>
       </c>
       <c r="E122" s="76" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F122" s="32"/>
       <c r="G122" s="32"/>
@@ -52217,7 +52238,7 @@
       <c r="C123" s="32"/>
       <c r="D123" s="32"/>
       <c r="E123" s="76" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F123" s="32"/>
       <c r="G123" s="32"/>
@@ -52229,7 +52250,7 @@
       <c r="C124" s="32"/>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="32"/>
@@ -52241,7 +52262,7 @@
       <c r="C125" s="32"/>
       <c r="D125" s="32"/>
       <c r="E125" s="32" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F125" s="32"/>
       <c r="G125" s="32"/>
@@ -52253,7 +52274,7 @@
       <c r="C126" s="32"/>
       <c r="D126" s="32"/>
       <c r="E126" s="32" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F126" s="32"/>
       <c r="G126" s="32"/>
@@ -52265,7 +52286,7 @@
       <c r="C127" s="32"/>
       <c r="D127" s="32"/>
       <c r="E127" s="32" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F127" s="32"/>
       <c r="G127" s="32"/>
@@ -52277,7 +52298,7 @@
       <c r="C128" s="32"/>
       <c r="D128" s="32"/>
       <c r="E128" s="32" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F128" s="32"/>
       <c r="G128" s="32"/>
@@ -52289,7 +52310,7 @@
       <c r="C129" s="32"/>
       <c r="D129" s="32"/>
       <c r="E129" s="32" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F129" s="32"/>
       <c r="G129" s="32"/>
@@ -52301,7 +52322,7 @@
       <c r="C130" s="32"/>
       <c r="D130" s="32"/>
       <c r="E130" s="32" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F130" s="32"/>
       <c r="G130" s="32"/>
@@ -52313,7 +52334,7 @@
       <c r="C131" s="32"/>
       <c r="D131" s="32"/>
       <c r="E131" s="32" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F131" s="32"/>
       <c r="G131" s="32"/>
@@ -52325,7 +52346,7 @@
       <c r="C132" s="32"/>
       <c r="D132" s="32"/>
       <c r="E132" s="32" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F132" s="32"/>
       <c r="G132" s="32"/>
@@ -52337,7 +52358,7 @@
       <c r="C133" s="32"/>
       <c r="D133" s="32"/>
       <c r="E133" s="32" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F133" s="32"/>
       <c r="G133" s="32"/>
@@ -52349,7 +52370,7 @@
       <c r="C134" s="32"/>
       <c r="D134" s="32"/>
       <c r="E134" s="32" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="32"/>
@@ -52361,7 +52382,7 @@
       <c r="C135" s="32"/>
       <c r="D135" s="32"/>
       <c r="E135" s="32" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F135" s="32"/>
       <c r="G135" s="32"/>
@@ -52373,7 +52394,7 @@
       <c r="C136" s="32"/>
       <c r="D136" s="32"/>
       <c r="E136" s="32" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F136" s="32"/>
       <c r="G136" s="32"/>
@@ -52385,7 +52406,7 @@
       <c r="C137" s="32"/>
       <c r="D137" s="32"/>
       <c r="E137" s="32" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F137" s="32"/>
       <c r="G137" s="32"/>
@@ -52397,7 +52418,7 @@
       <c r="C138" s="32"/>
       <c r="D138" s="32"/>
       <c r="E138" s="32" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F138" s="32"/>
       <c r="G138" s="32"/>
@@ -52409,7 +52430,7 @@
       <c r="C139" s="32"/>
       <c r="D139" s="32"/>
       <c r="E139" s="32" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F139" s="32"/>
       <c r="G139" s="32"/>
@@ -52421,7 +52442,7 @@
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
       <c r="E140" s="32" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F140" s="32"/>
       <c r="G140" s="32"/>
@@ -52433,7 +52454,7 @@
       <c r="C141" s="32"/>
       <c r="D141" s="32"/>
       <c r="E141" s="32" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F141" s="32"/>
       <c r="G141" s="32"/>
@@ -52453,7 +52474,7 @@
         <v>563</v>
       </c>
       <c r="E142" s="32" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F142" s="32"/>
       <c r="G142" s="32"/>
@@ -52465,7 +52486,7 @@
       <c r="C143" s="32"/>
       <c r="D143" s="32"/>
       <c r="E143" s="32" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F143" s="32"/>
       <c r="G143" s="32"/>
@@ -52477,7 +52498,7 @@
       <c r="C144" s="32"/>
       <c r="D144" s="32"/>
       <c r="E144" s="32" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="32"/>
@@ -52489,7 +52510,7 @@
       <c r="C145" s="32"/>
       <c r="D145" s="32"/>
       <c r="E145" s="32" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F145" s="32"/>
       <c r="G145" s="32"/>
@@ -52501,7 +52522,7 @@
       <c r="C146" s="32"/>
       <c r="D146" s="32"/>
       <c r="E146" s="32" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F146" s="32"/>
       <c r="G146" s="32"/>
@@ -52513,7 +52534,7 @@
       <c r="C147" s="32"/>
       <c r="D147" s="32"/>
       <c r="E147" s="32" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F147" s="32"/>
       <c r="G147" s="32"/>
@@ -52525,7 +52546,7 @@
       <c r="C148" s="32"/>
       <c r="D148" s="32"/>
       <c r="E148" s="32" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F148" s="32"/>
       <c r="G148" s="32"/>
@@ -52537,7 +52558,7 @@
       <c r="C149" s="32"/>
       <c r="D149" s="32"/>
       <c r="E149" s="32" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F149" s="32"/>
       <c r="G149" s="32"/>
@@ -52549,7 +52570,7 @@
       <c r="C150" s="32"/>
       <c r="D150" s="32"/>
       <c r="E150" s="32" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F150" s="32"/>
       <c r="G150" s="32"/>
@@ -52561,7 +52582,7 @@
       <c r="C151" s="32"/>
       <c r="D151" s="32"/>
       <c r="E151" s="32" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F151" s="32"/>
       <c r="G151" s="32"/>
@@ -52573,7 +52594,7 @@
       <c r="C152" s="32"/>
       <c r="D152" s="32"/>
       <c r="E152" s="32" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F152" s="32"/>
       <c r="G152" s="32"/>
@@ -52585,7 +52606,7 @@
       <c r="C153" s="32"/>
       <c r="D153" s="32"/>
       <c r="E153" s="32" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F153" s="32"/>
       <c r="G153" s="32"/>
@@ -52597,7 +52618,7 @@
       <c r="C154" s="32"/>
       <c r="D154" s="32"/>
       <c r="E154" s="32" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="32"/>
@@ -52609,7 +52630,7 @@
       <c r="C155" s="32"/>
       <c r="D155" s="32"/>
       <c r="E155" s="32" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F155" s="32"/>
       <c r="G155" s="32"/>
@@ -52621,7 +52642,7 @@
       <c r="C156" s="32"/>
       <c r="D156" s="32"/>
       <c r="E156" s="32" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F156" s="32"/>
       <c r="G156" s="32"/>
@@ -52633,7 +52654,7 @@
       <c r="C157" s="32"/>
       <c r="D157" s="32"/>
       <c r="E157" s="32" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F157" s="32"/>
       <c r="G157" s="32"/>
@@ -52645,7 +52666,7 @@
       <c r="C158" s="32"/>
       <c r="D158" s="32"/>
       <c r="E158" s="32" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F158" s="32"/>
       <c r="G158" s="32"/>
@@ -52657,7 +52678,7 @@
       <c r="C159" s="32"/>
       <c r="D159" s="32"/>
       <c r="E159" s="32" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F159" s="32"/>
       <c r="G159" s="32"/>
@@ -52669,7 +52690,7 @@
       <c r="C160" s="32"/>
       <c r="D160" s="32"/>
       <c r="E160" s="32" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F160" s="32"/>
       <c r="G160" s="32"/>
@@ -52681,7 +52702,7 @@
       <c r="C161" s="32"/>
       <c r="D161" s="32"/>
       <c r="E161" s="32" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F161" s="32"/>
       <c r="G161" s="32"/>
@@ -52693,7 +52714,7 @@
       <c r="C162" s="32"/>
       <c r="D162" s="32"/>
       <c r="E162" s="32" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F162" s="32"/>
       <c r="G162" s="32"/>
@@ -52705,7 +52726,7 @@
       <c r="C163" s="32"/>
       <c r="D163" s="32"/>
       <c r="E163" s="32" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F163" s="32"/>
       <c r="G163" s="32"/>
@@ -52717,7 +52738,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
       <c r="E164" s="32" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="32"/>
@@ -52729,7 +52750,7 @@
       <c r="C165" s="32"/>
       <c r="D165" s="32"/>
       <c r="E165" s="32" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F165" s="32"/>
       <c r="G165" s="32"/>
@@ -52741,7 +52762,7 @@
       <c r="C166" s="32"/>
       <c r="D166" s="32"/>
       <c r="E166" s="32" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="32"/>
@@ -52753,7 +52774,7 @@
       <c r="C167" s="32"/>
       <c r="D167" s="32"/>
       <c r="E167" s="32" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F167" s="32"/>
       <c r="G167" s="32"/>
@@ -52765,7 +52786,7 @@
       <c r="C168" s="32"/>
       <c r="D168" s="32"/>
       <c r="E168" s="32" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="F168" s="32"/>
       <c r="G168" s="32"/>
@@ -52777,7 +52798,7 @@
       <c r="C169" s="32"/>
       <c r="D169" s="32"/>
       <c r="E169" s="32" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F169" s="32"/>
       <c r="G169" s="32"/>
@@ -52789,7 +52810,7 @@
       <c r="C170" s="32"/>
       <c r="D170" s="32"/>
       <c r="E170" s="32" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F170" s="32"/>
       <c r="G170" s="32"/>
@@ -52833,7 +52854,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
       <c r="E173" s="32" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F173" s="32"/>
       <c r="G173" s="32"/>
@@ -52845,7 +52866,7 @@
       <c r="C174" s="32"/>
       <c r="D174" s="32"/>
       <c r="E174" s="32" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="32"/>
@@ -52865,7 +52886,7 @@
         <v>565</v>
       </c>
       <c r="E175" s="32" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F175" s="32"/>
       <c r="G175" s="32"/>
@@ -52877,7 +52898,7 @@
       <c r="C176" s="32"/>
       <c r="D176" s="32"/>
       <c r="E176" s="32" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F176" s="32"/>
       <c r="G176" s="32"/>
@@ -52889,7 +52910,7 @@
       <c r="C177" s="32"/>
       <c r="D177" s="32"/>
       <c r="E177" s="32" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F177" s="32"/>
       <c r="G177" s="32"/>
@@ -52901,7 +52922,7 @@
       <c r="C178" s="32"/>
       <c r="D178" s="32"/>
       <c r="E178" s="32" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F178" s="32"/>
       <c r="G178" s="32"/>
@@ -52913,7 +52934,7 @@
       <c r="C179" s="32"/>
       <c r="D179" s="32"/>
       <c r="E179" s="32" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F179" s="32"/>
       <c r="G179" s="32"/>
@@ -52925,7 +52946,7 @@
       <c r="C180" s="32"/>
       <c r="D180" s="32"/>
       <c r="E180" s="32" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F180" s="32"/>
       <c r="G180" s="32"/>
@@ -52937,7 +52958,7 @@
       <c r="C181" s="32"/>
       <c r="D181" s="32"/>
       <c r="E181" s="32" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F181" s="32"/>
       <c r="G181" s="32"/>
@@ -52949,7 +52970,7 @@
       <c r="C182" s="32"/>
       <c r="D182" s="32"/>
       <c r="E182" s="32" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F182" s="32"/>
       <c r="G182" s="32"/>
@@ -52961,7 +52982,7 @@
       <c r="C183" s="32"/>
       <c r="D183" s="32"/>
       <c r="E183" s="32" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F183" s="32"/>
       <c r="G183" s="32"/>
@@ -52973,7 +52994,7 @@
       <c r="C184" s="32"/>
       <c r="D184" s="32"/>
       <c r="E184" s="32" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F184" s="32"/>
       <c r="G184" s="32"/>
@@ -52985,7 +53006,7 @@
       <c r="C185" s="32"/>
       <c r="D185" s="32"/>
       <c r="E185" s="32" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F185" s="32"/>
       <c r="G185" s="32"/>
@@ -52997,7 +53018,7 @@
       <c r="C186" s="32"/>
       <c r="D186" s="32"/>
       <c r="E186" s="32" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F186" s="32"/>
       <c r="G186" s="32"/>
@@ -53009,7 +53030,7 @@
       <c r="C187" s="32"/>
       <c r="D187" s="32"/>
       <c r="E187" s="32" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F187" s="32"/>
       <c r="G187" s="32"/>
@@ -53021,7 +53042,7 @@
       <c r="C188" s="32"/>
       <c r="D188" s="32"/>
       <c r="E188" s="32" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F188" s="32"/>
       <c r="G188" s="32"/>
@@ -53033,7 +53054,7 @@
       <c r="C189" s="32"/>
       <c r="D189" s="32"/>
       <c r="E189" s="32" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F189" s="32"/>
       <c r="G189" s="32"/>
@@ -53045,7 +53066,7 @@
       <c r="C190" s="32"/>
       <c r="D190" s="32"/>
       <c r="E190" s="32" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F190" s="32"/>
       <c r="G190" s="32"/>
@@ -53057,7 +53078,7 @@
       <c r="C191" s="32"/>
       <c r="D191" s="32"/>
       <c r="E191" s="32" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F191" s="32"/>
       <c r="G191" s="32"/>
@@ -53069,7 +53090,7 @@
       <c r="C192" s="32"/>
       <c r="D192" s="32"/>
       <c r="E192" s="32" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F192" s="32"/>
       <c r="G192" s="32"/>
@@ -53081,7 +53102,7 @@
       <c r="C193" s="32"/>
       <c r="D193" s="32"/>
       <c r="E193" s="32" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F193" s="32"/>
       <c r="G193" s="32"/>
@@ -53093,7 +53114,7 @@
       <c r="C194" s="32"/>
       <c r="D194" s="32"/>
       <c r="E194" s="32" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F194" s="32"/>
       <c r="G194" s="32"/>
@@ -53105,7 +53126,7 @@
       <c r="C195" s="32"/>
       <c r="D195" s="32"/>
       <c r="E195" s="32" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F195" s="32"/>
       <c r="G195" s="32"/>
@@ -53117,7 +53138,7 @@
       <c r="C196" s="32"/>
       <c r="D196" s="32"/>
       <c r="E196" s="32" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F196" s="32"/>
       <c r="G196" s="32"/>
@@ -53129,7 +53150,7 @@
       <c r="C197" s="32"/>
       <c r="D197" s="32"/>
       <c r="E197" s="32" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F197" s="32"/>
       <c r="G197" s="32"/>
@@ -53141,7 +53162,7 @@
       <c r="C198" s="32"/>
       <c r="D198" s="32"/>
       <c r="E198" s="32" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F198" s="32"/>
       <c r="G198" s="32"/>
@@ -53153,7 +53174,7 @@
       <c r="C199" s="32"/>
       <c r="D199" s="32"/>
       <c r="E199" s="32" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F199" s="32"/>
       <c r="G199" s="32"/>
@@ -53165,7 +53186,7 @@
       <c r="C200" s="32"/>
       <c r="D200" s="32"/>
       <c r="E200" s="32" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F200" s="32"/>
       <c r="G200" s="32"/>
@@ -53177,7 +53198,7 @@
       <c r="C201" s="32"/>
       <c r="D201" s="32"/>
       <c r="E201" s="32" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F201" s="32"/>
       <c r="G201" s="32"/>
@@ -53189,7 +53210,7 @@
       <c r="C202" s="32"/>
       <c r="D202" s="32"/>
       <c r="E202" s="32" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F202" s="32"/>
       <c r="G202" s="32"/>
@@ -53201,7 +53222,7 @@
       <c r="C203" s="32"/>
       <c r="D203" s="32"/>
       <c r="E203" s="32" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F203" s="32"/>
       <c r="G203" s="32"/>
@@ -53213,7 +53234,7 @@
       <c r="C204" s="32"/>
       <c r="D204" s="32"/>
       <c r="E204" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F204" s="32"/>
       <c r="G204" s="32"/>
@@ -53225,7 +53246,7 @@
       <c r="C205" s="32"/>
       <c r="D205" s="32"/>
       <c r="E205" s="32" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F205" s="32"/>
       <c r="G205" s="32"/>
@@ -53237,7 +53258,7 @@
       <c r="C206" s="32"/>
       <c r="D206" s="32"/>
       <c r="E206" s="32" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F206" s="32"/>
       <c r="G206" s="32"/>
@@ -53249,7 +53270,7 @@
       <c r="C207" s="32"/>
       <c r="D207" s="32"/>
       <c r="E207" s="32" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F207" s="32"/>
       <c r="G207" s="32"/>
@@ -53261,7 +53282,7 @@
       <c r="C208" s="32"/>
       <c r="D208" s="32"/>
       <c r="E208" s="32" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F208" s="32"/>
       <c r="G208" s="32"/>
@@ -53273,7 +53294,7 @@
       <c r="C209" s="32"/>
       <c r="D209" s="32"/>
       <c r="E209" s="32" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F209" s="32"/>
       <c r="G209" s="32"/>
@@ -53285,7 +53306,7 @@
       <c r="C210" s="32"/>
       <c r="D210" s="32"/>
       <c r="E210" s="32" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F210" s="32"/>
       <c r="G210" s="32"/>
@@ -53297,7 +53318,7 @@
       <c r="C211" s="32"/>
       <c r="D211" s="32"/>
       <c r="E211" s="32" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F211" s="32"/>
       <c r="G211" s="32"/>
@@ -53309,7 +53330,7 @@
       <c r="C212" s="32"/>
       <c r="D212" s="32"/>
       <c r="E212" s="32" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F212" s="32"/>
       <c r="G212" s="32"/>
@@ -53321,7 +53342,7 @@
       <c r="C213" s="32"/>
       <c r="D213" s="32"/>
       <c r="E213" s="32" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F213" s="32"/>
       <c r="G213" s="32"/>
@@ -53333,7 +53354,7 @@
       <c r="C214" s="32"/>
       <c r="D214" s="32"/>
       <c r="E214" s="32" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F214" s="32"/>
       <c r="G214" s="32"/>
@@ -53345,7 +53366,7 @@
       <c r="C215" s="32"/>
       <c r="D215" s="32"/>
       <c r="E215" s="32" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F215" s="32"/>
       <c r="G215" s="32"/>
@@ -53357,7 +53378,7 @@
       <c r="C216" s="32"/>
       <c r="D216" s="32"/>
       <c r="E216" s="32" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F216" s="32"/>
       <c r="G216" s="32"/>
@@ -53369,7 +53390,7 @@
       <c r="C217" s="32"/>
       <c r="D217" s="32"/>
       <c r="E217" s="32" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F217" s="32"/>
       <c r="G217" s="32"/>
@@ -53381,7 +53402,7 @@
       <c r="C218" s="32"/>
       <c r="D218" s="32"/>
       <c r="E218" s="32" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F218" s="32"/>
       <c r="G218" s="32"/>
@@ -53393,7 +53414,7 @@
       <c r="C219" s="32"/>
       <c r="D219" s="32"/>
       <c r="E219" s="32" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F219" s="32"/>
       <c r="G219" s="32"/>
@@ -53405,7 +53426,7 @@
       <c r="C220" s="32"/>
       <c r="D220" s="32"/>
       <c r="E220" s="32" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F220" s="32"/>
       <c r="G220" s="32"/>
@@ -53417,7 +53438,7 @@
       <c r="C221" s="32"/>
       <c r="D221" s="32"/>
       <c r="E221" s="32" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="F221" s="32"/>
       <c r="G221" s="32"/>
@@ -53425,7 +53446,7 @@
     </row>
     <row r="222" spans="1:9" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E222" s="32" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="I222" s="75"/>
     </row>
@@ -53443,7 +53464,7 @@
         <v>783</v>
       </c>
       <c r="E223" s="32" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="33"/>
@@ -53455,7 +53476,7 @@
       <c r="C224" s="33"/>
       <c r="D224" s="33"/>
       <c r="E224" s="32" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="33"/>
@@ -53467,7 +53488,7 @@
       <c r="C225" s="33"/>
       <c r="D225" s="33"/>
       <c r="E225" s="32" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F225" s="33"/>
       <c r="G225" s="33"/>
@@ -53479,7 +53500,7 @@
       <c r="C226" s="33"/>
       <c r="D226" s="33"/>
       <c r="E226" s="32" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F226" s="33"/>
       <c r="G226" s="33"/>
@@ -53491,7 +53512,7 @@
       <c r="C227" s="33"/>
       <c r="D227" s="33"/>
       <c r="E227" s="32" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F227" s="33"/>
       <c r="G227" s="33"/>
@@ -53503,7 +53524,7 @@
       <c r="C228" s="33"/>
       <c r="D228" s="33"/>
       <c r="E228" s="32" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F228" s="33"/>
       <c r="G228" s="33"/>
@@ -53515,7 +53536,7 @@
       <c r="C229" s="33"/>
       <c r="D229" s="33"/>
       <c r="E229" s="32" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F229" s="33"/>
       <c r="G229" s="33"/>
@@ -53527,7 +53548,7 @@
       <c r="C230" s="33"/>
       <c r="D230" s="33"/>
       <c r="E230" s="32" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F230" s="33"/>
       <c r="G230" s="33"/>
@@ -53539,7 +53560,7 @@
       <c r="C231" s="33"/>
       <c r="D231" s="33"/>
       <c r="E231" s="32" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="33"/>
@@ -53551,7 +53572,7 @@
       <c r="C232" s="33"/>
       <c r="D232" s="33"/>
       <c r="E232" s="32" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="33"/>
@@ -53563,7 +53584,7 @@
       <c r="C233" s="33"/>
       <c r="D233" s="33"/>
       <c r="E233" s="32" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="33"/>
@@ -53575,7 +53596,7 @@
       <c r="C234" s="33"/>
       <c r="D234" s="33"/>
       <c r="E234" s="32" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F234" s="33"/>
       <c r="G234" s="33"/>
@@ -53587,7 +53608,7 @@
       <c r="C235" s="33"/>
       <c r="D235" s="33"/>
       <c r="E235" s="32" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="33"/>
@@ -53599,7 +53620,7 @@
       <c r="C236" s="33"/>
       <c r="D236" s="33"/>
       <c r="E236" s="32" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F236" s="33"/>
       <c r="G236" s="33"/>
@@ -53611,7 +53632,7 @@
       <c r="C237" s="33"/>
       <c r="D237" s="33"/>
       <c r="E237" s="32" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F237" s="33"/>
       <c r="G237" s="33"/>
@@ -53623,7 +53644,7 @@
       <c r="C238" s="33"/>
       <c r="D238" s="33"/>
       <c r="E238" s="32" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F238" s="33"/>
       <c r="G238" s="33"/>
@@ -53635,7 +53656,7 @@
       <c r="C239" s="33"/>
       <c r="D239" s="33"/>
       <c r="E239" s="32" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F239" s="33"/>
       <c r="G239" s="33"/>
@@ -53647,7 +53668,7 @@
       <c r="C240" s="33"/>
       <c r="D240" s="33"/>
       <c r="E240" s="32" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F240" s="33"/>
       <c r="G240" s="33"/>
@@ -53659,7 +53680,7 @@
       <c r="C241" s="33"/>
       <c r="D241" s="33"/>
       <c r="E241" s="32" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="33"/>
@@ -53671,7 +53692,7 @@
       <c r="C242" s="33"/>
       <c r="D242" s="33"/>
       <c r="E242" s="32" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="33"/>
@@ -53683,7 +53704,7 @@
       <c r="C243" s="33"/>
       <c r="D243" s="33"/>
       <c r="E243" s="32" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F243" s="33"/>
       <c r="G243" s="33"/>
@@ -53695,7 +53716,7 @@
       <c r="C244" s="33"/>
       <c r="D244" s="33"/>
       <c r="E244" s="32" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F244" s="33"/>
       <c r="G244" s="33"/>
@@ -53707,7 +53728,7 @@
       <c r="C245" s="33"/>
       <c r="D245" s="33"/>
       <c r="E245" s="32" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F245" s="33"/>
       <c r="G245" s="33"/>
@@ -53719,7 +53740,7 @@
       <c r="C246" s="33"/>
       <c r="D246" s="33"/>
       <c r="E246" s="32" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F246" s="33"/>
       <c r="G246" s="33"/>
@@ -53731,7 +53752,7 @@
       <c r="C247" s="33"/>
       <c r="D247" s="33"/>
       <c r="E247" s="32" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F247" s="33"/>
       <c r="G247" s="33"/>
@@ -53743,7 +53764,7 @@
       <c r="C248" s="33"/>
       <c r="D248" s="33"/>
       <c r="E248" s="32" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F248" s="33"/>
       <c r="G248" s="33"/>
@@ -53755,7 +53776,7 @@
       <c r="C249" s="33"/>
       <c r="D249" s="33"/>
       <c r="E249" s="32" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="33"/>
@@ -53767,7 +53788,7 @@
       <c r="C250" s="33"/>
       <c r="D250" s="33"/>
       <c r="E250" s="32" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="33"/>
@@ -53787,7 +53808,7 @@
         <v>1016</v>
       </c>
       <c r="E251" s="32" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F251" s="33"/>
       <c r="G251" s="33"/>
@@ -53799,7 +53820,7 @@
       <c r="C252" s="33"/>
       <c r="D252" s="32"/>
       <c r="E252" s="32" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="F252" s="33"/>
       <c r="G252" s="33"/>
@@ -53811,7 +53832,7 @@
       <c r="C253" s="33"/>
       <c r="D253" s="32"/>
       <c r="E253" s="32" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F253" s="33"/>
       <c r="G253" s="33"/>
@@ -53823,7 +53844,7 @@
       <c r="C254" s="33"/>
       <c r="D254" s="32"/>
       <c r="E254" s="32" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="F254" s="33"/>
       <c r="G254" s="33"/>
@@ -53855,7 +53876,7 @@
         <v>785</v>
       </c>
       <c r="E256" s="32" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F256" s="32"/>
       <c r="G256" s="32"/>
@@ -53867,7 +53888,7 @@
       <c r="C257" s="32"/>
       <c r="D257" s="32"/>
       <c r="E257" s="32" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F257" s="32"/>
       <c r="G257" s="32"/>
@@ -53879,7 +53900,7 @@
       <c r="C258" s="32"/>
       <c r="D258" s="32"/>
       <c r="E258" s="32" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F258" s="32"/>
       <c r="G258" s="32"/>
@@ -53899,7 +53920,7 @@
         <v>787</v>
       </c>
       <c r="E259" s="32" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F259" s="32"/>
       <c r="G259" s="32"/>
@@ -53911,7 +53932,7 @@
       <c r="C260" s="32"/>
       <c r="D260" s="32"/>
       <c r="E260" s="32" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F260" s="32"/>
       <c r="G260" s="32"/>
@@ -53923,7 +53944,7 @@
       <c r="C261" s="32"/>
       <c r="D261" s="32"/>
       <c r="E261" s="32" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F261" s="32"/>
       <c r="G261" s="32"/>
@@ -54142,7 +54163,7 @@
         <v>298</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G4" s="53" t="b">
         <v>0</v>
@@ -54171,7 +54192,7 @@
         <v>300</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G5" s="53" t="b">
         <v>0</v>
@@ -54192,13 +54213,13 @@
         <v>301</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>302</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G6" s="53" t="b">
         <v>0</v>
@@ -54223,7 +54244,7 @@
         <v>303</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G7" s="53" t="b">
         <v>0</v>
@@ -54248,7 +54269,7 @@
         <v>304</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G8" s="53" t="b">
         <v>0</v>
@@ -54267,7 +54288,7 @@
         <v>305</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E9" s="53" t="s">
         <v>306</v>
@@ -54294,13 +54315,13 @@
         <v>305</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>308</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G10" s="53" t="b">
         <v>0</v>
@@ -54319,13 +54340,13 @@
         <v>305</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>309</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G11" s="53" t="b">
         <v>0</v>
@@ -54344,13 +54365,13 @@
         <v>305</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>310</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G12" s="53" t="b">
         <v>0</v>
@@ -54539,7 +54560,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="40" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="132" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD9B45E-E7E6-3D4A-981C-C6D0C978FFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3858B9F8-D8E9-0142-B81E-C49FB2B4937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29920" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,7 +883,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="1527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="1528">
   <si>
     <t>Region</t>
   </si>
@@ -4253,9 +4253,6 @@
     <t>Sanjose</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
     <t>Queretaro</t>
   </si>
   <si>
@@ -13617,6 +13614,12 @@
   </si>
   <si>
     <t>Network@vcn01::vcn01-db</t>
+  </si>
+  <si>
+    <t>Singapore-1</t>
+  </si>
+  <si>
+    <t>Singapore-2</t>
   </si>
 </sst>
 </file>
@@ -20509,7 +20512,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
   </sheetData>
@@ -20550,7 +20553,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -20558,7 +20561,7 @@
       <c r="E1" s="139"/>
       <c r="F1" s="140"/>
       <c r="G1" s="138" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1" s="139"/>
       <c r="I1" s="139"/>
@@ -20785,7 +20788,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{ADD45063-BB48-7349-81E3-372E15617792}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -20822,7 +20825,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -20830,7 +20833,7 @@
       <c r="E1" s="134"/>
       <c r="F1" s="134"/>
       <c r="G1" s="144" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1" s="144"/>
       <c r="I1" s="144"/>
@@ -20849,7 +20852,7 @@
         <v>603</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>604</v>
@@ -20875,7 +20878,7 @@
         <v>722</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32" t="s">
@@ -20913,13 +20916,13 @@
         <v>722</v>
       </c>
       <c r="D5" s="32" t="s">
+        <v>978</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>979</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>980</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>981</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
@@ -20933,16 +20936,16 @@
         <v>350</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>981</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>985</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>982</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>986</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>983</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>984</v>
       </c>
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
@@ -20979,7 +20982,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{023F0ACA-3005-DD4D-B580-772123D2A3CF}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -21009,7 +21012,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="40" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B1" s="143"/>
     </row>
@@ -21086,7 +21089,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -21256,7 +21259,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{D597F0E4-823A-9B44-8B7F-04045F1DBBEB}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -21300,7 +21303,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -21311,7 +21314,7 @@
       <c r="H1" s="139"/>
       <c r="I1" s="140"/>
       <c r="J1" s="145" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="K1" s="145"/>
       <c r="L1" s="145"/>
@@ -21338,7 +21341,7 @@
         <v>311</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>11</v>
@@ -21501,7 +21504,7 @@
         <v>721</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>617</v>
@@ -21574,16 +21577,16 @@
         <v>350</v>
       </c>
       <c r="C7" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="D7" s="53" t="s">
         <v>867</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="E7" s="53" t="s">
+        <v>864</v>
+      </c>
+      <c r="F7" s="53" t="s">
         <v>868</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>865</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>869</v>
       </c>
       <c r="G7" s="53" t="s">
         <v>50</v>
@@ -21593,7 +21596,7 @@
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K7" s="53"/>
       <c r="L7" s="54" t="s">
@@ -21628,16 +21631,16 @@
         <v>350</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D8" s="53" t="s">
+        <v>870</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>865</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>871</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>866</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>872</v>
       </c>
       <c r="G8" s="53" t="s">
         <v>50</v>
@@ -21647,7 +21650,7 @@
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="53" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K8" s="53"/>
       <c r="L8" s="53"/>
@@ -22045,7 +22048,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{5007D1D0-5169-6E48-9374-72C28B681C3E}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -22083,7 +22086,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -22151,7 +22154,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{44875E50-AA91-924C-BD66-15885D0F230E}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -22187,7 +22190,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -22257,7 +22260,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{F87DDB2C-D0BD-7F48-8099-7659AB7B5FE8}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -22292,7 +22295,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -22411,7 +22414,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{3EBA249B-B7EE-D34D-9B23-FA53B452E590}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -22451,7 +22454,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="139" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -23419,7 +23422,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{BE13E088-F2C0-8048-A6D2-809017A651CE}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -23455,7 +23458,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="175" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="146"/>
@@ -23474,22 +23477,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>873</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>874</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>875</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>876</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>877</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>878</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>421</v>
@@ -23516,19 +23519,19 @@
         <v>350</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>878</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>879</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>881</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>882</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>883</v>
       </c>
       <c r="H4" s="32">
         <v>3600</v>
@@ -23543,19 +23546,19 @@
         <v>350</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>878</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>879</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>880</v>
-      </c>
       <c r="E5" s="32" t="s">
+        <v>883</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>884</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>885</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>886</v>
       </c>
       <c r="H5" s="32">
         <v>300</v>
@@ -23570,19 +23573,19 @@
         <v>350</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>886</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>887</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="32" t="s">
         <v>888</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="32" t="s">
+        <v>881</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>889</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>882</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>890</v>
       </c>
       <c r="H6" s="32">
         <v>300</v>
@@ -23825,7 +23828,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{535BDEB9-9E9F-484D-B27B-6E08DE4F868C}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -23857,7 +23860,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -23889,7 +23892,7 @@
         <v>552</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>397</v>
@@ -23904,7 +23907,7 @@
         <v>553</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>397</v>
@@ -23919,7 +23922,7 @@
         <v>350</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>397</v>
@@ -23934,7 +23937,7 @@
         <v>554</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>397</v>
@@ -24087,7 +24090,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{D727644A-4C5C-D64B-8D3A-E7ADF758B716}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -24125,7 +24128,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="200" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="147" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B1" s="148"/>
       <c r="C1" s="148"/>
@@ -24152,22 +24155,22 @@
         <v>311</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>890</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>891</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>892</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>893</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>894</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>895</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>896</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>421</v>
@@ -24202,20 +24205,20 @@
         <v>721</v>
       </c>
       <c r="E4" s="32" t="s">
+        <v>896</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>897</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>898</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>734</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="29" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K4" s="29"/>
     </row>
@@ -24233,16 +24236,16 @@
         <v>721</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>734</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
@@ -24283,7 +24286,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{99579C6B-849E-F449-A104-BBA34263C6C4}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -24316,7 +24319,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -24459,7 +24462,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{79D8440C-9B95-FA42-80A7-4C285035ABC4}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -24506,7 +24509,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -24516,7 +24519,7 @@
       <c r="G1" s="150"/>
       <c r="H1" s="151"/>
       <c r="I1" s="138" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J1" s="139"/>
       <c r="K1" s="139"/>
@@ -24549,7 +24552,7 @@
         <v>85</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>91</v>
@@ -24576,7 +24579,7 @@
         <v>743</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="P2" s="26" t="s">
         <v>94</v>
@@ -24594,7 +24597,7 @@
         <v>97</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="V2" s="26" t="s">
         <v>421</v>
@@ -24617,7 +24620,7 @@
         <v>349</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G3" s="33" t="b">
         <v>0</v>
@@ -24701,7 +24704,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G5" s="53" t="b">
         <v>0</v>
@@ -24720,7 +24723,7 @@
       </c>
       <c r="N5" s="53"/>
       <c r="O5" s="53" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P5" s="53" t="s">
         <v>102</v>
@@ -24734,7 +24737,7 @@
         <v>90</v>
       </c>
       <c r="U5" s="54" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="V5" s="53"/>
     </row>
@@ -24755,7 +24758,7 @@
         <v>349</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G6" s="53" t="b">
         <v>0</v>
@@ -24784,7 +24787,7 @@
       </c>
       <c r="T6" s="53"/>
       <c r="U6" s="54" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="V6" s="53"/>
     </row>
@@ -24805,7 +24808,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G7" s="53" t="b">
         <v>0</v>
@@ -24853,7 +24856,7 @@
         <v>349</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G8" s="53" t="b">
         <v>0</v>
@@ -24945,7 +24948,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{D63BE2CD-E8BE-654E-B709-9A70674C4187}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -24989,7 +24992,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="202" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -25020,7 +25023,7 @@
         <v>105</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>106</v>
@@ -25041,16 +25044,16 @@
         <v>430</v>
       </c>
       <c r="K2" s="27" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>1062</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>1063</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>1064</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>1065</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>744</v>
@@ -25116,19 +25119,19 @@
         <v>746</v>
       </c>
       <c r="J4" s="120" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K4" s="120" t="s">
         <v>1066</v>
-      </c>
-      <c r="K4" s="120" t="s">
-        <v>1067</v>
       </c>
       <c r="L4" s="120">
         <v>100</v>
       </c>
       <c r="M4" s="120" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N4" s="120" t="s">
         <v>1068</v>
-      </c>
-      <c r="N4" s="120" t="s">
-        <v>1069</v>
       </c>
       <c r="O4" s="86" t="b">
         <v>1</v>
@@ -25207,7 +25210,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{DCB6EC51-9BA1-E541-A73A-F59BFD219F8C}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -25252,7 +25255,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="190" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -25266,7 +25269,7 @@
       <c r="K1" s="139"/>
       <c r="L1" s="140"/>
       <c r="M1" s="152" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="N1" s="153"/>
       <c r="O1" s="153"/>
@@ -25292,7 +25295,7 @@
         <v>110</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>111</v>
@@ -25307,13 +25310,13 @@
         <v>113</v>
       </c>
       <c r="J2" s="27" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>1070</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>1071</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>1072</v>
       </c>
       <c r="M2" s="27" t="s">
         <v>114</v>
@@ -25337,10 +25340,10 @@
         <v>120</v>
       </c>
       <c r="T2" s="27" t="s">
+        <v>1072</v>
+      </c>
+      <c r="U2" s="27" t="s">
         <v>1073</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>1074</v>
       </c>
       <c r="V2" s="27" t="s">
         <v>421</v>
@@ -25388,7 +25391,7 @@
         <v>121</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="53" t="s">
@@ -25492,7 +25495,7 @@
         <v>121</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
@@ -25530,7 +25533,7 @@
         <v>129</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="53"/>
@@ -25572,7 +25575,7 @@
         <v>132</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -25614,7 +25617,7 @@
         <v>134</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -25649,10 +25652,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -25688,7 +25691,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
       <c r="I12" s="53" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
@@ -25736,7 +25739,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{481FB7B8-E562-D943-9483-D2B0F757DD1E}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -25797,7 +25800,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="106" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -25814,7 +25817,7 @@
       <c r="N1" s="139"/>
       <c r="O1" s="140"/>
       <c r="P1" s="149" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Q1" s="150"/>
       <c r="R1" s="150"/>
@@ -25847,7 +25850,7 @@
         <v>799</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>800</v>
@@ -25859,10 +25862,10 @@
         <v>802</v>
       </c>
       <c r="H2" s="27" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>1148</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>1149</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>803</v>
@@ -25877,7 +25880,7 @@
         <v>806</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="O2" s="27" t="s">
         <v>807</v>
@@ -25901,13 +25904,13 @@
         <v>809</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="W2" s="27" t="s">
         <v>83</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Y2" s="27" t="s">
         <v>810</v>
@@ -25916,7 +25919,7 @@
         <v>811</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AB2" s="27" t="s">
         <v>812</v>
@@ -25934,13 +25937,13 @@
         <v>814</v>
       </c>
       <c r="AG2" s="27" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AH2" s="27" t="s">
         <v>1019</v>
       </c>
-      <c r="AH2" s="27" t="s">
-        <v>1020</v>
-      </c>
       <c r="AI2" s="27" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25993,10 +25996,10 @@
         <v>815</v>
       </c>
       <c r="D4" s="97" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E4" s="97" t="s">
         <v>1021</v>
-      </c>
-      <c r="E4" s="97" t="s">
-        <v>1022</v>
       </c>
       <c r="F4" s="97" t="s">
         <v>817</v>
@@ -26005,10 +26008,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="97" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I4" s="97" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J4" s="54" t="b">
         <v>0</v>
@@ -26023,10 +26026,10 @@
         <v>828</v>
       </c>
       <c r="N4" s="97" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="O4" s="97" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="P4" s="97">
         <v>1</v>
@@ -26047,13 +26050,13 @@
         <v>830</v>
       </c>
       <c r="V4" s="97" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="W4" s="97" t="s">
         <v>98</v>
       </c>
       <c r="X4" s="97" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Y4" s="97"/>
       <c r="Z4" s="97"/>
@@ -26088,10 +26091,10 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
       <c r="N5" s="54" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="O5" s="97" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="P5" s="54">
         <v>2</v>
@@ -26110,13 +26113,13 @@
       </c>
       <c r="U5" s="54"/>
       <c r="V5" s="97" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="W5" s="54" t="s">
         <v>89</v>
       </c>
       <c r="X5" s="97" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="Y5" s="54"/>
       <c r="Z5" s="54"/>
@@ -26145,10 +26148,10 @@
         <v>825</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>826</v>
@@ -26157,10 +26160,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="97" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="I6" s="97" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J6" s="54" t="b">
         <v>0</v>
@@ -26169,10 +26172,10 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
       <c r="N6" s="54" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="O6" s="97" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="P6" s="54">
         <v>1</v>
@@ -26193,20 +26196,20 @@
         <v>830</v>
       </c>
       <c r="V6" s="97" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="W6" s="54" t="s">
         <v>98</v>
       </c>
       <c r="X6" s="97" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="Y6" s="54">
         <v>2</v>
       </c>
       <c r="Z6" s="54"/>
       <c r="AA6" s="97" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AB6" s="99"/>
       <c r="AC6" s="54" t="s">
@@ -26218,7 +26221,7 @@
       <c r="AG6" s="53"/>
       <c r="AH6" s="53"/>
       <c r="AI6" s="54" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -26254,7 +26257,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{7BC09865-3981-F04E-8FFE-306351DAD604}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -26293,7 +26296,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -26334,7 +26337,7 @@
         <v>612</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>137</v>
@@ -26412,7 +26415,7 @@
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
       <c r="G4" s="54" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H4" s="53" t="b">
         <v>1</v>
@@ -26486,7 +26489,7 @@
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="54" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H6" s="53" t="b">
         <v>0</v>
@@ -26559,7 +26562,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{80E229D6-D54E-EF42-9AE9-9963C3E4CCBB}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -26599,7 +26602,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -26643,7 +26646,7 @@
         <v>154</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>155</v>
@@ -26733,7 +26736,7 @@
         <v>165</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>166</v>
@@ -26793,7 +26796,7 @@
         <v>171</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>166</v>
@@ -26841,7 +26844,7 @@
         <v>174</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>166</v>
@@ -26921,7 +26924,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{D4EF1339-2F5D-564E-A06C-5B46B7C304CF}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -26957,7 +26960,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -27183,7 +27186,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{5DC25599-B526-564B-889C-E5DD2BAFB15C}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -27886,7 +27889,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{2A80D716-998E-E942-B05B-90EDFC11A14E}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$AJ$2:$AJ$40</xm:f>
+            <xm:f>drop_down_rule_set!$AJ$2:$AJ$41</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -27916,7 +27919,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{BE430139-897C-5C41-8134-1D444FD0E545}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -27950,7 +27953,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="40" customFormat="1" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="135" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -27970,13 +27973,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="109" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E2" s="109" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F2" s="130" t="s">
         <v>1204</v>
-      </c>
-      <c r="F2" s="130" t="s">
-        <v>1205</v>
       </c>
       <c r="G2" s="109" t="s">
         <v>421</v>
@@ -28137,7 +28140,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{71C0C6DB-724D-0F43-8496-33B8FE690945}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -28299,7 +28302,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{6EDFCD22-6406-AF49-B7CB-C87BAF77E90A}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -28327,7 +28330,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="145" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -28341,10 +28344,10 @@
         <v>136</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
@@ -28363,10 +28366,10 @@
         <v>395</v>
       </c>
       <c r="C4" s="54" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>1158</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="93.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -28377,10 +28380,10 @@
         <v>395</v>
       </c>
       <c r="C5" s="54" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>1160</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>1161</v>
       </c>
     </row>
   </sheetData>
@@ -28400,7 +28403,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{5AC4D4FF-CE15-D843-A878-2F42A13EC787}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -28466,7 +28469,7 @@
         <v>770</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>769</v>
@@ -28528,13 +28531,13 @@
         <v>766</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E4" s="54" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="G4" s="54" t="b">
         <v>1</v>
@@ -28566,7 +28569,7 @@
         <v>762</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E5" s="54" t="b">
         <v>1</v>
@@ -28968,7 +28971,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{5A4E024A-376C-F946-83EA-3DB580A73BD7}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -29037,10 +29040,10 @@
         <v>773</v>
       </c>
       <c r="G2" s="27" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>1076</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>1077</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>157</v>
@@ -29052,7 +29055,7 @@
         <v>441</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -29104,7 +29107,7 @@
         <v>10000</v>
       </c>
       <c r="L4" s="54" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -29138,7 +29141,7 @@
         <v>10000</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -29155,10 +29158,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="54" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>1078</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>1079</v>
       </c>
       <c r="I6" s="54">
         <v>53</v>
@@ -29168,7 +29171,7 @@
         <v>20000</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
   </sheetData>
@@ -29194,7 +29197,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{AE723DA9-F7FF-CB42-B8F5-2A0B8658BF3D}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -29231,7 +29234,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -29260,7 +29263,7 @@
         <v>791</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>792</v>
@@ -29330,7 +29333,7 @@
         <v>795</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E4" s="88"/>
       <c r="F4" s="87" t="s">
@@ -29419,7 +29422,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{32B51FAB-44DB-C649-B598-1CC772CC23DB}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -29463,7 +29466,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -29503,7 +29506,7 @@
         <v>83</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>675</v>
@@ -29617,7 +29620,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E4" s="91" t="s">
         <v>706</v>
@@ -29692,7 +29695,7 @@
         <v>89</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E5" s="91" t="s">
         <v>708</v>
@@ -32830,7 +32833,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{A62872E9-1FE7-454D-8EFD-FD4C160C7DBE}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -32863,7 +32866,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="138" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -35730,7 +35733,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{3AC206B9-E550-F648-9A1A-5C24332AC8C0}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -35786,7 +35789,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -35830,10 +35833,10 @@
         <v>699</v>
       </c>
       <c r="E2" s="65" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F2" s="65" t="s">
         <v>1169</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>1170</v>
       </c>
       <c r="G2" s="65" t="s">
         <v>677</v>
@@ -35848,16 +35851,16 @@
         <v>700</v>
       </c>
       <c r="K2" s="65" t="s">
+        <v>999</v>
+      </c>
+      <c r="L2" s="65" t="s">
         <v>1000</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="M2" s="65" t="s">
         <v>1001</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="N2" s="65" t="s">
         <v>1002</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>1003</v>
       </c>
       <c r="O2" s="65" t="s">
         <v>701</v>
@@ -35926,10 +35929,10 @@
         <v>718</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G4" s="53">
         <v>4</v>
@@ -35953,7 +35956,7 @@
         <v>96</v>
       </c>
       <c r="N4" s="92" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="O4" s="92" t="b">
         <v>1</v>
@@ -40218,7 +40221,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{78289091-1DB4-804D-A0E6-CB3EAD7F1CF1}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -40259,7 +40262,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="157" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
@@ -40288,46 +40291,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="34" t="s">
+        <v>903</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E2" s="106" t="s">
         <v>904</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E2" s="106" t="s">
+      <c r="F2" s="106" t="s">
         <v>905</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="G2" s="34" t="s">
         <v>906</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="106" t="s">
         <v>907</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="I2" s="34" t="s">
         <v>908</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>909</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>910</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="127" t="s">
+        <v>997</v>
+      </c>
+      <c r="M2" s="127" t="s">
+        <v>998</v>
+      </c>
+      <c r="N2" s="34" t="s">
         <v>911</v>
       </c>
-      <c r="L2" s="127" t="s">
-        <v>998</v>
-      </c>
-      <c r="M2" s="127" t="s">
-        <v>999</v>
-      </c>
-      <c r="N2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>912</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>913</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>914</v>
       </c>
       <c r="Q2" s="34" t="s">
         <v>94</v>
@@ -40344,49 +40347,49 @@
         <v>552</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>1080</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="32" t="s">
         <v>1081</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>1082</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>1083</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>1084</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>1085</v>
       </c>
       <c r="I3" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K3" s="32">
         <v>16</v>
       </c>
       <c r="L3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M3" t="s">
         <v>1087</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1088</v>
       </c>
       <c r="N3" s="32">
         <v>3</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="P3" s="32" t="b">
         <v>0</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R3" s="28"/>
     </row>
@@ -40398,18 +40401,18 @@
         <v>552</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>1091</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>1092</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>1084</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>1085</v>
       </c>
       <c r="I4" s="32" t="s">
         <v>55</v>
@@ -40426,7 +40429,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P4" s="32" t="b">
         <v>0</v>
@@ -40494,7 +40497,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{0AA5AD99-606E-5442-8299-D3D84C42FFC7}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -40536,7 +40539,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
@@ -40557,43 +40560,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C2" s="106" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>914</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>915</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>916</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="34" t="s">
         <v>917</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="H2" s="34" t="s">
         <v>918</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="34" t="s">
         <v>919</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>920</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>921</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>922</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>923</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>924</v>
-      </c>
-      <c r="N2" s="34" t="s">
-        <v>925</v>
       </c>
       <c r="O2" s="48"/>
     </row>
@@ -40602,43 +40605,43 @@
         <v>5</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D3" s="32" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>1094</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="F3" s="32" t="s">
         <v>1095</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="32" t="s">
         <v>1096</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="H3" s="32" t="s">
         <v>1097</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="I3" s="32" t="s">
         <v>1098</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="J3" s="32" t="s">
         <v>1099</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>1100</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="L3" s="32" t="s">
         <v>1101</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="M3" s="32" t="s">
         <v>1102</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="N3" s="32" t="s">
         <v>1103</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>1104</v>
       </c>
       <c r="O3" s="121"/>
     </row>
@@ -40647,41 +40650,41 @@
         <v>5</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>1096</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="H4" s="32" t="s">
         <v>1097</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>1098</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="J4" s="32" t="s">
         <v>1099</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="K4" s="32" t="s">
         <v>1100</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="L4" s="32" t="s">
         <v>1101</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="M4" s="32" t="s">
         <v>1102</v>
       </c>
-      <c r="M4" s="32" t="s">
-        <v>1103</v>
-      </c>
       <c r="N4" s="32" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="O4" s="121"/>
     </row>
@@ -40744,7 +40747,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{97996575-2D3D-494B-9FDC-B460C1866A19}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -40778,7 +40781,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="40" customFormat="1" ht="166" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -40793,22 +40796,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>1178</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>1179</v>
-      </c>
       <c r="G2" s="128" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>421</v>
@@ -41727,7 +41730,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{AB021791-EAF0-D646-9205-75B56278A712}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -41773,7 +41776,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="292" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="160" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B1" s="161"/>
       <c r="C1" s="161"/>
@@ -41801,49 +41804,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>925</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>926</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>927</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>928</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>929</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>930</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>931</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>932</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="27" t="s">
         <v>933</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="27" t="s">
         <v>935</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>936</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>937</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>938</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>939</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>940</v>
       </c>
       <c r="R2" s="26" t="s">
         <v>421</v>
@@ -41862,43 +41865,43 @@
         <v>552</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>940</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>941</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="E4" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="33" t="s">
+        <v>942</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>943</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>943</v>
-      </c>
-      <c r="G4" s="33" t="s">
+      <c r="H4" s="33" t="s">
         <v>944</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="I4" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="J4" s="28" t="s">
         <v>945</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>991</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="K4" s="28" t="s">
         <v>946</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="L4" s="28" t="s">
         <v>947</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>948</v>
       </c>
       <c r="M4" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N4" s="29" t="s">
+        <v>948</v>
+      </c>
+      <c r="O4" s="28" t="s">
         <v>949</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>950</v>
       </c>
       <c r="P4" s="28"/>
       <c r="Q4" s="28"/>
@@ -41911,40 +41914,40 @@
         <v>552</v>
       </c>
       <c r="C5" s="33" t="s">
+        <v>940</v>
+      </c>
+      <c r="D5" s="33" t="s">
         <v>941</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="E5" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="33" t="s">
+        <v>942</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>943</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>943</v>
-      </c>
-      <c r="G5" s="33" t="s">
+      <c r="H5" s="33" t="s">
         <v>944</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>945</v>
-      </c>
       <c r="I5" s="29" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="K5" s="28" t="s">
+        <v>950</v>
+      </c>
+      <c r="L5" s="28" t="s">
         <v>951</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>952</v>
       </c>
       <c r="M5" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="O5" s="28"/>
       <c r="P5" s="28"/>
@@ -41958,22 +41961,22 @@
         <v>552</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D6" s="33" t="s">
+        <v>941</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="33" t="s">
+        <v>942</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>943</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>943</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="H6" s="33" t="s">
         <v>944</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>945</v>
       </c>
       <c r="I6" s="29"/>
       <c r="J6" s="28"/>
@@ -41993,38 +41996,38 @@
         <v>552</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>986</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>941</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>942</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>942</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>943</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>944</v>
+      </c>
+      <c r="I7" s="29" t="s">
         <v>987</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>942</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>943</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>943</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>944</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>945</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>988</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M7" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
@@ -42110,7 +42113,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{6C012645-762D-6048-8E3E-D03EA1E3380F}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -42151,7 +42154,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -42160,7 +42163,7 @@
       <c r="F1" s="134"/>
       <c r="G1" s="134"/>
       <c r="H1" s="145" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I1" s="134"/>
       <c r="J1" s="134"/>
@@ -42175,46 +42178,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C2" s="123" t="s">
         <v>1107</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="D2" s="16" t="s">
         <v>1108</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>1109</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M2" s="125" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>1110</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H2" s="94" t="s">
-        <v>1114</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>1115</v>
-      </c>
-      <c r="J2" s="124" t="s">
-        <v>1116</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>1117</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>1118</v>
-      </c>
-      <c r="M2" s="125" t="s">
+      <c r="O2" s="16" t="s">
         <v>1119</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>1111</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -42244,23 +42247,23 @@
         <v>554</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>1121</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>1122</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
         <v>554</v>
       </c>
       <c r="G4" s="32" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>1123</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>1124</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>1125</v>
       </c>
       <c r="J4" s="126">
         <v>256</v>
@@ -42281,19 +42284,19 @@
         <v>552</v>
       </c>
       <c r="G5" s="32" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>1126</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="I5" s="32" t="s">
         <v>1127</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>1128</v>
       </c>
       <c r="J5" s="126">
         <v>384</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="126"/>
@@ -42308,10 +42311,10 @@
         <v>554</v>
       </c>
       <c r="C6" s="32" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>1130</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>1131</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>5</v>
@@ -42320,13 +42323,13 @@
         <v>554</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J6" s="126">
         <v>128</v>
@@ -42351,13 +42354,13 @@
         <v>552</v>
       </c>
       <c r="G7" s="32" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>1126</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>1127</v>
-      </c>
       <c r="I7" s="32" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J7" s="126">
         <v>3072</v>
@@ -42378,19 +42381,19 @@
         <v>553</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="J8" s="126">
         <v>521</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L8" s="32" t="b">
         <v>1</v>
@@ -43406,7 +43409,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{FE56B5EF-F4EF-5A4F-ABB6-0087E9CB8475}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576 E3:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -43461,7 +43464,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="163" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
@@ -43471,7 +43474,7 @@
       <c r="G1" s="158"/>
       <c r="H1" s="159"/>
       <c r="I1" s="149" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="J1" s="150"/>
       <c r="K1" s="150"/>
@@ -43508,10 +43511,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>1474</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>1475</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>83</v>
@@ -43520,64 +43523,64 @@
         <v>85</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>84</v>
       </c>
       <c r="K2" s="35" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L2" s="35" t="s">
         <v>1476</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>1477</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="34" t="s">
+        <v>1477</v>
+      </c>
+      <c r="O2" s="34" t="s">
         <v>1478</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>1479</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>1480</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>1481</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>1482</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="T2" s="34" t="s">
         <v>1483</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="U2" s="34" t="s">
         <v>1484</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="V2" s="34" t="s">
         <v>1485</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>1486</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>1487</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="Y2" s="34" t="s">
         <v>1488</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Z2" s="34" t="s">
         <v>1489</v>
-      </c>
-      <c r="Z2" s="34" t="s">
-        <v>1490</v>
       </c>
       <c r="AA2" s="34" t="s">
         <v>75</v>
       </c>
       <c r="AB2" s="34" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AC2" s="35" t="s">
         <v>421</v>
@@ -43624,16 +43627,16 @@
         <v>553</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>1492</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>1493</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>1494</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1495</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>55</v>
@@ -43642,58 +43645,58 @@
         <v>349</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="33" t="s">
+        <v>1496</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>1497</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="O4" s="18" t="s">
+        <v>1497</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>1498</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>1498</v>
-      </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>1499</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>1500</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="S4" s="18" t="s">
         <v>1501</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="T4" s="18" t="s">
         <v>1502</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>1503</v>
       </c>
       <c r="U4" s="18" t="s">
         <v>192</v>
       </c>
       <c r="V4" s="18" t="s">
+        <v>1503</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>1494</v>
+      </c>
+      <c r="X4" s="132" t="s">
         <v>1504</v>
       </c>
-      <c r="W4" s="18" t="s">
-        <v>1495</v>
-      </c>
-      <c r="X4" s="132" t="s">
+      <c r="Y4" s="18" t="s">
         <v>1505</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
         <v>1506</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>1507</v>
       </c>
       <c r="AA4" s="18"/>
       <c r="AB4" s="8" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="AC4" s="18"/>
     </row>
@@ -43705,16 +43708,16 @@
         <v>553</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>1509</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>1510</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>1511</v>
-      </c>
       <c r="F5" s="32" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>89</v>
@@ -43723,56 +43726,56 @@
         <v>103</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
       <c r="N5" s="32" t="s">
+        <v>1497</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>1497</v>
+      </c>
+      <c r="P5" s="32" t="s">
         <v>1498</v>
       </c>
-      <c r="O5" s="32" t="s">
-        <v>1498</v>
-      </c>
-      <c r="P5" s="32" t="s">
+      <c r="Q5" s="32" t="s">
         <v>1499</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>1500</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="32" t="s">
         <v>1501</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="T5" s="32" t="s">
         <v>1502</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>1503</v>
       </c>
       <c r="U5" s="32" t="s">
         <v>192</v>
       </c>
       <c r="V5" s="32" t="s">
+        <v>1503</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>1494</v>
+      </c>
+      <c r="X5" s="32" t="s">
         <v>1504</v>
       </c>
-      <c r="W5" s="32" t="s">
-        <v>1495</v>
-      </c>
-      <c r="X5" s="32" t="s">
+      <c r="Y5" s="32" t="s">
         <v>1505</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Z5" s="32" t="s">
         <v>1506</v>
-      </c>
-      <c r="Z5" s="32" t="s">
-        <v>1507</v>
       </c>
       <c r="AA5" s="32"/>
       <c r="AB5" s="33" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="AC5" s="32"/>
     </row>
@@ -49675,7 +49678,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{8EBAB4FD-0EEB-A94C-8E5F-47054604FB5B}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -49741,7 +49744,7 @@
   <sheetData>
     <row r="1" spans="1:81" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -49767,13 +49770,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>1514</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>1515</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>1516</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>421</v>
@@ -49796,23 +49799,23 @@
     </row>
     <row r="4" spans="1:81" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>553</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F4" s="32" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>1518</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>1519</v>
       </c>
       <c r="H4" s="32"/>
     </row>
@@ -49823,32 +49826,32 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>1520</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>1521</v>
       </c>
       <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:81" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>553</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F6" s="32" t="s">
+        <v>1517</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>1518</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>1519</v>
       </c>
       <c r="H6" s="32"/>
     </row>
@@ -49859,10 +49862,10 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>1522</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>1523</v>
       </c>
       <c r="H7" s="32"/>
     </row>
@@ -49873,10 +49876,10 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>1524</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>1525</v>
       </c>
       <c r="H8" s="32"/>
     </row>
@@ -51064,7 +51067,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{FADBAAE8-D364-D041-B6C6-C43423131B9B}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -51375,7 +51378,7 @@
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F12" s="33"/>
       <c r="H12" s="33" t="s">
@@ -51392,7 +51395,7 @@
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F13" s="33"/>
       <c r="H13" s="33" t="s">
@@ -51896,10 +51899,10 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86440C3D-CF10-1D4D-A4C5-971912B5EAC3}">
-  <dimension ref="A1:AV201"/>
+  <dimension ref="A1:AV202"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -51959,25 +51962,25 @@
         <v>616</v>
       </c>
       <c r="D1" s="64" t="s">
+        <v>992</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>955</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>956</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>957</v>
+      </c>
+      <c r="I1" s="64" t="s">
         <v>993</v>
       </c>
-      <c r="E1" s="64" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>956</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>957</v>
-      </c>
-      <c r="H1" s="64" t="s">
+      <c r="J1" s="64" t="s">
         <v>958</v>
-      </c>
-      <c r="I1" s="64" t="s">
-        <v>994</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>959</v>
       </c>
       <c r="K1" s="64" t="s">
         <v>618</v>
@@ -52085,13 +52088,13 @@
         <v>831</v>
       </c>
       <c r="AT1" s="55" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AU1" s="55" t="s">
         <v>617</v>
       </c>
       <c r="AV1" s="55" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="57" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -52137,7 +52140,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="129" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="M2" s="58" t="s">
         <v>38</v>
@@ -52156,7 +52159,7 @@
         <v>23</v>
       </c>
       <c r="R2" s="58" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="S2" s="58" t="s">
         <v>569</v>
@@ -52275,11 +52278,11 @@
         <v>Network@vcn01::vcn01-app</v>
       </c>
       <c r="F3" s="33" t="str">
-        <f t="shared" ref="F3:F66" ca="1" si="0">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ref="F3:F67" ca="1" si="0">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="G3" s="33">
-        <f ca="1">COUNTIF($I$2:$I$100,"*")</f>
+        <f ca="1">COUNTIF($I$2:$I$101,"*")</f>
         <v>3</v>
       </c>
       <c r="H3" s="38">
@@ -52294,7 +52297,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M3" s="58" t="s">
         <v>36</v>
@@ -52404,7 +52407,7 @@
         <v/>
       </c>
       <c r="AU3" s="104" t="str">
-        <f t="shared" ref="AU3:AU66" ca="1" si="1">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ref="AU3:AU67" ca="1" si="1">_xlfn.IFNA(IF($H3+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H3+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H3+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v>vcn01-app</v>
       </c>
       <c r="AV3" s="57" t="str">
@@ -52433,7 +52436,7 @@
         <v/>
       </c>
       <c r="G4" s="32">
-        <f ca="1">COUNTIF($J$2:$J$100,"*")</f>
+        <f ca="1">COUNTIF($J$2:$J$101,"*")</f>
         <v>1</v>
       </c>
       <c r="H4" s="38">
@@ -52645,7 +52648,7 @@
         <v/>
       </c>
       <c r="G6" s="33">
-        <f ca="1">COUNTIF($D$2:$D$100,"*")</f>
+        <f ca="1">COUNTIF($D$2:$D$101,"*")</f>
         <v>2</v>
       </c>
       <c r="H6" s="38">
@@ -52655,7 +52658,7 @@
       <c r="J6" s="33"/>
       <c r="K6" s="58"/>
       <c r="L6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="M6" s="58"/>
       <c r="N6" s="58"/>
@@ -52736,7 +52739,7 @@
       <c r="J7" s="33"/>
       <c r="K7" s="58"/>
       <c r="L7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M7" s="58"/>
       <c r="N7" s="58"/>
@@ -52815,7 +52818,7 @@
       <c r="J8" s="33"/>
       <c r="K8" s="58"/>
       <c r="L8" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
@@ -53285,7 +53288,7 @@
       <c r="J14" s="33"/>
       <c r="K14" s="58"/>
       <c r="L14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M14" s="58"/>
       <c r="N14" s="58"/>
@@ -53362,7 +53365,7 @@
       <c r="J15" s="33"/>
       <c r="K15" s="58"/>
       <c r="L15" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
@@ -53439,7 +53442,7 @@
       <c r="J16" s="33"/>
       <c r="K16" s="58"/>
       <c r="L16" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M16" s="58"/>
       <c r="N16" s="58"/>
@@ -53593,7 +53596,7 @@
       <c r="J18" s="33"/>
       <c r="K18" s="58"/>
       <c r="L18" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M18" s="58"/>
       <c r="N18" s="58"/>
@@ -53670,7 +53673,7 @@
       <c r="J19" s="33"/>
       <c r="K19" s="58"/>
       <c r="L19" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M19" s="58"/>
       <c r="N19" s="58"/>
@@ -53816,7 +53819,7 @@
       <c r="J21" s="33"/>
       <c r="K21" s="58"/>
       <c r="L21" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M21" s="58"/>
       <c r="N21" s="58"/>
@@ -53962,7 +53965,7 @@
       <c r="J23" s="33"/>
       <c r="K23" s="58"/>
       <c r="L23" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="M23" s="58"/>
       <c r="N23" s="58"/>
@@ -54108,7 +54111,7 @@
       <c r="J25" s="33"/>
       <c r="K25" s="58"/>
       <c r="L25" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M25" s="58"/>
       <c r="N25" s="58"/>
@@ -54254,7 +54257,7 @@
       <c r="J27" s="33"/>
       <c r="K27" s="58"/>
       <c r="L27" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M27" s="58"/>
       <c r="N27" s="58"/>
@@ -54400,7 +54403,7 @@
       <c r="J29" s="33"/>
       <c r="K29" s="58"/>
       <c r="L29" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M29" s="58"/>
       <c r="N29" s="58"/>
@@ -54473,7 +54476,7 @@
       <c r="J30" s="33"/>
       <c r="K30" s="58"/>
       <c r="L30" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="M30" s="58"/>
       <c r="N30" s="58"/>
@@ -54692,7 +54695,7 @@
       <c r="J33" s="33"/>
       <c r="K33" s="58"/>
       <c r="L33" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M33" s="58"/>
       <c r="N33" s="58"/>
@@ -54815,57 +54818,29 @@
       </c>
     </row>
     <row r="35" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57">
-        <v>36</v>
-      </c>
-      <c r="B35" s="57" t="str" cm="1">
-        <f t="array" aca="1" ref="B35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A35,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A35,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="C35" s="57" t="str" cm="1">
-        <f t="array" aca="1" ref="C35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"VCNS")))</f>
-        <v/>
-      </c>
-      <c r="F35" s="33" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
+      <c r="F35" s="33"/>
       <c r="G35" s="33"/>
-      <c r="H35" s="38">
-        <v>34</v>
-      </c>
+      <c r="H35" s="38"/>
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
       <c r="K35" s="58"/>
       <c r="L35" t="s">
-        <v>834</v>
+        <v>1526</v>
       </c>
       <c r="M35" s="58"/>
       <c r="N35" s="58"/>
       <c r="O35" s="58"/>
-      <c r="P35" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="P35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,4,4,1,"DHCP")))</f>
-        <v/>
-      </c>
+      <c r="P35" s="58"/>
       <c r="Q35" s="58"/>
-      <c r="R35" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="R35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"DRGs")))</f>
-        <v/>
-      </c>
+      <c r="R35" s="58"/>
       <c r="S35" s="58"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
       <c r="V35" s="58"/>
       <c r="W35" s="58"/>
       <c r="X35" s="58"/>
-      <c r="Y35" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="Y35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,3,4,1,"DedicatedVMHosts")))</f>
-        <v/>
-      </c>
-      <c r="Z35" s="58" t="str" cm="1">
-        <f t="array" aca="1" ref="Z35" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A35,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A35,4,4,1,"instances")))</f>
-        <v/>
-      </c>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
       <c r="AA35" s="58"/>
       <c r="AB35" s="58"/>
       <c r="AC35" s="58"/>
@@ -54875,21 +54850,16 @@
       <c r="AG35" s="58"/>
       <c r="AH35" s="58"/>
       <c r="AI35" s="58"/>
-      <c r="AJ35" s="58" t="s">
-        <v>286</v>
-      </c>
+      <c r="AJ35" s="58"/>
       <c r="AK35" s="61"/>
       <c r="AL35" s="58"/>
       <c r="AM35" s="58"/>
       <c r="AN35" s="58"/>
-      <c r="AU35" s="104" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
+      <c r="AU35" s="104"/>
     </row>
     <row r="36" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="57">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A36,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A36,3,4,1,"VCNS")))</f>
@@ -54905,13 +54875,13 @@
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="38">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36" s="33"/>
       <c r="J36" s="33"/>
       <c r="K36" s="58"/>
       <c r="L36" t="s">
-        <v>853</v>
+        <v>1527</v>
       </c>
       <c r="M36" s="58"/>
       <c r="N36" s="58"/>
@@ -54949,7 +54919,7 @@
       <c r="AH36" s="58"/>
       <c r="AI36" s="58"/>
       <c r="AJ36" s="58" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="AK36" s="61"/>
       <c r="AL36" s="58"/>
@@ -54962,7 +54932,7 @@
     </row>
     <row r="37" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="57">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A37,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A37,3,4,1,"VCNS")))</f>
@@ -54978,13 +54948,13 @@
       </c>
       <c r="G37" s="33"/>
       <c r="H37" s="38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
       <c r="K37" s="58"/>
       <c r="L37" t="s">
-        <v>663</v>
+        <v>852</v>
       </c>
       <c r="M37" s="58"/>
       <c r="N37" s="58"/>
@@ -55022,7 +54992,7 @@
       <c r="AH37" s="58"/>
       <c r="AI37" s="58"/>
       <c r="AJ37" s="58" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="AK37" s="61"/>
       <c r="AL37" s="58"/>
@@ -55035,7 +55005,7 @@
     </row>
     <row r="38" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="57">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A38,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A38,3,4,1,"VCNS")))</f>
@@ -55051,13 +55021,13 @@
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
       <c r="K38" s="58"/>
       <c r="L38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M38" s="58"/>
       <c r="N38" s="58"/>
@@ -55095,7 +55065,7 @@
       <c r="AH38" s="58"/>
       <c r="AI38" s="58"/>
       <c r="AJ38" s="58" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="AK38" s="61"/>
       <c r="AL38" s="58"/>
@@ -55108,7 +55078,7 @@
     </row>
     <row r="39" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="57">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A39,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A39,3,4,1,"VCNS")))</f>
@@ -55124,13 +55094,13 @@
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
       <c r="K39" s="58"/>
       <c r="L39" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M39" s="58"/>
       <c r="N39" s="58"/>
@@ -55168,7 +55138,7 @@
       <c r="AH39" s="58"/>
       <c r="AI39" s="58"/>
       <c r="AJ39" s="58" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="AK39" s="61"/>
       <c r="AL39" s="58"/>
@@ -55181,7 +55151,7 @@
     </row>
     <row r="40" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="57">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A40,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A40,3,4,1,"VCNS")))</f>
@@ -55197,13 +55167,13 @@
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="38">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
       <c r="K40" s="58"/>
-      <c r="L40" s="63" t="s">
-        <v>1195</v>
+      <c r="L40" t="s">
+        <v>665</v>
       </c>
       <c r="M40" s="58"/>
       <c r="N40" s="58"/>
@@ -55237,10 +55207,11 @@
       <c r="AD40" s="58"/>
       <c r="AE40" s="58"/>
       <c r="AF40" s="58"/>
+      <c r="AG40" s="58"/>
       <c r="AH40" s="58"/>
       <c r="AI40" s="58"/>
       <c r="AJ40" s="58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AK40" s="61"/>
       <c r="AL40" s="58"/>
@@ -55253,7 +55224,7 @@
     </row>
     <row r="41" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="57">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A41,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A41,3,4,1,"VCNS")))</f>
@@ -55269,21 +55240,32 @@
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="38">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
-      <c r="L41" t="s">
-        <v>666</v>
-      </c>
+      <c r="K41" s="58"/>
+      <c r="L41" s="63" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
       <c r="P41" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="P41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"DHCP")))</f>
         <v/>
       </c>
+      <c r="Q41" s="58"/>
       <c r="R41" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="R41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"DRGs")))</f>
         <v/>
       </c>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="58"/>
+      <c r="X41" s="58"/>
       <c r="Y41" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="Y41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,3,4,1,"DedicatedVMHosts")))</f>
         <v/>
@@ -55292,7 +55274,21 @@
         <f t="array" aca="1" ref="Z41" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A41,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A41,4,4,1,"instances")))</f>
         <v/>
       </c>
-      <c r="AK41" s="62"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="58"/>
+      <c r="AC41" s="58"/>
+      <c r="AD41" s="58"/>
+      <c r="AE41" s="58"/>
+      <c r="AF41" s="58"/>
+      <c r="AH41" s="58"/>
+      <c r="AI41" s="58"/>
+      <c r="AJ41" s="58" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK41" s="61"/>
+      <c r="AL41" s="58"/>
+      <c r="AM41" s="58"/>
+      <c r="AN41" s="58"/>
       <c r="AU41" s="104" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -55300,7 +55296,7 @@
     </row>
     <row r="42" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="57">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A42,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A42,3,4,1,"VCNS")))</f>
@@ -55316,12 +55312,12 @@
       </c>
       <c r="G42" s="33"/>
       <c r="H42" s="38">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
       <c r="L42" t="s">
-        <v>835</v>
+        <v>666</v>
       </c>
       <c r="P42" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="P42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"DHCP")))</f>
@@ -55339,6 +55335,7 @@
         <f t="array" aca="1" ref="Z42" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A42,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A42,4,4,1,"instances")))</f>
         <v/>
       </c>
+      <c r="AK42" s="62"/>
       <c r="AU42" s="104" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -55346,7 +55343,7 @@
     </row>
     <row r="43" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="57">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A43,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A43,3,4,1,"VCNS")))</f>
@@ -55362,12 +55359,12 @@
       </c>
       <c r="G43" s="33"/>
       <c r="H43" s="38">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I43" s="33"/>
       <c r="J43" s="33"/>
       <c r="L43" t="s">
-        <v>667</v>
+        <v>834</v>
       </c>
       <c r="P43" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="P43" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A43,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A43,4,4,1,"DHCP")))</f>
@@ -55392,7 +55389,7 @@
     </row>
     <row r="44" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="57">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A44,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A44,3,4,1,"VCNS")))</f>
@@ -55408,12 +55405,12 @@
       </c>
       <c r="G44" s="33"/>
       <c r="H44" s="38">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I44" s="33"/>
       <c r="J44" s="33"/>
-      <c r="L44" s="57" t="s">
-        <v>1196</v>
+      <c r="L44" t="s">
+        <v>667</v>
       </c>
       <c r="P44" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="P44" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A44,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A44,4,4,1,"DHCP")))</f>
@@ -55438,7 +55435,7 @@
     </row>
     <row r="45" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="57">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A45,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A45,3,4,1,"VCNS")))</f>
@@ -55454,12 +55451,12 @@
       </c>
       <c r="G45" s="33"/>
       <c r="H45" s="38">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I45" s="33"/>
       <c r="J45" s="33"/>
-      <c r="L45" t="s">
-        <v>849</v>
+      <c r="L45" s="57" t="s">
+        <v>1195</v>
       </c>
       <c r="P45" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="P45" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A45,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A45,4,4,1,"DHCP")))</f>
@@ -55484,7 +55481,7 @@
     </row>
     <row r="46" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="57">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A46,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A46,3,4,1,"VCNS")))</f>
@@ -55500,12 +55497,12 @@
       </c>
       <c r="G46" s="33"/>
       <c r="H46" s="38">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46" s="33"/>
       <c r="J46" s="33"/>
       <c r="L46" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="P46" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="P46" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A46,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A46,4,4,1,"DHCP")))</f>
@@ -55530,7 +55527,7 @@
     </row>
     <row r="47" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="57">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A47,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A47,3,4,1,"VCNS")))</f>
@@ -55546,12 +55543,12 @@
       </c>
       <c r="G47" s="33"/>
       <c r="H47" s="38">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I47" s="33"/>
       <c r="J47" s="33"/>
-      <c r="L47" s="40" t="s">
-        <v>1197</v>
+      <c r="L47" t="s">
+        <v>849</v>
       </c>
       <c r="P47" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="P47" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A47,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A47,4,4,1,"DHCP")))</f>
@@ -55576,7 +55573,7 @@
     </row>
     <row r="48" spans="1:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="57">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A48,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A48,3,4,1,"VCNS")))</f>
@@ -55592,12 +55589,12 @@
       </c>
       <c r="G48" s="33"/>
       <c r="H48" s="38">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" s="33"/>
       <c r="J48" s="33"/>
-      <c r="L48" t="s">
-        <v>844</v>
+      <c r="L48" s="40" t="s">
+        <v>1196</v>
       </c>
       <c r="P48" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="P48" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A48,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A48,4,4,1,"DHCP")))</f>
@@ -55622,7 +55619,7 @@
     </row>
     <row r="49" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="57">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="57" t="str" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A49,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A49,3,4,1,"VCNS")))</f>
@@ -55638,12 +55635,12 @@
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="38">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" s="33"/>
       <c r="J49" s="33"/>
       <c r="L49" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="P49" s="58" t="str" cm="1">
         <f t="array" aca="1" ref="P49" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A49,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A49,4,4,1,"DHCP")))</f>
@@ -55667,44 +55664,70 @@
       </c>
     </row>
     <row r="50" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="57">
+        <v>50</v>
+      </c>
+      <c r="B50" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="B50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A50,18,4,1)),"*END*")&gt;0,"","VCN"&amp;"::"&amp;INDIRECT(ADDRESS(A50,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
+      <c r="C50" s="57" t="str" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"VCNS")&amp;":"&amp;ADDRESS(A50,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A50,3,4,1,"VCNS")))</f>
+        <v/>
+      </c>
       <c r="F50" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="G50" s="33"/>
       <c r="H50" s="38">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I50" s="33"/>
       <c r="J50" s="33"/>
       <c r="L50" t="s">
-        <v>848</v>
-      </c>
-      <c r="AG50" s="63"/>
+        <v>845</v>
+      </c>
+      <c r="P50" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="P50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A50,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A50,4,4,1,"DHCP")))</f>
+        <v/>
+      </c>
+      <c r="R50" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="R50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A50,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A50,3,4,1,"DRGs")))</f>
+        <v/>
+      </c>
+      <c r="Y50" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="Y50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A50,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A50,3,4,1,"DedicatedVMHosts")))</f>
+        <v/>
+      </c>
+      <c r="Z50" s="58" t="str" cm="1">
+        <f t="array" aca="1" ref="Z50" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"instances")&amp;":"&amp;ADDRESS(A50,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A50,4,4,1,"instances")))</f>
+        <v/>
+      </c>
       <c r="AU50" s="104" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:48" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F51" s="33" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="38">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I51" s="33"/>
       <c r="J51" s="33"/>
-      <c r="L51" s="40" t="s">
-        <v>1198</v>
-      </c>
+      <c r="L51" t="s">
+        <v>847</v>
+      </c>
+      <c r="AG51" s="63"/>
       <c r="AU51" s="104" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
-      <c r="AV51" s="57"/>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="F52" s="33" t="str">
@@ -55713,12 +55736,12 @@
       </c>
       <c r="G52" s="33"/>
       <c r="H52" s="38">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I52" s="33"/>
       <c r="J52" s="33"/>
-      <c r="L52" t="s">
-        <v>847</v>
+      <c r="L52" s="40" t="s">
+        <v>1197</v>
       </c>
       <c r="AU52" s="104" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -55733,12 +55756,12 @@
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="38">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I53" s="33"/>
       <c r="J53" s="33"/>
       <c r="L53" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AU53" s="104" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -55753,12 +55776,12 @@
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="38">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I54" s="33"/>
       <c r="J54" s="33"/>
-      <c r="L54" s="63" t="s">
-        <v>4</v>
+      <c r="L54" t="s">
+        <v>844</v>
       </c>
       <c r="AU54" s="104" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -55773,10 +55796,13 @@
       </c>
       <c r="G55" s="33"/>
       <c r="H55" s="38">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I55" s="33"/>
       <c r="J55" s="33"/>
+      <c r="L55" s="63" t="s">
+        <v>4</v>
+      </c>
       <c r="AU55" s="104" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
@@ -55790,7 +55816,7 @@
       </c>
       <c r="G56" s="33"/>
       <c r="H56" s="38">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I56" s="33"/>
       <c r="J56" s="33"/>
@@ -55807,7 +55833,7 @@
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="38">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I57" s="33"/>
       <c r="J57" s="33"/>
@@ -55824,7 +55850,7 @@
       </c>
       <c r="G58" s="33"/>
       <c r="H58" s="38">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I58" s="33"/>
       <c r="J58" s="33"/>
@@ -55841,7 +55867,7 @@
       </c>
       <c r="G59" s="33"/>
       <c r="H59" s="38">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I59" s="33"/>
       <c r="J59" s="33"/>
@@ -55858,7 +55884,7 @@
       </c>
       <c r="G60" s="33"/>
       <c r="H60" s="38">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I60" s="33"/>
       <c r="J60" s="33"/>
@@ -55875,7 +55901,7 @@
       </c>
       <c r="G61" s="33"/>
       <c r="H61" s="38">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I61" s="33"/>
       <c r="J61" s="33"/>
@@ -55892,7 +55918,7 @@
       </c>
       <c r="G62" s="33"/>
       <c r="H62" s="38">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I62" s="33"/>
       <c r="J62" s="33"/>
@@ -55909,7 +55935,7 @@
       </c>
       <c r="G63" s="33"/>
       <c r="H63" s="38">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I63" s="33"/>
       <c r="J63" s="33"/>
@@ -55926,7 +55952,7 @@
       </c>
       <c r="G64" s="33"/>
       <c r="H64" s="38">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I64" s="33"/>
       <c r="J64" s="33"/>
@@ -55943,7 +55969,7 @@
       </c>
       <c r="G65" s="33"/>
       <c r="H65" s="38">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I65" s="33"/>
       <c r="J65" s="33"/>
@@ -55960,7 +55986,7 @@
       </c>
       <c r="G66" s="33"/>
       <c r="H66" s="38">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I66" s="33"/>
       <c r="J66" s="33"/>
@@ -55972,34 +55998,34 @@
     </row>
     <row r="67" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F67" s="33" t="str">
-        <f t="shared" ref="F67:F130" ca="1" si="2">_xlfn.IFNA(IF($H67+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H67+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H67+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="G67" s="33"/>
       <c r="H67" s="38">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I67" s="33"/>
       <c r="J67" s="33"/>
       <c r="AU67" s="104" t="str">
-        <f t="shared" ref="AU67:AU130" ca="1" si="3">_xlfn.IFNA(IF($H67+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H67+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H67+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="AV67" s="57"/>
     </row>
     <row r="68" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F68" s="33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="F68:F131" ca="1" si="2">_xlfn.IFNA(IF($H68+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H68+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H68+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="G68" s="33"/>
       <c r="H68" s="38">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I68" s="33"/>
       <c r="J68" s="33"/>
       <c r="AU68" s="104" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="AU68:AU131" ca="1" si="3">_xlfn.IFNA(IF($H68+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H68+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H68+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="AV68" s="57"/>
@@ -56011,7 +56037,7 @@
       </c>
       <c r="G69" s="33"/>
       <c r="H69" s="38">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I69" s="33"/>
       <c r="J69" s="33"/>
@@ -56028,7 +56054,7 @@
       </c>
       <c r="G70" s="33"/>
       <c r="H70" s="38">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I70" s="33"/>
       <c r="J70" s="33"/>
@@ -56045,7 +56071,7 @@
       </c>
       <c r="G71" s="33"/>
       <c r="H71" s="38">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I71" s="33"/>
       <c r="J71" s="33"/>
@@ -56062,7 +56088,7 @@
       </c>
       <c r="G72" s="33"/>
       <c r="H72" s="38">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I72" s="33"/>
       <c r="J72" s="33"/>
@@ -56079,7 +56105,7 @@
       </c>
       <c r="G73" s="33"/>
       <c r="H73" s="38">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I73" s="33"/>
       <c r="J73" s="33"/>
@@ -56096,7 +56122,7 @@
       </c>
       <c r="G74" s="33"/>
       <c r="H74" s="38">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I74" s="33"/>
       <c r="J74" s="33"/>
@@ -56113,7 +56139,7 @@
       </c>
       <c r="G75" s="33"/>
       <c r="H75" s="38">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I75" s="33"/>
       <c r="J75" s="33"/>
@@ -56130,7 +56156,7 @@
       </c>
       <c r="G76" s="33"/>
       <c r="H76" s="38">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I76" s="33"/>
       <c r="J76" s="33"/>
@@ -56147,7 +56173,7 @@
       </c>
       <c r="G77" s="33"/>
       <c r="H77" s="38">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I77" s="33"/>
       <c r="J77" s="33"/>
@@ -56164,7 +56190,7 @@
       </c>
       <c r="G78" s="33"/>
       <c r="H78" s="38">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I78" s="33"/>
       <c r="J78" s="33"/>
@@ -56181,7 +56207,7 @@
       </c>
       <c r="G79" s="33"/>
       <c r="H79" s="38">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I79" s="33"/>
       <c r="J79" s="33"/>
@@ -56198,7 +56224,7 @@
       </c>
       <c r="G80" s="33"/>
       <c r="H80" s="38">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I80" s="33"/>
       <c r="J80" s="33"/>
@@ -56215,7 +56241,7 @@
       </c>
       <c r="G81" s="33"/>
       <c r="H81" s="38">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I81" s="33"/>
       <c r="J81" s="33"/>
@@ -56232,7 +56258,7 @@
       </c>
       <c r="G82" s="33"/>
       <c r="H82" s="38">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I82" s="33"/>
       <c r="J82" s="33"/>
@@ -56249,7 +56275,7 @@
       </c>
       <c r="G83" s="33"/>
       <c r="H83" s="38">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I83" s="33"/>
       <c r="J83" s="33"/>
@@ -56266,7 +56292,7 @@
       </c>
       <c r="G84" s="33"/>
       <c r="H84" s="38">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I84" s="33"/>
       <c r="J84" s="33"/>
@@ -56283,7 +56309,7 @@
       </c>
       <c r="G85" s="33"/>
       <c r="H85" s="38">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I85" s="33"/>
       <c r="J85" s="33"/>
@@ -56300,7 +56326,7 @@
       </c>
       <c r="G86" s="33"/>
       <c r="H86" s="38">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I86" s="33"/>
       <c r="J86" s="33"/>
@@ -56317,7 +56343,7 @@
       </c>
       <c r="G87" s="33"/>
       <c r="H87" s="38">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I87" s="33"/>
       <c r="J87" s="33"/>
@@ -56334,7 +56360,7 @@
       </c>
       <c r="G88" s="33"/>
       <c r="H88" s="38">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I88" s="33"/>
       <c r="J88" s="33"/>
@@ -56351,7 +56377,7 @@
       </c>
       <c r="G89" s="33"/>
       <c r="H89" s="38">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I89" s="33"/>
       <c r="J89" s="33"/>
@@ -56368,7 +56394,7 @@
       </c>
       <c r="G90" s="33"/>
       <c r="H90" s="38">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I90" s="33"/>
       <c r="J90" s="33"/>
@@ -56385,7 +56411,7 @@
       </c>
       <c r="G91" s="33"/>
       <c r="H91" s="38">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I91" s="33"/>
       <c r="J91" s="33"/>
@@ -56402,7 +56428,7 @@
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="38">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I92" s="33"/>
       <c r="J92" s="33"/>
@@ -56419,7 +56445,7 @@
       </c>
       <c r="G93" s="33"/>
       <c r="H93" s="38">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="33"/>
       <c r="J93" s="33"/>
@@ -56436,7 +56462,7 @@
       </c>
       <c r="G94" s="33"/>
       <c r="H94" s="38">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I94" s="33"/>
       <c r="J94" s="33"/>
@@ -56453,7 +56479,7 @@
       </c>
       <c r="G95" s="33"/>
       <c r="H95" s="38">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I95" s="33"/>
       <c r="J95" s="33"/>
@@ -56470,7 +56496,7 @@
       </c>
       <c r="G96" s="33"/>
       <c r="H96" s="38">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I96" s="33"/>
       <c r="J96" s="33"/>
@@ -56487,7 +56513,7 @@
       </c>
       <c r="G97" s="33"/>
       <c r="H97" s="38">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I97" s="33"/>
       <c r="J97" s="33"/>
@@ -56504,7 +56530,7 @@
       </c>
       <c r="G98" s="33"/>
       <c r="H98" s="38">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I98" s="33"/>
       <c r="J98" s="33"/>
@@ -56521,7 +56547,7 @@
       </c>
       <c r="G99" s="33"/>
       <c r="H99" s="38">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I99" s="33"/>
       <c r="J99" s="33"/>
@@ -56538,7 +56564,7 @@
       </c>
       <c r="G100" s="33"/>
       <c r="H100" s="38">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I100" s="33"/>
       <c r="J100" s="33"/>
@@ -56555,7 +56581,7 @@
       </c>
       <c r="G101" s="33"/>
       <c r="H101" s="38">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I101" s="33"/>
       <c r="J101" s="33"/>
@@ -56572,7 +56598,7 @@
       </c>
       <c r="G102" s="33"/>
       <c r="H102" s="38">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I102" s="33"/>
       <c r="J102" s="33"/>
@@ -56589,7 +56615,7 @@
       </c>
       <c r="G103" s="33"/>
       <c r="H103" s="38">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I103" s="33"/>
       <c r="J103" s="33"/>
@@ -56606,7 +56632,7 @@
       </c>
       <c r="G104" s="33"/>
       <c r="H104" s="38">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I104" s="33"/>
       <c r="J104" s="33"/>
@@ -56623,7 +56649,7 @@
       </c>
       <c r="G105" s="33"/>
       <c r="H105" s="38">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I105" s="33"/>
       <c r="J105" s="33"/>
@@ -56640,7 +56666,7 @@
       </c>
       <c r="G106" s="33"/>
       <c r="H106" s="38">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I106" s="33"/>
       <c r="J106" s="33"/>
@@ -56657,7 +56683,7 @@
       </c>
       <c r="G107" s="33"/>
       <c r="H107" s="38">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I107" s="33"/>
       <c r="J107" s="33"/>
@@ -56674,7 +56700,7 @@
       </c>
       <c r="G108" s="33"/>
       <c r="H108" s="38">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I108" s="33"/>
       <c r="J108" s="33"/>
@@ -56691,7 +56717,7 @@
       </c>
       <c r="G109" s="33"/>
       <c r="H109" s="38">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I109" s="33"/>
       <c r="J109" s="33"/>
@@ -56708,7 +56734,7 @@
       </c>
       <c r="G110" s="33"/>
       <c r="H110" s="38">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I110" s="33"/>
       <c r="J110" s="33"/>
@@ -56725,7 +56751,7 @@
       </c>
       <c r="G111" s="33"/>
       <c r="H111" s="38">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I111" s="33"/>
       <c r="J111" s="33"/>
@@ -56742,7 +56768,7 @@
       </c>
       <c r="G112" s="33"/>
       <c r="H112" s="38">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I112" s="33"/>
       <c r="J112" s="33"/>
@@ -56759,7 +56785,7 @@
       </c>
       <c r="G113" s="33"/>
       <c r="H113" s="38">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I113" s="33"/>
       <c r="J113" s="33"/>
@@ -56776,7 +56802,7 @@
       </c>
       <c r="G114" s="33"/>
       <c r="H114" s="38">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I114" s="33"/>
       <c r="J114" s="33"/>
@@ -56793,7 +56819,7 @@
       </c>
       <c r="G115" s="33"/>
       <c r="H115" s="38">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I115" s="33"/>
       <c r="J115" s="33"/>
@@ -56810,7 +56836,7 @@
       </c>
       <c r="G116" s="33"/>
       <c r="H116" s="38">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I116" s="33"/>
       <c r="J116" s="33"/>
@@ -56827,7 +56853,7 @@
       </c>
       <c r="G117" s="33"/>
       <c r="H117" s="38">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I117" s="33"/>
       <c r="J117" s="33"/>
@@ -56844,7 +56870,7 @@
       </c>
       <c r="G118" s="33"/>
       <c r="H118" s="38">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I118" s="33"/>
       <c r="J118" s="33"/>
@@ -56861,7 +56887,7 @@
       </c>
       <c r="G119" s="33"/>
       <c r="H119" s="38">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I119" s="33"/>
       <c r="J119" s="33"/>
@@ -56878,7 +56904,7 @@
       </c>
       <c r="G120" s="33"/>
       <c r="H120" s="38">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I120" s="33"/>
       <c r="J120" s="33"/>
@@ -56895,7 +56921,7 @@
       </c>
       <c r="G121" s="33"/>
       <c r="H121" s="38">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I121" s="33"/>
       <c r="J121" s="33"/>
@@ -56912,7 +56938,7 @@
       </c>
       <c r="G122" s="33"/>
       <c r="H122" s="38">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I122" s="33"/>
       <c r="J122" s="33"/>
@@ -56929,7 +56955,7 @@
       </c>
       <c r="G123" s="33"/>
       <c r="H123" s="38">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I123" s="33"/>
       <c r="J123" s="33"/>
@@ -56946,7 +56972,7 @@
       </c>
       <c r="G124" s="33"/>
       <c r="H124" s="38">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I124" s="33"/>
       <c r="J124" s="33"/>
@@ -56963,7 +56989,7 @@
       </c>
       <c r="G125" s="33"/>
       <c r="H125" s="38">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I125" s="33"/>
       <c r="J125" s="33"/>
@@ -56980,7 +57006,7 @@
       </c>
       <c r="G126" s="33"/>
       <c r="H126" s="38">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" s="33"/>
       <c r="J126" s="33"/>
@@ -56997,7 +57023,7 @@
       </c>
       <c r="G127" s="33"/>
       <c r="H127" s="38">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I127" s="33"/>
       <c r="J127" s="33"/>
@@ -57014,7 +57040,7 @@
       </c>
       <c r="G128" s="33"/>
       <c r="H128" s="38">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I128" s="33"/>
       <c r="J128" s="33"/>
@@ -57031,7 +57057,7 @@
       </c>
       <c r="G129" s="33"/>
       <c r="H129" s="38">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I129" s="33"/>
       <c r="J129" s="33"/>
@@ -57048,7 +57074,7 @@
       </c>
       <c r="G130" s="33"/>
       <c r="H130" s="38">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I130" s="33"/>
       <c r="J130" s="33"/>
@@ -57060,34 +57086,34 @@
     </row>
     <row r="131" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F131" s="33" t="str">
-        <f t="shared" ref="F131:F194" ca="1" si="4">_xlfn.IFNA(IF($H131+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H131+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H131+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="G131" s="33"/>
       <c r="H131" s="38">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I131" s="33"/>
       <c r="J131" s="33"/>
       <c r="AU131" s="104" t="str">
-        <f t="shared" ref="AU131:AU194" ca="1" si="5">_xlfn.IFNA(IF($H131+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H131+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H131+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="AV131" s="57"/>
     </row>
     <row r="132" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F132" s="33" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="F132:F195" ca="1" si="4">_xlfn.IFNA(IF($H132+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H132+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H132+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="G132" s="33"/>
       <c r="H132" s="38">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I132" s="33"/>
       <c r="J132" s="33"/>
       <c r="AU132" s="104" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ref="AU132:AU195" ca="1" si="5">_xlfn.IFNA(IF($H132+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H132+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H132+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="AV132" s="57"/>
@@ -57099,7 +57125,7 @@
       </c>
       <c r="G133" s="33"/>
       <c r="H133" s="38">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I133" s="33"/>
       <c r="J133" s="33"/>
@@ -57116,7 +57142,7 @@
       </c>
       <c r="G134" s="33"/>
       <c r="H134" s="38">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I134" s="33"/>
       <c r="J134" s="33"/>
@@ -57133,7 +57159,7 @@
       </c>
       <c r="G135" s="33"/>
       <c r="H135" s="38">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I135" s="33"/>
       <c r="J135" s="33"/>
@@ -57150,7 +57176,7 @@
       </c>
       <c r="G136" s="33"/>
       <c r="H136" s="38">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I136" s="33"/>
       <c r="J136" s="33"/>
@@ -57167,7 +57193,7 @@
       </c>
       <c r="G137" s="33"/>
       <c r="H137" s="38">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I137" s="33"/>
       <c r="J137" s="33"/>
@@ -57184,7 +57210,7 @@
       </c>
       <c r="G138" s="33"/>
       <c r="H138" s="38">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I138" s="33"/>
       <c r="J138" s="33"/>
@@ -57201,7 +57227,7 @@
       </c>
       <c r="G139" s="33"/>
       <c r="H139" s="38">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I139" s="33"/>
       <c r="J139" s="33"/>
@@ -57218,7 +57244,7 @@
       </c>
       <c r="G140" s="33"/>
       <c r="H140" s="38">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I140" s="33"/>
       <c r="J140" s="33"/>
@@ -57235,7 +57261,7 @@
       </c>
       <c r="G141" s="33"/>
       <c r="H141" s="38">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I141" s="33"/>
       <c r="J141" s="33"/>
@@ -57252,7 +57278,7 @@
       </c>
       <c r="G142" s="33"/>
       <c r="H142" s="38">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I142" s="33"/>
       <c r="J142" s="33"/>
@@ -57269,7 +57295,7 @@
       </c>
       <c r="G143" s="33"/>
       <c r="H143" s="38">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I143" s="33"/>
       <c r="J143" s="33"/>
@@ -57286,7 +57312,7 @@
       </c>
       <c r="G144" s="33"/>
       <c r="H144" s="38">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I144" s="33"/>
       <c r="J144" s="33"/>
@@ -57303,7 +57329,7 @@
       </c>
       <c r="G145" s="33"/>
       <c r="H145" s="38">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I145" s="33"/>
       <c r="J145" s="33"/>
@@ -57320,7 +57346,7 @@
       </c>
       <c r="G146" s="33"/>
       <c r="H146" s="38">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I146" s="33"/>
       <c r="J146" s="33"/>
@@ -57337,7 +57363,7 @@
       </c>
       <c r="G147" s="33"/>
       <c r="H147" s="38">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I147" s="33"/>
       <c r="J147" s="33"/>
@@ -57354,7 +57380,7 @@
       </c>
       <c r="G148" s="33"/>
       <c r="H148" s="38">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I148" s="33"/>
       <c r="J148" s="33"/>
@@ -57371,7 +57397,7 @@
       </c>
       <c r="G149" s="33"/>
       <c r="H149" s="38">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I149" s="33"/>
       <c r="J149" s="33"/>
@@ -57388,7 +57414,7 @@
       </c>
       <c r="G150" s="33"/>
       <c r="H150" s="38">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I150" s="33"/>
       <c r="J150" s="33"/>
@@ -57405,7 +57431,7 @@
       </c>
       <c r="G151" s="33"/>
       <c r="H151" s="38">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I151" s="33"/>
       <c r="J151" s="33"/>
@@ -57422,7 +57448,7 @@
       </c>
       <c r="G152" s="33"/>
       <c r="H152" s="38">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I152" s="33"/>
       <c r="J152" s="33"/>
@@ -57439,7 +57465,7 @@
       </c>
       <c r="G153" s="33"/>
       <c r="H153" s="38">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I153" s="33"/>
       <c r="J153" s="33"/>
@@ -57456,7 +57482,7 @@
       </c>
       <c r="G154" s="33"/>
       <c r="H154" s="38">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I154" s="33"/>
       <c r="J154" s="33"/>
@@ -57473,7 +57499,7 @@
       </c>
       <c r="G155" s="33"/>
       <c r="H155" s="38">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I155" s="33"/>
       <c r="J155" s="33"/>
@@ -57490,7 +57516,7 @@
       </c>
       <c r="G156" s="33"/>
       <c r="H156" s="38">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I156" s="33"/>
       <c r="J156" s="33"/>
@@ -57507,7 +57533,7 @@
       </c>
       <c r="G157" s="33"/>
       <c r="H157" s="38">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I157" s="33"/>
       <c r="J157" s="33"/>
@@ -57524,7 +57550,7 @@
       </c>
       <c r="G158" s="33"/>
       <c r="H158" s="38">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I158" s="33"/>
       <c r="J158" s="33"/>
@@ -57541,7 +57567,7 @@
       </c>
       <c r="G159" s="33"/>
       <c r="H159" s="38">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I159" s="33"/>
       <c r="J159" s="33"/>
@@ -57558,7 +57584,7 @@
       </c>
       <c r="G160" s="33"/>
       <c r="H160" s="38">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I160" s="33"/>
       <c r="J160" s="33"/>
@@ -57575,7 +57601,7 @@
       </c>
       <c r="G161" s="33"/>
       <c r="H161" s="38">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I161" s="33"/>
       <c r="J161" s="33"/>
@@ -57592,7 +57618,7 @@
       </c>
       <c r="G162" s="33"/>
       <c r="H162" s="38">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I162" s="33"/>
       <c r="J162" s="33"/>
@@ -57609,7 +57635,7 @@
       </c>
       <c r="G163" s="33"/>
       <c r="H163" s="38">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I163" s="33"/>
       <c r="J163" s="33"/>
@@ -57626,7 +57652,7 @@
       </c>
       <c r="G164" s="33"/>
       <c r="H164" s="38">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I164" s="33"/>
       <c r="J164" s="33"/>
@@ -57643,7 +57669,7 @@
       </c>
       <c r="G165" s="33"/>
       <c r="H165" s="38">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I165" s="33"/>
       <c r="J165" s="33"/>
@@ -57660,7 +57686,7 @@
       </c>
       <c r="G166" s="33"/>
       <c r="H166" s="38">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I166" s="33"/>
       <c r="J166" s="33"/>
@@ -57677,7 +57703,7 @@
       </c>
       <c r="G167" s="33"/>
       <c r="H167" s="38">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I167" s="33"/>
       <c r="J167" s="33"/>
@@ -57694,7 +57720,7 @@
       </c>
       <c r="G168" s="33"/>
       <c r="H168" s="38">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I168" s="33"/>
       <c r="J168" s="33"/>
@@ -57711,7 +57737,7 @@
       </c>
       <c r="G169" s="33"/>
       <c r="H169" s="38">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I169" s="33"/>
       <c r="J169" s="33"/>
@@ -57728,7 +57754,7 @@
       </c>
       <c r="G170" s="33"/>
       <c r="H170" s="38">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I170" s="33"/>
       <c r="J170" s="33"/>
@@ -57745,7 +57771,7 @@
       </c>
       <c r="G171" s="33"/>
       <c r="H171" s="38">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I171" s="33"/>
       <c r="J171" s="33"/>
@@ -57762,7 +57788,7 @@
       </c>
       <c r="G172" s="33"/>
       <c r="H172" s="38">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I172" s="33"/>
       <c r="J172" s="33"/>
@@ -57779,7 +57805,7 @@
       </c>
       <c r="G173" s="33"/>
       <c r="H173" s="38">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I173" s="33"/>
       <c r="J173" s="33"/>
@@ -57796,7 +57822,7 @@
       </c>
       <c r="G174" s="33"/>
       <c r="H174" s="38">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I174" s="33"/>
       <c r="J174" s="33"/>
@@ -57813,7 +57839,7 @@
       </c>
       <c r="G175" s="33"/>
       <c r="H175" s="38">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I175" s="33"/>
       <c r="J175" s="33"/>
@@ -57830,7 +57856,7 @@
       </c>
       <c r="G176" s="33"/>
       <c r="H176" s="38">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I176" s="33"/>
       <c r="J176" s="33"/>
@@ -57847,7 +57873,7 @@
       </c>
       <c r="G177" s="33"/>
       <c r="H177" s="38">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I177" s="33"/>
       <c r="J177" s="33"/>
@@ -57864,7 +57890,7 @@
       </c>
       <c r="G178" s="33"/>
       <c r="H178" s="38">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I178" s="33"/>
       <c r="J178" s="33"/>
@@ -57881,7 +57907,7 @@
       </c>
       <c r="G179" s="33"/>
       <c r="H179" s="38">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I179" s="33"/>
       <c r="J179" s="33"/>
@@ -57898,7 +57924,7 @@
       </c>
       <c r="G180" s="33"/>
       <c r="H180" s="38">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I180" s="33"/>
       <c r="J180" s="33"/>
@@ -57915,7 +57941,7 @@
       </c>
       <c r="G181" s="33"/>
       <c r="H181" s="38">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I181" s="33"/>
       <c r="J181" s="33"/>
@@ -57932,7 +57958,7 @@
       </c>
       <c r="G182" s="33"/>
       <c r="H182" s="38">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I182" s="33"/>
       <c r="J182" s="33"/>
@@ -57949,7 +57975,7 @@
       </c>
       <c r="G183" s="33"/>
       <c r="H183" s="38">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I183" s="33"/>
       <c r="J183" s="33"/>
@@ -57966,7 +57992,7 @@
       </c>
       <c r="G184" s="33"/>
       <c r="H184" s="38">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I184" s="33"/>
       <c r="J184" s="33"/>
@@ -57983,7 +58009,7 @@
       </c>
       <c r="G185" s="33"/>
       <c r="H185" s="38">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I185" s="33"/>
       <c r="J185" s="33"/>
@@ -58000,7 +58026,7 @@
       </c>
       <c r="G186" s="33"/>
       <c r="H186" s="38">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I186" s="33"/>
       <c r="J186" s="33"/>
@@ -58017,7 +58043,7 @@
       </c>
       <c r="G187" s="33"/>
       <c r="H187" s="38">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I187" s="33"/>
       <c r="J187" s="33"/>
@@ -58034,7 +58060,7 @@
       </c>
       <c r="G188" s="33"/>
       <c r="H188" s="38">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I188" s="33"/>
       <c r="J188" s="33"/>
@@ -58051,7 +58077,7 @@
       </c>
       <c r="G189" s="33"/>
       <c r="H189" s="38">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I189" s="33"/>
       <c r="J189" s="33"/>
@@ -58068,7 +58094,7 @@
       </c>
       <c r="G190" s="33"/>
       <c r="H190" s="38">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I190" s="33"/>
       <c r="J190" s="33"/>
@@ -58085,7 +58111,7 @@
       </c>
       <c r="G191" s="33"/>
       <c r="H191" s="38">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I191" s="33"/>
       <c r="J191" s="33"/>
@@ -58102,7 +58128,7 @@
       </c>
       <c r="G192" s="33"/>
       <c r="H192" s="38">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I192" s="33"/>
       <c r="J192" s="33"/>
@@ -58119,7 +58145,7 @@
       </c>
       <c r="G193" s="33"/>
       <c r="H193" s="38">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I193" s="33"/>
       <c r="J193" s="33"/>
@@ -58136,7 +58162,7 @@
       </c>
       <c r="G194" s="33"/>
       <c r="H194" s="38">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I194" s="33"/>
       <c r="J194" s="33"/>
@@ -58148,34 +58174,34 @@
     </row>
     <row r="195" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F195" s="33" t="str">
-        <f t="shared" ref="F195:F201" ca="1" si="6">_xlfn.IFNA(IF($H195+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H195+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H195+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="G195" s="33"/>
       <c r="H195" s="38">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I195" s="33"/>
       <c r="J195" s="33"/>
       <c r="AU195" s="104" t="str">
-        <f t="shared" ref="AU195:AU200" ca="1" si="7">_xlfn.IFNA(IF($H195+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H195+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H195+2&amp;":$E$"&amp;$G$2),0))),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="AV195" s="57"/>
     </row>
     <row r="196" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F196" s="33" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="F196:F202" ca="1" si="6">_xlfn.IFNA(IF($H196+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H196+2&amp;":$D$"&amp;$G$2),MATCH("vlan*",INDIRECT("SubnetsVLANs!$E$"&amp;$H196+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="G196" s="33"/>
       <c r="H196" s="38">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I196" s="33"/>
       <c r="J196" s="33"/>
       <c r="AU196" s="104" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="AU196:AU201" ca="1" si="7">_xlfn.IFNA(IF($H196+1&gt;$G$2,"",INDEX(INDIRECT("SubnetsVLANs!$D$"&amp;$H196+2&amp;":$D$"&amp;$G$2),MATCH("Subnet*",INDIRECT("SubnetsVLANs!$E$"&amp;$H196+2&amp;":$E$"&amp;$G$2),0))),"")</f>
         <v/>
       </c>
       <c r="AV196" s="57"/>
@@ -58187,7 +58213,7 @@
       </c>
       <c r="G197" s="33"/>
       <c r="H197" s="38">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I197" s="33"/>
       <c r="J197" s="33"/>
@@ -58204,7 +58230,7 @@
       </c>
       <c r="G198" s="33"/>
       <c r="H198" s="38">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I198" s="33"/>
       <c r="J198" s="33"/>
@@ -58221,7 +58247,7 @@
       </c>
       <c r="G199" s="33"/>
       <c r="H199" s="38">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I199" s="33"/>
       <c r="J199" s="33"/>
@@ -58238,7 +58264,7 @@
       </c>
       <c r="G200" s="33"/>
       <c r="H200" s="38">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I200" s="33"/>
       <c r="J200" s="33"/>
@@ -58255,10 +58281,27 @@
       </c>
       <c r="G201" s="33"/>
       <c r="H201" s="38">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I201" s="33"/>
       <c r="J201" s="33"/>
+      <c r="AU201" s="104" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AV201" s="57"/>
+    </row>
+    <row r="202" spans="6:48" x14ac:dyDescent="0.2">
+      <c r="F202" s="33" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="G202" s="33"/>
+      <c r="H202" s="38">
+        <v>200</v>
+      </c>
+      <c r="I202" s="33"/>
+      <c r="J202" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58622,10 +58665,10 @@
         <v>668</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -59130,7 +59173,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="40" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -59149,10 +59192,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="26" t="s">
+        <v>861</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>862</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>863</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>421</v>
@@ -59173,7 +59216,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{2D500AF0-3E95-0B4A-ABE9-38AC3D272E55}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -59207,7 +59250,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="40" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -59257,7 +59300,7 @@
         <v>593</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -59269,7 +59312,7 @@
       <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
@@ -59289,7 +59332,7 @@
         <v>556</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
@@ -59301,7 +59344,7 @@
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
@@ -59313,7 +59356,7 @@
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
@@ -59325,7 +59368,7 @@
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
@@ -59337,7 +59380,7 @@
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
@@ -59349,7 +59392,7 @@
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -59361,7 +59404,7 @@
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -59373,7 +59416,7 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -59385,7 +59428,7 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -59397,7 +59440,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -59409,7 +59452,7 @@
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -59421,7 +59464,7 @@
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -59433,7 +59476,7 @@
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -59445,7 +59488,7 @@
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
@@ -59457,7 +59500,7 @@
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
@@ -59469,7 +59512,7 @@
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -59481,7 +59524,7 @@
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
@@ -59493,7 +59536,7 @@
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
@@ -59505,7 +59548,7 @@
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
@@ -59517,7 +59560,7 @@
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
@@ -59529,7 +59572,7 @@
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
@@ -59541,7 +59584,7 @@
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
@@ -59553,7 +59596,7 @@
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
@@ -59565,7 +59608,7 @@
       <c r="C28" s="32"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
@@ -59577,7 +59620,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
@@ -59589,7 +59632,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
@@ -59601,7 +59644,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
@@ -59613,7 +59656,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
@@ -59625,7 +59668,7 @@
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
@@ -59637,7 +59680,7 @@
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -59649,7 +59692,7 @@
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
@@ -59661,7 +59704,7 @@
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
@@ -59673,7 +59716,7 @@
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
@@ -59685,7 +59728,7 @@
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -59697,7 +59740,7 @@
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
@@ -59709,7 +59752,7 @@
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -59721,7 +59764,7 @@
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -59733,7 +59776,7 @@
       <c r="C42" s="32"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -59745,7 +59788,7 @@
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -59757,7 +59800,7 @@
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
@@ -59769,7 +59812,7 @@
       <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
@@ -59781,7 +59824,7 @@
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
@@ -59801,7 +59844,7 @@
         <v>558</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
@@ -59813,7 +59856,7 @@
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
@@ -59825,7 +59868,7 @@
       <c r="C49" s="32"/>
       <c r="D49" s="32"/>
       <c r="E49" s="32" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
@@ -59837,7 +59880,7 @@
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
@@ -59849,7 +59892,7 @@
       <c r="C51" s="32"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
@@ -59861,7 +59904,7 @@
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
@@ -59873,7 +59916,7 @@
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
@@ -59885,7 +59928,7 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
@@ -59897,7 +59940,7 @@
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
@@ -59909,7 +59952,7 @@
       <c r="C56" s="32"/>
       <c r="D56" s="32"/>
       <c r="E56" s="32" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="32"/>
@@ -59921,7 +59964,7 @@
       <c r="C57" s="32"/>
       <c r="D57" s="32"/>
       <c r="E57" s="32" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
@@ -59933,7 +59976,7 @@
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
       <c r="E58" s="32" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
@@ -59945,7 +59988,7 @@
       <c r="C59" s="32"/>
       <c r="D59" s="32"/>
       <c r="E59" s="32" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
@@ -59957,7 +60000,7 @@
       <c r="C60" s="32"/>
       <c r="D60" s="32"/>
       <c r="E60" s="32" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
@@ -59969,7 +60012,7 @@
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
       <c r="E61" s="32" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
@@ -59981,7 +60024,7 @@
       <c r="C62" s="32"/>
       <c r="D62" s="32"/>
       <c r="E62" s="32" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
@@ -59993,7 +60036,7 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
@@ -60004,16 +60047,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C64" s="32" t="s">
         <v>397</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F64" s="32"/>
       <c r="G64" s="32"/>
@@ -60025,7 +60068,7 @@
       <c r="C65" s="32"/>
       <c r="D65" s="32"/>
       <c r="E65" s="32" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F65" s="32"/>
       <c r="G65" s="32"/>
@@ -60037,7 +60080,7 @@
       <c r="C66" s="32"/>
       <c r="D66" s="32"/>
       <c r="E66" s="32" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F66" s="32"/>
       <c r="G66" s="32"/>
@@ -60049,7 +60092,7 @@
       <c r="C67" s="32"/>
       <c r="D67" s="32"/>
       <c r="E67" s="32" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
@@ -60066,10 +60109,10 @@
         <v>397</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
@@ -60081,7 +60124,7 @@
       <c r="C69" s="32"/>
       <c r="D69" s="32"/>
       <c r="E69" s="32" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F69" s="32"/>
       <c r="G69" s="32"/>
@@ -60093,7 +60136,7 @@
       <c r="C70" s="32"/>
       <c r="D70" s="32"/>
       <c r="E70" s="32" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F70" s="32"/>
       <c r="G70" s="32"/>
@@ -60105,7 +60148,7 @@
       <c r="C71" s="32"/>
       <c r="D71" s="32"/>
       <c r="E71" s="32" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F71" s="32"/>
       <c r="G71" s="32"/>
@@ -60116,7 +60159,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C72" s="32" t="s">
         <v>397</v>
@@ -60125,7 +60168,7 @@
         <v>779</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F72" s="32"/>
       <c r="G72" s="32"/>
@@ -60137,7 +60180,7 @@
       <c r="C73" s="32"/>
       <c r="D73" s="32"/>
       <c r="E73" s="32" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F73" s="32"/>
       <c r="G73" s="32"/>
@@ -60149,7 +60192,7 @@
       <c r="C74" s="32"/>
       <c r="D74" s="32"/>
       <c r="E74" s="32" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="32"/>
@@ -60161,7 +60204,7 @@
       <c r="C75" s="32"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
@@ -60173,7 +60216,7 @@
       <c r="C76" s="32"/>
       <c r="D76" s="32"/>
       <c r="E76" s="32" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
@@ -60185,7 +60228,7 @@
       <c r="C77" s="32"/>
       <c r="D77" s="32"/>
       <c r="E77" s="32" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F77" s="32"/>
       <c r="G77" s="32"/>
@@ -60197,7 +60240,7 @@
       <c r="C78" s="32"/>
       <c r="D78" s="32"/>
       <c r="E78" s="32" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
@@ -60209,7 +60252,7 @@
       <c r="C79" s="32"/>
       <c r="D79" s="32"/>
       <c r="E79" s="32" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F79" s="32"/>
       <c r="G79" s="32"/>
@@ -60221,7 +60264,7 @@
       <c r="C80" s="32"/>
       <c r="D80" s="32"/>
       <c r="E80" s="32" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F80" s="105"/>
       <c r="G80" s="32"/>
@@ -60241,7 +60284,7 @@
         <v>780</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F81" s="32"/>
       <c r="G81" s="32"/>
@@ -60253,7 +60296,7 @@
       <c r="C82" s="32"/>
       <c r="D82" s="32"/>
       <c r="E82" s="32" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F82" s="32"/>
       <c r="G82" s="32"/>
@@ -60265,7 +60308,7 @@
       <c r="C83" s="32"/>
       <c r="D83" s="32"/>
       <c r="E83" s="32" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="32"/>
@@ -60277,7 +60320,7 @@
       <c r="C84" s="32"/>
       <c r="D84" s="32"/>
       <c r="E84" s="29" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="32"/>
@@ -60289,7 +60332,7 @@
       <c r="C85" s="32"/>
       <c r="D85" s="32"/>
       <c r="E85" s="29" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="32"/>
@@ -60301,7 +60344,7 @@
       <c r="C86" s="32"/>
       <c r="D86" s="32"/>
       <c r="E86" s="29" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F86" s="32"/>
       <c r="G86" s="32"/>
@@ -60313,7 +60356,7 @@
       <c r="C87" s="32"/>
       <c r="D87" s="32"/>
       <c r="E87" s="29" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F87" s="32"/>
       <c r="G87" s="32"/>
@@ -60325,7 +60368,7 @@
       <c r="C88" s="32"/>
       <c r="D88" s="32"/>
       <c r="E88" s="29" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F88" s="32"/>
       <c r="G88" s="32"/>
@@ -60337,7 +60380,7 @@
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
       <c r="E89" s="29" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F89" s="32"/>
       <c r="G89" s="32"/>
@@ -60349,7 +60392,7 @@
       <c r="C90" s="32"/>
       <c r="D90" s="32"/>
       <c r="E90" s="29" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F90" s="32"/>
       <c r="G90" s="32"/>
@@ -60361,7 +60404,7 @@
       <c r="C91" s="32"/>
       <c r="D91" s="32"/>
       <c r="E91" s="29" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="F91" s="32"/>
       <c r="G91" s="32"/>
@@ -60373,7 +60416,7 @@
       <c r="C92" s="32"/>
       <c r="D92" s="32"/>
       <c r="E92" s="29" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F92" s="32"/>
       <c r="G92" s="32"/>
@@ -60385,7 +60428,7 @@
       <c r="C93" s="32"/>
       <c r="D93" s="32"/>
       <c r="E93" s="29" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F93" s="32"/>
       <c r="G93" s="32"/>
@@ -60397,7 +60440,7 @@
       <c r="C94" s="32"/>
       <c r="D94" s="32"/>
       <c r="E94" s="29" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="32"/>
@@ -60409,7 +60452,7 @@
       <c r="C95" s="32"/>
       <c r="D95" s="32"/>
       <c r="E95" s="29" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F95" s="32"/>
       <c r="G95" s="32"/>
@@ -60421,7 +60464,7 @@
       <c r="C96" s="32"/>
       <c r="D96" s="32"/>
       <c r="E96" s="29" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F96" s="32"/>
       <c r="G96" s="32"/>
@@ -60433,7 +60476,7 @@
       <c r="C97" s="32"/>
       <c r="D97" s="32"/>
       <c r="E97" s="29" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F97" s="32"/>
       <c r="G97" s="32"/>
@@ -60445,7 +60488,7 @@
       <c r="C98" s="32"/>
       <c r="D98" s="32"/>
       <c r="E98" s="29" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
@@ -60457,7 +60500,7 @@
       <c r="C99" s="32"/>
       <c r="D99" s="32"/>
       <c r="E99" s="29" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F99" s="32"/>
       <c r="G99" s="32"/>
@@ -60469,7 +60512,7 @@
       <c r="C100" s="32"/>
       <c r="D100" s="32"/>
       <c r="E100" s="29" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F100" s="32"/>
       <c r="G100" s="32"/>
@@ -60481,7 +60524,7 @@
       <c r="C101" s="32"/>
       <c r="D101" s="32"/>
       <c r="E101" s="29" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F101" s="32"/>
       <c r="G101" s="32"/>
@@ -60493,7 +60536,7 @@
       <c r="C102" s="32"/>
       <c r="D102" s="32"/>
       <c r="E102" s="29" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F102" s="32"/>
       <c r="G102" s="32"/>
@@ -60505,7 +60548,7 @@
       <c r="C103" s="32"/>
       <c r="D103" s="32"/>
       <c r="E103" s="29" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F103" s="32"/>
       <c r="G103" s="32"/>
@@ -60517,7 +60560,7 @@
       <c r="C104" s="32"/>
       <c r="D104" s="32"/>
       <c r="E104" s="29" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="32"/>
@@ -60529,7 +60572,7 @@
       <c r="C105" s="32"/>
       <c r="D105" s="32"/>
       <c r="E105" s="29" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F105" s="32"/>
       <c r="G105" s="32"/>
@@ -60541,7 +60584,7 @@
       <c r="C106" s="32"/>
       <c r="D106" s="32"/>
       <c r="E106" s="29" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F106" s="32"/>
       <c r="G106" s="32"/>
@@ -60553,7 +60596,7 @@
       <c r="C107" s="32"/>
       <c r="D107" s="32"/>
       <c r="E107" s="29" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F107" s="32"/>
       <c r="G107" s="32"/>
@@ -60565,7 +60608,7 @@
       <c r="C108" s="32"/>
       <c r="D108" s="32"/>
       <c r="E108" s="29" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F108" s="32"/>
       <c r="G108" s="32"/>
@@ -60577,7 +60620,7 @@
       <c r="C109" s="32"/>
       <c r="D109" s="32"/>
       <c r="E109" s="29" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="32"/>
@@ -60589,7 +60632,7 @@
       <c r="C110" s="32"/>
       <c r="D110" s="32"/>
       <c r="E110" s="29" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="F110" s="32"/>
       <c r="G110" s="32"/>
@@ -60601,7 +60644,7 @@
       <c r="C111" s="32"/>
       <c r="D111" s="32"/>
       <c r="E111" s="29" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F111" s="32"/>
       <c r="G111" s="32"/>
@@ -60613,7 +60656,7 @@
       <c r="C112" s="32"/>
       <c r="D112" s="32"/>
       <c r="E112" s="29" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F112" s="32"/>
       <c r="G112" s="32"/>
@@ -60625,7 +60668,7 @@
       <c r="C113" s="32"/>
       <c r="D113" s="32"/>
       <c r="E113" s="29" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F113" s="32"/>
       <c r="G113" s="32"/>
@@ -60637,7 +60680,7 @@
       <c r="C114" s="32"/>
       <c r="D114" s="32"/>
       <c r="E114" s="29" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="32"/>
@@ -60649,7 +60692,7 @@
       <c r="C115" s="32"/>
       <c r="D115" s="32"/>
       <c r="E115" s="29" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F115" s="32"/>
       <c r="G115" s="32"/>
@@ -60661,7 +60704,7 @@
       <c r="C116" s="32"/>
       <c r="D116" s="32"/>
       <c r="E116" s="29" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F116" s="32"/>
       <c r="G116" s="32"/>
@@ -60673,7 +60716,7 @@
       <c r="C117" s="32"/>
       <c r="D117" s="32"/>
       <c r="E117" s="32" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F117" s="32"/>
       <c r="G117" s="32"/>
@@ -60685,7 +60728,7 @@
       <c r="C118" s="32"/>
       <c r="D118" s="32"/>
       <c r="E118" s="32" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F118" s="32"/>
       <c r="G118" s="32"/>
@@ -60697,7 +60740,7 @@
       <c r="C119" s="32"/>
       <c r="D119" s="32"/>
       <c r="E119" s="32" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F119" s="32"/>
       <c r="G119" s="32"/>
@@ -60709,7 +60752,7 @@
       <c r="C120" s="32"/>
       <c r="D120" s="32"/>
       <c r="E120" s="32" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F120" s="32"/>
       <c r="G120" s="32"/>
@@ -60721,7 +60764,7 @@
       <c r="C121" s="32"/>
       <c r="D121" s="32"/>
       <c r="E121" s="29" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F121" s="32"/>
       <c r="G121" s="32"/>
@@ -60741,7 +60784,7 @@
         <v>561</v>
       </c>
       <c r="E122" s="76" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F122" s="32"/>
       <c r="G122" s="32"/>
@@ -60753,7 +60796,7 @@
       <c r="C123" s="32"/>
       <c r="D123" s="32"/>
       <c r="E123" s="76" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F123" s="32"/>
       <c r="G123" s="32"/>
@@ -60765,7 +60808,7 @@
       <c r="C124" s="32"/>
       <c r="D124" s="32"/>
       <c r="E124" s="32" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="32"/>
@@ -60777,7 +60820,7 @@
       <c r="C125" s="32"/>
       <c r="D125" s="32"/>
       <c r="E125" s="32" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F125" s="32"/>
       <c r="G125" s="32"/>
@@ -60789,7 +60832,7 @@
       <c r="C126" s="32"/>
       <c r="D126" s="32"/>
       <c r="E126" s="32" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="F126" s="32"/>
       <c r="G126" s="32"/>
@@ -60801,7 +60844,7 @@
       <c r="C127" s="32"/>
       <c r="D127" s="32"/>
       <c r="E127" s="32" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="F127" s="32"/>
       <c r="G127" s="32"/>
@@ -60813,7 +60856,7 @@
       <c r="C128" s="32"/>
       <c r="D128" s="32"/>
       <c r="E128" s="32" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F128" s="32"/>
       <c r="G128" s="32"/>
@@ -60825,7 +60868,7 @@
       <c r="C129" s="32"/>
       <c r="D129" s="32"/>
       <c r="E129" s="32" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="F129" s="32"/>
       <c r="G129" s="32"/>
@@ -60837,7 +60880,7 @@
       <c r="C130" s="32"/>
       <c r="D130" s="32"/>
       <c r="E130" s="32" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="F130" s="32"/>
       <c r="G130" s="32"/>
@@ -60849,7 +60892,7 @@
       <c r="C131" s="32"/>
       <c r="D131" s="32"/>
       <c r="E131" s="32" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="F131" s="32"/>
       <c r="G131" s="32"/>
@@ -60861,7 +60904,7 @@
       <c r="C132" s="32"/>
       <c r="D132" s="32"/>
       <c r="E132" s="32" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="F132" s="32"/>
       <c r="G132" s="32"/>
@@ -60873,7 +60916,7 @@
       <c r="C133" s="32"/>
       <c r="D133" s="32"/>
       <c r="E133" s="32" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F133" s="32"/>
       <c r="G133" s="32"/>
@@ -60885,7 +60928,7 @@
       <c r="C134" s="32"/>
       <c r="D134" s="32"/>
       <c r="E134" s="32" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="32"/>
@@ -60897,7 +60940,7 @@
       <c r="C135" s="32"/>
       <c r="D135" s="32"/>
       <c r="E135" s="32" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F135" s="32"/>
       <c r="G135" s="32"/>
@@ -60909,7 +60952,7 @@
       <c r="C136" s="32"/>
       <c r="D136" s="32"/>
       <c r="E136" s="32" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F136" s="32"/>
       <c r="G136" s="32"/>
@@ -60921,7 +60964,7 @@
       <c r="C137" s="32"/>
       <c r="D137" s="32"/>
       <c r="E137" s="32" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="F137" s="32"/>
       <c r="G137" s="32"/>
@@ -60933,7 +60976,7 @@
       <c r="C138" s="32"/>
       <c r="D138" s="32"/>
       <c r="E138" s="32" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F138" s="32"/>
       <c r="G138" s="32"/>
@@ -60945,7 +60988,7 @@
       <c r="C139" s="32"/>
       <c r="D139" s="32"/>
       <c r="E139" s="32" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F139" s="32"/>
       <c r="G139" s="32"/>
@@ -60957,7 +61000,7 @@
       <c r="C140" s="32"/>
       <c r="D140" s="32"/>
       <c r="E140" s="32" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F140" s="32"/>
       <c r="G140" s="32"/>
@@ -60969,7 +61012,7 @@
       <c r="C141" s="32"/>
       <c r="D141" s="32"/>
       <c r="E141" s="32" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F141" s="32"/>
       <c r="G141" s="32"/>
@@ -60989,7 +61032,7 @@
         <v>563</v>
       </c>
       <c r="E142" s="32" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F142" s="32"/>
       <c r="G142" s="32"/>
@@ -61001,7 +61044,7 @@
       <c r="C143" s="32"/>
       <c r="D143" s="32"/>
       <c r="E143" s="32" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="F143" s="32"/>
       <c r="G143" s="32"/>
@@ -61013,7 +61056,7 @@
       <c r="C144" s="32"/>
       <c r="D144" s="32"/>
       <c r="E144" s="32" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="32"/>
@@ -61025,7 +61068,7 @@
       <c r="C145" s="32"/>
       <c r="D145" s="32"/>
       <c r="E145" s="32" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="F145" s="32"/>
       <c r="G145" s="32"/>
@@ -61037,7 +61080,7 @@
       <c r="C146" s="32"/>
       <c r="D146" s="32"/>
       <c r="E146" s="32" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F146" s="32"/>
       <c r="G146" s="32"/>
@@ -61049,7 +61092,7 @@
       <c r="C147" s="32"/>
       <c r="D147" s="32"/>
       <c r="E147" s="32" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F147" s="32"/>
       <c r="G147" s="32"/>
@@ -61061,7 +61104,7 @@
       <c r="C148" s="32"/>
       <c r="D148" s="32"/>
       <c r="E148" s="32" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F148" s="32"/>
       <c r="G148" s="32"/>
@@ -61073,7 +61116,7 @@
       <c r="C149" s="32"/>
       <c r="D149" s="32"/>
       <c r="E149" s="32" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="F149" s="32"/>
       <c r="G149" s="32"/>
@@ -61085,7 +61128,7 @@
       <c r="C150" s="32"/>
       <c r="D150" s="32"/>
       <c r="E150" s="32" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="F150" s="32"/>
       <c r="G150" s="32"/>
@@ -61097,7 +61140,7 @@
       <c r="C151" s="32"/>
       <c r="D151" s="32"/>
       <c r="E151" s="32" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F151" s="32"/>
       <c r="G151" s="32"/>
@@ -61109,7 +61152,7 @@
       <c r="C152" s="32"/>
       <c r="D152" s="32"/>
       <c r="E152" s="32" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="F152" s="32"/>
       <c r="G152" s="32"/>
@@ -61121,7 +61164,7 @@
       <c r="C153" s="32"/>
       <c r="D153" s="32"/>
       <c r="E153" s="32" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="F153" s="32"/>
       <c r="G153" s="32"/>
@@ -61133,7 +61176,7 @@
       <c r="C154" s="32"/>
       <c r="D154" s="32"/>
       <c r="E154" s="32" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="32"/>
@@ -61145,7 +61188,7 @@
       <c r="C155" s="32"/>
       <c r="D155" s="32"/>
       <c r="E155" s="32" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="F155" s="32"/>
       <c r="G155" s="32"/>
@@ -61157,7 +61200,7 @@
       <c r="C156" s="32"/>
       <c r="D156" s="32"/>
       <c r="E156" s="32" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F156" s="32"/>
       <c r="G156" s="32"/>
@@ -61169,7 +61212,7 @@
       <c r="C157" s="32"/>
       <c r="D157" s="32"/>
       <c r="E157" s="32" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="F157" s="32"/>
       <c r="G157" s="32"/>
@@ -61181,7 +61224,7 @@
       <c r="C158" s="32"/>
       <c r="D158" s="32"/>
       <c r="E158" s="32" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="F158" s="32"/>
       <c r="G158" s="32"/>
@@ -61193,7 +61236,7 @@
       <c r="C159" s="32"/>
       <c r="D159" s="32"/>
       <c r="E159" s="32" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="F159" s="32"/>
       <c r="G159" s="32"/>
@@ -61205,7 +61248,7 @@
       <c r="C160" s="32"/>
       <c r="D160" s="32"/>
       <c r="E160" s="32" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="F160" s="32"/>
       <c r="G160" s="32"/>
@@ -61217,7 +61260,7 @@
       <c r="C161" s="32"/>
       <c r="D161" s="32"/>
       <c r="E161" s="32" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="F161" s="32"/>
       <c r="G161" s="32"/>
@@ -61229,7 +61272,7 @@
       <c r="C162" s="32"/>
       <c r="D162" s="32"/>
       <c r="E162" s="32" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="F162" s="32"/>
       <c r="G162" s="32"/>
@@ -61241,7 +61284,7 @@
       <c r="C163" s="32"/>
       <c r="D163" s="32"/>
       <c r="E163" s="32" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F163" s="32"/>
       <c r="G163" s="32"/>
@@ -61253,7 +61296,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
       <c r="E164" s="32" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="32"/>
@@ -61265,7 +61308,7 @@
       <c r="C165" s="32"/>
       <c r="D165" s="32"/>
       <c r="E165" s="32" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F165" s="32"/>
       <c r="G165" s="32"/>
@@ -61277,7 +61320,7 @@
       <c r="C166" s="32"/>
       <c r="D166" s="32"/>
       <c r="E166" s="32" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="F166" s="32"/>
       <c r="G166" s="32"/>
@@ -61289,7 +61332,7 @@
       <c r="C167" s="32"/>
       <c r="D167" s="32"/>
       <c r="E167" s="32" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="F167" s="32"/>
       <c r="G167" s="32"/>
@@ -61301,7 +61344,7 @@
       <c r="C168" s="32"/>
       <c r="D168" s="32"/>
       <c r="E168" s="32" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F168" s="32"/>
       <c r="G168" s="32"/>
@@ -61313,7 +61356,7 @@
       <c r="C169" s="32"/>
       <c r="D169" s="32"/>
       <c r="E169" s="32" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="F169" s="32"/>
       <c r="G169" s="32"/>
@@ -61325,7 +61368,7 @@
       <c r="C170" s="32"/>
       <c r="D170" s="32"/>
       <c r="E170" s="32" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F170" s="32"/>
       <c r="G170" s="32"/>
@@ -61345,7 +61388,7 @@
         <v>704</v>
       </c>
       <c r="E171" s="100" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F171" s="32"/>
       <c r="G171" s="32"/>
@@ -61369,7 +61412,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
       <c r="E173" s="32" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F173" s="32"/>
       <c r="G173" s="32"/>
@@ -61381,7 +61424,7 @@
       <c r="C174" s="32"/>
       <c r="D174" s="32"/>
       <c r="E174" s="32" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="32"/>
@@ -61401,7 +61444,7 @@
         <v>565</v>
       </c>
       <c r="E175" s="32" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="F175" s="32"/>
       <c r="G175" s="32"/>
@@ -61413,7 +61456,7 @@
       <c r="C176" s="32"/>
       <c r="D176" s="32"/>
       <c r="E176" s="32" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="F176" s="32"/>
       <c r="G176" s="32"/>
@@ -61425,7 +61468,7 @@
       <c r="C177" s="32"/>
       <c r="D177" s="32"/>
       <c r="E177" s="32" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="F177" s="32"/>
       <c r="G177" s="32"/>
@@ -61437,7 +61480,7 @@
       <c r="C178" s="32"/>
       <c r="D178" s="32"/>
       <c r="E178" s="32" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="F178" s="32"/>
       <c r="G178" s="32"/>
@@ -61449,7 +61492,7 @@
       <c r="C179" s="32"/>
       <c r="D179" s="32"/>
       <c r="E179" s="32" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="F179" s="32"/>
       <c r="G179" s="32"/>
@@ -61461,7 +61504,7 @@
       <c r="C180" s="32"/>
       <c r="D180" s="32"/>
       <c r="E180" s="32" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="F180" s="32"/>
       <c r="G180" s="32"/>
@@ -61473,7 +61516,7 @@
       <c r="C181" s="32"/>
       <c r="D181" s="32"/>
       <c r="E181" s="32" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="F181" s="32"/>
       <c r="G181" s="32"/>
@@ -61485,7 +61528,7 @@
       <c r="C182" s="32"/>
       <c r="D182" s="32"/>
       <c r="E182" s="32" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="F182" s="32"/>
       <c r="G182" s="32"/>
@@ -61497,7 +61540,7 @@
       <c r="C183" s="32"/>
       <c r="D183" s="32"/>
       <c r="E183" s="32" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="F183" s="32"/>
       <c r="G183" s="32"/>
@@ -61509,7 +61552,7 @@
       <c r="C184" s="32"/>
       <c r="D184" s="32"/>
       <c r="E184" s="32" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="F184" s="32"/>
       <c r="G184" s="32"/>
@@ -61521,7 +61564,7 @@
       <c r="C185" s="32"/>
       <c r="D185" s="32"/>
       <c r="E185" s="32" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="F185" s="32"/>
       <c r="G185" s="32"/>
@@ -61533,7 +61576,7 @@
       <c r="C186" s="32"/>
       <c r="D186" s="32"/>
       <c r="E186" s="32" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="F186" s="32"/>
       <c r="G186" s="32"/>
@@ -61545,7 +61588,7 @@
       <c r="C187" s="32"/>
       <c r="D187" s="32"/>
       <c r="E187" s="32" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F187" s="32"/>
       <c r="G187" s="32"/>
@@ -61557,7 +61600,7 @@
       <c r="C188" s="32"/>
       <c r="D188" s="32"/>
       <c r="E188" s="32" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F188" s="32"/>
       <c r="G188" s="32"/>
@@ -61569,7 +61612,7 @@
       <c r="C189" s="32"/>
       <c r="D189" s="32"/>
       <c r="E189" s="32" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F189" s="32"/>
       <c r="G189" s="32"/>
@@ -61581,7 +61624,7 @@
       <c r="C190" s="32"/>
       <c r="D190" s="32"/>
       <c r="E190" s="32" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F190" s="32"/>
       <c r="G190" s="32"/>
@@ -61593,7 +61636,7 @@
       <c r="C191" s="32"/>
       <c r="D191" s="32"/>
       <c r="E191" s="32" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F191" s="32"/>
       <c r="G191" s="32"/>
@@ -61605,7 +61648,7 @@
       <c r="C192" s="32"/>
       <c r="D192" s="32"/>
       <c r="E192" s="32" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F192" s="32"/>
       <c r="G192" s="32"/>
@@ -61617,7 +61660,7 @@
       <c r="C193" s="32"/>
       <c r="D193" s="32"/>
       <c r="E193" s="32" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F193" s="32"/>
       <c r="G193" s="32"/>
@@ -61629,7 +61672,7 @@
       <c r="C194" s="32"/>
       <c r="D194" s="32"/>
       <c r="E194" s="32" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F194" s="32"/>
       <c r="G194" s="32"/>
@@ -61641,7 +61684,7 @@
       <c r="C195" s="32"/>
       <c r="D195" s="32"/>
       <c r="E195" s="32" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F195" s="32"/>
       <c r="G195" s="32"/>
@@ -61653,7 +61696,7 @@
       <c r="C196" s="32"/>
       <c r="D196" s="32"/>
       <c r="E196" s="32" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F196" s="32"/>
       <c r="G196" s="32"/>
@@ -61665,7 +61708,7 @@
       <c r="C197" s="32"/>
       <c r="D197" s="32"/>
       <c r="E197" s="32" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F197" s="32"/>
       <c r="G197" s="32"/>
@@ -61677,7 +61720,7 @@
       <c r="C198" s="32"/>
       <c r="D198" s="32"/>
       <c r="E198" s="32" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F198" s="32"/>
       <c r="G198" s="32"/>
@@ -61689,7 +61732,7 @@
       <c r="C199" s="32"/>
       <c r="D199" s="32"/>
       <c r="E199" s="32" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F199" s="32"/>
       <c r="G199" s="32"/>
@@ -61701,7 +61744,7 @@
       <c r="C200" s="32"/>
       <c r="D200" s="32"/>
       <c r="E200" s="32" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F200" s="32"/>
       <c r="G200" s="32"/>
@@ -61713,7 +61756,7 @@
       <c r="C201" s="32"/>
       <c r="D201" s="32"/>
       <c r="E201" s="32" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F201" s="32"/>
       <c r="G201" s="32"/>
@@ -61725,7 +61768,7 @@
       <c r="C202" s="32"/>
       <c r="D202" s="32"/>
       <c r="E202" s="32" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F202" s="32"/>
       <c r="G202" s="32"/>
@@ -61737,7 +61780,7 @@
       <c r="C203" s="32"/>
       <c r="D203" s="32"/>
       <c r="E203" s="32" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F203" s="32"/>
       <c r="G203" s="32"/>
@@ -61749,7 +61792,7 @@
       <c r="C204" s="32"/>
       <c r="D204" s="32"/>
       <c r="E204" s="32" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F204" s="32"/>
       <c r="G204" s="32"/>
@@ -61761,7 +61804,7 @@
       <c r="C205" s="32"/>
       <c r="D205" s="32"/>
       <c r="E205" s="32" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F205" s="32"/>
       <c r="G205" s="32"/>
@@ -61773,7 +61816,7 @@
       <c r="C206" s="32"/>
       <c r="D206" s="32"/>
       <c r="E206" s="32" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F206" s="32"/>
       <c r="G206" s="32"/>
@@ -61785,7 +61828,7 @@
       <c r="C207" s="32"/>
       <c r="D207" s="32"/>
       <c r="E207" s="32" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="F207" s="32"/>
       <c r="G207" s="32"/>
@@ -61797,7 +61840,7 @@
       <c r="C208" s="32"/>
       <c r="D208" s="32"/>
       <c r="E208" s="32" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="F208" s="32"/>
       <c r="G208" s="32"/>
@@ -61809,7 +61852,7 @@
       <c r="C209" s="32"/>
       <c r="D209" s="32"/>
       <c r="E209" s="32" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="F209" s="32"/>
       <c r="G209" s="32"/>
@@ -61821,7 +61864,7 @@
       <c r="C210" s="32"/>
       <c r="D210" s="32"/>
       <c r="E210" s="32" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="F210" s="32"/>
       <c r="G210" s="32"/>
@@ -61833,7 +61876,7 @@
       <c r="C211" s="32"/>
       <c r="D211" s="32"/>
       <c r="E211" s="32" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F211" s="32"/>
       <c r="G211" s="32"/>
@@ -61845,7 +61888,7 @@
       <c r="C212" s="32"/>
       <c r="D212" s="32"/>
       <c r="E212" s="32" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F212" s="32"/>
       <c r="G212" s="32"/>
@@ -61857,7 +61900,7 @@
       <c r="C213" s="32"/>
       <c r="D213" s="32"/>
       <c r="E213" s="32" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F213" s="32"/>
       <c r="G213" s="32"/>
@@ -61869,7 +61912,7 @@
       <c r="C214" s="32"/>
       <c r="D214" s="32"/>
       <c r="E214" s="32" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F214" s="32"/>
       <c r="G214" s="32"/>
@@ -61881,7 +61924,7 @@
       <c r="C215" s="32"/>
       <c r="D215" s="32"/>
       <c r="E215" s="32" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F215" s="32"/>
       <c r="G215" s="32"/>
@@ -61893,7 +61936,7 @@
       <c r="C216" s="32"/>
       <c r="D216" s="32"/>
       <c r="E216" s="32" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F216" s="32"/>
       <c r="G216" s="32"/>
@@ -61905,7 +61948,7 @@
       <c r="C217" s="32"/>
       <c r="D217" s="32"/>
       <c r="E217" s="32" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F217" s="32"/>
       <c r="G217" s="32"/>
@@ -61917,7 +61960,7 @@
       <c r="C218" s="32"/>
       <c r="D218" s="32"/>
       <c r="E218" s="32" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F218" s="32"/>
       <c r="G218" s="32"/>
@@ -61929,7 +61972,7 @@
       <c r="C219" s="32"/>
       <c r="D219" s="32"/>
       <c r="E219" s="32" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F219" s="32"/>
       <c r="G219" s="32"/>
@@ -61941,7 +61984,7 @@
       <c r="C220" s="32"/>
       <c r="D220" s="32"/>
       <c r="E220" s="32" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F220" s="32"/>
       <c r="G220" s="32"/>
@@ -61953,7 +61996,7 @@
       <c r="C221" s="32"/>
       <c r="D221" s="32"/>
       <c r="E221" s="32" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F221" s="32"/>
       <c r="G221" s="32"/>
@@ -61961,7 +62004,7 @@
     </row>
     <row r="222" spans="1:9" s="33" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E222" s="32" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="I222" s="75"/>
     </row>
@@ -61979,7 +62022,7 @@
         <v>783</v>
       </c>
       <c r="E223" s="32" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="33"/>
@@ -61991,7 +62034,7 @@
       <c r="C224" s="33"/>
       <c r="D224" s="33"/>
       <c r="E224" s="32" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="33"/>
@@ -62003,7 +62046,7 @@
       <c r="C225" s="33"/>
       <c r="D225" s="33"/>
       <c r="E225" s="32" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F225" s="33"/>
       <c r="G225" s="33"/>
@@ -62015,7 +62058,7 @@
       <c r="C226" s="33"/>
       <c r="D226" s="33"/>
       <c r="E226" s="32" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F226" s="33"/>
       <c r="G226" s="33"/>
@@ -62027,7 +62070,7 @@
       <c r="C227" s="33"/>
       <c r="D227" s="33"/>
       <c r="E227" s="32" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F227" s="33"/>
       <c r="G227" s="33"/>
@@ -62039,7 +62082,7 @@
       <c r="C228" s="33"/>
       <c r="D228" s="33"/>
       <c r="E228" s="32" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F228" s="33"/>
       <c r="G228" s="33"/>
@@ -62051,7 +62094,7 @@
       <c r="C229" s="33"/>
       <c r="D229" s="33"/>
       <c r="E229" s="32" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F229" s="33"/>
       <c r="G229" s="33"/>
@@ -62063,7 +62106,7 @@
       <c r="C230" s="33"/>
       <c r="D230" s="33"/>
       <c r="E230" s="32" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F230" s="33"/>
       <c r="G230" s="33"/>
@@ -62075,7 +62118,7 @@
       <c r="C231" s="33"/>
       <c r="D231" s="33"/>
       <c r="E231" s="32" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="33"/>
@@ -62087,7 +62130,7 @@
       <c r="C232" s="33"/>
       <c r="D232" s="33"/>
       <c r="E232" s="32" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="33"/>
@@ -62099,7 +62142,7 @@
       <c r="C233" s="33"/>
       <c r="D233" s="33"/>
       <c r="E233" s="32" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="33"/>
@@ -62111,7 +62154,7 @@
       <c r="C234" s="33"/>
       <c r="D234" s="33"/>
       <c r="E234" s="32" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="F234" s="33"/>
       <c r="G234" s="33"/>
@@ -62123,7 +62166,7 @@
       <c r="C235" s="33"/>
       <c r="D235" s="33"/>
       <c r="E235" s="32" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="33"/>
@@ -62135,7 +62178,7 @@
       <c r="C236" s="33"/>
       <c r="D236" s="33"/>
       <c r="E236" s="32" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="F236" s="33"/>
       <c r="G236" s="33"/>
@@ -62147,7 +62190,7 @@
       <c r="C237" s="33"/>
       <c r="D237" s="33"/>
       <c r="E237" s="32" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="F237" s="33"/>
       <c r="G237" s="33"/>
@@ -62159,7 +62202,7 @@
       <c r="C238" s="33"/>
       <c r="D238" s="33"/>
       <c r="E238" s="32" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="F238" s="33"/>
       <c r="G238" s="33"/>
@@ -62171,7 +62214,7 @@
       <c r="C239" s="33"/>
       <c r="D239" s="33"/>
       <c r="E239" s="32" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="F239" s="33"/>
       <c r="G239" s="33"/>
@@ -62183,7 +62226,7 @@
       <c r="C240" s="33"/>
       <c r="D240" s="33"/>
       <c r="E240" s="32" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="F240" s="33"/>
       <c r="G240" s="33"/>
@@ -62195,7 +62238,7 @@
       <c r="C241" s="33"/>
       <c r="D241" s="33"/>
       <c r="E241" s="32" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="33"/>
@@ -62207,7 +62250,7 @@
       <c r="C242" s="33"/>
       <c r="D242" s="33"/>
       <c r="E242" s="32" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="33"/>
@@ -62219,7 +62262,7 @@
       <c r="C243" s="33"/>
       <c r="D243" s="33"/>
       <c r="E243" s="32" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F243" s="33"/>
       <c r="G243" s="33"/>
@@ -62231,7 +62274,7 @@
       <c r="C244" s="33"/>
       <c r="D244" s="33"/>
       <c r="E244" s="32" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F244" s="33"/>
       <c r="G244" s="33"/>
@@ -62243,7 +62286,7 @@
       <c r="C245" s="33"/>
       <c r="D245" s="33"/>
       <c r="E245" s="32" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F245" s="33"/>
       <c r="G245" s="33"/>
@@ -62255,7 +62298,7 @@
       <c r="C246" s="33"/>
       <c r="D246" s="33"/>
       <c r="E246" s="32" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F246" s="33"/>
       <c r="G246" s="33"/>
@@ -62267,7 +62310,7 @@
       <c r="C247" s="33"/>
       <c r="D247" s="33"/>
       <c r="E247" s="32" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F247" s="33"/>
       <c r="G247" s="33"/>
@@ -62279,7 +62322,7 @@
       <c r="C248" s="33"/>
       <c r="D248" s="33"/>
       <c r="E248" s="32" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F248" s="33"/>
       <c r="G248" s="33"/>
@@ -62291,7 +62334,7 @@
       <c r="C249" s="33"/>
       <c r="D249" s="33"/>
       <c r="E249" s="32" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="33"/>
@@ -62303,7 +62346,7 @@
       <c r="C250" s="33"/>
       <c r="D250" s="33"/>
       <c r="E250" s="32" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="33"/>
@@ -62314,16 +62357,16 @@
         <v>5</v>
       </c>
       <c r="B251" s="33" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C251" s="33" t="s">
         <v>397</v>
       </c>
       <c r="D251" s="32" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E251" s="32" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="F251" s="33"/>
       <c r="G251" s="33"/>
@@ -62335,7 +62378,7 @@
       <c r="C252" s="33"/>
       <c r="D252" s="32"/>
       <c r="E252" s="32" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F252" s="33"/>
       <c r="G252" s="33"/>
@@ -62347,7 +62390,7 @@
       <c r="C253" s="33"/>
       <c r="D253" s="32"/>
       <c r="E253" s="32" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="F253" s="33"/>
       <c r="G253" s="33"/>
@@ -62359,7 +62402,7 @@
       <c r="C254" s="33"/>
       <c r="D254" s="32"/>
       <c r="E254" s="32" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F254" s="33"/>
       <c r="G254" s="33"/>
@@ -62391,7 +62434,7 @@
         <v>785</v>
       </c>
       <c r="E256" s="32" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="F256" s="32"/>
       <c r="G256" s="32"/>
@@ -62403,7 +62446,7 @@
       <c r="C257" s="32"/>
       <c r="D257" s="32"/>
       <c r="E257" s="32" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="F257" s="32"/>
       <c r="G257" s="32"/>
@@ -62415,7 +62458,7 @@
       <c r="C258" s="32"/>
       <c r="D258" s="32"/>
       <c r="E258" s="32" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="F258" s="32"/>
       <c r="G258" s="32"/>
@@ -62435,7 +62478,7 @@
         <v>787</v>
       </c>
       <c r="E259" s="32" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="F259" s="32"/>
       <c r="G259" s="32"/>
@@ -62447,7 +62490,7 @@
       <c r="C260" s="32"/>
       <c r="D260" s="32"/>
       <c r="E260" s="32" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F260" s="32"/>
       <c r="G260" s="32"/>
@@ -62459,7 +62502,7 @@
       <c r="C261" s="32"/>
       <c r="D261" s="32"/>
       <c r="E261" s="32" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="F261" s="32"/>
       <c r="G261" s="32"/>
@@ -62574,7 +62617,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{E00BE7AC-40A9-DD48-9303-570F82E7A287}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -62618,7 +62661,7 @@
       <c r="E1" s="139"/>
       <c r="F1" s="140"/>
       <c r="G1" s="141" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1" s="142"/>
       <c r="I1" s="143"/>
@@ -62682,7 +62725,7 @@
         <v>298</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="G4" s="53" t="b">
         <v>0</v>
@@ -62711,7 +62754,7 @@
         <v>300</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="G5" s="53" t="b">
         <v>0</v>
@@ -62732,13 +62775,13 @@
         <v>301</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>302</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="G6" s="53" t="b">
         <v>0</v>
@@ -62763,7 +62806,7 @@
         <v>303</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G7" s="53" t="b">
         <v>0</v>
@@ -62788,7 +62831,7 @@
         <v>304</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G8" s="53" t="b">
         <v>0</v>
@@ -62807,7 +62850,7 @@
         <v>305</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E9" s="53" t="s">
         <v>306</v>
@@ -62834,13 +62877,13 @@
         <v>305</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>308</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G10" s="53" t="b">
         <v>0</v>
@@ -62859,13 +62902,13 @@
         <v>305</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>309</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G11" s="53" t="b">
         <v>0</v>
@@ -62884,13 +62927,13 @@
         <v>305</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>310</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G12" s="53" t="b">
         <v>0</v>
@@ -62992,7 +63035,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -63010,7 +63053,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="108" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E2" s="109" t="s">
         <v>421</v>
@@ -63021,13 +63064,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="63" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>1031</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="D3" s="32" t="s">
         <v>1032</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>1033</v>
       </c>
       <c r="E3" s="33"/>
     </row>
@@ -63048,7 +63091,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{E6D03812-7727-6C47-8725-1453BACD5A9E}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -63087,7 +63130,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="40" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -63114,34 +63157,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="108" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E2" s="109" t="s">
         <v>1034</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="F2" s="109" t="s">
         <v>1035</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="G2" s="109" t="s">
         <v>1036</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="H2" s="110" t="s">
         <v>1037</v>
       </c>
-      <c r="H2" s="110" t="s">
+      <c r="I2" s="111" t="s">
         <v>1038</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="J2" s="111" t="s">
         <v>1039</v>
       </c>
-      <c r="J2" s="111" t="s">
+      <c r="K2" s="109" t="s">
         <v>1040</v>
       </c>
-      <c r="K2" s="109" t="s">
+      <c r="L2" s="109" t="s">
         <v>1041</v>
       </c>
-      <c r="L2" s="109" t="s">
+      <c r="M2" s="109" t="s">
         <v>1042</v>
-      </c>
-      <c r="M2" s="109" t="s">
-        <v>1043</v>
       </c>
       <c r="N2" s="112" t="s">
         <v>421</v>
@@ -63152,29 +63195,29 @@
         <v>5</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>1044</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>1045</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>1046</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>397</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G3" s="32">
         <v>10</v>
       </c>
       <c r="H3" s="113"/>
       <c r="I3" s="114" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J3" s="114" t="s">
         <v>1048</v>
-      </c>
-      <c r="J3" s="114" t="s">
-        <v>1049</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
@@ -63186,19 +63229,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>1050</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="32" t="s">
         <v>1051</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="E4" s="32" t="s">
         <v>1052</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="F4" s="32" t="s">
         <v>1053</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>1054</v>
       </c>
       <c r="G4" s="32">
         <v>100</v>
@@ -63209,7 +63252,7 @@
       <c r="I4" s="114"/>
       <c r="J4" s="114"/>
       <c r="K4" s="32" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L4" s="115"/>
       <c r="M4" s="32"/>
@@ -63227,13 +63270,13 @@
       <c r="I5" s="114"/>
       <c r="J5" s="114"/>
       <c r="K5" s="32" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L5" s="33" t="s">
         <v>1056</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="M5" s="32" t="s">
         <v>1057</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>1058</v>
       </c>
       <c r="N5" s="116"/>
     </row>
@@ -63249,10 +63292,10 @@
       <c r="I6" s="114"/>
       <c r="J6" s="114"/>
       <c r="K6" s="32" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L6" s="33" t="s">
         <v>1059</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>1060</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="116"/>
@@ -63314,7 +63357,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{E899A9A9-772D-834A-870D-DFBC301DD33A}">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$L$2:$L$54</xm:f>
+            <xm:f>drop_down_rule_set!$L$2:$L$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>

--- a/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3858B9F8-D8E9-0142-B81E-C49FB2B4937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBF075F-88BC-8247-A808-E484A986E7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29920" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="1600" windowWidth="29920" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -12711,51 +12711,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release - v2025.1.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Added MySQL sheets,  Added Firewall-Policy-TunnelInspect sheet for tunnel inspection</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 </t>
     </r>
@@ -13620,6 +13575,51 @@
   </si>
   <si>
     <t>Singapore-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2025.1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Updated Region column - added support for multiple data centers in one region like Singapore</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -20512,7 +20512,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="82" t="s">
-        <v>1469</v>
+        <v>1527</v>
       </c>
     </row>
   </sheetData>
@@ -24509,7 +24509,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="250" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="149" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
@@ -43464,7 +43464,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="163" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B1" s="158"/>
       <c r="C1" s="158"/>
@@ -43474,7 +43474,7 @@
       <c r="G1" s="158"/>
       <c r="H1" s="159"/>
       <c r="I1" s="149" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="J1" s="150"/>
       <c r="K1" s="150"/>
@@ -43511,10 +43511,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="34" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F2" s="35" t="s">
         <v>1473</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>1474</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>83</v>
@@ -43529,58 +43529,58 @@
         <v>84</v>
       </c>
       <c r="K2" s="35" t="s">
+        <v>1474</v>
+      </c>
+      <c r="L2" s="35" t="s">
         <v>1475</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>1476</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="34" t="s">
+        <v>1476</v>
+      </c>
+      <c r="O2" s="34" t="s">
         <v>1477</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>1478</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>1479</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>1480</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>1481</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="T2" s="34" t="s">
         <v>1482</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="U2" s="34" t="s">
         <v>1483</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="V2" s="34" t="s">
         <v>1484</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>1485</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>1486</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="Y2" s="34" t="s">
         <v>1487</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Z2" s="34" t="s">
         <v>1488</v>
-      </c>
-      <c r="Z2" s="34" t="s">
-        <v>1489</v>
       </c>
       <c r="AA2" s="34" t="s">
         <v>75</v>
       </c>
       <c r="AB2" s="34" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="AC2" s="35" t="s">
         <v>421</v>
@@ -43627,16 +43627,16 @@
         <v>553</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>1491</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>1492</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>1493</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>1494</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>55</v>
@@ -43645,58 +43645,58 @@
         <v>349</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="33" t="s">
+        <v>1495</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>1496</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="O4" s="18" t="s">
+        <v>1496</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>1497</v>
       </c>
-      <c r="O4" s="18" t="s">
-        <v>1497</v>
-      </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="18" t="s">
         <v>1498</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="R4" s="18" t="s">
         <v>1499</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="S4" s="18" t="s">
         <v>1500</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="T4" s="18" t="s">
         <v>1501</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>1502</v>
       </c>
       <c r="U4" s="18" t="s">
         <v>192</v>
       </c>
       <c r="V4" s="18" t="s">
+        <v>1502</v>
+      </c>
+      <c r="W4" s="18" t="s">
+        <v>1493</v>
+      </c>
+      <c r="X4" s="132" t="s">
         <v>1503</v>
       </c>
-      <c r="W4" s="18" t="s">
-        <v>1494</v>
-      </c>
-      <c r="X4" s="132" t="s">
+      <c r="Y4" s="18" t="s">
         <v>1504</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Z4" s="18" t="s">
         <v>1505</v>
-      </c>
-      <c r="Z4" s="18" t="s">
-        <v>1506</v>
       </c>
       <c r="AA4" s="18"/>
       <c r="AB4" s="8" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="AC4" s="18"/>
     </row>
@@ -43708,16 +43708,16 @@
         <v>553</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>1508</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>1509</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>1510</v>
-      </c>
       <c r="F5" s="32" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G5" s="32" t="s">
         <v>89</v>
@@ -43726,56 +43726,56 @@
         <v>103</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
       <c r="N5" s="32" t="s">
+        <v>1496</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>1496</v>
+      </c>
+      <c r="P5" s="32" t="s">
         <v>1497</v>
       </c>
-      <c r="O5" s="32" t="s">
-        <v>1497</v>
-      </c>
-      <c r="P5" s="32" t="s">
+      <c r="Q5" s="32" t="s">
         <v>1498</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>1499</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="S5" s="32" t="s">
         <v>1500</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="T5" s="32" t="s">
         <v>1501</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>1502</v>
       </c>
       <c r="U5" s="32" t="s">
         <v>192</v>
       </c>
       <c r="V5" s="32" t="s">
+        <v>1502</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>1493</v>
+      </c>
+      <c r="X5" s="32" t="s">
         <v>1503</v>
       </c>
-      <c r="W5" s="32" t="s">
-        <v>1494</v>
-      </c>
-      <c r="X5" s="32" t="s">
+      <c r="Y5" s="32" t="s">
         <v>1504</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="Z5" s="32" t="s">
         <v>1505</v>
-      </c>
-      <c r="Z5" s="32" t="s">
-        <v>1506</v>
       </c>
       <c r="AA5" s="32"/>
       <c r="AB5" s="33" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="AC5" s="32"/>
     </row>
@@ -49744,7 +49744,7 @@
   <sheetData>
     <row r="1" spans="1:81" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -49770,13 +49770,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>1513</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>1514</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>1515</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>421</v>
@@ -49799,23 +49799,23 @@
     </row>
     <row r="4" spans="1:81" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>553</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F4" s="32" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>1517</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>1518</v>
       </c>
       <c r="H4" s="32"/>
     </row>
@@ -49826,32 +49826,32 @@
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>1519</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>1520</v>
       </c>
       <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:81" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>553</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="F6" s="32" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G6" s="32" t="s">
         <v>1517</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>1518</v>
       </c>
       <c r="H6" s="32"/>
     </row>
@@ -49862,10 +49862,10 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G7" s="32" t="s">
         <v>1521</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>1522</v>
       </c>
       <c r="H7" s="32"/>
     </row>
@@ -49876,10 +49876,10 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>1523</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>1524</v>
       </c>
       <c r="H8" s="32"/>
     </row>
@@ -54825,7 +54825,7 @@
       <c r="J35" s="33"/>
       <c r="K35" s="58"/>
       <c r="L35" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="M35" s="58"/>
       <c r="N35" s="58"/>
@@ -54881,7 +54881,7 @@
       <c r="J36" s="33"/>
       <c r="K36" s="58"/>
       <c r="L36" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="M36" s="58"/>
       <c r="N36" s="58"/>
